--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="420">
   <si>
     <t>Date</t>
   </si>
@@ -788,171 +788,171 @@
     <t>RO.ACT.001.SUP.01</t>
   </si>
   <si>
+    <t>RO.ACT.001.REC.01</t>
+  </si>
+  <si>
+    <t>RO.HAB*001*ID_CODHAB</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[3]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[4]/textarea</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRA.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRA.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRA.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRM.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRM.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRM.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRS.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRS.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRS.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRL.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRL.01</t>
+  </si>
+  <si>
+    <t>RO.MET*001*ID_CODMET</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[3]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[4]/textarea</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRA.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRA.01.1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRA.01.2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRM.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRM.01.1</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRM.01.2</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRS.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRS.01.1</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRS.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRL.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRL.01</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>RT.EMP*001*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>ZONLIG_ID</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[4]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[5]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/preceding-sibling::td[1]/img</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRA.01</t>
+  </si>
+  <si>
+    <t>$SEQUENCEID</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRA.01.1....</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRA.01.2....</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRM.01</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRM.01.1....</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRM.01.2....</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRS.01</t>
+  </si>
+  <si>
     <t>$NU</t>
   </si>
   <si>
-    <t>RO.ACT.001.REC.01</t>
-  </si>
-  <si>
-    <t>RO.HAB*001*ID_CODHAB</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[3]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[4]/textarea</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRA.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRA.01.1</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRA.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRM.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRM.01.1</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRM.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRS.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRS.01.1</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRS.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRL.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRL.01</t>
-  </si>
-  <si>
-    <t>RO.MET*001*ID_CODMET</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[2]</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[3]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[4]/textarea</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRA.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRA.01.1</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRA.01.2</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRM.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRM.01.1</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRM.01.2</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRS.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRS.01.1</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRS.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRL.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRL.01</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>RT.EMP*001*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>SEQUENCE</t>
-  </si>
-  <si>
-    <t>ZONLIG_ID</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[4]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[5]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/preceding-sibling::td[1]/img</t>
-  </si>
-  <si>
-    <t>RO.ACT.004EMP.SRA.01</t>
-  </si>
-  <si>
-    <t>$SEQUENCEID</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRA.01.1....</t>
-  </si>
-  <si>
-    <t>EMP</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRA.01.2....</t>
-  </si>
-  <si>
-    <t>RO.ACT.004EMP.SRM.01</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRM.01.1....</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRM.01.2....</t>
-  </si>
-  <si>
-    <t>RO.ACT.004EMP.SRS.01</t>
-  </si>
-  <si>
     <t>EMP.RO.ACT.004EMP.SRS.01.1....</t>
   </si>
   <si>
@@ -1046,7 +1046,7 @@
     <t>td_Grille</t>
   </si>
   <si>
-    <t>$TDGRILLE$ID_CODINT</t>
+    <t>$TDGRILLE$4$ID_CODINT</t>
   </si>
   <si>
     <t>003HAB</t>
@@ -1308,7 +1308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1365,6 +1365,11 @@
     <font>
       <b/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1589,7 +1594,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1707,13 +1712,16 @@
     <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1728,7 +1736,7 @@
     <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1830,6 +1838,12 @@
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1839,7 +1853,7 @@
     <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1863,10 +1877,10 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="15" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1891,13 +1905,13 @@
     <xf borderId="0" fillId="17" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1912,13 +1926,13 @@
     <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="19" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1939,13 +1953,13 @@
     <xf quotePrefix="1" borderId="0" fillId="22" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -5600,64 +5614,64 @@
       <c r="C1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>77</v>
       </c>
       <c r="X1" s="40" t="s">
@@ -5666,28 +5680,28 @@
       <c r="Y1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AE1" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="43" t="s">
         <v>98</v>
       </c>
       <c r="AH1" s="40" t="s">
@@ -5699,19 +5713,19 @@
       <c r="AJ1" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="42" t="s">
+      <c r="AK1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="42" t="s">
+      <c r="AL1" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AM1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AN1" s="42" t="s">
+      <c r="AN1" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="43" t="s">
+      <c r="AO1" s="44" t="s">
         <v>116</v>
       </c>
       <c r="AP1" s="40" t="s">
@@ -5726,16 +5740,16 @@
       <c r="AS1" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="AT1" s="42" t="s">
+      <c r="AT1" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AU1" s="42" t="s">
+      <c r="AU1" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" s="42" t="s">
+      <c r="AV1" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AW1" s="42" t="s">
+      <c r="AW1" s="43" t="s">
         <v>131</v>
       </c>
       <c r="AX1" s="40" t="s">
@@ -5750,400 +5764,400 @@
       <c r="BA1" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="BB1" s="44" t="s">
+      <c r="BB1" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="BC1" s="44" t="s">
+      <c r="BC1" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="BD1" s="44" t="s">
+      <c r="BD1" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="BE1" s="44" t="s">
+      <c r="BE1" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="BF1" s="45" t="s">
+      <c r="BF1" s="46" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="47" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="47" t="s">
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="48"/>
-      <c r="BC2" s="48"/>
-      <c r="BD2" s="48"/>
-      <c r="BE2" s="48"/>
-      <c r="BF2" s="48"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
     </row>
     <row r="3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="47" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="47" t="s">
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="BC3" s="51" t="s">
+      <c r="BC3" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="BD3" s="51" t="s">
+      <c r="BD3" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="BE3" s="51" t="s">
+      <c r="BE3" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="BF3" s="51" t="s">
+      <c r="BF3" s="52" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="51" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="W4" s="53"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="51" t="s">
+      <c r="W4" s="54"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="51" t="s">
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="51" t="s">
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AM4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="51" t="s">
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AR4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AS4" s="51" t="s">
+      <c r="AS4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AU4" s="51" t="s">
+      <c r="AU4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AV4" s="51" t="s">
+      <c r="AV4" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="AW4" s="51" t="s">
+      <c r="AW4" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="47" t="s">
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="BC4" s="47" t="s">
+      <c r="BC4" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="BD4" s="47" t="s">
+      <c r="BD4" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="BE4" s="47" t="s">
+      <c r="BE4" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="BF4" s="47"/>
+      <c r="BF4" s="48"/>
     </row>
     <row r="5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
-      <c r="AU5" s="55"/>
-      <c r="AV5" s="55"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="55"/>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="55"/>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="55"/>
-      <c r="BF5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>200</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="60" t="s">
         <v>204</v>
       </c>
       <c r="H6" s="32" t="s">
@@ -6155,10 +6169,10 @@
       <c r="J6" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="61">
         <v>10.0</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="58" t="s">
         <v>208</v>
       </c>
       <c r="M6" s="32" t="s">
@@ -6170,7 +6184,7 @@
       <c r="O6" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="61">
         <v>10.0</v>
       </c>
       <c r="Q6" s="32" t="s">
@@ -6188,22 +6202,20 @@
       <c r="U6" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="V6" s="60">
+      <c r="V6" s="61">
         <v>80.0</v>
       </c>
-      <c r="W6" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="X6" s="62" t="s">
+      <c r="W6" s="62"/>
+      <c r="X6" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="Y6" s="59" t="s">
+      <c r="Y6" s="60" t="s">
         <v>204</v>
       </c>
       <c r="Z6" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="AA6" s="63" t="s">
+      <c r="AA6" s="64" t="s">
         <v>204</v>
       </c>
       <c r="AB6" s="32" t="s">
@@ -6224,92 +6236,90 @@
       <c r="AG6" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AH6" s="62" t="s">
+      <c r="AH6" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AI6" s="62" t="s">
+      <c r="AI6" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AJ6" s="62" t="s">
+      <c r="AJ6" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="AK6" s="64" t="s">
+      <c r="AK6" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="AL6" s="64" t="s">
+      <c r="AL6" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="AM6" s="64" t="s">
+      <c r="AM6" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="AN6" s="63" t="s">
+      <c r="AN6" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="AO6" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP6" s="62" t="s">
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AQ6" s="62" t="s">
+      <c r="AQ6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AR6" s="62" t="s">
+      <c r="AR6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AS6" s="62" t="s">
+      <c r="AS6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AT6" s="65" t="s">
+      <c r="AT6" s="66" t="s">
         <v>208</v>
       </c>
       <c r="AU6" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AV6" s="60">
+      <c r="AV6" s="61">
         <v>0.0</v>
       </c>
       <c r="AW6" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AX6" s="62" t="s">
+      <c r="AX6" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AY6" s="62" t="s">
+      <c r="AY6" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="AZ6" s="62" t="s">
+      <c r="AZ6" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BA6" s="62" t="s">
+      <c r="BA6" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
+      <c r="BB6" s="67"/>
+      <c r="BC6" s="67"/>
+      <c r="BD6" s="67"/>
+      <c r="BE6" s="67"/>
+      <c r="BF6" s="67"/>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>220</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="60" t="s">
         <v>204</v>
       </c>
       <c r="H7" s="32" t="s">
@@ -6321,10 +6331,10 @@
       <c r="J7" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="60">
+      <c r="K7" s="61">
         <v>13.0</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="58" t="s">
         <v>227</v>
       </c>
       <c r="M7" s="32" t="s">
@@ -6336,7 +6346,7 @@
       <c r="O7" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="P7" s="60">
+      <c r="P7" s="61">
         <v>20.0</v>
       </c>
       <c r="Q7" s="32" t="s">
@@ -6354,22 +6364,20 @@
       <c r="U7" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="V7" s="60">
+      <c r="V7" s="61">
         <v>90.0</v>
       </c>
-      <c r="W7" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="X7" s="62" t="s">
+      <c r="W7" s="62"/>
+      <c r="X7" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="Y7" s="59" t="s">
+      <c r="Y7" s="60" t="s">
         <v>204</v>
       </c>
       <c r="Z7" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="AA7" s="63" t="s">
+      <c r="AA7" s="64" t="s">
         <v>204</v>
       </c>
       <c r="AB7" s="32" t="s">
@@ -6390,569 +6398,547 @@
       <c r="AG7" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AH7" s="62" t="s">
+      <c r="AH7" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AI7" s="62" t="s">
+      <c r="AI7" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AJ7" s="62" t="s">
+      <c r="AJ7" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AK7" s="64" t="s">
+      <c r="AK7" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="AL7" s="64" t="s">
+      <c r="AL7" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="AM7" s="64" t="s">
+      <c r="AM7" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="AN7" s="63" t="s">
+      <c r="AN7" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="AO7" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP7" s="62" t="s">
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AQ7" s="62" t="s">
+      <c r="AQ7" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AR7" s="62" t="s">
+      <c r="AR7" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AS7" s="62" t="s">
+      <c r="AS7" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AT7" s="58" t="s">
+      <c r="AT7" s="59" t="s">
         <v>227</v>
       </c>
       <c r="AU7" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AV7" s="60">
+      <c r="AV7" s="61">
         <v>0.0</v>
       </c>
       <c r="AW7" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AX7" s="62" t="s">
+      <c r="AX7" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AY7" s="62" t="s">
+      <c r="AY7" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AZ7" s="62" t="s">
+      <c r="AZ7" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BA7" s="62" t="s">
+      <c r="BA7" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BB7" s="67" t="s">
+      <c r="BB7" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="BC7" s="67" t="s">
+      <c r="BC7" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="BD7" s="67" t="s">
+      <c r="BD7" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="BE7" s="67" t="s">
+      <c r="BE7" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="BF7" s="68"/>
+      <c r="BF7" s="69"/>
     </row>
     <row r="8">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>236</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="I8" s="69" t="s">
+      <c r="I8" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="69" t="s">
+      <c r="J8" s="70" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="72">
         <v>12.0</v>
       </c>
-      <c r="L8" s="70" t="s">
+      <c r="L8" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="M8" s="69" t="s">
+      <c r="M8" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="N8" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="69" t="s">
+      <c r="O8" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="P8" s="71">
+      <c r="P8" s="72">
         <v>0.0</v>
       </c>
-      <c r="Q8" s="69" t="s">
+      <c r="Q8" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="R8" s="69" t="s">
+      <c r="R8" s="70" t="s">
         <v>211</v>
       </c>
       <c r="S8" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="T8" s="69" t="s">
+      <c r="T8" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="V8" s="71">
+      <c r="V8" s="72">
         <v>0.0</v>
       </c>
-      <c r="W8" s="61" t="s">
+      <c r="W8" s="62"/>
+      <c r="X8" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y8" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="X8" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y8" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z8" s="69" t="s">
+      <c r="Z8" s="70" t="s">
         <v>246</v>
       </c>
-      <c r="AA8" s="63" t="s">
+      <c r="AA8" s="64" t="s">
         <v>204</v>
       </c>
       <c r="AB8" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AC8" s="69" t="s">
+      <c r="AC8" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="AD8" s="69" t="s">
+      <c r="AD8" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="AE8" s="69" t="s">
+      <c r="AE8" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="AF8" s="69" t="s">
+      <c r="AF8" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="AG8" s="69" t="s">
+      <c r="AG8" s="70" t="s">
         <v>212</v>
       </c>
-      <c r="AH8" s="62" t="s">
+      <c r="AH8" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AI8" s="62" t="s">
+      <c r="AI8" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AJ8" s="62" t="s">
+      <c r="AJ8" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AK8" s="72" t="s">
+      <c r="AK8" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="AL8" s="72" t="s">
+      <c r="AL8" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="AM8" s="72" t="s">
+      <c r="AM8" s="73" t="s">
         <v>247</v>
       </c>
-      <c r="AN8" s="63" t="s">
+      <c r="AN8" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="AO8" s="61" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP8" s="62" t="s">
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AQ8" s="62" t="s">
+      <c r="AQ8" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AR8" s="62" t="s">
+      <c r="AR8" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AS8" s="62" t="s">
+      <c r="AS8" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AT8" s="70" t="s">
+      <c r="AT8" s="71" t="s">
         <v>243</v>
       </c>
       <c r="AU8" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AV8" s="60">
+      <c r="AV8" s="61">
         <v>0.0</v>
       </c>
       <c r="AW8" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AX8" s="62" t="s">
+      <c r="AX8" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AY8" s="62" t="s">
+      <c r="AY8" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AZ8" s="62" t="s">
+      <c r="AZ8" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BA8" s="62" t="s">
+      <c r="BA8" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="73"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
     </row>
     <row r="9">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="57" t="s">
         <v>248</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="56" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="74"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="74"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="74"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="74"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="74"/>
+      <c r="BC9" s="74"/>
+      <c r="BD9" s="74"/>
+      <c r="BE9" s="74"/>
+      <c r="BF9" s="74"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="56" t="s">
+      <c r="B10" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="56" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="W10" s="66"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-      <c r="AI10" s="73"/>
-      <c r="AJ10" s="73"/>
-      <c r="AK10" s="73"/>
-      <c r="AL10" s="73"/>
-      <c r="AM10" s="73"/>
-      <c r="AN10" s="73"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="73"/>
-      <c r="AQ10" s="73"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="73"/>
-      <c r="AX10" s="73"/>
-      <c r="AY10" s="73"/>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="73"/>
-      <c r="BE10" s="73"/>
-      <c r="BF10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
     </row>
     <row r="11">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="77"/>
-      <c r="AQ11" s="77"/>
-      <c r="AR11" s="77"/>
-      <c r="AS11" s="77"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="77"/>
-      <c r="AZ11" s="77"/>
-      <c r="BA11" s="77"/>
-      <c r="BB11" s="79"/>
-      <c r="BC11" s="79"/>
-      <c r="BD11" s="79"/>
-      <c r="BE11" s="79"/>
-      <c r="BF11" s="79"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="77"/>
+      <c r="AL11" s="77"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="77"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="78"/>
+      <c r="BA11" s="78"/>
+      <c r="BB11" s="80"/>
+      <c r="BC11" s="80"/>
+      <c r="BD11" s="80"/>
+      <c r="BE11" s="80"/>
+      <c r="BF11" s="80"/>
     </row>
     <row r="12">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
-      <c r="AZ12" s="77"/>
-      <c r="BA12" s="77"/>
-      <c r="BB12" s="79"/>
-      <c r="BC12" s="79"/>
-      <c r="BD12" s="79"/>
-      <c r="BE12" s="79"/>
-      <c r="BF12" s="79"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="77"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="78"/>
+      <c r="AZ12" s="78"/>
+      <c r="BA12" s="78"/>
+      <c r="BB12" s="80"/>
+      <c r="BC12" s="80"/>
+      <c r="BD12" s="80"/>
+      <c r="BE12" s="80"/>
+      <c r="BF12" s="80"/>
     </row>
     <row r="13">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="77"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="77"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="77"/>
-      <c r="AZ13" s="77"/>
-      <c r="BA13" s="77"/>
-      <c r="BB13" s="79"/>
-      <c r="BC13" s="79"/>
-      <c r="BD13" s="79"/>
-      <c r="BE13" s="79"/>
-      <c r="BF13" s="79"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="77"/>
+      <c r="AL13" s="77"/>
+      <c r="AM13" s="77"/>
+      <c r="AN13" s="77"/>
+      <c r="AO13" s="79"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="77"/>
+      <c r="AU13" s="77"/>
+      <c r="AV13" s="77"/>
+      <c r="AW13" s="77"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="78"/>
+      <c r="AZ13" s="78"/>
+      <c r="BA13" s="78"/>
+      <c r="BB13" s="80"/>
+      <c r="BC13" s="80"/>
+      <c r="BD13" s="80"/>
+      <c r="BE13" s="80"/>
+      <c r="BF13" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6973,7 +6959,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.25"/>
+    <col customWidth="1" min="1" max="1" width="26.13"/>
     <col customWidth="1" min="2" max="2" width="20.5"/>
     <col customWidth="1" min="3" max="3" width="25.38"/>
     <col customWidth="1" min="4" max="4" width="22.5"/>
@@ -6984,74 +6970,74 @@
       <c r="A1" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="83" t="s">
+      <c r="D4" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="E4" s="86" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="83" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="56"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="57" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="55"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>255</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>256</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>204</v>
@@ -7061,14 +7047,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>257</v>
+      <c r="A7" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>256</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>204</v>
@@ -7078,109 +7064,109 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="58" t="s">
+      <c r="D8" s="88">
+        <v>44562.0</v>
+      </c>
+      <c r="E8" s="88">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D9" s="88">
         <v>44562.0</v>
       </c>
-      <c r="E8" s="85">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="58" t="s">
+      <c r="E9" s="88">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="85">
-        <v>44562.0</v>
-      </c>
-      <c r="E9" s="85">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="56" t="s">
+      <c r="B10" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" s="58" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="56" t="s">
+      <c r="B12" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="86">
+      <c r="D12" s="89">
         <v>44927.0</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="89">
         <v>46388.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
     </row>
     <row r="14">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
     </row>
     <row r="15">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7197,7 +7183,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.13"/>
+    <col customWidth="1" min="1" max="1" width="23.75"/>
     <col customWidth="1" min="2" max="2" width="20.5"/>
     <col customWidth="1" min="3" max="3" width="26.75"/>
     <col customWidth="1" min="4" max="4" width="20.5"/>
@@ -7208,86 +7194,86 @@
       <c r="A1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="83" t="s">
+      <c r="D4" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="E4" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="F4" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="83" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="57" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="58" t="s">
+      <c r="D6" s="32" t="s">
         <v>272</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>273</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>204</v>
@@ -7297,17 +7283,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="56" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>274</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>275</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>204</v>
@@ -7317,90 +7303,90 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="C8" s="58" t="s">
+      <c r="D8" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="88">
+        <v>44562.0</v>
+      </c>
+      <c r="F8" s="88">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="85">
+      <c r="D9" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="88">
         <v>44562.0</v>
       </c>
-      <c r="F8" s="85">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="32" t="s">
+      <c r="F9" s="88">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="85">
-        <v>44562.0</v>
-      </c>
-      <c r="F9" s="85">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="56" t="s">
+      <c r="B10" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C10" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="62" t="s">
-        <v>281</v>
-      </c>
-      <c r="C10" s="58" t="s">
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="58" t="s">
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="67"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="66"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="56" t="s">
+      <c r="B12" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="58" t="s">
+      <c r="D12" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="86">
+      <c r="E12" s="89">
         <v>44927.0</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="89">
         <v>46388.0</v>
       </c>
     </row>
@@ -7429,13 +7415,13 @@
       <c r="A1" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="81" t="s">
         <v>160</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>163</v>
       </c>
       <c r="E1" s="40" t="s">
@@ -7447,13 +7433,13 @@
       <c r="G1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="91" t="s">
         <v>170</v>
       </c>
       <c r="K1" s="40" t="s">
@@ -7470,128 +7456,128 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="49"/>
+      <c r="F2" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="46" t="s">
+      <c r="B4" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="47" t="s">
+      <c r="H5" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="I5" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="J5" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="56" t="s">
+      <c r="B7" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="C7" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="90">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="58" t="s">
+      <c r="E7" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="E7" s="62" t="s">
-        <v>298</v>
-      </c>
       <c r="F7" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G7" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="63" t="s">
         <v>213</v>
       </c>
       <c r="H7" s="32" t="s">
@@ -7600,42 +7586,42 @@
       <c r="I7" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="K7" s="62" t="s">
+      <c r="K7" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="62" t="s">
+      <c r="L7" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="63" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="90">
+      <c r="C8" s="93">
         <v>0.0</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="62" t="s">
+      <c r="D8" s="59" t="s">
         <v>298</v>
       </c>
+      <c r="E8" s="63" t="s">
+        <v>297</v>
+      </c>
       <c r="F8" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G8" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" s="63" t="s">
         <v>213</v>
       </c>
       <c r="H8" s="32" t="s">
@@ -7644,244 +7630,244 @@
       <c r="I8" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="M8" s="62" t="s">
+      <c r="M8" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="63" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="93">
+        <v>1001.0</v>
+      </c>
+      <c r="C9" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="90">
-        <v>1001.0</v>
-      </c>
-      <c r="C9" s="90">
+      <c r="E9" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="94">
+        <v>44562.0</v>
+      </c>
+      <c r="I9" s="94">
+        <v>45659.0</v>
+      </c>
+      <c r="J9" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="B10" s="93">
+        <v>1002.0</v>
+      </c>
+      <c r="C10" s="93">
         <v>0.0</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D10" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="E9" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="62" t="s">
+      <c r="E10" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G10" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H10" s="94">
         <v>44562.0</v>
       </c>
-      <c r="I9" s="91">
-        <v>45659.0</v>
-      </c>
-      <c r="J9" s="92" t="s">
+      <c r="I10" s="94">
+        <v>46025.0</v>
+      </c>
+      <c r="J10" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="93">
+        <v>1003.0</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" s="74"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="93">
+        <v>1004.0</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="67"/>
+      <c r="F12" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="K9" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="N9" s="62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="90">
-        <v>1002.0</v>
-      </c>
-      <c r="C10" s="90">
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="57" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="93">
+        <v>1005.0</v>
+      </c>
+      <c r="C13" s="93">
         <v>0.0</v>
       </c>
-      <c r="D10" s="58" t="s">
-        <v>302</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="91">
-        <v>44562.0</v>
-      </c>
-      <c r="I10" s="91">
-        <v>46025.0</v>
-      </c>
-      <c r="J10" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="N10" s="62" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B11" s="90">
-        <v>1003.0</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="90">
-        <v>1004.0</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="D12" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="90">
-        <v>1005.0</v>
-      </c>
-      <c r="C13" s="90">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="E13" s="62" t="s">
-        <v>298</v>
+      <c r="E13" s="63" t="s">
+        <v>297</v>
       </c>
       <c r="F13" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="89">
         <v>44927.0</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="89">
         <v>46390.0</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="L13" s="62" t="s">
+      <c r="L13" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="M13" s="62" t="s">
+      <c r="M13" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="N13" s="62" t="s">
+      <c r="N13" s="63" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
     </row>
     <row r="15">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
     </row>
     <row r="16">
-      <c r="D16" s="94" t="str">
+      <c r="D16" s="97" t="str">
         <f>LEFT(D15,30)</f>
         <v/>
       </c>
@@ -7955,13 +7941,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="98" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="99" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -7973,7 +7959,7 @@
       <c r="F1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="99" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="15" t="s">
@@ -7988,7 +7974,7 @@
       <c r="K1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="100" t="s">
         <v>54</v>
       </c>
       <c r="M1" s="15" t="s">
@@ -7997,462 +7983,462 @@
       <c r="N1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="98" t="s">
+      <c r="O1" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="P1" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="98" t="s">
+      <c r="R1" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="98" t="s">
+      <c r="S1" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="98" t="s">
+      <c r="T1" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="98" t="s">
+      <c r="U1" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="98" t="s">
+      <c r="V1" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="99" t="s">
+      <c r="W1" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="88" t="s">
+      <c r="X1" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="88" t="s">
+      <c r="Y1" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="98" t="s">
+      <c r="Z1" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="98" t="s">
+      <c r="AA1" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="98" t="s">
+      <c r="AB1" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="98" t="s">
+      <c r="AC1" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="98" t="s">
+      <c r="AD1" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="98" t="s">
+      <c r="AE1" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="98" t="s">
+      <c r="AF1" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="98" t="s">
+      <c r="AG1" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="88" t="s">
+      <c r="AH1" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="88" t="s">
+      <c r="AI1" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="88" t="s">
+      <c r="AJ1" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" s="98" t="s">
+      <c r="AK1" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="98" t="s">
+      <c r="AL1" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="98" t="s">
+      <c r="AM1" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="AN1" s="98" t="s">
+      <c r="AN1" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="99" t="s">
+      <c r="AO1" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="AP1" s="88" t="s">
+      <c r="AP1" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="AQ1" s="88" t="s">
+      <c r="AQ1" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="AR1" s="88" t="s">
+      <c r="AR1" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="AS1" s="88" t="s">
+      <c r="AS1" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="AT1" s="98" t="s">
+      <c r="AT1" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="AU1" s="98" t="s">
+      <c r="AU1" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" s="98" t="s">
+      <c r="AV1" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="AW1" s="98" t="s">
+      <c r="AW1" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" s="88" t="s">
+      <c r="AX1" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="AY1" s="88" t="s">
+      <c r="AY1" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="AZ1" s="88" t="s">
+      <c r="AZ1" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="BA1" s="88" t="s">
+      <c r="BA1" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="BB1" s="100" t="s">
+      <c r="BB1" s="103" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="47" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="47" t="s">
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="102" t="s">
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="105" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="48"/>
-      <c r="AA3" s="48"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="47" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="103"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="106"/>
     </row>
     <row r="4">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="51" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="N4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="P4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="W4" s="53"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="51" t="s">
+      <c r="W4" s="54"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="51" t="s">
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AC4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AD4" s="51" t="s">
+      <c r="AD4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AE4" s="51" t="s">
+      <c r="AE4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AF4" s="51" t="s">
+      <c r="AF4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AG4" s="51" t="s">
+      <c r="AG4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="51" t="s">
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AL4" s="51" t="s">
+      <c r="AL4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AM4" s="51" t="s">
+      <c r="AM4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="51" t="s">
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AQ4" s="51" t="s">
+      <c r="AQ4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AR4" s="51" t="s">
+      <c r="AR4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AS4" s="51" t="s">
+      <c r="AS4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AT4" s="51" t="s">
+      <c r="AT4" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AU4" s="51" t="s">
+      <c r="AU4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="AV4" s="51" t="s">
+      <c r="AV4" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="AW4" s="51" t="s">
+      <c r="AW4" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52"/>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="103"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="106"/>
     </row>
     <row r="5">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="105"/>
-      <c r="S5" s="105"/>
-      <c r="T5" s="105"/>
-      <c r="U5" s="105"/>
-      <c r="V5" s="105"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="105"/>
-      <c r="Z5" s="105"/>
-      <c r="AA5" s="105"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="105"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="105"/>
-      <c r="AG5" s="105"/>
-      <c r="AH5" s="105"/>
-      <c r="AI5" s="105"/>
-      <c r="AJ5" s="105"/>
-      <c r="AK5" s="105"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="105"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="105"/>
-      <c r="AR5" s="105"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="105"/>
-      <c r="AU5" s="105"/>
-      <c r="AV5" s="105"/>
-      <c r="AW5" s="105"/>
-      <c r="AX5" s="105"/>
-      <c r="AY5" s="105"/>
-      <c r="AZ5" s="105"/>
-      <c r="BA5" s="105"/>
-      <c r="BB5" s="105"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="108"/>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="108"/>
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="108"/>
+      <c r="AX5" s="108"/>
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="108"/>
+      <c r="BB5" s="108"/>
     </row>
     <row r="6">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>309</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="59" t="s">
         <v>310</v>
       </c>
       <c r="E6" s="32" t="s">
@@ -8461,22 +8447,22 @@
       <c r="F6" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="H6" s="107" t="s">
+      <c r="H6" s="110" t="s">
         <v>313</v>
       </c>
-      <c r="I6" s="107" t="s">
+      <c r="I6" s="110" t="s">
         <v>314</v>
       </c>
       <c r="J6" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="L6" s="108" t="s">
+      <c r="L6" s="111" t="s">
         <v>316</v>
       </c>
       <c r="M6" s="32" t="s">
@@ -8488,7 +8474,7 @@
       <c r="O6" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="61">
         <v>0.0</v>
       </c>
       <c r="Q6" s="32" t="s">
@@ -8506,16 +8492,16 @@
       <c r="U6" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="V6" s="60">
+      <c r="V6" s="61">
         <v>100.0</v>
       </c>
-      <c r="W6" s="109" t="s">
+      <c r="W6" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="X6" s="62" t="s">
+      <c r="X6" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="Y6" s="62" t="s">
+      <c r="Y6" s="63" t="s">
         <v>204</v>
       </c>
       <c r="Z6" s="32" t="s">
@@ -8542,67 +8528,67 @@
       <c r="AG6" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AH6" s="62" t="s">
+      <c r="AH6" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AI6" s="62" t="s">
+      <c r="AI6" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="AJ6" s="62" t="s">
+      <c r="AJ6" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="AK6" s="110" t="s">
+      <c r="AK6" s="113" t="s">
         <v>320</v>
       </c>
-      <c r="AL6" s="110" t="s">
+      <c r="AL6" s="113" t="s">
         <v>321</v>
       </c>
-      <c r="AM6" s="110" t="s">
+      <c r="AM6" s="113" t="s">
         <v>322</v>
       </c>
       <c r="AN6" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="AO6" s="61" t="s">
+      <c r="AO6" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="AP6" s="62" t="s">
+      <c r="AP6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AQ6" s="62" t="s">
+      <c r="AQ6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AR6" s="62" t="s">
+      <c r="AR6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AS6" s="62" t="s">
+      <c r="AS6" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="AT6" s="58" t="s">
+      <c r="AT6" s="59" t="s">
         <v>316</v>
       </c>
       <c r="AU6" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AV6" s="60">
+      <c r="AV6" s="61">
         <v>0.0</v>
       </c>
       <c r="AW6" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="AX6" s="62" t="s">
+      <c r="AX6" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AY6" s="62" t="s">
+      <c r="AY6" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="AZ6" s="62" t="s">
+      <c r="AZ6" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BA6" s="62" t="s">
+      <c r="BA6" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="BB6" s="107" t="s">
+      <c r="BB6" s="110" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8633,10 +8619,10 @@
       <c r="A1" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="114" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="114" t="s">
         <v>326</v>
       </c>
     </row>
@@ -8663,7 +8649,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -8674,7 +8660,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -8685,7 +8671,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="115" t="s">
         <v>336</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -8696,7 +8682,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="115" t="s">
         <v>336</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -8707,7 +8693,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="115" t="s">
         <v>336</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -8718,7 +8704,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="115" t="s">
         <v>336</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -8729,40 +8715,40 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="116" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="116" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="116" t="s">
         <v>347</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="116" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="116" t="s">
         <v>349</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="116" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="117" t="s">
         <v>351</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -8773,7 +8759,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="117" t="s">
         <v>351</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -8784,7 +8770,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="117" t="s">
         <v>351</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -8795,7 +8781,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="117" t="s">
         <v>351</v>
       </c>
       <c r="B16" s="32" t="s">
@@ -8806,62 +8792,62 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="116" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="116" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="113" t="s">
+      <c r="B18" s="116" t="s">
         <v>360</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="116" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="116" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="116" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="114" t="s">
+      <c r="A20" s="117" t="s">
         <v>351</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="116" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="118" t="s">
         <v>365</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="63" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="118" t="s">
         <v>365</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -8872,7 +8858,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="118" t="s">
         <v>365</v>
       </c>
       <c r="B23" s="32" t="s">
@@ -8883,7 +8869,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="118" t="s">
         <v>365</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -8894,7 +8880,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="118" t="s">
         <v>365</v>
       </c>
       <c r="B25" s="32" t="s">
@@ -8905,90 +8891,90 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="116" t="s">
         <v>374</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="116" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="116" t="s">
         <v>376</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="116" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="116" t="s">
         <v>378</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="116" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="116" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="64" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="64" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="64" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="116" t="s">
+      <c r="A33" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="64" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8996,10 +8982,10 @@
       <c r="A34" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="120" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9007,10 +8993,10 @@
       <c r="A35" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B35" s="117" t="s">
+      <c r="B35" s="120" t="s">
         <v>393</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="120" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9018,10 +9004,10 @@
       <c r="A36" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="120" t="s">
         <v>395</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="C36" s="120" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9029,10 +9015,10 @@
       <c r="A37" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="120" t="s">
         <v>397</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="120" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9040,10 +9026,10 @@
       <c r="A38" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B38" s="117" t="s">
+      <c r="B38" s="120" t="s">
         <v>399</v>
       </c>
-      <c r="C38" s="117" t="s">
+      <c r="C38" s="120" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9051,10 +9037,10 @@
       <c r="A39" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B39" s="117" t="s">
+      <c r="B39" s="120" t="s">
         <v>401</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="C39" s="120" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9062,10 +9048,10 @@
       <c r="A40" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B40" s="117" t="s">
+      <c r="B40" s="120" t="s">
         <v>403</v>
       </c>
-      <c r="C40" s="117" t="s">
+      <c r="C40" s="120" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9073,10 +9059,10 @@
       <c r="A41" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B41" s="117" t="s">
+      <c r="B41" s="120" t="s">
         <v>405</v>
       </c>
-      <c r="C41" s="117" t="s">
+      <c r="C41" s="120" t="s">
         <v>406</v>
       </c>
     </row>
@@ -9084,10 +9070,10 @@
       <c r="A42" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="120" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="117" t="s">
+      <c r="C42" s="120" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9095,10 +9081,10 @@
       <c r="A43" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B43" s="117" t="s">
+      <c r="B43" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="C43" s="117" t="s">
+      <c r="C43" s="120" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9106,10 +9092,10 @@
       <c r="A44" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="120" t="s">
         <v>411</v>
       </c>
-      <c r="C44" s="117" t="s">
+      <c r="C44" s="120" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9117,10 +9103,10 @@
       <c r="A45" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B45" s="117" t="s">
+      <c r="B45" s="120" t="s">
         <v>413</v>
       </c>
-      <c r="C45" s="117" t="s">
+      <c r="C45" s="120" t="s">
         <v>414</v>
       </c>
     </row>
@@ -9128,10 +9114,10 @@
       <c r="A46" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="120" t="s">
         <v>415</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="120" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9139,10 +9125,10 @@
       <c r="A47" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="B47" s="117" t="s">
+      <c r="B47" s="120" t="s">
         <v>417</v>
       </c>
-      <c r="C47" s="117" t="s">
+      <c r="C47" s="120" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9162,148 +9148,148 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="118"/>
-      <c r="B1" s="98" t="s">
+      <c r="A1" s="121"/>
+      <c r="B1" s="101" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="122"/>
     </row>
     <row r="3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="122"/>
     </row>
     <row r="4">
-      <c r="A4" s="101" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="119"/>
+      <c r="A4" s="104" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" s="122"/>
     </row>
     <row r="5">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="119"/>
+      <c r="B5" s="122"/>
     </row>
     <row r="6">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="108"/>
     </row>
     <row r="7">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
     </row>
     <row r="8">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
     </row>
     <row r="9">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
     </row>
     <row r="10">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
     </row>
     <row r="11">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
     </row>
     <row r="12">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
     </row>
     <row r="13">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
     </row>
     <row r="14">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
     </row>
     <row r="15">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
     </row>
     <row r="16">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
     </row>
     <row r="17">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
     </row>
     <row r="18">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
     </row>
     <row r="19">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
     </row>
     <row r="20">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
     </row>
     <row r="21">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
     </row>
     <row r="22">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
     </row>
     <row r="23">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
     </row>
     <row r="24">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
     </row>
     <row r="25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
     </row>
     <row r="26">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
     </row>
     <row r="27">
-      <c r="A27" s="75"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
     </row>
     <row r="28">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
     </row>
     <row r="29">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
     </row>
     <row r="31">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
     </row>
     <row r="32">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
     </row>
     <row r="33">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -16,15 +16,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mjXXos6HToAqJ8zLKcRXZLdrV1p8g=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="n2oVke5TL0ndSNnraF4aR8XMXOrt2xnFeYPax/ixAak="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="427">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>Création de l'onglet 004EMP pour la table ZONLIG</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>Ajout rubrique INTER.ID_NUMCORP (001 et 005)</t>
+  </si>
+  <si>
+    <t>X3i</t>
+  </si>
+  <si>
+    <t>V13.0.2</t>
   </si>
   <si>
     <t>Onglet</t>
@@ -464,6 +476,15 @@
     <t>Trace date mise à jour (Audit)</t>
   </si>
   <si>
+    <t>ID_NUMCORP</t>
+  </si>
+  <si>
+    <t>Identifiant interne éditeur de la donnée packagée</t>
+  </si>
+  <si>
+    <t>NULL par défaut</t>
+  </si>
+  <si>
     <t>003.HAB</t>
   </si>
   <si>
@@ -698,6 +719,9 @@
     <t>09090909</t>
   </si>
   <si>
+    <t>$NU</t>
+  </si>
+  <si>
     <t>DEFAUT</t>
   </si>
   <si>
@@ -948,9 +972,6 @@
   </si>
   <si>
     <t>RO.ACT.004EMP.SRS.01</t>
-  </si>
-  <si>
-    <t>$NU</t>
   </si>
   <si>
     <t>EMP.RO.ACT.004EMP.SRS.01.1....</t>
@@ -1328,6 +1349,10 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1382,10 +1407,6 @@
       <b/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1594,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1623,27 +1644,39 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1655,16 +1688,16 @@
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1673,16 +1706,16 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1703,67 +1736,70 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1838,25 +1874,25 @@
     <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1865,10 +1901,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1877,32 +1913,29 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1914,28 +1947,28 @@
     <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="19" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1956,7 +1989,7 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2290,88 +2323,98 @@
       <c r="E5" s="8"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3383,1300 +3426,1316 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="17">
+      <c r="A3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="21">
         <v>1022.0</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="F8" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="22" t="s">
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>27</v>
+      <c r="E19" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>27</v>
+      <c r="A25" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>81</v>
+      <c r="F26" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>81</v>
+      <c r="F27" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>27</v>
+        <v>66</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>81</v>
+      <c r="F36" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>27</v>
+        <v>113</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>27</v>
+        <v>113</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>27</v>
+      <c r="E41" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="24" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>27</v>
+      <c r="A43" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>35</v>
+        <v>129</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>27</v>
+        <v>132</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>27</v>
+        <v>134</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="34"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
+      <c r="A51" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+      <c r="T51" s="38"/>
+      <c r="U51" s="38"/>
+      <c r="V51" s="38"/>
+      <c r="W51" s="38"/>
+      <c r="X51" s="38"/>
+      <c r="Y51" s="38"/>
+      <c r="Z51" s="38"/>
+      <c r="AA51" s="38"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="24" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="17">
+      <c r="A56" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1">
+      <c r="A57" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="21">
         <v>1083.0</v>
       </c>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>35</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>27</v>
+        <v>151</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>27</v>
+        <v>153</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="37">
+      <c r="A61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="A62" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41">
         <v>1086.0</v>
       </c>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="30" t="s">
         <v>35</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>27</v>
+        <v>159</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>27</v>
+        <v>161</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>27</v>
+        <v>163</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="37">
+      <c r="A67" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75" customHeight="1">
+      <c r="A68" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41">
         <v>1587.0</v>
       </c>
-      <c r="E67" s="17"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="27"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="F69" s="31"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" s="30" t="s">
         <v>35</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="24" t="s">
-        <v>27</v>
+      <c r="F71" s="31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>27</v>
+        <v>84</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>27</v>
+        <v>175</v>
+      </c>
+      <c r="C75" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="28" t="s">
         <v>31</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>81</v>
+      <c r="F78" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E79" s="24" t="s">
-        <v>27</v>
+      <c r="F79" s="31" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D80" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" ht="12.75" customHeight="1"/>
+    </row>
+    <row r="81" ht="12.75" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="82" ht="12.75" customHeight="1"/>
     <row r="83" ht="12.75" customHeight="1"/>
     <row r="84" ht="12.75" customHeight="1"/>
@@ -5577,6 +5636,7 @@
     <row r="979" ht="12.75" customHeight="1"/>
     <row r="980" ht="12.75" customHeight="1"/>
     <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5600,1345 +5660,1368 @@
     <col customWidth="1" min="4" max="4" width="24.63"/>
     <col customWidth="1" min="5" max="5" width="20.88"/>
     <col customWidth="1" min="6" max="6" width="21.13"/>
-    <col customWidth="1" min="12" max="12" width="25.25"/>
+    <col customWidth="1" min="12" max="12" width="28.63"/>
     <col customWidth="1" min="46" max="46" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="A1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="42" t="s">
+      <c r="E1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="41" t="s">
+      <c r="F1" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="M1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="43" t="s">
+      <c r="N1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="Q1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="R1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="S1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="T1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="U1" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="V1" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA1" s="43" t="s">
+      <c r="W1" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="Z1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AA1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AB1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AC1" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AD1" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AE1" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AF1" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="40" t="s">
+      <c r="AG1" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK1" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL1" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM1" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AH1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="44" t="s">
+      <c r="AM1" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="AP1" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ1" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR1" s="40" t="s">
+      <c r="AN1" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO1" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP1" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="AS1" s="40" t="s">
+      <c r="AQ1" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="AT1" s="43" t="s">
+      <c r="AR1" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AU1" s="43" t="s">
+      <c r="AS1" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" s="43" t="s">
+      <c r="AT1" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="AW1" s="43" t="s">
+      <c r="AU1" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" s="40" t="s">
+      <c r="AV1" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="AY1" s="40" t="s">
+      <c r="AW1" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="AZ1" s="40" t="s">
+      <c r="AX1" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="BA1" s="40" t="s">
+      <c r="AY1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="BB1" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC1" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD1" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE1" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF1" s="46" t="s">
-        <v>180</v>
+      <c r="AZ1" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA1" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC1" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD1" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE1" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF1" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG1" s="51" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
+      <c r="A2" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC3" s="52" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD3" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="BE3" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="BF3" s="52" t="s">
-        <v>193</v>
+      <c r="A3" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="53"/>
+      <c r="BC3" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD3" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE3" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF3" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG3" s="57" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="S4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="T4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="W4" s="54"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV4" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW4" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="BC4" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="BD4" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE4" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="BF4" s="48"/>
+      <c r="A4" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="W4" s="59"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW4" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD4" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE4" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF4" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG4" s="53"/>
     </row>
     <row r="5">
-      <c r="A5" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
+      <c r="A5" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
+      <c r="AJ5" s="61"/>
+      <c r="AK5" s="61"/>
+      <c r="AL5" s="61"/>
+      <c r="AM5" s="61"/>
+      <c r="AN5" s="61"/>
+      <c r="AO5" s="61"/>
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="61"/>
+      <c r="AV5" s="61"/>
+      <c r="AW5" s="61"/>
+      <c r="AX5" s="61"/>
+      <c r="AY5" s="61"/>
+      <c r="AZ5" s="61"/>
+      <c r="BA5" s="61"/>
+      <c r="BB5" s="61"/>
+      <c r="BC5" s="61"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="61"/>
+      <c r="BF5" s="61"/>
+      <c r="BG5" s="61"/>
     </row>
     <row r="6">
-      <c r="A6" s="57" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="J6" s="32" t="s">
+      <c r="A6" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="K6" s="61">
+      <c r="B6" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="66">
         <v>10.0</v>
       </c>
-      <c r="L6" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="M6" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="O6" s="32" t="s">
+      <c r="L6" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="66">
+        <v>10.0</v>
+      </c>
+      <c r="Q6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="V6" s="66">
+        <v>80.0</v>
+      </c>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="P6" s="61">
-        <v>10.0</v>
-      </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Z6" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA6" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="R6" s="32" t="s">
+      <c r="AB6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI6" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ6" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T6" s="32" t="s">
+      <c r="AK6" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL6" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM6" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN6" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="U6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="V6" s="61">
-        <v>80.0</v>
-      </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z6" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA6" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC6" s="32" t="s">
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV6" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY6" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AZ6" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA6" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="AE6" s="32" t="s">
+      <c r="BB6" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="AF6" s="32" t="s">
+      <c r="BC6" s="72"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BF6" s="72"/>
+      <c r="BG6" s="72"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="AG6" s="32" t="s">
+      <c r="H7" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="66">
+        <v>13.0</v>
+      </c>
+      <c r="L7" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="66">
+        <v>20.0</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="V7" s="66">
+        <v>90.0</v>
+      </c>
+      <c r="W7" s="67"/>
+      <c r="X7" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="AH6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI6" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK6" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL6" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM6" s="65" t="s">
+      <c r="Z7" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA7" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC7" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="AN6" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT6" s="66" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV6" s="61">
+      <c r="AD7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG7" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH7" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI7" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ7" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK7" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL7" s="70" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM7" s="70" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN7" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO7" s="67"/>
+      <c r="AP7" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ7" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR7" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS7" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT7" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU7" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV7" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX7" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY7" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ7" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA7" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB7" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC7" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="BD7" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="BE7" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="BF7" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="BG7" s="74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="77">
+        <v>12.0</v>
+      </c>
+      <c r="L8" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="M8" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="N8" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="O8" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="77">
         <v>0.0</v>
       </c>
-      <c r="AW6" s="32" t="s">
+      <c r="Q8" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="R8" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="S8" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="AX6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ6" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="57" t="s">
+      <c r="T8" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="V8" s="77">
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="67"/>
+      <c r="X8" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="Y8" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z8" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA8" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB8" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC8" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD8" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE8" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF8" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG8" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH8" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="59" t="s">
+      <c r="AI8" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="59" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="AJ8" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK8" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="AL8" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM8" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN8" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ8" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR8" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS8" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT8" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU8" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV8" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="61">
-        <v>13.0</v>
-      </c>
-      <c r="L7" s="58" t="s">
+      <c r="AW8" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="M7" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="O7" s="32" t="s">
+      <c r="AX8" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY8" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ8" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA8" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB8" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="P7" s="61">
-        <v>20.0</v>
-      </c>
-      <c r="Q7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="S7" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="U7" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="V7" s="61">
-        <v>90.0</v>
-      </c>
-      <c r="W7" s="62"/>
-      <c r="X7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y7" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z7" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB7" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG7" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI7" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ7" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK7" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL7" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM7" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN7" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ7" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR7" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS7" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT7" s="59" t="s">
-        <v>227</v>
-      </c>
-      <c r="AU7" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV7" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="AW7" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ7" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA7" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB7" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC7" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD7" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE7" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF7" s="69"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="70" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>237</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="K8" s="72">
-        <v>12.0</v>
-      </c>
-      <c r="L8" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="M8" s="70" t="s">
-        <v>244</v>
-      </c>
-      <c r="N8" s="70" t="s">
-        <v>245</v>
-      </c>
-      <c r="O8" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="P8" s="72">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="R8" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="S8" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T8" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="U8" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="V8" s="72">
-        <v>0.0</v>
-      </c>
-      <c r="W8" s="62"/>
-      <c r="X8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y8" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z8" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA8" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB8" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC8" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD8" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE8" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF8" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG8" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI8" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ8" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AK8" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="AL8" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM8" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="AN8" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ8" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR8" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS8" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT8" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU8" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV8" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="AW8" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="AX8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ8" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA8" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="74"/>
+      <c r="BC8" s="79"/>
+      <c r="BD8" s="79"/>
+      <c r="BE8" s="79"/>
+      <c r="BF8" s="79"/>
+      <c r="BG8" s="79"/>
     </row>
     <row r="9">
-      <c r="A9" s="57" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
-      <c r="AK9" s="74"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="74"/>
-      <c r="AU9" s="74"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="74"/>
-      <c r="AX9" s="74"/>
-      <c r="AY9" s="74"/>
-      <c r="AZ9" s="74"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="74"/>
-      <c r="BC9" s="74"/>
-      <c r="BD9" s="74"/>
-      <c r="BE9" s="74"/>
-      <c r="BF9" s="74"/>
+      <c r="A9" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="79"/>
+      <c r="AF9" s="79"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="79"/>
+      <c r="AI9" s="79"/>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+      <c r="AL9" s="79"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="79"/>
+      <c r="AQ9" s="79"/>
+      <c r="AR9" s="79"/>
+      <c r="AS9" s="79"/>
+      <c r="AT9" s="79"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="79"/>
+      <c r="AW9" s="79"/>
+      <c r="AX9" s="79"/>
+      <c r="AY9" s="79"/>
+      <c r="AZ9" s="79"/>
+      <c r="BA9" s="79"/>
+      <c r="BB9" s="79"/>
+      <c r="BC9" s="79"/>
+      <c r="BD9" s="79"/>
+      <c r="BE9" s="79"/>
+      <c r="BF9" s="79"/>
+      <c r="BG9" s="79"/>
     </row>
     <row r="10">
-      <c r="A10" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
+      <c r="A10" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
     </row>
     <row r="11">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="77"/>
-      <c r="AL11" s="77"/>
-      <c r="AM11" s="77"/>
-      <c r="AN11" s="77"/>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="77"/>
-      <c r="AU11" s="77"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78"/>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="80"/>
-      <c r="BC11" s="80"/>
-      <c r="BD11" s="80"/>
-      <c r="BE11" s="80"/>
-      <c r="BF11" s="80"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="83"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="82"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="83"/>
+      <c r="AZ11" s="83"/>
+      <c r="BA11" s="83"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="85"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="85"/>
     </row>
     <row r="12">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="78"/>
-      <c r="AZ12" s="78"/>
-      <c r="BA12" s="78"/>
-      <c r="BB12" s="80"/>
-      <c r="BC12" s="80"/>
-      <c r="BD12" s="80"/>
-      <c r="BE12" s="80"/>
-      <c r="BF12" s="80"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="82"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="62"/>
+      <c r="AW12" s="82"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
+      <c r="AZ12" s="83"/>
+      <c r="BA12" s="83"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="85"/>
+      <c r="BD12" s="85"/>
+      <c r="BE12" s="85"/>
+      <c r="BF12" s="85"/>
+      <c r="BG12" s="85"/>
     </row>
     <row r="13">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="77"/>
-      <c r="AL13" s="77"/>
-      <c r="AM13" s="77"/>
-      <c r="AN13" s="77"/>
-      <c r="AO13" s="79"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="77"/>
-      <c r="AU13" s="77"/>
-      <c r="AV13" s="77"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="78"/>
-      <c r="AZ13" s="78"/>
-      <c r="BA13" s="78"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
-      <c r="BD13" s="80"/>
-      <c r="BE13" s="80"/>
-      <c r="BF13" s="80"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="83"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="83"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="85"/>
+      <c r="BD13" s="85"/>
+      <c r="BE13" s="85"/>
+      <c r="BF13" s="85"/>
+      <c r="BG13" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6967,206 +7050,206 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>147</v>
+      <c r="A1" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="A2" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="A3" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="86" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>252</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>253</v>
+      <c r="A4" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="56"/>
+      <c r="A5" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6">
-      <c r="A6" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>204</v>
+      <c r="A6" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>204</v>
+      <c r="A7" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="88">
+      <c r="A8" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="93">
         <v>44562.0</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="93">
         <v>45658.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="70" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="D9" s="88">
+      <c r="A9" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D9" s="93">
         <v>44562.0</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="93">
         <v>46023.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="A10" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
     </row>
     <row r="11">
-      <c r="A11" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
+      <c r="A11" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>268</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12">
-      <c r="A12" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="89">
+      <c r="A12" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="94">
         <v>44927.0</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="94">
         <v>46388.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
     </row>
     <row r="14">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
     </row>
     <row r="15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
     </row>
     <row r="16">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7191,202 +7274,202 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>147</v>
+      <c r="A1" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>182</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="49"/>
+      <c r="A2" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="A3" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="86" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="86" t="s">
-        <v>269</v>
+      <c r="A4" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6">
-      <c r="A6" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>204</v>
+      <c r="A6" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>204</v>
+      <c r="A7" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="E8" s="88">
+      <c r="A8" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="93">
         <v>44562.0</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="93">
         <v>45658.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="70" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="88">
+      <c r="A9" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="93">
         <v>44562.0</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="93">
         <v>46023.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="A10" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11">
-      <c r="A11" s="57" t="s">
-        <v>280</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="67"/>
+      <c r="A11" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="72"/>
     </row>
     <row r="12">
-      <c r="A12" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="89">
+      <c r="A12" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="94">
         <v>44927.0</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="94">
         <v>46388.0</v>
       </c>
     </row>
@@ -7412,462 +7495,462 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="91" t="s">
+      <c r="A1" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="E1" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="96" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="44" t="s">
         <v>139</v>
       </c>
+      <c r="M1" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="A2" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="54"/>
+      <c r="F2" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="48" t="s">
-        <v>287</v>
-      </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
+      <c r="A3" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
+      <c r="A4" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
     </row>
     <row r="5">
-      <c r="A5" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
+      <c r="A5" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6">
-      <c r="A6" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="A6" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
     </row>
     <row r="7">
-      <c r="A7" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="93">
+      <c r="A7" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="98">
         <v>0.0</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="63" t="s">
+      <c r="D7" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="K7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="L7" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="N7" s="63" t="s">
-        <v>215</v>
+      <c r="I7" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="68" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="93">
+      <c r="A8" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="98">
         <v>0.0</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>215</v>
+      <c r="D8" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="M8" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="68" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="93">
+      <c r="A9" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="98">
         <v>1001.0</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="98">
         <v>0.0</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="94">
+      <c r="D9" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="99">
         <v>44562.0</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="99">
         <v>45659.0</v>
       </c>
-      <c r="J9" s="95" t="s">
-        <v>212</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="L9" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="N9" s="63" t="s">
-        <v>215</v>
+      <c r="J9" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="N9" s="68" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="93">
+      <c r="A10" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" s="98">
         <v>1002.0</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="98">
         <v>0.0</v>
       </c>
-      <c r="D10" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="94">
+      <c r="D10" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="99">
         <v>44562.0</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="99">
         <v>46025.0</v>
       </c>
-      <c r="J10" s="95" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="L10" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="M10" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="N10" s="63" t="s">
-        <v>215</v>
+      <c r="J10" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="M10" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="68" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="B11" s="93">
+      <c r="A11" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="98">
         <v>1003.0</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" s="74"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="C11" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
     </row>
     <row r="12">
-      <c r="A12" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="B12" s="93">
+      <c r="A12" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="98">
         <v>1004.0</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="98">
+        <v>1005.0</v>
+      </c>
+      <c r="C13" s="98">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="93">
-        <v>1005.0</v>
-      </c>
-      <c r="C13" s="93">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="E13" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="89">
+      <c r="F13" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="94">
         <v>44927.0</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="94">
         <v>46390.0</v>
       </c>
-      <c r="J13" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="K13" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="M13" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="N13" s="63" t="s">
-        <v>215</v>
+      <c r="J13" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="N13" s="68" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
     </row>
     <row r="15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
     </row>
     <row r="16">
-      <c r="D16" s="97" t="str">
+      <c r="D16" s="102" t="str">
         <f>LEFT(D15,30)</f>
         <v/>
       </c>
@@ -7937,659 +8020,669 @@
     <col customWidth="1" min="49" max="49" width="7.63"/>
     <col customWidth="1" min="50" max="51" width="13.63"/>
     <col customWidth="1" min="52" max="53" width="13.5"/>
-    <col customWidth="1" min="54" max="54" width="25.25"/>
+    <col customWidth="1" min="54" max="55" width="25.25"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="A1" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="99" t="s">
+      <c r="E1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="15" t="s">
+      <c r="F1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="101" t="s">
+      <c r="M1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="101" t="s">
+      <c r="N1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="101" t="s">
+      <c r="Q1" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="101" t="s">
+      <c r="R1" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="U1" s="101" t="s">
+      <c r="S1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="101" t="s">
+      <c r="T1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="102" t="s">
+      <c r="U1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="91" t="s">
+      <c r="V1" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA1" s="101" t="s">
+      <c r="W1" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="AB1" s="101" t="s">
+      <c r="Z1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AC1" s="101" t="s">
+      <c r="AA1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" s="101" t="s">
+      <c r="AB1" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="AE1" s="101" t="s">
+      <c r="AC1" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="101" t="s">
+      <c r="AD1" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="AG1" s="101" t="s">
+      <c r="AE1" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="AH1" s="91" t="s">
+      <c r="AF1" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="91" t="s">
+      <c r="AG1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="AJ1" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK1" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL1" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM1" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN1" s="101" t="s">
+      <c r="AH1" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ1" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="AO1" s="102" t="s">
+      <c r="AM1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="AP1" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ1" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR1" s="91" t="s">
+      <c r="AN1" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO1" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP1" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="AS1" s="91" t="s">
+      <c r="AQ1" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="AT1" s="101" t="s">
+      <c r="AR1" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="AU1" s="101" t="s">
+      <c r="AS1" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" s="101" t="s">
+      <c r="AT1" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="AW1" s="101" t="s">
+      <c r="AU1" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" s="91" t="s">
+      <c r="AV1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AY1" s="91" t="s">
+      <c r="AW1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="AZ1" s="91" t="s">
+      <c r="AX1" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="BA1" s="91" t="s">
+      <c r="AY1" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="BB1" s="103" t="s">
-        <v>308</v>
+      <c r="AZ1" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA1" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB1" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC1" s="107" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU2" s="90"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="105" t="s">
-        <v>182</v>
+      <c r="A2" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="109"/>
+      <c r="BC2" s="109" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="49"/>
-      <c r="BB3" s="106"/>
+      <c r="A3" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="110"/>
     </row>
     <row r="4">
-      <c r="A4" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="I4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="S4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="T4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="U4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="V4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="W4" s="54"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT4" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU4" s="52" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV4" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW4" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="106"/>
+      <c r="A4" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="L4" s="58"/>
+      <c r="M4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="N4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="W4" s="59"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AS4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT4" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU4" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AV4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW4" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
     </row>
     <row r="5">
-      <c r="A5" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="108"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="109"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="108"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="108"/>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="108"/>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="108"/>
-      <c r="AY5" s="108"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="108"/>
-      <c r="BB5" s="108"/>
+      <c r="A5" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="112"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="112"/>
+      <c r="AL5" s="112"/>
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="112"/>
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="112"/>
+      <c r="AX5" s="112"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="112"/>
     </row>
     <row r="6">
-      <c r="A6" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="G6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="H6" s="110" t="s">
-        <v>313</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>314</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="K6" s="110" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="111" t="s">
+      <c r="A6" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="B6" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>317</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="D6" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="O6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="P6" s="61">
+      <c r="F6" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="I6" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="K6" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>323</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="66">
         <v>0.0</v>
       </c>
-      <c r="Q6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="U6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="V6" s="61">
+      <c r="Q6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="T6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="U6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="V6" s="66">
         <v>100.0</v>
       </c>
-      <c r="W6" s="112" t="s">
-        <v>204</v>
-      </c>
-      <c r="X6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z6" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA6" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC6" s="32" t="s">
+      <c r="W6" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="X6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="AE6" s="32" t="s">
+      <c r="Z6" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA6" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="AF6" s="32" t="s">
+      <c r="AB6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI6" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ6" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="AG6" s="32" t="s">
+      <c r="AK6" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL6" s="117" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM6" s="117" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN6" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="AH6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI6" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ6" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="AK6" s="113" t="s">
-        <v>320</v>
-      </c>
-      <c r="AL6" s="113" t="s">
-        <v>321</v>
-      </c>
-      <c r="AM6" s="113" t="s">
-        <v>322</v>
-      </c>
-      <c r="AN6" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO6" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS6" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT6" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="AU6" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV6" s="61">
-        <v>0.0</v>
-      </c>
-      <c r="AW6" s="32" t="s">
+      <c r="AO6" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP6" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="AX6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AY6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ6" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="BA6" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB6" s="110" t="s">
+      <c r="AQ6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS6" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT6" s="64" t="s">
         <v>323</v>
+      </c>
+      <c r="AU6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV6" s="69" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="AX6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY6" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ6" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA6" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BB6" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="BC6" s="114" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -8616,520 +8709,520 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="114" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="114" t="s">
-        <v>326</v>
+      <c r="A1" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="118" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>329</v>
+      <c r="A2" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>331</v>
+      <c r="A3" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>333</v>
+      <c r="A4" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="120" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="120" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" s="120" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" s="120" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="120" t="s">
+        <v>385</v>
+      </c>
+      <c r="C28" s="120" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="122" t="s">
+        <v>372</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="120" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="123" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="123" t="s">
+        <v>389</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="123" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="123" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="116" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="115" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="116" t="s">
-        <v>349</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="116" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" s="116" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B18" s="116" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="116" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>362</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="B20" s="116" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="116" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>366</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B26" s="116" t="s">
-        <v>374</v>
-      </c>
-      <c r="C26" s="116" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" s="116" t="s">
-        <v>376</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B28" s="116" t="s">
-        <v>378</v>
-      </c>
-      <c r="C28" s="116" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="118" t="s">
-        <v>365</v>
-      </c>
-      <c r="B29" s="116" t="s">
-        <v>380</v>
-      </c>
-      <c r="C29" s="116" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="119" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30" s="64" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="119" t="s">
-        <v>382</v>
-      </c>
-      <c r="B31" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="C31" s="64" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="119" t="s">
-        <v>382</v>
-      </c>
-      <c r="B32" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="C32" s="64" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="119" t="s">
-        <v>382</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B34" s="120" t="s">
-        <v>391</v>
-      </c>
-      <c r="C34" s="120" t="s">
-        <v>392</v>
+      <c r="B34" s="124" t="s">
+        <v>398</v>
+      </c>
+      <c r="C34" s="124" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B35" s="120" t="s">
-        <v>393</v>
-      </c>
-      <c r="C35" s="120" t="s">
-        <v>394</v>
+      <c r="A35" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="124" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B36" s="120" t="s">
-        <v>395</v>
-      </c>
-      <c r="C36" s="120" t="s">
-        <v>396</v>
+      <c r="A36" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="124" t="s">
+        <v>402</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B37" s="120" t="s">
-        <v>397</v>
-      </c>
-      <c r="C37" s="120" t="s">
-        <v>398</v>
+      <c r="A37" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" s="124" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B38" s="120" t="s">
-        <v>399</v>
-      </c>
-      <c r="C38" s="120" t="s">
-        <v>400</v>
+      <c r="A38" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="124" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="124" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B39" s="120" t="s">
-        <v>401</v>
-      </c>
-      <c r="C39" s="120" t="s">
-        <v>402</v>
+      <c r="A39" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="124" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="124" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B40" s="120" t="s">
-        <v>403</v>
-      </c>
-      <c r="C40" s="120" t="s">
-        <v>404</v>
+      <c r="A40" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B40" s="124" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="124" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B41" s="120" t="s">
-        <v>405</v>
-      </c>
-      <c r="C41" s="120" t="s">
-        <v>406</v>
+      <c r="A41" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="124" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="124" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B42" s="120" t="s">
-        <v>407</v>
-      </c>
-      <c r="C42" s="120" t="s">
-        <v>408</v>
+      <c r="A42" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="124" t="s">
+        <v>414</v>
+      </c>
+      <c r="C42" s="124" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B43" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="C43" s="120" t="s">
-        <v>410</v>
+      <c r="A43" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="124" t="s">
+        <v>416</v>
+      </c>
+      <c r="C43" s="124" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B44" s="120" t="s">
-        <v>411</v>
-      </c>
-      <c r="C44" s="120" t="s">
-        <v>412</v>
+      <c r="A44" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44" s="124" t="s">
+        <v>418</v>
+      </c>
+      <c r="C44" s="124" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B45" s="120" t="s">
-        <v>413</v>
-      </c>
-      <c r="C45" s="120" t="s">
-        <v>414</v>
+      <c r="A45" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="124" t="s">
+        <v>420</v>
+      </c>
+      <c r="C45" s="124" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B46" s="120" t="s">
-        <v>415</v>
-      </c>
-      <c r="C46" s="120" t="s">
-        <v>416</v>
+      <c r="A46" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="124" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" s="124" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="B47" s="120" t="s">
-        <v>417</v>
-      </c>
-      <c r="C47" s="120" t="s">
-        <v>418</v>
+      <c r="A47" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B47" s="124" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" s="124" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -9148,148 +9241,148 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="121"/>
-      <c r="B1" s="101" t="s">
-        <v>419</v>
+      <c r="A1" s="125"/>
+      <c r="B1" s="49" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="104" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="122"/>
+      <c r="A2" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="126"/>
     </row>
     <row r="3">
-      <c r="A3" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="122"/>
+      <c r="A3" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="126"/>
     </row>
     <row r="4">
-      <c r="A4" s="104" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="122"/>
+      <c r="A4" s="108" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="126"/>
     </row>
     <row r="5">
-      <c r="A5" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" s="122"/>
+      <c r="A5" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="126"/>
     </row>
     <row r="6">
-      <c r="A6" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="108"/>
+      <c r="A6" s="111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="112"/>
     </row>
     <row r="7">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
     </row>
     <row r="8">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
     </row>
     <row r="9">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
     </row>
     <row r="11">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
     </row>
     <row r="12">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
     </row>
     <row r="13">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
     </row>
     <row r="14">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
     </row>
     <row r="15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
     </row>
     <row r="16">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
     </row>
     <row r="17">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
     </row>
     <row r="18">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
     </row>
     <row r="19">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
     </row>
     <row r="20">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
     </row>
     <row r="21">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="82"/>
     </row>
     <row r="22">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
     </row>
     <row r="23">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
     </row>
     <row r="24">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
     </row>
     <row r="25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
     </row>
     <row r="26">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
     </row>
     <row r="27">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
     </row>
     <row r="28">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
     </row>
     <row r="29">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
     </row>
     <row r="30">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
     </row>
     <row r="31">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
     </row>
     <row r="32">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
     </row>
     <row r="33">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="431">
   <si>
     <t>Date</t>
   </si>
@@ -611,6 +611,9 @@
     <t>RO.ACT*001*ID_CODINT</t>
   </si>
   <si>
+    <t>RO.ORG*001A*ST_DES</t>
+  </si>
+  <si>
     <t>RO.ORG*001*ID_CODGES</t>
   </si>
   <si>
@@ -626,367 +629,376 @@
     <t>FOREIGNKEY</t>
   </si>
   <si>
+    <t>ID_CODSER*SER*ST_DES</t>
+  </si>
+  <si>
+    <t>ID_NUMZON*ZON*ST_CODZON</t>
+  </si>
+  <si>
+    <t>ST_DES*GES*ID_CODGES</t>
+  </si>
+  <si>
+    <t>ST_DES*CAT*ID_CODCAT</t>
+  </si>
+  <si>
+    <t>ST_DES*CAL*ID_CODCAL</t>
+  </si>
+  <si>
+    <t>ST_DES*ZON*ID_NUMZON</t>
+  </si>
+  <si>
+    <t>LOCATOR</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_CODZON']</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>CAS_DE_TEST</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>CAL.RO.ACT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>PECHEUR</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>DIVERS20</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.001.CRE.01.A.......</t>
+  </si>
+  <si>
+    <t>GROUPE 1</t>
+  </si>
+  <si>
+    <t>FAMILLE 1</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>martin.pecheur@mainta.com</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>01010101</t>
+  </si>
+  <si>
+    <t>06060606</t>
+  </si>
+  <si>
+    <t>09090909</t>
+  </si>
+  <si>
+    <t>$NU</t>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>CAT.RO.ACT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CAL.RO.ACT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>MELO</t>
+  </si>
+  <si>
+    <t>AMELIE</t>
+  </si>
+  <si>
+    <t>DIVERS01</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.001.LEC.01.A.......</t>
+  </si>
+  <si>
+    <t>GROUPE 2</t>
+  </si>
+  <si>
+    <t>FAMILLE 2</t>
+  </si>
+  <si>
+    <t>amelie.melo@mainta.com</t>
+  </si>
+  <si>
+    <t>01010102</t>
+  </si>
+  <si>
+    <t>06060607</t>
+  </si>
+  <si>
+    <t>09090910</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.001.LEC.01.A</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.UPD.RO.ACT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.UPD.RO.ACT.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>CAT.UPD.RO.ACT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CAL.UPD.RO.ACT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>upd.PEPLU</t>
+  </si>
+  <si>
+    <t>upd.JEAN</t>
+  </si>
+  <si>
+    <t>upd.DIVERS02</t>
+  </si>
+  <si>
+    <t>ORG.UPD.RO.ACT.001.MAJ.01.A...</t>
+  </si>
+  <si>
+    <t>upd.GROUPE 3</t>
+  </si>
+  <si>
+    <t>upd.FAMILLE 3</t>
+  </si>
+  <si>
+    <t>upd.jean.peplu@mainta.com</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>RO.ACT.001.REC.01</t>
+  </si>
+  <si>
+    <t>RO.HAB*001*ID_CODHAB</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[3]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[4]/textarea</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRA.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRA.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRA.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRM.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRM.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRM.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRS.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRS.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRS.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003HAB.SRL.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRL.01</t>
+  </si>
+  <si>
+    <t>RO.MET*001*ID_CODMET</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[2]</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[3]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[4]/textarea</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRA.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRA.01.1</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRA.01.2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRM.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRM.01.1</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRM.01.2</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRS.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRS.01.1</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRS.01.2</t>
+  </si>
+  <si>
+    <t>RO.ACT.003MET.SRL.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRL.01</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>RT.EMP*001*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>ZONLIG_ID</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[4]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[5]/textarea</t>
+  </si>
+  <si>
+    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/preceding-sibling::td[1]/img</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRA.01</t>
+  </si>
+  <si>
+    <t>$SEQUENCEID</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRA.01.1....</t>
+  </si>
+  <si>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRA.01.2....</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRM.01</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRM.01.1....</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRM.01.2....</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRS.01</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRS.01.1....</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRS.01.2....</t>
+  </si>
+  <si>
+    <t>RO.ACT.004EMP.SRL.01</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRL.01......</t>
+  </si>
+  <si>
+    <t>ID_CODINT_SRC</t>
+  </si>
+  <si>
     <t>ID_CODSER*GES*ID_CODGES</t>
-  </si>
-  <si>
-    <t>ID_NUMZON*ZON*ST_CODZON</t>
-  </si>
-  <si>
-    <t>ST_DES*GES*ID_CODGES</t>
-  </si>
-  <si>
-    <t>ST_DES*CAT*ID_CODCAT</t>
-  </si>
-  <si>
-    <t>ST_DES*CAL*ID_CODCAL</t>
-  </si>
-  <si>
-    <t>ST_DES*ZON*ID_NUMZON</t>
-  </si>
-  <si>
-    <t>LOCATOR</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>//input[@id='ST_CODZON']</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>CAS_DE_TEST</t>
-  </si>
-  <si>
-    <t>RO.ACT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>ORG.RO.ACT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>CAT.RO.ACT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>CAL.RO.ACT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>$NULL</t>
-  </si>
-  <si>
-    <t>PECHEUR</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>DIVERS20</t>
-  </si>
-  <si>
-    <t>ORG.RO.ACT.001.CRE.01.A.......</t>
-  </si>
-  <si>
-    <t>GROUPE 1</t>
-  </si>
-  <si>
-    <t>FAMILLE 1</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>TNR</t>
-  </si>
-  <si>
-    <t>martin.pecheur@mainta.com</t>
-  </si>
-  <si>
-    <t>$DATETIMESYS</t>
-  </si>
-  <si>
-    <t>01010101</t>
-  </si>
-  <si>
-    <t>06060606</t>
-  </si>
-  <si>
-    <t>09090909</t>
-  </si>
-  <si>
-    <t>$NU</t>
-  </si>
-  <si>
-    <t>DEFAUT</t>
-  </si>
-  <si>
-    <t>RO.ACT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ORG.RO.ACT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>CAT.RO.ACT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>CAL.RO.ACT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>MELO</t>
-  </si>
-  <si>
-    <t>AMELIE</t>
-  </si>
-  <si>
-    <t>DIVERS01</t>
-  </si>
-  <si>
-    <t>ORG.RO.ACT.001.LEC.01.A.......</t>
-  </si>
-  <si>
-    <t>GROUPE 2</t>
-  </si>
-  <si>
-    <t>FAMILLE 2</t>
-  </si>
-  <si>
-    <t>amelie.melo@mainta.com</t>
-  </si>
-  <si>
-    <t>01010102</t>
-  </si>
-  <si>
-    <t>06060607</t>
-  </si>
-  <si>
-    <t>09090910</t>
-  </si>
-  <si>
-    <t>ORG.RO.ACT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ORG.RO.ACT.001.LEC.01.A</t>
-  </si>
-  <si>
-    <t>RO.ACT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ORG.UPD.RO.ACT.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>CAT.UPD.RO.ACT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>CAL.UPD.RO.ACT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>upd.PEPLU</t>
-  </si>
-  <si>
-    <t>upd.JEAN</t>
-  </si>
-  <si>
-    <t>upd.DIVERS02</t>
-  </si>
-  <si>
-    <t>ORG.UPD.RO.ACT.001.MAJ.01.A...</t>
-  </si>
-  <si>
-    <t>upd.GROUPE 3</t>
-  </si>
-  <si>
-    <t>upd.FAMILLE 3</t>
-  </si>
-  <si>
-    <t>upd.jean.peplu@mainta.com</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>RO.ACT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>RO.ACT.001.REC.01</t>
-  </si>
-  <si>
-    <t>RO.HAB*001*ID_CODHAB</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[3]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxHAB']/table/tbody//td[3][text()='${ID_CODHAB}']//following-sibling::td[4]/textarea</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRA.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRA.01.1</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRA.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRM.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRM.01.1</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRM.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRS.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRS.01.1</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRS.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRL.01</t>
-  </si>
-  <si>
-    <t>HAB.RO.ACT.003HAB.SRL.01</t>
-  </si>
-  <si>
-    <t>RO.MET*001*ID_CODMET</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[2]</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[3]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxMET']/table/tbody//td[3][text()='${ID_CODMET}']//following-sibling::td[4]/textarea</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRA.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRA.01.1</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRA.01.2</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRM.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRM.01.1</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRM.01.2</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRS.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRS.01.1</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRS.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRL.01</t>
-  </si>
-  <si>
-    <t>MET.RO.ACT.003MET.SRL.01</t>
-  </si>
-  <si>
-    <t>N5</t>
-  </si>
-  <si>
-    <t>RT.EMP*001*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>SEQUENCE</t>
-  </si>
-  <si>
-    <t>ZONLIG_ID</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[4]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/following-sibling::td[5]/textarea</t>
-  </si>
-  <si>
-    <t>//div[@id='v-dbtdhtmlxinterZonLig']/table/tbody//td[5][text()='${ID_NUMREF}']/preceding-sibling::td[1]/img</t>
-  </si>
-  <si>
-    <t>RO.ACT.004EMP.SRA.01</t>
-  </si>
-  <si>
-    <t>$SEQUENCEID</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRA.01.1....</t>
-  </si>
-  <si>
-    <t>EMP</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRA.01.2....</t>
-  </si>
-  <si>
-    <t>RO.ACT.004EMP.SRM.01</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRM.01.1....</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRM.01.2....</t>
-  </si>
-  <si>
-    <t>RO.ACT.004EMP.SRS.01</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRS.01.1....</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRS.01.2....</t>
-  </si>
-  <si>
-    <t>RO.ACT.004EMP.SRL.01</t>
-  </si>
-  <si>
-    <t>EMP.RO.ACT.004EMP.SRL.01......</t>
-  </si>
-  <si>
-    <t>ID_CODINT_SRC</t>
   </si>
   <si>
     <t>RO.ACT.005.FON.01</t>
@@ -1806,7 +1818,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1817,10 +1829,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -5657,7 +5669,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="16.63"/>
     <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col customWidth="1" min="4" max="4" width="29.38"/>
     <col customWidth="1" min="5" max="5" width="20.88"/>
     <col customWidth="1" min="6" max="6" width="21.13"/>
     <col customWidth="1" min="12" max="12" width="28.63"/>
@@ -5854,13 +5866,13 @@
         <v>190</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="54"/>
@@ -5868,7 +5880,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
@@ -5881,7 +5893,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
       <c r="W2" s="55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X2" s="54"/>
       <c r="Y2" s="54"/>
@@ -5901,14 +5913,14 @@
       <c r="AM2" s="54"/>
       <c r="AN2" s="54"/>
       <c r="AO2" s="55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AP2" s="54"/>
       <c r="AQ2" s="54"/>
       <c r="AR2" s="54"/>
       <c r="AS2" s="54"/>
       <c r="AT2" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AU2" s="54"/>
       <c r="AV2" s="54"/>
@@ -5926,11 +5938,11 @@
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -5977,7 +5989,7 @@
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
       <c r="AV3" s="53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
@@ -5985,143 +5997,143 @@
       <c r="BA3" s="54"/>
       <c r="BB3" s="53"/>
       <c r="BC3" s="53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BD3" s="57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BE3" s="57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BF3" s="57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BG3" s="57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" s="58"/>
       <c r="M4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="P4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="P4" s="57" t="s">
-        <v>202</v>
-      </c>
       <c r="Q4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="V4" s="57" t="s">
         <v>203</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>202</v>
       </c>
       <c r="W4" s="59"/>
       <c r="X4" s="58"/>
       <c r="Y4" s="58"/>
       <c r="Z4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA4" s="58"/>
       <c r="AB4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AD4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AE4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI4" s="58"/>
       <c r="AJ4" s="58"/>
       <c r="AK4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN4" s="58"/>
       <c r="AO4" s="59"/>
       <c r="AP4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="AQ4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT4" s="57" t="s">
-        <v>202</v>
-      </c>
       <c r="AU4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AV4" s="57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AW4" s="57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AX4" s="58"/>
       <c r="AY4" s="58"/>
@@ -6129,22 +6141,22 @@
       <c r="BA4" s="58"/>
       <c r="BB4" s="53"/>
       <c r="BC4" s="53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BD4" s="53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BE4" s="53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BF4" s="53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BG4" s="53"/>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -6207,162 +6219,162 @@
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K6" s="66">
         <v>10.0</v>
       </c>
-      <c r="L6" s="63" t="s">
-        <v>215</v>
+      <c r="L6" s="67" t="s">
+        <v>217</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P6" s="66">
         <v>10.0</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T6" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="U6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V6" s="66">
         <v>80.0</v>
       </c>
-      <c r="W6" s="67"/>
-      <c r="X6" s="68" t="s">
+      <c r="W6" s="68"/>
+      <c r="X6" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y6" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA6" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="Y6" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z6" s="36" t="s">
+      <c r="AD6" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE6" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF6" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG6" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH6" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI6" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ6" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK6" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL6" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM6" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN6" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="AA6" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD6" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE6" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF6" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG6" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH6" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI6" s="68" t="s">
+      <c r="AQ6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT6" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU6" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV6" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW6" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX6" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AJ6" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK6" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="AL6" s="70" t="s">
+      <c r="AY6" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ6" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="AM6" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN6" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT6" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="AU6" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AV6" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="AW6" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX6" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY6" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="AZ6" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA6" s="68" t="s">
-        <v>211</v>
+      <c r="BA6" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="BB6" s="69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BC6" s="72"/>
       <c r="BD6" s="72"/>
@@ -6372,337 +6384,337 @@
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K7" s="66">
         <v>13.0</v>
       </c>
-      <c r="L7" s="63" t="s">
-        <v>235</v>
+      <c r="L7" s="67" t="s">
+        <v>238</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P7" s="66">
         <v>20.0</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T7" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="U7" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V7" s="66">
         <v>90.0</v>
       </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="68" t="s">
+      <c r="W7" s="68"/>
+      <c r="X7" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y7" s="65" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA7" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC7" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="Y7" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z7" s="36" t="s">
+      <c r="AD7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH7" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK7" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL7" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM7" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN7" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ7" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR7" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS7" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT7" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="AA7" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB7" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC7" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD7" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE7" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AF7" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG7" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH7" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI7" s="68" t="s">
+      <c r="AU7" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV7" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW7" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX7" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AJ7" s="68" t="s">
+      <c r="AY7" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AK7" s="70" t="s">
-        <v>239</v>
-      </c>
-      <c r="AL7" s="70" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM7" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="AN7" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ7" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR7" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS7" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT7" s="64" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU7" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AV7" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="AW7" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX7" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY7" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ7" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA7" s="68" t="s">
-        <v>222</v>
+      <c r="AZ7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA7" s="63" t="s">
+        <v>224</v>
       </c>
       <c r="BB7" s="69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BC7" s="73" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="BD7" s="73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BE7" s="73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BF7" s="73" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="BG7" s="74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>247</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J8" s="75" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K8" s="77">
         <v>12.0</v>
       </c>
       <c r="L8" s="76" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M8" s="75" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N8" s="75" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O8" s="75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P8" s="77">
         <v>0.0</v>
       </c>
       <c r="Q8" s="75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R8" s="75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T8" s="75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="U8" s="75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V8" s="77">
         <v>0.0</v>
       </c>
-      <c r="W8" s="67"/>
-      <c r="X8" s="68" t="s">
-        <v>220</v>
+      <c r="W8" s="68"/>
+      <c r="X8" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="Y8" s="65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Z8" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA8" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB8" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC8" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD8" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE8" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF8" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG8" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH8" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI8" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ8" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK8" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL8" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM8" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="AN8" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ8" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR8" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS8" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT8" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="AA8" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB8" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC8" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD8" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE8" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF8" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG8" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH8" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI8" s="68" t="s">
+      <c r="AU8" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV8" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW8" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AJ8" s="68" t="s">
+      <c r="AY8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AK8" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL8" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM8" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="AN8" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ8" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR8" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS8" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT8" s="76" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU8" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AV8" s="69" t="s">
-        <v>226</v>
-      </c>
-      <c r="AW8" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX8" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY8" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ8" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA8" s="68" t="s">
-        <v>222</v>
+      <c r="AZ8" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA8" s="63" t="s">
+        <v>224</v>
       </c>
       <c r="BB8" s="69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BC8" s="79"/>
       <c r="BD8" s="79"/>
@@ -6712,10 +6724,10 @@
     </row>
     <row r="9">
       <c r="A9" s="62" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="79"/>
@@ -6777,10 +6789,10 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="79"/>
@@ -7074,14 +7086,14 @@
         <v>189</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="90"/>
@@ -7090,22 +7102,22 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="89"/>
       <c r="C4" s="91" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -7114,47 +7126,47 @@
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>265</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>265</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>268</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D8" s="93">
         <v>44562.0</v>
@@ -7165,13 +7177,13 @@
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>268</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D9" s="93">
         <v>44562.0</v>
@@ -7182,39 +7194,39 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>271</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>271</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>274</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D12" s="94">
         <v>44927.0</v>
@@ -7301,7 +7313,7 @@
         <v>189</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D2" s="95"/>
       <c r="E2" s="95"/>
@@ -7309,7 +7321,7 @@
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -7319,25 +7331,25 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="91" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -7347,56 +7359,56 @@
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>281</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>278</v>
+        <v>281</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>281</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>286</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E8" s="93">
         <v>44562.0</v>
@@ -7407,16 +7419,16 @@
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>283</v>
+        <v>286</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>286</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E9" s="93">
         <v>44562.0</v>
@@ -7427,13 +7439,13 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>291</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -7441,13 +7453,13 @@
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>291</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
@@ -7455,16 +7467,16 @@
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>291</v>
+        <v>294</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E12" s="94">
         <v>44927.0</v>
@@ -7545,7 +7557,7 @@
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="D2" s="53" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="53" t="s">
@@ -7562,12 +7574,12 @@
     </row>
     <row r="3">
       <c r="A3" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="53" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
@@ -7582,10 +7594,10 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
@@ -7602,21 +7614,21 @@
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="53" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
@@ -7625,7 +7637,7 @@
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -7643,95 +7655,95 @@
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>306</v>
       </c>
       <c r="C7" s="98">
         <v>0.0</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="J7" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="L7" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="M7" s="68" t="s">
+      <c r="K7" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="N7" s="68" t="s">
+      <c r="L7" s="63" t="s">
         <v>222</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="N7" s="63" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>306</v>
       </c>
       <c r="C8" s="98">
         <v>0.0</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="E8" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="F8" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>220</v>
+      <c r="G8" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="L8" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="K8" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="N8" s="68" t="s">
+      <c r="L8" s="63" t="s">
         <v>222</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B9" s="98">
         <v>1001.0</v>
@@ -7740,16 +7752,16 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="71" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="68" t="s">
-        <v>305</v>
-      </c>
       <c r="F9" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>220</v>
+        <v>310</v>
+      </c>
+      <c r="G9" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="H9" s="99">
         <v>44562.0</v>
@@ -7758,24 +7770,24 @@
         <v>45659.0</v>
       </c>
       <c r="J9" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="L9" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="M9" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="N9" s="68" t="s">
+      <c r="L9" s="63" t="s">
         <v>222</v>
+      </c>
+      <c r="M9" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="75" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B10" s="98">
         <v>1002.0</v>
@@ -7784,16 +7796,16 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="68" t="s">
-        <v>305</v>
+        <v>312</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>308</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>220</v>
+        <v>310</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="H10" s="99">
         <v>44562.0</v>
@@ -7802,43 +7814,43 @@
         <v>46025.0</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="L10" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" s="68" t="s">
+      <c r="K10" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="N10" s="68" t="s">
+      <c r="L10" s="63" t="s">
         <v>222</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B11" s="98">
         <v>1003.0</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="36" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G11" s="79"/>
       <c r="H11" s="101"/>
       <c r="I11" s="101"/>
-      <c r="J11" s="68" t="s">
-        <v>218</v>
+      <c r="J11" s="63" t="s">
+        <v>220</v>
       </c>
       <c r="K11" s="79"/>
       <c r="L11" s="79"/>
@@ -7847,26 +7859,26 @@
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B12" s="98">
         <v>1004.0</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="36" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="68" t="s">
-        <v>219</v>
+      <c r="J12" s="63" t="s">
+        <v>221</v>
       </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
@@ -7875,7 +7887,7 @@
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B13" s="98">
         <v>1005.0</v>
@@ -7884,16 +7896,16 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>305</v>
+        <v>317</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>308</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>220</v>
+        <v>316</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>222</v>
       </c>
       <c r="H13" s="94">
         <v>44927.0</v>
@@ -7901,20 +7913,20 @@
       <c r="I13" s="94">
         <v>46390.0</v>
       </c>
-      <c r="J13" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="68" t="s">
+      <c r="J13" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="M13" s="68" t="s">
+      <c r="K13" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="N13" s="68" t="s">
+      <c r="L13" s="63" t="s">
         <v>222</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14">
@@ -8187,7 +8199,7 @@
         <v>145</v>
       </c>
       <c r="BC1" s="107" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
@@ -8196,16 +8208,16 @@
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F2" s="53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="54"/>
@@ -8213,7 +8225,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
@@ -8226,7 +8238,7 @@
       <c r="U2" s="54"/>
       <c r="V2" s="54"/>
       <c r="W2" s="55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X2" s="54"/>
       <c r="Y2" s="54"/>
@@ -8246,14 +8258,14 @@
       <c r="AM2" s="54"/>
       <c r="AN2" s="54"/>
       <c r="AO2" s="55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AP2" s="54"/>
       <c r="AQ2" s="54"/>
       <c r="AR2" s="54"/>
       <c r="AS2" s="54"/>
       <c r="AT2" s="53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AU2" s="95"/>
       <c r="AV2" s="54"/>
@@ -8269,11 +8281,11 @@
     </row>
     <row r="3">
       <c r="A3" s="108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="53" t="s">
-        <v>195</v>
+        <v>319</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -8320,7 +8332,7 @@
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
       <c r="AV3" s="53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
@@ -8331,126 +8343,126 @@
     </row>
     <row r="4">
       <c r="A4" s="108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" s="58"/>
       <c r="M4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="P4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="P4" s="57" t="s">
-        <v>202</v>
-      </c>
       <c r="Q4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="R4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="U4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="V4" s="57" t="s">
         <v>203</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>202</v>
       </c>
       <c r="W4" s="59"/>
       <c r="X4" s="58"/>
       <c r="Y4" s="58"/>
       <c r="Z4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA4" s="58"/>
       <c r="AB4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AC4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AD4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AE4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AI4" s="58"/>
       <c r="AJ4" s="58"/>
       <c r="AK4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM4" s="57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN4" s="58"/>
       <c r="AO4" s="59"/>
       <c r="AP4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AT4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="AQ4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT4" s="57" t="s">
-        <v>202</v>
-      </c>
       <c r="AU4" s="57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AV4" s="57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AW4" s="57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AX4" s="58"/>
       <c r="AY4" s="58"/>
@@ -8461,7 +8473,7 @@
     </row>
     <row r="5">
       <c r="A5" s="111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B5" s="112"/>
       <c r="C5" s="112"/>
@@ -8520,169 +8532,169 @@
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>211</v>
+        <v>323</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="114" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I6" s="114" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K6" s="114" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L6" s="115" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P6" s="66">
         <v>0.0</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="V6" s="66">
         <v>100.0</v>
       </c>
       <c r="W6" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="X6" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="X6" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y6" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z6" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC6" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="Y6" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA6" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>218</v>
-      </c>
       <c r="AD6" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AE6" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AF6" s="36" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AG6" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH6" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="AI6" s="68" t="s">
+      <c r="AH6" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="AJ6" s="68" t="s">
-        <v>211</v>
+      <c r="AI6" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ6" s="63" t="s">
+        <v>213</v>
       </c>
       <c r="AK6" s="117" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL6" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="AM6" s="117" t="s">
+        <v>333</v>
+      </c>
+      <c r="AN6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO6" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AR6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AS6" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT6" s="64" t="s">
         <v>327</v>
       </c>
-      <c r="AL6" s="117" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM6" s="117" t="s">
-        <v>329</v>
-      </c>
-      <c r="AN6" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO6" s="67" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AQ6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AR6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS6" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT6" s="64" t="s">
-        <v>323</v>
-      </c>
       <c r="AU6" s="36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AV6" s="69" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AW6" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX6" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY6" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ6" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX6" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="BA6" s="68" t="s">
+      <c r="AY6" s="63" t="s">
         <v>222</v>
       </c>
+      <c r="AZ6" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA6" s="63" t="s">
+        <v>224</v>
+      </c>
       <c r="BB6" s="36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BC6" s="114" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -8710,35 +8722,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C1" s="118" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
@@ -8746,10 +8758,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -8757,472 +8769,472 @@
         <v>25</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="119" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="119" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="119" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="119" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="119" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="119" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="119" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="121" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B20" s="120" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>373</v>
-      </c>
-      <c r="C21" s="68" t="s">
-        <v>374</v>
+        <v>377</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="122" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="123" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="123" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="123" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C34" s="124" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C35" s="124" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C36" s="124" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C37" s="124" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C38" s="124" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C39" s="124" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C40" s="124" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C41" s="124" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C42" s="124" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C43" s="124" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C44" s="124" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C45" s="124" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C46" s="124" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -9243,7 +9255,7 @@
     <row r="1">
       <c r="A1" s="125"/>
       <c r="B1" s="49" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2">
@@ -9254,25 +9266,25 @@
     </row>
     <row r="3">
       <c r="A3" s="108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="126"/>
     </row>
     <row r="4">
       <c r="A4" s="108" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B4" s="126"/>
     </row>
     <row r="5">
       <c r="A5" s="108" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" s="126"/>
     </row>
     <row r="6">
       <c r="A6" s="111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B6" s="112"/>
     </row>

--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="432">
   <si>
     <t>Date</t>
   </si>
@@ -998,10 +998,13 @@
     <t>ID_CODINT_SRC</t>
   </si>
   <si>
-    <t>ID_CODSER*GES*ID_CODGES</t>
+    <t>RO.ACT*005*ID_CODINT</t>
   </si>
   <si>
     <t>RO.ACT.005.FON.01</t>
+  </si>
+  <si>
+    <t>ORG.RO.ACT.005.FON.01.SRC</t>
   </si>
   <si>
     <t>ORG.RO.ACT.005.FON.01.SRC.....</t>
@@ -7987,7 +7990,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.63"/>
     <col customWidth="1" min="2" max="2" width="23.5"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
+    <col customWidth="1" min="3" max="3" width="48.25"/>
     <col customWidth="1" min="4" max="4" width="30.88"/>
     <col customWidth="1" min="5" max="5" width="26.13"/>
     <col customWidth="1" min="6" max="6" width="28.25"/>
@@ -8208,7 +8211,7 @@
       </c>
       <c r="B2" s="54"/>
       <c r="C2" s="53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>191</v>
@@ -8276,7 +8279,7 @@
       <c r="BA2" s="54"/>
       <c r="BB2" s="109"/>
       <c r="BC2" s="109" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
@@ -8285,7 +8288,7 @@
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="53" t="s">
-        <v>319</v>
+        <v>196</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
@@ -8537,41 +8540,41 @@
       <c r="B6" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="36" t="s">
         <v>321</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G6" s="63" t="s">
         <v>213</v>
       </c>
       <c r="H6" s="114" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I6" s="114" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K6" s="114" t="s">
         <v>213</v>
       </c>
       <c r="L6" s="115" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>221</v>
@@ -8607,7 +8610,7 @@
         <v>213</v>
       </c>
       <c r="Z6" s="36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA6" s="36" t="s">
         <v>213</v>
@@ -8640,13 +8643,13 @@
         <v>213</v>
       </c>
       <c r="AK6" s="117" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL6" s="117" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM6" s="117" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN6" s="36" t="s">
         <v>213</v>
@@ -8667,7 +8670,7 @@
         <v>221</v>
       </c>
       <c r="AT6" s="64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AU6" s="36" t="s">
         <v>221</v>
@@ -8694,7 +8697,7 @@
         <v>213</v>
       </c>
       <c r="BC6" s="114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -8722,35 +8725,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" s="118" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
@@ -8758,10 +8761,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5">
@@ -8769,472 +8772,472 @@
         <v>25</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="121" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" s="120" t="s">
         <v>362</v>
-      </c>
-      <c r="B20" s="120" t="s">
-        <v>375</v>
-      </c>
-      <c r="C20" s="120" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="123" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="123" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="123" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C34" s="124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C35" s="124" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C36" s="124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C37" s="124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C38" s="124" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C39" s="124" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C40" s="124" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C41" s="124" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C42" s="124" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C43" s="124" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C44" s="124" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C45" s="124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C46" s="124" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9255,7 +9258,7 @@
     <row r="1">
       <c r="A1" s="125"/>
       <c r="B1" s="49" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">

--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="324" yWindow="516" windowWidth="21852" windowHeight="6828" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="003HAB" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="003MET" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="MODELE" sheetId="9" r:id="rId12"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="001" sheetId="3" r:id="rId3"/>
+    <sheet name="003HAB" sheetId="4" r:id="rId4"/>
+    <sheet name="003MET" sheetId="5" r:id="rId5"/>
+    <sheet name="004EMP" sheetId="6" r:id="rId6"/>
+    <sheet name="005" sheetId="7" r:id="rId7"/>
+    <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
+    <sheet name="MODELE" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="n2oVke5TL0ndSNnraF4aR8XMXOrt2xnFeYPax/ixAak="/>
@@ -97,17 +100,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial, sans-serif"/>
-        <b/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -1340,104 +1345,122 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial, sans-serif"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1445,7 +1468,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1575,7 +1598,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1589,6 +1618,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1597,11 +1627,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1611,451 +1644,305 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="129">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="22" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2245,27 +2132,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="41.38"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,9 +2172,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -2298,9 +2185,9 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -2311,9 +2198,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -2324,9 +2211,9 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -2337,7 +2224,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2354,98 +2241,98 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3414,33 +3301,29 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA982"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="12.75"/>
-    <col customWidth="1" min="4" max="4" width="28.0"/>
-    <col customWidth="1" min="5" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="6" width="20.5"/>
-    <col customWidth="1" min="7" max="27" width="10.63"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="27" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -3460,7 +3343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3476,7 +3359,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -3485,12 +3368,12 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="21">
-        <v>1022.0</v>
+        <v>1022</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
@@ -3507,7 +3390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
@@ -3524,7 +3407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>36</v>
       </c>
@@ -3542,7 +3425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
@@ -3560,7 +3443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -3578,7 +3461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
@@ -3595,7 +3478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>47</v>
       </c>
@@ -3610,7 +3493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
@@ -3625,7 +3508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>52</v>
       </c>
@@ -3640,7 +3523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>55</v>
       </c>
@@ -3655,7 +3538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>58</v>
       </c>
@@ -3672,7 +3555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>60</v>
       </c>
@@ -3687,7 +3570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3702,7 +3585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -3716,7 +3599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -3730,7 +3613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -3744,7 +3627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -3758,7 +3641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -3772,7 +3655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -3786,7 +3669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3800,7 +3683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -3814,7 +3697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>81</v>
       </c>
@@ -3831,7 +3714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -3851,7 +3734,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -3871,7 +3754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -3885,7 +3768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -3899,7 +3782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -3913,7 +3796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3927,7 +3810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -3941,7 +3824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -3955,7 +3838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -3969,7 +3852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
@@ -3983,7 +3866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -4003,7 +3886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
@@ -4020,7 +3903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -4037,7 +3920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -4051,7 +3934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -4065,7 +3948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -4079,7 +3962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>118</v>
       </c>
@@ -4094,7 +3977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>120</v>
       </c>
@@ -4111,7 +3994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>121</v>
       </c>
@@ -4128,7 +4011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -4145,7 +4028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>125</v>
       </c>
@@ -4162,7 +4045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
@@ -4179,7 +4062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
@@ -4197,7 +4080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:27" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>131</v>
       </c>
@@ -4211,7 +4094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:27" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>133</v>
       </c>
@@ -4225,7 +4108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:27" ht="12.75" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>135</v>
       </c>
@@ -4264,7 +4147,7 @@
       <c r="Z51" s="38"/>
       <c r="AA51" s="38"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:27" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -4281,7 +4164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:27" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>139</v>
       </c>
@@ -4298,7 +4181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:27" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
@@ -4315,7 +4198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:27" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -4332,7 +4215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:27" ht="12.75" customHeight="1">
       <c r="A56" s="36" t="s">
         <v>145</v>
       </c>
@@ -4349,7 +4232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:27" ht="12.75" customHeight="1">
       <c r="A57" s="21" t="s">
         <v>148</v>
       </c>
@@ -4358,11 +4241,11 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="21">
-        <v>1083.0</v>
+        <v>1083</v>
       </c>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:27" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -4379,7 +4262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:27" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>150</v>
       </c>
@@ -4396,7 +4279,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:27" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>152</v>
       </c>
@@ -4410,7 +4293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:27" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -4424,7 +4307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:27" ht="12.75" customHeight="1">
       <c r="A62" s="21" t="s">
         <v>156</v>
       </c>
@@ -4433,11 +4316,11 @@
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="41">
-        <v>1086.0</v>
+        <v>1086</v>
       </c>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:27" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -4454,7 +4337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:27" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
@@ -4471,7 +4354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>160</v>
       </c>
@@ -4485,7 +4368,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
@@ -4499,7 +4382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4513,7 +4396,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1">
       <c r="A68" s="41" t="s">
         <v>165</v>
       </c>
@@ -4522,11 +4405,11 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="41">
-        <v>1587.0</v>
+        <v>1587</v>
       </c>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>167</v>
       </c>
@@ -4544,7 +4427,7 @@
       </c>
       <c r="F69" s="31"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
@@ -4564,7 +4447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
@@ -4581,7 +4464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
@@ -4598,7 +4481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -4615,7 +4498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -4632,7 +4515,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
@@ -4646,7 +4529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>154</v>
       </c>
@@ -4660,7 +4543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>177</v>
       </c>
@@ -4677,7 +4560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
@@ -4697,7 +4580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
@@ -4717,7 +4600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4734,7 +4617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:5" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>143</v>
       </c>
@@ -4751,21 +4634,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="82" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="83" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="84" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="85" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="86" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="87" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="88" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="89" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="90" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="92" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="93" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="94" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="96" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -5653,33 +5536,34 @@
     <row r="981" ht="12.75" customHeight="1"/>
     <row r="982" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="16.63"/>
-    <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="29.38"/>
-    <col customWidth="1" min="5" max="5" width="20.88"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
-    <col customWidth="1" min="12" max="12" width="28.63"/>
-    <col customWidth="1" min="46" max="46" width="25.25"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="46" max="46" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:59" ht="14.25" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
@@ -5858,7 +5742,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:59" ht="13.2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -5939,7 +5823,7 @@
       <c r="BF2" s="54"/>
       <c r="BG2" s="54"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:59" ht="13.2">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -5991,9 +5875,10 @@
       <c r="AS3" s="54"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
-      <c r="AV3" s="53" t="s">
+      <c r="AV3" s="127" t="s">
         <v>197</v>
       </c>
+      <c r="AW3" s="128"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
       <c r="AZ3" s="54"/>
@@ -6015,149 +5900,150 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:59" ht="13.2">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="95"/>
+      <c r="H4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="57" t="s">
+      <c r="L4" s="95"/>
+      <c r="M4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="T4" s="57" t="s">
+      <c r="T4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="V4" s="57" t="s">
+      <c r="V4" s="95" t="s">
         <v>203</v>
       </c>
       <c r="W4" s="59"/>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="57" t="s">
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="57" t="s">
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AC4" s="57" t="s">
+      <c r="AC4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AD4" s="57" t="s">
+      <c r="AD4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AE4" s="57" t="s">
+      <c r="AE4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="57" t="s">
+      <c r="AF4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AG4" s="57" t="s">
+      <c r="AG4" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="57" t="s">
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="AL4" s="57" t="s">
+      <c r="AL4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="AM4" s="57" t="s">
+      <c r="AM4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="AN4" s="58"/>
+      <c r="AN4" s="95"/>
       <c r="AO4" s="59"/>
-      <c r="AP4" s="57" t="s">
+      <c r="AP4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AQ4" s="57" t="s">
+      <c r="AQ4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AR4" s="57" t="s">
+      <c r="AR4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AS4" s="57" t="s">
+      <c r="AS4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AT4" s="57" t="s">
+      <c r="AT4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="AU4" s="57" t="s">
+      <c r="AU4" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="AV4" s="57" t="s">
+      <c r="AV4" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="AW4" s="57" t="s">
+      <c r="AW4" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58"/>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53" t="s">
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="95"/>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="BD4" s="53" t="s">
+      <c r="BD4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="BE4" s="53" t="s">
+      <c r="BE4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="BF4" s="53" t="s">
+      <c r="BF4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="BG4" s="53"/>
-    </row>
-    <row r="5">
+      <c r="BG4" s="95"/>
+    </row>
+    <row r="5" spans="1:59" ht="13.2">
       <c r="A5" s="60" t="s">
         <v>207</v>
       </c>
@@ -6220,7 +6106,7 @@
       <c r="BF5" s="61"/>
       <c r="BG5" s="61"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:59" ht="13.2">
       <c r="A6" s="62" t="s">
         <v>208</v>
       </c>
@@ -6252,7 +6138,7 @@
         <v>216</v>
       </c>
       <c r="K6" s="66">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L6" s="67" t="s">
         <v>217</v>
@@ -6267,7 +6153,7 @@
         <v>220</v>
       </c>
       <c r="P6" s="66">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="36" t="s">
         <v>220</v>
@@ -6285,7 +6171,7 @@
         <v>221</v>
       </c>
       <c r="V6" s="66">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="W6" s="68"/>
       <c r="X6" s="63" t="s">
@@ -6385,7 +6271,7 @@
       <c r="BF6" s="72"/>
       <c r="BG6" s="72"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:59" ht="13.2">
       <c r="A7" s="62" t="s">
         <v>230</v>
       </c>
@@ -6417,7 +6303,7 @@
         <v>237</v>
       </c>
       <c r="K7" s="66">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>238</v>
@@ -6432,7 +6318,7 @@
         <v>220</v>
       </c>
       <c r="P7" s="66">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>220</v>
@@ -6450,7 +6336,7 @@
         <v>221</v>
       </c>
       <c r="V7" s="66">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="W7" s="68"/>
       <c r="X7" s="63" t="s">
@@ -6560,7 +6446,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:59" ht="13.2">
       <c r="A8" s="75" t="s">
         <v>246</v>
       </c>
@@ -6592,7 +6478,7 @@
         <v>253</v>
       </c>
       <c r="K8" s="77">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L8" s="76" t="s">
         <v>254</v>
@@ -6607,7 +6493,7 @@
         <v>220</v>
       </c>
       <c r="P8" s="77">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="75" t="s">
         <v>220</v>
@@ -6625,7 +6511,7 @@
         <v>221</v>
       </c>
       <c r="V8" s="77">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="68"/>
       <c r="X8" s="63" t="s">
@@ -6725,7 +6611,7 @@
       <c r="BF8" s="79"/>
       <c r="BG8" s="79"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:59" ht="13.2">
       <c r="A9" s="62" t="s">
         <v>259</v>
       </c>
@@ -6790,7 +6676,7 @@
       <c r="BF9" s="79"/>
       <c r="BG9" s="79"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:59" ht="13.2">
       <c r="A10" s="62" t="s">
         <v>260</v>
       </c>
@@ -6855,7 +6741,7 @@
       <c r="BF10" s="79"/>
       <c r="BG10" s="79"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:59" ht="13.2">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="83"/>
@@ -6916,7 +6802,7 @@
       <c r="BF11" s="85"/>
       <c r="BG11" s="85"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:59" ht="13.2">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -6977,7 +6863,7 @@
       <c r="BF12" s="85"/>
       <c r="BG12" s="85"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:59" ht="13.2">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
@@ -7043,28 +6929,29 @@
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AG4:AH4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.13"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="22.5"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="42" t="s">
         <v>149</v>
       </c>
@@ -7081,7 +6968,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7094,7 +6981,7 @@
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7103,7 +6990,7 @@
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
@@ -7118,7 +7005,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
         <v>207</v>
       </c>
@@ -7127,7 +7014,7 @@
       <c r="D5" s="92"/>
       <c r="E5" s="61"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="62" t="s">
         <v>265</v>
       </c>
@@ -7144,7 +7031,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="62" t="s">
         <v>265</v>
       </c>
@@ -7161,7 +7048,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="75" t="s">
         <v>268</v>
       </c>
@@ -7172,13 +7059,13 @@
         <v>269</v>
       </c>
       <c r="D8" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="93">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="75" t="s">
         <v>268</v>
       </c>
@@ -7189,13 +7076,13 @@
         <v>270</v>
       </c>
       <c r="D9" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E9" s="93">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="62" t="s">
         <v>271</v>
       </c>
@@ -7208,7 +7095,7 @@
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="62" t="s">
         <v>271</v>
       </c>
@@ -7221,7 +7108,7 @@
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="62" t="s">
         <v>274</v>
       </c>
@@ -7232,34 +7119,34 @@
         <v>275</v>
       </c>
       <c r="D12" s="94">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="E12" s="94">
-        <v>46388.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
@@ -7267,28 +7154,29 @@
       <c r="E16" s="82"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.75"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="42" t="s">
         <v>157</v>
       </c>
@@ -7308,7 +7196,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7322,7 +7210,7 @@
       <c r="E2" s="95"/>
       <c r="F2" s="54"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7332,7 +7220,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
@@ -7350,7 +7238,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="60" t="s">
         <v>207</v>
       </c>
@@ -7360,7 +7248,7 @@
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="62" t="s">
         <v>281</v>
       </c>
@@ -7380,7 +7268,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="62" t="s">
         <v>281</v>
       </c>
@@ -7400,7 +7288,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="75" t="s">
         <v>286</v>
       </c>
@@ -7414,13 +7302,13 @@
         <v>288</v>
       </c>
       <c r="E8" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="93">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="75" t="s">
         <v>286</v>
       </c>
@@ -7434,13 +7322,13 @@
         <v>290</v>
       </c>
       <c r="E9" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F9" s="93">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="62" t="s">
         <v>291</v>
       </c>
@@ -7454,7 +7342,7 @@
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="62" t="s">
         <v>291</v>
       </c>
@@ -7468,7 +7356,7 @@
       <c r="E11" s="79"/>
       <c r="F11" s="72"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="62" t="s">
         <v>294</v>
       </c>
@@ -7482,34 +7370,35 @@
         <v>296</v>
       </c>
       <c r="E12" s="94">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="F12" s="94">
-        <v>46388.0</v>
+        <v>46388</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.25"/>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="35.38"/>
-    <col customWidth="1" min="6" max="6" width="20.5"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="42" t="s">
         <v>166</v>
       </c>
@@ -7553,7 +7442,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7575,7 +7464,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7595,7 +7484,7 @@
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14">
       <c r="A4" s="52" t="s">
         <v>299</v>
       </c>
@@ -7615,15 +7504,18 @@
       <c r="M4" s="97"/>
       <c r="N4" s="97"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14">
       <c r="A5" s="52" t="s">
         <v>202</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="127" t="s">
         <v>301</v>
       </c>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
       <c r="H5" s="57" t="s">
         <v>302</v>
       </c>
@@ -7638,7 +7530,7 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14">
       <c r="A6" s="60" t="s">
         <v>207</v>
       </c>
@@ -7656,7 +7548,7 @@
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" s="62" t="s">
         <v>305</v>
       </c>
@@ -7664,7 +7556,7 @@
         <v>306</v>
       </c>
       <c r="C7" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>307</v>
@@ -7700,7 +7592,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14">
       <c r="A8" s="62" t="s">
         <v>305</v>
       </c>
@@ -7708,7 +7600,7 @@
         <v>306</v>
       </c>
       <c r="C8" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>309</v>
@@ -7744,15 +7636,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14">
       <c r="A9" s="75" t="s">
         <v>310</v>
       </c>
       <c r="B9" s="98">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>311</v>
@@ -7767,10 +7659,10 @@
         <v>222</v>
       </c>
       <c r="H9" s="99">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I9" s="99">
-        <v>45659.0</v>
+        <v>45659</v>
       </c>
       <c r="J9" s="100" t="s">
         <v>221</v>
@@ -7788,15 +7680,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="A10" s="75" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="98">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>312</v>
@@ -7811,10 +7703,10 @@
         <v>222</v>
       </c>
       <c r="H10" s="99">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I10" s="99">
-        <v>46025.0</v>
+        <v>46025</v>
       </c>
       <c r="J10" s="100" t="s">
         <v>220</v>
@@ -7832,12 +7724,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14">
       <c r="A11" s="62" t="s">
         <v>313</v>
       </c>
       <c r="B11" s="98">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>228</v>
@@ -7860,12 +7752,12 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14">
       <c r="A12" s="62" t="s">
         <v>313</v>
       </c>
       <c r="B12" s="98">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>228</v>
@@ -7888,15 +7780,15 @@
       <c r="M12" s="72"/>
       <c r="N12" s="72"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14">
       <c r="A13" s="62" t="s">
         <v>316</v>
       </c>
       <c r="B13" s="98">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>317</v>
@@ -7911,10 +7803,10 @@
         <v>222</v>
       </c>
       <c r="H13" s="94">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="I13" s="94">
-        <v>46390.0</v>
+        <v>46390</v>
       </c>
       <c r="J13" s="63" t="s">
         <v>220</v>
@@ -7932,7 +7824,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
@@ -7948,7 +7840,7 @@
       <c r="M14" s="82"/>
       <c r="N14" s="82"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
@@ -7964,7 +7856,7 @@
       <c r="M15" s="82"/>
       <c r="N15" s="82"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14">
       <c r="D16" s="102" t="str">
         <f>LEFT(D15,30)</f>
         <v/>
@@ -7974,71 +7866,72 @@
   <mergeCells count="1">
     <mergeCell ref="D5:G5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.63"/>
-    <col customWidth="1" min="2" max="2" width="23.5"/>
-    <col customWidth="1" min="3" max="3" width="48.25"/>
-    <col customWidth="1" min="4" max="4" width="30.88"/>
-    <col customWidth="1" min="5" max="5" width="26.13"/>
-    <col customWidth="1" min="6" max="6" width="28.25"/>
-    <col customWidth="1" min="7" max="7" width="6.88"/>
-    <col customWidth="1" min="8" max="8" width="9.38"/>
-    <col customWidth="1" min="9" max="9" width="7.5"/>
-    <col customWidth="1" min="10" max="10" width="9.0"/>
-    <col customWidth="1" min="11" max="11" width="7.5"/>
-    <col customWidth="1" min="12" max="12" width="34.0"/>
-    <col customWidth="1" min="13" max="13" width="10.5"/>
-    <col customWidth="1" min="14" max="14" width="10.13"/>
-    <col customWidth="1" min="15" max="15" width="10.25"/>
-    <col customWidth="1" min="16" max="16" width="11.0"/>
-    <col customWidth="1" min="17" max="17" width="7.75"/>
-    <col customWidth="1" min="18" max="18" width="6.75"/>
-    <col customWidth="1" min="19" max="20" width="7.63"/>
-    <col customWidth="1" min="21" max="21" width="6.75"/>
-    <col customWidth="1" min="22" max="22" width="11.75"/>
-    <col customWidth="1" min="23" max="23" width="10.13"/>
-    <col customWidth="1" min="24" max="24" width="10.0"/>
-    <col customWidth="1" min="25" max="25" width="6.25"/>
-    <col customWidth="1" min="26" max="26" width="21.88"/>
-    <col customWidth="1" min="27" max="27" width="9.88"/>
-    <col customWidth="1" min="28" max="28" width="6.88"/>
-    <col customWidth="1" min="29" max="30" width="7.63"/>
-    <col customWidth="1" min="31" max="31" width="7.38"/>
-    <col customWidth="1" min="32" max="32" width="7.63"/>
-    <col customWidth="1" min="33" max="33" width="7.13"/>
-    <col customWidth="1" min="34" max="36" width="13.5"/>
-    <col customWidth="1" min="37" max="37" width="10.88"/>
-    <col customWidth="1" min="38" max="38" width="11.13"/>
-    <col customWidth="1" min="39" max="39" width="10.88"/>
-    <col customWidth="1" min="40" max="40" width="7.63"/>
-    <col customWidth="1" min="41" max="41" width="10.13"/>
-    <col customWidth="1" min="42" max="42" width="6.88"/>
-    <col customWidth="1" min="43" max="43" width="9.0"/>
-    <col customWidth="1" min="44" max="44" width="10.25"/>
-    <col customWidth="1" min="45" max="45" width="9.25"/>
-    <col customWidth="1" min="46" max="46" width="25.5"/>
-    <col customWidth="1" min="47" max="47" width="10.63"/>
-    <col customWidth="1" min="48" max="48" width="10.88"/>
-    <col customWidth="1" min="49" max="49" width="7.63"/>
-    <col customWidth="1" min="50" max="51" width="13.63"/>
-    <col customWidth="1" min="52" max="53" width="13.5"/>
-    <col customWidth="1" min="54" max="55" width="25.25"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" customWidth="1"/>
+    <col min="19" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" customWidth="1"/>
+    <col min="28" max="28" width="6.88671875" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" customWidth="1"/>
+    <col min="31" max="31" width="7.33203125" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="7.109375" customWidth="1"/>
+    <col min="34" max="36" width="13.44140625" customWidth="1"/>
+    <col min="37" max="37" width="10.88671875" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" customWidth="1"/>
+    <col min="39" max="39" width="10.88671875" customWidth="1"/>
+    <col min="40" max="40" width="7.6640625" customWidth="1"/>
+    <col min="41" max="41" width="10.109375" customWidth="1"/>
+    <col min="42" max="42" width="6.88671875" customWidth="1"/>
+    <col min="43" max="43" width="9" customWidth="1"/>
+    <col min="44" max="44" width="10.21875" customWidth="1"/>
+    <col min="45" max="45" width="9.21875" customWidth="1"/>
+    <col min="46" max="46" width="25.44140625" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" customWidth="1"/>
+    <col min="48" max="48" width="10.88671875" customWidth="1"/>
+    <col min="49" max="49" width="7.6640625" customWidth="1"/>
+    <col min="50" max="51" width="13.6640625" customWidth="1"/>
+    <col min="52" max="53" width="13.44140625" customWidth="1"/>
+    <col min="54" max="55" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:55">
       <c r="A1" s="103" t="s">
         <v>26</v>
       </c>
@@ -8205,7 +8098,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:55">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
@@ -8282,7 +8175,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:55">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
@@ -8334,9 +8227,10 @@
       <c r="AS3" s="54"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
-      <c r="AV3" s="53" t="s">
+      <c r="AV3" s="127" t="s">
         <v>197</v>
       </c>
+      <c r="AW3" s="128"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
       <c r="AZ3" s="54"/>
@@ -8344,7 +8238,7 @@
       <c r="BB3" s="110"/>
       <c r="BC3" s="110"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:55">
       <c r="A4" s="108" t="s">
         <v>202</v>
       </c>
@@ -8427,9 +8321,10 @@
       <c r="AF4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AG4" s="57" t="s">
+      <c r="AG4" s="127" t="s">
         <v>204</v>
       </c>
+      <c r="AH4" s="128"/>
       <c r="AI4" s="58"/>
       <c r="AJ4" s="58"/>
       <c r="AK4" s="57" t="s">
@@ -8474,7 +8369,7 @@
       <c r="BB4" s="110"/>
       <c r="BC4" s="110"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:55">
       <c r="A5" s="111" t="s">
         <v>207</v>
       </c>
@@ -8533,7 +8428,7 @@
       <c r="BB5" s="112"/>
       <c r="BC5" s="112"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:55">
       <c r="A6" s="62" t="s">
         <v>320</v>
       </c>
@@ -8580,7 +8475,7 @@
         <v>221</v>
       </c>
       <c r="P6" s="66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="36" t="s">
         <v>221</v>
@@ -8598,7 +8493,7 @@
         <v>221</v>
       </c>
       <c r="V6" s="66">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="W6" s="116" t="s">
         <v>213</v>
@@ -8705,25 +8600,26 @@
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AG4:AH4"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.88"/>
-    <col customWidth="1" min="3" max="3" width="77.38"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="44" t="s">
         <v>336</v>
       </c>
@@ -8734,7 +8630,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>339</v>
       </c>
@@ -8745,7 +8641,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
         <v>339</v>
       </c>
@@ -8756,7 +8652,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="70" t="s">
         <v>25</v>
       </c>
@@ -8767,7 +8663,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="70" t="s">
         <v>25</v>
       </c>
@@ -8778,7 +8674,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="119" t="s">
         <v>348</v>
       </c>
@@ -8789,7 +8685,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="119" t="s">
         <v>348</v>
       </c>
@@ -8800,7 +8696,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="119" t="s">
         <v>348</v>
       </c>
@@ -8811,7 +8707,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="119" t="s">
         <v>348</v>
       </c>
@@ -8822,7 +8718,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="119" t="s">
         <v>348</v>
       </c>
@@ -8833,7 +8729,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="119" t="s">
         <v>348</v>
       </c>
@@ -8844,7 +8740,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="119" t="s">
         <v>348</v>
       </c>
@@ -8855,7 +8751,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="121" t="s">
         <v>363</v>
       </c>
@@ -8866,7 +8762,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="121" t="s">
         <v>363</v>
       </c>
@@ -8877,7 +8773,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="121" t="s">
         <v>363</v>
       </c>
@@ -8888,7 +8784,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="121" t="s">
         <v>363</v>
       </c>
@@ -8899,7 +8795,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="121" t="s">
         <v>363</v>
       </c>
@@ -8910,7 +8806,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="121" t="s">
         <v>363</v>
       </c>
@@ -8921,7 +8817,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="121" t="s">
         <v>363</v>
       </c>
@@ -8932,7 +8828,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="121" t="s">
         <v>363</v>
       </c>
@@ -8943,7 +8839,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="122" t="s">
         <v>377</v>
       </c>
@@ -8954,7 +8850,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="122" t="s">
         <v>377</v>
       </c>
@@ -8965,7 +8861,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="122" t="s">
         <v>377</v>
       </c>
@@ -8976,7 +8872,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="122" t="s">
         <v>377</v>
       </c>
@@ -8987,7 +8883,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="122" t="s">
         <v>377</v>
       </c>
@@ -8998,7 +8894,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="122" t="s">
         <v>377</v>
       </c>
@@ -9009,7 +8905,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="122" t="s">
         <v>377</v>
       </c>
@@ -9020,7 +8916,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="122" t="s">
         <v>377</v>
       </c>
@@ -9031,7 +8927,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="122" t="s">
         <v>377</v>
       </c>
@@ -9042,7 +8938,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="123" t="s">
         <v>394</v>
       </c>
@@ -9053,7 +8949,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="123" t="s">
         <v>394</v>
       </c>
@@ -9064,7 +8960,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="123" t="s">
         <v>394</v>
       </c>
@@ -9075,7 +8971,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="123" t="s">
         <v>394</v>
       </c>
@@ -9086,7 +8982,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>339</v>
       </c>
@@ -9097,7 +8993,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>339</v>
       </c>
@@ -9108,7 +9004,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="15" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>339</v>
       </c>
@@ -9119,7 +9015,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>339</v>
       </c>
@@ -9130,7 +9026,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>339</v>
       </c>
@@ -9141,7 +9037,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>339</v>
       </c>
@@ -9152,7 +9048,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="A40" s="36" t="s">
         <v>339</v>
       </c>
@@ -9163,7 +9059,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="15" customHeight="1">
       <c r="A41" s="36" t="s">
         <v>339</v>
       </c>
@@ -9174,7 +9070,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>339</v>
       </c>
@@ -9185,7 +9081,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="A43" s="36" t="s">
         <v>339</v>
       </c>
@@ -9196,7 +9092,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="A44" s="36" t="s">
         <v>339</v>
       </c>
@@ -9207,7 +9103,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="15" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>339</v>
       </c>
@@ -9218,7 +9114,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
       <c r="A46" s="36" t="s">
         <v>339</v>
       </c>
@@ -9229,7 +9125,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="A47" s="36" t="s">
         <v>339</v>
       </c>
@@ -9241,165 +9137,166 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="125"/>
       <c r="B1" s="49" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="126"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="126"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="108" t="s">
         <v>299</v>
       </c>
       <c r="B4" s="126"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="108" t="s">
         <v>202</v>
       </c>
       <c r="B5" s="126"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="111" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="112"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="81"/>
       <c r="B7" s="82"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="81"/>
       <c r="B17" s="82"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="81"/>
       <c r="B18" s="82"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="81"/>
       <c r="B19" s="82"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="81"/>
       <c r="B20" s="82"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="81"/>
       <c r="B21" s="82"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="81"/>
       <c r="B22" s="82"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="81"/>
       <c r="B23" s="82"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="81"/>
       <c r="B25" s="82"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="81"/>
       <c r="B26" s="82"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="81"/>
       <c r="B27" s="82"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" s="81"/>
       <c r="B28" s="82"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" s="81"/>
       <c r="B31" s="82"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="81"/>
       <c r="B32" s="82"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="81"/>
       <c r="B33" s="82"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="516" windowWidth="21852" windowHeight="6828" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="6828" windowWidth="21852" xWindow="324" yWindow="516"/>
   </bookViews>
   <sheets>
-    <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="001" sheetId="3" r:id="rId3"/>
-    <sheet name="003HAB" sheetId="4" r:id="rId4"/>
-    <sheet name="003MET" sheetId="5" r:id="rId5"/>
-    <sheet name="004EMP" sheetId="6" r:id="rId6"/>
-    <sheet name="005" sheetId="7" r:id="rId7"/>
-    <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
-    <sheet name="MODELE" sheetId="9" r:id="rId9"/>
+    <sheet name="Version" r:id="rId1" sheetId="1"/>
+    <sheet name="Info" r:id="rId2" sheetId="2"/>
+    <sheet name="001" r:id="rId3" sheetId="3"/>
+    <sheet name="003HAB" r:id="rId4" sheetId="4"/>
+    <sheet name="003MET" r:id="rId5" sheetId="5"/>
+    <sheet name="004EMP" r:id="rId6" sheetId="6"/>
+    <sheet name="005" r:id="rId7" sheetId="7"/>
+    <sheet name="IHMTO" r:id="rId8" sheetId="8"/>
+    <sheet name="MODELE" r:id="rId9" sheetId="9"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="432">
   <si>
     <t>Date</t>
   </si>
@@ -1346,6 +1346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
       <sz val="10"/>
@@ -1666,278 +1667,278 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="129">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="3" numFmtId="14" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="15" fontId="3" numFmtId="14" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="15" fontId="4" numFmtId="14" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="14" fontId="3" numFmtId="14" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="19" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="21" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="22" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -2053,21 +2054,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2084,7 +2085,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2139,20 +2140,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F999"/>
+  <dimension ref="A1:G999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="6" max="26" customWidth="true" width="10.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="2" spans="1:6">
       <c r="A2" s="4">
         <v>44886</v>
       </c>
@@ -2185,7 +2186,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="3" spans="1:6">
       <c r="A3" s="4">
         <v>44886</v>
       </c>
@@ -2198,7 +2199,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="4" spans="1:6">
       <c r="A4" s="4">
         <v>44886</v>
       </c>
@@ -2211,7 +2212,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="5" spans="1:6">
       <c r="A5" s="4">
         <v>44886</v>
       </c>
@@ -2224,7 +2225,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2241,1089 +2242,1089 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="7" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="8" spans="1:6">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="11" spans="1:6">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="12" spans="1:6">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="13" spans="1:6">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="14" spans="1:6">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="15" spans="1:6">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="16" spans="1:6">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="17" spans="1:5">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
+    <row customHeight="1" ht="12.75" r="18" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="19" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="20" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="21" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="22" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="23" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="24" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="25" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="26" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="27" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="28" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="29" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="30" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="31" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="32" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="33"/>
+    <row customHeight="1" ht="12.75" r="34"/>
+    <row customHeight="1" ht="12.75" r="35"/>
+    <row customHeight="1" ht="12.75" r="36"/>
+    <row customHeight="1" ht="12.75" r="37"/>
+    <row customHeight="1" ht="12.75" r="38"/>
+    <row customHeight="1" ht="12.75" r="39"/>
+    <row customHeight="1" ht="12.75" r="40"/>
+    <row customHeight="1" ht="12.75" r="41"/>
+    <row customHeight="1" ht="12.75" r="42"/>
+    <row customHeight="1" ht="12.75" r="43"/>
+    <row customHeight="1" ht="12.75" r="44"/>
+    <row customHeight="1" ht="12.75" r="45"/>
+    <row customHeight="1" ht="12.75" r="46"/>
+    <row customHeight="1" ht="12.75" r="47"/>
+    <row customHeight="1" ht="12.75" r="48"/>
+    <row customHeight="1" ht="12.75" r="49"/>
+    <row customHeight="1" ht="12.75" r="50"/>
+    <row customHeight="1" ht="12.75" r="51"/>
+    <row customHeight="1" ht="12.75" r="52"/>
+    <row customHeight="1" ht="12.75" r="53"/>
+    <row customHeight="1" ht="12.75" r="54"/>
+    <row customHeight="1" ht="12.75" r="55"/>
+    <row customHeight="1" ht="12.75" r="56"/>
+    <row customHeight="1" ht="12.75" r="57"/>
+    <row customHeight="1" ht="12.75" r="58"/>
+    <row customHeight="1" ht="12.75" r="59"/>
+    <row customHeight="1" ht="12.75" r="60"/>
+    <row customHeight="1" ht="12.75" r="61"/>
+    <row customHeight="1" ht="12.75" r="62"/>
+    <row customHeight="1" ht="12.75" r="63"/>
+    <row customHeight="1" ht="12.75" r="64"/>
+    <row customHeight="1" ht="12.75" r="65"/>
+    <row customHeight="1" ht="12.75" r="66"/>
+    <row customHeight="1" ht="12.75" r="67"/>
+    <row customHeight="1" ht="12.75" r="68"/>
+    <row customHeight="1" ht="12.75" r="69"/>
+    <row customHeight="1" ht="12.75" r="70"/>
+    <row customHeight="1" ht="12.75" r="71"/>
+    <row customHeight="1" ht="12.75" r="72"/>
+    <row customHeight="1" ht="12.75" r="73"/>
+    <row customHeight="1" ht="12.75" r="74"/>
+    <row customHeight="1" ht="12.75" r="75"/>
+    <row customHeight="1" ht="12.75" r="76"/>
+    <row customHeight="1" ht="12.75" r="77"/>
+    <row customHeight="1" ht="12.75" r="78"/>
+    <row customHeight="1" ht="12.75" r="79"/>
+    <row customHeight="1" ht="12.75" r="80"/>
+    <row customHeight="1" ht="12.75" r="81"/>
+    <row customHeight="1" ht="12.75" r="82"/>
+    <row customHeight="1" ht="12.75" r="83"/>
+    <row customHeight="1" ht="12.75" r="84"/>
+    <row customHeight="1" ht="12.75" r="85"/>
+    <row customHeight="1" ht="12.75" r="86"/>
+    <row customHeight="1" ht="12.75" r="87"/>
+    <row customHeight="1" ht="12.75" r="88"/>
+    <row customHeight="1" ht="12.75" r="89"/>
+    <row customHeight="1" ht="12.75" r="90"/>
+    <row customHeight="1" ht="12.75" r="91"/>
+    <row customHeight="1" ht="12.75" r="92"/>
+    <row customHeight="1" ht="12.75" r="93"/>
+    <row customHeight="1" ht="12.75" r="94"/>
+    <row customHeight="1" ht="12.75" r="95"/>
+    <row customHeight="1" ht="12.75" r="96"/>
+    <row customHeight="1" ht="12.75" r="97"/>
+    <row customHeight="1" ht="12.75" r="98"/>
+    <row customHeight="1" ht="12.75" r="99"/>
+    <row customHeight="1" ht="12.75" r="100"/>
+    <row customHeight="1" ht="12.75" r="101"/>
+    <row customHeight="1" ht="12.75" r="102"/>
+    <row customHeight="1" ht="12.75" r="103"/>
+    <row customHeight="1" ht="12.75" r="104"/>
+    <row customHeight="1" ht="12.75" r="105"/>
+    <row customHeight="1" ht="12.75" r="106"/>
+    <row customHeight="1" ht="12.75" r="107"/>
+    <row customHeight="1" ht="12.75" r="108"/>
+    <row customHeight="1" ht="12.75" r="109"/>
+    <row customHeight="1" ht="12.75" r="110"/>
+    <row customHeight="1" ht="12.75" r="111"/>
+    <row customHeight="1" ht="12.75" r="112"/>
+    <row customHeight="1" ht="12.75" r="113"/>
+    <row customHeight="1" ht="12.75" r="114"/>
+    <row customHeight="1" ht="12.75" r="115"/>
+    <row customHeight="1" ht="12.75" r="116"/>
+    <row customHeight="1" ht="12.75" r="117"/>
+    <row customHeight="1" ht="12.75" r="118"/>
+    <row customHeight="1" ht="12.75" r="119"/>
+    <row customHeight="1" ht="12.75" r="120"/>
+    <row customHeight="1" ht="12.75" r="121"/>
+    <row customHeight="1" ht="12.75" r="122"/>
+    <row customHeight="1" ht="12.75" r="123"/>
+    <row customHeight="1" ht="12.75" r="124"/>
+    <row customHeight="1" ht="12.75" r="125"/>
+    <row customHeight="1" ht="12.75" r="126"/>
+    <row customHeight="1" ht="12.75" r="127"/>
+    <row customHeight="1" ht="12.75" r="128"/>
+    <row customHeight="1" ht="12.75" r="129"/>
+    <row customHeight="1" ht="12.75" r="130"/>
+    <row customHeight="1" ht="12.75" r="131"/>
+    <row customHeight="1" ht="12.75" r="132"/>
+    <row customHeight="1" ht="12.75" r="133"/>
+    <row customHeight="1" ht="12.75" r="134"/>
+    <row customHeight="1" ht="12.75" r="135"/>
+    <row customHeight="1" ht="12.75" r="136"/>
+    <row customHeight="1" ht="12.75" r="137"/>
+    <row customHeight="1" ht="12.75" r="138"/>
+    <row customHeight="1" ht="12.75" r="139"/>
+    <row customHeight="1" ht="12.75" r="140"/>
+    <row customHeight="1" ht="12.75" r="141"/>
+    <row customHeight="1" ht="12.75" r="142"/>
+    <row customHeight="1" ht="12.75" r="143"/>
+    <row customHeight="1" ht="12.75" r="144"/>
+    <row customHeight="1" ht="12.75" r="145"/>
+    <row customHeight="1" ht="12.75" r="146"/>
+    <row customHeight="1" ht="12.75" r="147"/>
+    <row customHeight="1" ht="12.75" r="148"/>
+    <row customHeight="1" ht="12.75" r="149"/>
+    <row customHeight="1" ht="12.75" r="150"/>
+    <row customHeight="1" ht="12.75" r="151"/>
+    <row customHeight="1" ht="12.75" r="152"/>
+    <row customHeight="1" ht="12.75" r="153"/>
+    <row customHeight="1" ht="12.75" r="154"/>
+    <row customHeight="1" ht="12.75" r="155"/>
+    <row customHeight="1" ht="12.75" r="156"/>
+    <row customHeight="1" ht="12.75" r="157"/>
+    <row customHeight="1" ht="12.75" r="158"/>
+    <row customHeight="1" ht="12.75" r="159"/>
+    <row customHeight="1" ht="12.75" r="160"/>
+    <row customHeight="1" ht="12.75" r="161"/>
+    <row customHeight="1" ht="12.75" r="162"/>
+    <row customHeight="1" ht="12.75" r="163"/>
+    <row customHeight="1" ht="12.75" r="164"/>
+    <row customHeight="1" ht="12.75" r="165"/>
+    <row customHeight="1" ht="12.75" r="166"/>
+    <row customHeight="1" ht="12.75" r="167"/>
+    <row customHeight="1" ht="12.75" r="168"/>
+    <row customHeight="1" ht="12.75" r="169"/>
+    <row customHeight="1" ht="12.75" r="170"/>
+    <row customHeight="1" ht="12.75" r="171"/>
+    <row customHeight="1" ht="12.75" r="172"/>
+    <row customHeight="1" ht="12.75" r="173"/>
+    <row customHeight="1" ht="12.75" r="174"/>
+    <row customHeight="1" ht="12.75" r="175"/>
+    <row customHeight="1" ht="12.75" r="176"/>
+    <row customHeight="1" ht="12.75" r="177"/>
+    <row customHeight="1" ht="12.75" r="178"/>
+    <row customHeight="1" ht="12.75" r="179"/>
+    <row customHeight="1" ht="12.75" r="180"/>
+    <row customHeight="1" ht="12.75" r="181"/>
+    <row customHeight="1" ht="12.75" r="182"/>
+    <row customHeight="1" ht="12.75" r="183"/>
+    <row customHeight="1" ht="12.75" r="184"/>
+    <row customHeight="1" ht="12.75" r="185"/>
+    <row customHeight="1" ht="12.75" r="186"/>
+    <row customHeight="1" ht="12.75" r="187"/>
+    <row customHeight="1" ht="12.75" r="188"/>
+    <row customHeight="1" ht="12.75" r="189"/>
+    <row customHeight="1" ht="12.75" r="190"/>
+    <row customHeight="1" ht="12.75" r="191"/>
+    <row customHeight="1" ht="12.75" r="192"/>
+    <row customHeight="1" ht="12.75" r="193"/>
+    <row customHeight="1" ht="12.75" r="194"/>
+    <row customHeight="1" ht="12.75" r="195"/>
+    <row customHeight="1" ht="12.75" r="196"/>
+    <row customHeight="1" ht="12.75" r="197"/>
+    <row customHeight="1" ht="12.75" r="198"/>
+    <row customHeight="1" ht="12.75" r="199"/>
+    <row customHeight="1" ht="12.75" r="200"/>
+    <row customHeight="1" ht="12.75" r="201"/>
+    <row customHeight="1" ht="12.75" r="202"/>
+    <row customHeight="1" ht="12.75" r="203"/>
+    <row customHeight="1" ht="12.75" r="204"/>
+    <row customHeight="1" ht="12.75" r="205"/>
+    <row customHeight="1" ht="12.75" r="206"/>
+    <row customHeight="1" ht="12.75" r="207"/>
+    <row customHeight="1" ht="12.75" r="208"/>
+    <row customHeight="1" ht="12.75" r="209"/>
+    <row customHeight="1" ht="12.75" r="210"/>
+    <row customHeight="1" ht="12.75" r="211"/>
+    <row customHeight="1" ht="12.75" r="212"/>
+    <row customHeight="1" ht="12.75" r="213"/>
+    <row customHeight="1" ht="12.75" r="214"/>
+    <row customHeight="1" ht="12.75" r="215"/>
+    <row customHeight="1" ht="12.75" r="216"/>
+    <row customHeight="1" ht="12.75" r="217"/>
+    <row customHeight="1" ht="12.75" r="218"/>
+    <row customHeight="1" ht="12.75" r="219"/>
+    <row customHeight="1" ht="12.75" r="220"/>
+    <row customHeight="1" ht="12.75" r="221"/>
+    <row customHeight="1" ht="12.75" r="222"/>
+    <row customHeight="1" ht="12.75" r="223"/>
+    <row customHeight="1" ht="12.75" r="224"/>
+    <row customHeight="1" ht="12.75" r="225"/>
+    <row customHeight="1" ht="12.75" r="226"/>
+    <row customHeight="1" ht="12.75" r="227"/>
+    <row customHeight="1" ht="12.75" r="228"/>
+    <row customHeight="1" ht="12.75" r="229"/>
+    <row customHeight="1" ht="12.75" r="230"/>
+    <row customHeight="1" ht="12.75" r="231"/>
+    <row customHeight="1" ht="12.75" r="232"/>
+    <row customHeight="1" ht="12.75" r="233"/>
+    <row customHeight="1" ht="12.75" r="234"/>
+    <row customHeight="1" ht="12.75" r="235"/>
+    <row customHeight="1" ht="12.75" r="236"/>
+    <row customHeight="1" ht="12.75" r="237"/>
+    <row customHeight="1" ht="12.75" r="238"/>
+    <row customHeight="1" ht="12.75" r="239"/>
+    <row customHeight="1" ht="12.75" r="240"/>
+    <row customHeight="1" ht="12.75" r="241"/>
+    <row customHeight="1" ht="12.75" r="242"/>
+    <row customHeight="1" ht="12.75" r="243"/>
+    <row customHeight="1" ht="12.75" r="244"/>
+    <row customHeight="1" ht="12.75" r="245"/>
+    <row customHeight="1" ht="12.75" r="246"/>
+    <row customHeight="1" ht="12.75" r="247"/>
+    <row customHeight="1" ht="12.75" r="248"/>
+    <row customHeight="1" ht="12.75" r="249"/>
+    <row customHeight="1" ht="12.75" r="250"/>
+    <row customHeight="1" ht="12.75" r="251"/>
+    <row customHeight="1" ht="12.75" r="252"/>
+    <row customHeight="1" ht="12.75" r="253"/>
+    <row customHeight="1" ht="12.75" r="254"/>
+    <row customHeight="1" ht="12.75" r="255"/>
+    <row customHeight="1" ht="12.75" r="256"/>
+    <row customHeight="1" ht="12.75" r="257"/>
+    <row customHeight="1" ht="12.75" r="258"/>
+    <row customHeight="1" ht="12.75" r="259"/>
+    <row customHeight="1" ht="12.75" r="260"/>
+    <row customHeight="1" ht="12.75" r="261"/>
+    <row customHeight="1" ht="12.75" r="262"/>
+    <row customHeight="1" ht="12.75" r="263"/>
+    <row customHeight="1" ht="12.75" r="264"/>
+    <row customHeight="1" ht="12.75" r="265"/>
+    <row customHeight="1" ht="12.75" r="266"/>
+    <row customHeight="1" ht="12.75" r="267"/>
+    <row customHeight="1" ht="12.75" r="268"/>
+    <row customHeight="1" ht="12.75" r="269"/>
+    <row customHeight="1" ht="12.75" r="270"/>
+    <row customHeight="1" ht="12.75" r="271"/>
+    <row customHeight="1" ht="12.75" r="272"/>
+    <row customHeight="1" ht="12.75" r="273"/>
+    <row customHeight="1" ht="12.75" r="274"/>
+    <row customHeight="1" ht="12.75" r="275"/>
+    <row customHeight="1" ht="12.75" r="276"/>
+    <row customHeight="1" ht="12.75" r="277"/>
+    <row customHeight="1" ht="12.75" r="278"/>
+    <row customHeight="1" ht="12.75" r="279"/>
+    <row customHeight="1" ht="12.75" r="280"/>
+    <row customHeight="1" ht="12.75" r="281"/>
+    <row customHeight="1" ht="12.75" r="282"/>
+    <row customHeight="1" ht="12.75" r="283"/>
+    <row customHeight="1" ht="12.75" r="284"/>
+    <row customHeight="1" ht="12.75" r="285"/>
+    <row customHeight="1" ht="12.75" r="286"/>
+    <row customHeight="1" ht="12.75" r="287"/>
+    <row customHeight="1" ht="12.75" r="288"/>
+    <row customHeight="1" ht="12.75" r="289"/>
+    <row customHeight="1" ht="12.75" r="290"/>
+    <row customHeight="1" ht="12.75" r="291"/>
+    <row customHeight="1" ht="12.75" r="292"/>
+    <row customHeight="1" ht="12.75" r="293"/>
+    <row customHeight="1" ht="12.75" r="294"/>
+    <row customHeight="1" ht="12.75" r="295"/>
+    <row customHeight="1" ht="12.75" r="296"/>
+    <row customHeight="1" ht="12.75" r="297"/>
+    <row customHeight="1" ht="12.75" r="298"/>
+    <row customHeight="1" ht="12.75" r="299"/>
+    <row customHeight="1" ht="12.75" r="300"/>
+    <row customHeight="1" ht="12.75" r="301"/>
+    <row customHeight="1" ht="12.75" r="302"/>
+    <row customHeight="1" ht="12.75" r="303"/>
+    <row customHeight="1" ht="12.75" r="304"/>
+    <row customHeight="1" ht="12.75" r="305"/>
+    <row customHeight="1" ht="12.75" r="306"/>
+    <row customHeight="1" ht="12.75" r="307"/>
+    <row customHeight="1" ht="12.75" r="308"/>
+    <row customHeight="1" ht="12.75" r="309"/>
+    <row customHeight="1" ht="12.75" r="310"/>
+    <row customHeight="1" ht="12.75" r="311"/>
+    <row customHeight="1" ht="12.75" r="312"/>
+    <row customHeight="1" ht="12.75" r="313"/>
+    <row customHeight="1" ht="12.75" r="314"/>
+    <row customHeight="1" ht="12.75" r="315"/>
+    <row customHeight="1" ht="12.75" r="316"/>
+    <row customHeight="1" ht="12.75" r="317"/>
+    <row customHeight="1" ht="12.75" r="318"/>
+    <row customHeight="1" ht="12.75" r="319"/>
+    <row customHeight="1" ht="12.75" r="320"/>
+    <row customHeight="1" ht="12.75" r="321"/>
+    <row customHeight="1" ht="12.75" r="322"/>
+    <row customHeight="1" ht="12.75" r="323"/>
+    <row customHeight="1" ht="12.75" r="324"/>
+    <row customHeight="1" ht="12.75" r="325"/>
+    <row customHeight="1" ht="12.75" r="326"/>
+    <row customHeight="1" ht="12.75" r="327"/>
+    <row customHeight="1" ht="12.75" r="328"/>
+    <row customHeight="1" ht="12.75" r="329"/>
+    <row customHeight="1" ht="12.75" r="330"/>
+    <row customHeight="1" ht="12.75" r="331"/>
+    <row customHeight="1" ht="12.75" r="332"/>
+    <row customHeight="1" ht="12.75" r="333"/>
+    <row customHeight="1" ht="12.75" r="334"/>
+    <row customHeight="1" ht="12.75" r="335"/>
+    <row customHeight="1" ht="12.75" r="336"/>
+    <row customHeight="1" ht="12.75" r="337"/>
+    <row customHeight="1" ht="12.75" r="338"/>
+    <row customHeight="1" ht="12.75" r="339"/>
+    <row customHeight="1" ht="12.75" r="340"/>
+    <row customHeight="1" ht="12.75" r="341"/>
+    <row customHeight="1" ht="12.75" r="342"/>
+    <row customHeight="1" ht="12.75" r="343"/>
+    <row customHeight="1" ht="12.75" r="344"/>
+    <row customHeight="1" ht="12.75" r="345"/>
+    <row customHeight="1" ht="12.75" r="346"/>
+    <row customHeight="1" ht="12.75" r="347"/>
+    <row customHeight="1" ht="12.75" r="348"/>
+    <row customHeight="1" ht="12.75" r="349"/>
+    <row customHeight="1" ht="12.75" r="350"/>
+    <row customHeight="1" ht="12.75" r="351"/>
+    <row customHeight="1" ht="12.75" r="352"/>
+    <row customHeight="1" ht="12.75" r="353"/>
+    <row customHeight="1" ht="12.75" r="354"/>
+    <row customHeight="1" ht="12.75" r="355"/>
+    <row customHeight="1" ht="12.75" r="356"/>
+    <row customHeight="1" ht="12.75" r="357"/>
+    <row customHeight="1" ht="12.75" r="358"/>
+    <row customHeight="1" ht="12.75" r="359"/>
+    <row customHeight="1" ht="12.75" r="360"/>
+    <row customHeight="1" ht="12.75" r="361"/>
+    <row customHeight="1" ht="12.75" r="362"/>
+    <row customHeight="1" ht="12.75" r="363"/>
+    <row customHeight="1" ht="12.75" r="364"/>
+    <row customHeight="1" ht="12.75" r="365"/>
+    <row customHeight="1" ht="12.75" r="366"/>
+    <row customHeight="1" ht="12.75" r="367"/>
+    <row customHeight="1" ht="12.75" r="368"/>
+    <row customHeight="1" ht="12.75" r="369"/>
+    <row customHeight="1" ht="12.75" r="370"/>
+    <row customHeight="1" ht="12.75" r="371"/>
+    <row customHeight="1" ht="12.75" r="372"/>
+    <row customHeight="1" ht="12.75" r="373"/>
+    <row customHeight="1" ht="12.75" r="374"/>
+    <row customHeight="1" ht="12.75" r="375"/>
+    <row customHeight="1" ht="12.75" r="376"/>
+    <row customHeight="1" ht="12.75" r="377"/>
+    <row customHeight="1" ht="12.75" r="378"/>
+    <row customHeight="1" ht="12.75" r="379"/>
+    <row customHeight="1" ht="12.75" r="380"/>
+    <row customHeight="1" ht="12.75" r="381"/>
+    <row customHeight="1" ht="12.75" r="382"/>
+    <row customHeight="1" ht="12.75" r="383"/>
+    <row customHeight="1" ht="12.75" r="384"/>
+    <row customHeight="1" ht="12.75" r="385"/>
+    <row customHeight="1" ht="12.75" r="386"/>
+    <row customHeight="1" ht="12.75" r="387"/>
+    <row customHeight="1" ht="12.75" r="388"/>
+    <row customHeight="1" ht="12.75" r="389"/>
+    <row customHeight="1" ht="12.75" r="390"/>
+    <row customHeight="1" ht="12.75" r="391"/>
+    <row customHeight="1" ht="12.75" r="392"/>
+    <row customHeight="1" ht="12.75" r="393"/>
+    <row customHeight="1" ht="12.75" r="394"/>
+    <row customHeight="1" ht="12.75" r="395"/>
+    <row customHeight="1" ht="12.75" r="396"/>
+    <row customHeight="1" ht="12.75" r="397"/>
+    <row customHeight="1" ht="12.75" r="398"/>
+    <row customHeight="1" ht="12.75" r="399"/>
+    <row customHeight="1" ht="12.75" r="400"/>
+    <row customHeight="1" ht="12.75" r="401"/>
+    <row customHeight="1" ht="12.75" r="402"/>
+    <row customHeight="1" ht="12.75" r="403"/>
+    <row customHeight="1" ht="12.75" r="404"/>
+    <row customHeight="1" ht="12.75" r="405"/>
+    <row customHeight="1" ht="12.75" r="406"/>
+    <row customHeight="1" ht="12.75" r="407"/>
+    <row customHeight="1" ht="12.75" r="408"/>
+    <row customHeight="1" ht="12.75" r="409"/>
+    <row customHeight="1" ht="12.75" r="410"/>
+    <row customHeight="1" ht="12.75" r="411"/>
+    <row customHeight="1" ht="12.75" r="412"/>
+    <row customHeight="1" ht="12.75" r="413"/>
+    <row customHeight="1" ht="12.75" r="414"/>
+    <row customHeight="1" ht="12.75" r="415"/>
+    <row customHeight="1" ht="12.75" r="416"/>
+    <row customHeight="1" ht="12.75" r="417"/>
+    <row customHeight="1" ht="12.75" r="418"/>
+    <row customHeight="1" ht="12.75" r="419"/>
+    <row customHeight="1" ht="12.75" r="420"/>
+    <row customHeight="1" ht="12.75" r="421"/>
+    <row customHeight="1" ht="12.75" r="422"/>
+    <row customHeight="1" ht="12.75" r="423"/>
+    <row customHeight="1" ht="12.75" r="424"/>
+    <row customHeight="1" ht="12.75" r="425"/>
+    <row customHeight="1" ht="12.75" r="426"/>
+    <row customHeight="1" ht="12.75" r="427"/>
+    <row customHeight="1" ht="12.75" r="428"/>
+    <row customHeight="1" ht="12.75" r="429"/>
+    <row customHeight="1" ht="12.75" r="430"/>
+    <row customHeight="1" ht="12.75" r="431"/>
+    <row customHeight="1" ht="12.75" r="432"/>
+    <row customHeight="1" ht="12.75" r="433"/>
+    <row customHeight="1" ht="12.75" r="434"/>
+    <row customHeight="1" ht="12.75" r="435"/>
+    <row customHeight="1" ht="12.75" r="436"/>
+    <row customHeight="1" ht="12.75" r="437"/>
+    <row customHeight="1" ht="12.75" r="438"/>
+    <row customHeight="1" ht="12.75" r="439"/>
+    <row customHeight="1" ht="12.75" r="440"/>
+    <row customHeight="1" ht="12.75" r="441"/>
+    <row customHeight="1" ht="12.75" r="442"/>
+    <row customHeight="1" ht="12.75" r="443"/>
+    <row customHeight="1" ht="12.75" r="444"/>
+    <row customHeight="1" ht="12.75" r="445"/>
+    <row customHeight="1" ht="12.75" r="446"/>
+    <row customHeight="1" ht="12.75" r="447"/>
+    <row customHeight="1" ht="12.75" r="448"/>
+    <row customHeight="1" ht="12.75" r="449"/>
+    <row customHeight="1" ht="12.75" r="450"/>
+    <row customHeight="1" ht="12.75" r="451"/>
+    <row customHeight="1" ht="12.75" r="452"/>
+    <row customHeight="1" ht="12.75" r="453"/>
+    <row customHeight="1" ht="12.75" r="454"/>
+    <row customHeight="1" ht="12.75" r="455"/>
+    <row customHeight="1" ht="12.75" r="456"/>
+    <row customHeight="1" ht="12.75" r="457"/>
+    <row customHeight="1" ht="12.75" r="458"/>
+    <row customHeight="1" ht="12.75" r="459"/>
+    <row customHeight="1" ht="12.75" r="460"/>
+    <row customHeight="1" ht="12.75" r="461"/>
+    <row customHeight="1" ht="12.75" r="462"/>
+    <row customHeight="1" ht="12.75" r="463"/>
+    <row customHeight="1" ht="12.75" r="464"/>
+    <row customHeight="1" ht="12.75" r="465"/>
+    <row customHeight="1" ht="12.75" r="466"/>
+    <row customHeight="1" ht="12.75" r="467"/>
+    <row customHeight="1" ht="12.75" r="468"/>
+    <row customHeight="1" ht="12.75" r="469"/>
+    <row customHeight="1" ht="12.75" r="470"/>
+    <row customHeight="1" ht="12.75" r="471"/>
+    <row customHeight="1" ht="12.75" r="472"/>
+    <row customHeight="1" ht="12.75" r="473"/>
+    <row customHeight="1" ht="12.75" r="474"/>
+    <row customHeight="1" ht="12.75" r="475"/>
+    <row customHeight="1" ht="12.75" r="476"/>
+    <row customHeight="1" ht="12.75" r="477"/>
+    <row customHeight="1" ht="12.75" r="478"/>
+    <row customHeight="1" ht="12.75" r="479"/>
+    <row customHeight="1" ht="12.75" r="480"/>
+    <row customHeight="1" ht="12.75" r="481"/>
+    <row customHeight="1" ht="12.75" r="482"/>
+    <row customHeight="1" ht="12.75" r="483"/>
+    <row customHeight="1" ht="12.75" r="484"/>
+    <row customHeight="1" ht="12.75" r="485"/>
+    <row customHeight="1" ht="12.75" r="486"/>
+    <row customHeight="1" ht="12.75" r="487"/>
+    <row customHeight="1" ht="12.75" r="488"/>
+    <row customHeight="1" ht="12.75" r="489"/>
+    <row customHeight="1" ht="12.75" r="490"/>
+    <row customHeight="1" ht="12.75" r="491"/>
+    <row customHeight="1" ht="12.75" r="492"/>
+    <row customHeight="1" ht="12.75" r="493"/>
+    <row customHeight="1" ht="12.75" r="494"/>
+    <row customHeight="1" ht="12.75" r="495"/>
+    <row customHeight="1" ht="12.75" r="496"/>
+    <row customHeight="1" ht="12.75" r="497"/>
+    <row customHeight="1" ht="12.75" r="498"/>
+    <row customHeight="1" ht="12.75" r="499"/>
+    <row customHeight="1" ht="12.75" r="500"/>
+    <row customHeight="1" ht="12.75" r="501"/>
+    <row customHeight="1" ht="12.75" r="502"/>
+    <row customHeight="1" ht="12.75" r="503"/>
+    <row customHeight="1" ht="12.75" r="504"/>
+    <row customHeight="1" ht="12.75" r="505"/>
+    <row customHeight="1" ht="12.75" r="506"/>
+    <row customHeight="1" ht="12.75" r="507"/>
+    <row customHeight="1" ht="12.75" r="508"/>
+    <row customHeight="1" ht="12.75" r="509"/>
+    <row customHeight="1" ht="12.75" r="510"/>
+    <row customHeight="1" ht="12.75" r="511"/>
+    <row customHeight="1" ht="12.75" r="512"/>
+    <row customHeight="1" ht="12.75" r="513"/>
+    <row customHeight="1" ht="12.75" r="514"/>
+    <row customHeight="1" ht="12.75" r="515"/>
+    <row customHeight="1" ht="12.75" r="516"/>
+    <row customHeight="1" ht="12.75" r="517"/>
+    <row customHeight="1" ht="12.75" r="518"/>
+    <row customHeight="1" ht="12.75" r="519"/>
+    <row customHeight="1" ht="12.75" r="520"/>
+    <row customHeight="1" ht="12.75" r="521"/>
+    <row customHeight="1" ht="12.75" r="522"/>
+    <row customHeight="1" ht="12.75" r="523"/>
+    <row customHeight="1" ht="12.75" r="524"/>
+    <row customHeight="1" ht="12.75" r="525"/>
+    <row customHeight="1" ht="12.75" r="526"/>
+    <row customHeight="1" ht="12.75" r="527"/>
+    <row customHeight="1" ht="12.75" r="528"/>
+    <row customHeight="1" ht="12.75" r="529"/>
+    <row customHeight="1" ht="12.75" r="530"/>
+    <row customHeight="1" ht="12.75" r="531"/>
+    <row customHeight="1" ht="12.75" r="532"/>
+    <row customHeight="1" ht="12.75" r="533"/>
+    <row customHeight="1" ht="12.75" r="534"/>
+    <row customHeight="1" ht="12.75" r="535"/>
+    <row customHeight="1" ht="12.75" r="536"/>
+    <row customHeight="1" ht="12.75" r="537"/>
+    <row customHeight="1" ht="12.75" r="538"/>
+    <row customHeight="1" ht="12.75" r="539"/>
+    <row customHeight="1" ht="12.75" r="540"/>
+    <row customHeight="1" ht="12.75" r="541"/>
+    <row customHeight="1" ht="12.75" r="542"/>
+    <row customHeight="1" ht="12.75" r="543"/>
+    <row customHeight="1" ht="12.75" r="544"/>
+    <row customHeight="1" ht="12.75" r="545"/>
+    <row customHeight="1" ht="12.75" r="546"/>
+    <row customHeight="1" ht="12.75" r="547"/>
+    <row customHeight="1" ht="12.75" r="548"/>
+    <row customHeight="1" ht="12.75" r="549"/>
+    <row customHeight="1" ht="12.75" r="550"/>
+    <row customHeight="1" ht="12.75" r="551"/>
+    <row customHeight="1" ht="12.75" r="552"/>
+    <row customHeight="1" ht="12.75" r="553"/>
+    <row customHeight="1" ht="12.75" r="554"/>
+    <row customHeight="1" ht="12.75" r="555"/>
+    <row customHeight="1" ht="12.75" r="556"/>
+    <row customHeight="1" ht="12.75" r="557"/>
+    <row customHeight="1" ht="12.75" r="558"/>
+    <row customHeight="1" ht="12.75" r="559"/>
+    <row customHeight="1" ht="12.75" r="560"/>
+    <row customHeight="1" ht="12.75" r="561"/>
+    <row customHeight="1" ht="12.75" r="562"/>
+    <row customHeight="1" ht="12.75" r="563"/>
+    <row customHeight="1" ht="12.75" r="564"/>
+    <row customHeight="1" ht="12.75" r="565"/>
+    <row customHeight="1" ht="12.75" r="566"/>
+    <row customHeight="1" ht="12.75" r="567"/>
+    <row customHeight="1" ht="12.75" r="568"/>
+    <row customHeight="1" ht="12.75" r="569"/>
+    <row customHeight="1" ht="12.75" r="570"/>
+    <row customHeight="1" ht="12.75" r="571"/>
+    <row customHeight="1" ht="12.75" r="572"/>
+    <row customHeight="1" ht="12.75" r="573"/>
+    <row customHeight="1" ht="12.75" r="574"/>
+    <row customHeight="1" ht="12.75" r="575"/>
+    <row customHeight="1" ht="12.75" r="576"/>
+    <row customHeight="1" ht="12.75" r="577"/>
+    <row customHeight="1" ht="12.75" r="578"/>
+    <row customHeight="1" ht="12.75" r="579"/>
+    <row customHeight="1" ht="12.75" r="580"/>
+    <row customHeight="1" ht="12.75" r="581"/>
+    <row customHeight="1" ht="12.75" r="582"/>
+    <row customHeight="1" ht="12.75" r="583"/>
+    <row customHeight="1" ht="12.75" r="584"/>
+    <row customHeight="1" ht="12.75" r="585"/>
+    <row customHeight="1" ht="12.75" r="586"/>
+    <row customHeight="1" ht="12.75" r="587"/>
+    <row customHeight="1" ht="12.75" r="588"/>
+    <row customHeight="1" ht="12.75" r="589"/>
+    <row customHeight="1" ht="12.75" r="590"/>
+    <row customHeight="1" ht="12.75" r="591"/>
+    <row customHeight="1" ht="12.75" r="592"/>
+    <row customHeight="1" ht="12.75" r="593"/>
+    <row customHeight="1" ht="12.75" r="594"/>
+    <row customHeight="1" ht="12.75" r="595"/>
+    <row customHeight="1" ht="12.75" r="596"/>
+    <row customHeight="1" ht="12.75" r="597"/>
+    <row customHeight="1" ht="12.75" r="598"/>
+    <row customHeight="1" ht="12.75" r="599"/>
+    <row customHeight="1" ht="12.75" r="600"/>
+    <row customHeight="1" ht="12.75" r="601"/>
+    <row customHeight="1" ht="12.75" r="602"/>
+    <row customHeight="1" ht="12.75" r="603"/>
+    <row customHeight="1" ht="12.75" r="604"/>
+    <row customHeight="1" ht="12.75" r="605"/>
+    <row customHeight="1" ht="12.75" r="606"/>
+    <row customHeight="1" ht="12.75" r="607"/>
+    <row customHeight="1" ht="12.75" r="608"/>
+    <row customHeight="1" ht="12.75" r="609"/>
+    <row customHeight="1" ht="12.75" r="610"/>
+    <row customHeight="1" ht="12.75" r="611"/>
+    <row customHeight="1" ht="12.75" r="612"/>
+    <row customHeight="1" ht="12.75" r="613"/>
+    <row customHeight="1" ht="12.75" r="614"/>
+    <row customHeight="1" ht="12.75" r="615"/>
+    <row customHeight="1" ht="12.75" r="616"/>
+    <row customHeight="1" ht="12.75" r="617"/>
+    <row customHeight="1" ht="12.75" r="618"/>
+    <row customHeight="1" ht="12.75" r="619"/>
+    <row customHeight="1" ht="12.75" r="620"/>
+    <row customHeight="1" ht="12.75" r="621"/>
+    <row customHeight="1" ht="12.75" r="622"/>
+    <row customHeight="1" ht="12.75" r="623"/>
+    <row customHeight="1" ht="12.75" r="624"/>
+    <row customHeight="1" ht="12.75" r="625"/>
+    <row customHeight="1" ht="12.75" r="626"/>
+    <row customHeight="1" ht="12.75" r="627"/>
+    <row customHeight="1" ht="12.75" r="628"/>
+    <row customHeight="1" ht="12.75" r="629"/>
+    <row customHeight="1" ht="12.75" r="630"/>
+    <row customHeight="1" ht="12.75" r="631"/>
+    <row customHeight="1" ht="12.75" r="632"/>
+    <row customHeight="1" ht="12.75" r="633"/>
+    <row customHeight="1" ht="12.75" r="634"/>
+    <row customHeight="1" ht="12.75" r="635"/>
+    <row customHeight="1" ht="12.75" r="636"/>
+    <row customHeight="1" ht="12.75" r="637"/>
+    <row customHeight="1" ht="12.75" r="638"/>
+    <row customHeight="1" ht="12.75" r="639"/>
+    <row customHeight="1" ht="12.75" r="640"/>
+    <row customHeight="1" ht="12.75" r="641"/>
+    <row customHeight="1" ht="12.75" r="642"/>
+    <row customHeight="1" ht="12.75" r="643"/>
+    <row customHeight="1" ht="12.75" r="644"/>
+    <row customHeight="1" ht="12.75" r="645"/>
+    <row customHeight="1" ht="12.75" r="646"/>
+    <row customHeight="1" ht="12.75" r="647"/>
+    <row customHeight="1" ht="12.75" r="648"/>
+    <row customHeight="1" ht="12.75" r="649"/>
+    <row customHeight="1" ht="12.75" r="650"/>
+    <row customHeight="1" ht="12.75" r="651"/>
+    <row customHeight="1" ht="12.75" r="652"/>
+    <row customHeight="1" ht="12.75" r="653"/>
+    <row customHeight="1" ht="12.75" r="654"/>
+    <row customHeight="1" ht="12.75" r="655"/>
+    <row customHeight="1" ht="12.75" r="656"/>
+    <row customHeight="1" ht="12.75" r="657"/>
+    <row customHeight="1" ht="12.75" r="658"/>
+    <row customHeight="1" ht="12.75" r="659"/>
+    <row customHeight="1" ht="12.75" r="660"/>
+    <row customHeight="1" ht="12.75" r="661"/>
+    <row customHeight="1" ht="12.75" r="662"/>
+    <row customHeight="1" ht="12.75" r="663"/>
+    <row customHeight="1" ht="12.75" r="664"/>
+    <row customHeight="1" ht="12.75" r="665"/>
+    <row customHeight="1" ht="12.75" r="666"/>
+    <row customHeight="1" ht="12.75" r="667"/>
+    <row customHeight="1" ht="12.75" r="668"/>
+    <row customHeight="1" ht="12.75" r="669"/>
+    <row customHeight="1" ht="12.75" r="670"/>
+    <row customHeight="1" ht="12.75" r="671"/>
+    <row customHeight="1" ht="12.75" r="672"/>
+    <row customHeight="1" ht="12.75" r="673"/>
+    <row customHeight="1" ht="12.75" r="674"/>
+    <row customHeight="1" ht="12.75" r="675"/>
+    <row customHeight="1" ht="12.75" r="676"/>
+    <row customHeight="1" ht="12.75" r="677"/>
+    <row customHeight="1" ht="12.75" r="678"/>
+    <row customHeight="1" ht="12.75" r="679"/>
+    <row customHeight="1" ht="12.75" r="680"/>
+    <row customHeight="1" ht="12.75" r="681"/>
+    <row customHeight="1" ht="12.75" r="682"/>
+    <row customHeight="1" ht="12.75" r="683"/>
+    <row customHeight="1" ht="12.75" r="684"/>
+    <row customHeight="1" ht="12.75" r="685"/>
+    <row customHeight="1" ht="12.75" r="686"/>
+    <row customHeight="1" ht="12.75" r="687"/>
+    <row customHeight="1" ht="12.75" r="688"/>
+    <row customHeight="1" ht="12.75" r="689"/>
+    <row customHeight="1" ht="12.75" r="690"/>
+    <row customHeight="1" ht="12.75" r="691"/>
+    <row customHeight="1" ht="12.75" r="692"/>
+    <row customHeight="1" ht="12.75" r="693"/>
+    <row customHeight="1" ht="12.75" r="694"/>
+    <row customHeight="1" ht="12.75" r="695"/>
+    <row customHeight="1" ht="12.75" r="696"/>
+    <row customHeight="1" ht="12.75" r="697"/>
+    <row customHeight="1" ht="12.75" r="698"/>
+    <row customHeight="1" ht="12.75" r="699"/>
+    <row customHeight="1" ht="12.75" r="700"/>
+    <row customHeight="1" ht="12.75" r="701"/>
+    <row customHeight="1" ht="12.75" r="702"/>
+    <row customHeight="1" ht="12.75" r="703"/>
+    <row customHeight="1" ht="12.75" r="704"/>
+    <row customHeight="1" ht="12.75" r="705"/>
+    <row customHeight="1" ht="12.75" r="706"/>
+    <row customHeight="1" ht="12.75" r="707"/>
+    <row customHeight="1" ht="12.75" r="708"/>
+    <row customHeight="1" ht="12.75" r="709"/>
+    <row customHeight="1" ht="12.75" r="710"/>
+    <row customHeight="1" ht="12.75" r="711"/>
+    <row customHeight="1" ht="12.75" r="712"/>
+    <row customHeight="1" ht="12.75" r="713"/>
+    <row customHeight="1" ht="12.75" r="714"/>
+    <row customHeight="1" ht="12.75" r="715"/>
+    <row customHeight="1" ht="12.75" r="716"/>
+    <row customHeight="1" ht="12.75" r="717"/>
+    <row customHeight="1" ht="12.75" r="718"/>
+    <row customHeight="1" ht="12.75" r="719"/>
+    <row customHeight="1" ht="12.75" r="720"/>
+    <row customHeight="1" ht="12.75" r="721"/>
+    <row customHeight="1" ht="12.75" r="722"/>
+    <row customHeight="1" ht="12.75" r="723"/>
+    <row customHeight="1" ht="12.75" r="724"/>
+    <row customHeight="1" ht="12.75" r="725"/>
+    <row customHeight="1" ht="12.75" r="726"/>
+    <row customHeight="1" ht="12.75" r="727"/>
+    <row customHeight="1" ht="12.75" r="728"/>
+    <row customHeight="1" ht="12.75" r="729"/>
+    <row customHeight="1" ht="12.75" r="730"/>
+    <row customHeight="1" ht="12.75" r="731"/>
+    <row customHeight="1" ht="12.75" r="732"/>
+    <row customHeight="1" ht="12.75" r="733"/>
+    <row customHeight="1" ht="12.75" r="734"/>
+    <row customHeight="1" ht="12.75" r="735"/>
+    <row customHeight="1" ht="12.75" r="736"/>
+    <row customHeight="1" ht="12.75" r="737"/>
+    <row customHeight="1" ht="12.75" r="738"/>
+    <row customHeight="1" ht="12.75" r="739"/>
+    <row customHeight="1" ht="12.75" r="740"/>
+    <row customHeight="1" ht="12.75" r="741"/>
+    <row customHeight="1" ht="12.75" r="742"/>
+    <row customHeight="1" ht="12.75" r="743"/>
+    <row customHeight="1" ht="12.75" r="744"/>
+    <row customHeight="1" ht="12.75" r="745"/>
+    <row customHeight="1" ht="12.75" r="746"/>
+    <row customHeight="1" ht="12.75" r="747"/>
+    <row customHeight="1" ht="12.75" r="748"/>
+    <row customHeight="1" ht="12.75" r="749"/>
+    <row customHeight="1" ht="12.75" r="750"/>
+    <row customHeight="1" ht="12.75" r="751"/>
+    <row customHeight="1" ht="12.75" r="752"/>
+    <row customHeight="1" ht="12.75" r="753"/>
+    <row customHeight="1" ht="12.75" r="754"/>
+    <row customHeight="1" ht="12.75" r="755"/>
+    <row customHeight="1" ht="12.75" r="756"/>
+    <row customHeight="1" ht="12.75" r="757"/>
+    <row customHeight="1" ht="12.75" r="758"/>
+    <row customHeight="1" ht="12.75" r="759"/>
+    <row customHeight="1" ht="12.75" r="760"/>
+    <row customHeight="1" ht="12.75" r="761"/>
+    <row customHeight="1" ht="12.75" r="762"/>
+    <row customHeight="1" ht="12.75" r="763"/>
+    <row customHeight="1" ht="12.75" r="764"/>
+    <row customHeight="1" ht="12.75" r="765"/>
+    <row customHeight="1" ht="12.75" r="766"/>
+    <row customHeight="1" ht="12.75" r="767"/>
+    <row customHeight="1" ht="12.75" r="768"/>
+    <row customHeight="1" ht="12.75" r="769"/>
+    <row customHeight="1" ht="12.75" r="770"/>
+    <row customHeight="1" ht="12.75" r="771"/>
+    <row customHeight="1" ht="12.75" r="772"/>
+    <row customHeight="1" ht="12.75" r="773"/>
+    <row customHeight="1" ht="12.75" r="774"/>
+    <row customHeight="1" ht="12.75" r="775"/>
+    <row customHeight="1" ht="12.75" r="776"/>
+    <row customHeight="1" ht="12.75" r="777"/>
+    <row customHeight="1" ht="12.75" r="778"/>
+    <row customHeight="1" ht="12.75" r="779"/>
+    <row customHeight="1" ht="12.75" r="780"/>
+    <row customHeight="1" ht="12.75" r="781"/>
+    <row customHeight="1" ht="12.75" r="782"/>
+    <row customHeight="1" ht="12.75" r="783"/>
+    <row customHeight="1" ht="12.75" r="784"/>
+    <row customHeight="1" ht="12.75" r="785"/>
+    <row customHeight="1" ht="12.75" r="786"/>
+    <row customHeight="1" ht="12.75" r="787"/>
+    <row customHeight="1" ht="12.75" r="788"/>
+    <row customHeight="1" ht="12.75" r="789"/>
+    <row customHeight="1" ht="12.75" r="790"/>
+    <row customHeight="1" ht="12.75" r="791"/>
+    <row customHeight="1" ht="12.75" r="792"/>
+    <row customHeight="1" ht="12.75" r="793"/>
+    <row customHeight="1" ht="12.75" r="794"/>
+    <row customHeight="1" ht="12.75" r="795"/>
+    <row customHeight="1" ht="12.75" r="796"/>
+    <row customHeight="1" ht="12.75" r="797"/>
+    <row customHeight="1" ht="12.75" r="798"/>
+    <row customHeight="1" ht="12.75" r="799"/>
+    <row customHeight="1" ht="12.75" r="800"/>
+    <row customHeight="1" ht="12.75" r="801"/>
+    <row customHeight="1" ht="12.75" r="802"/>
+    <row customHeight="1" ht="12.75" r="803"/>
+    <row customHeight="1" ht="12.75" r="804"/>
+    <row customHeight="1" ht="12.75" r="805"/>
+    <row customHeight="1" ht="12.75" r="806"/>
+    <row customHeight="1" ht="12.75" r="807"/>
+    <row customHeight="1" ht="12.75" r="808"/>
+    <row customHeight="1" ht="12.75" r="809"/>
+    <row customHeight="1" ht="12.75" r="810"/>
+    <row customHeight="1" ht="12.75" r="811"/>
+    <row customHeight="1" ht="12.75" r="812"/>
+    <row customHeight="1" ht="12.75" r="813"/>
+    <row customHeight="1" ht="12.75" r="814"/>
+    <row customHeight="1" ht="12.75" r="815"/>
+    <row customHeight="1" ht="12.75" r="816"/>
+    <row customHeight="1" ht="12.75" r="817"/>
+    <row customHeight="1" ht="12.75" r="818"/>
+    <row customHeight="1" ht="12.75" r="819"/>
+    <row customHeight="1" ht="12.75" r="820"/>
+    <row customHeight="1" ht="12.75" r="821"/>
+    <row customHeight="1" ht="12.75" r="822"/>
+    <row customHeight="1" ht="12.75" r="823"/>
+    <row customHeight="1" ht="12.75" r="824"/>
+    <row customHeight="1" ht="12.75" r="825"/>
+    <row customHeight="1" ht="12.75" r="826"/>
+    <row customHeight="1" ht="12.75" r="827"/>
+    <row customHeight="1" ht="12.75" r="828"/>
+    <row customHeight="1" ht="12.75" r="829"/>
+    <row customHeight="1" ht="12.75" r="830"/>
+    <row customHeight="1" ht="12.75" r="831"/>
+    <row customHeight="1" ht="12.75" r="832"/>
+    <row customHeight="1" ht="12.75" r="833"/>
+    <row customHeight="1" ht="12.75" r="834"/>
+    <row customHeight="1" ht="12.75" r="835"/>
+    <row customHeight="1" ht="12.75" r="836"/>
+    <row customHeight="1" ht="12.75" r="837"/>
+    <row customHeight="1" ht="12.75" r="838"/>
+    <row customHeight="1" ht="12.75" r="839"/>
+    <row customHeight="1" ht="12.75" r="840"/>
+    <row customHeight="1" ht="12.75" r="841"/>
+    <row customHeight="1" ht="12.75" r="842"/>
+    <row customHeight="1" ht="12.75" r="843"/>
+    <row customHeight="1" ht="12.75" r="844"/>
+    <row customHeight="1" ht="12.75" r="845"/>
+    <row customHeight="1" ht="12.75" r="846"/>
+    <row customHeight="1" ht="12.75" r="847"/>
+    <row customHeight="1" ht="12.75" r="848"/>
+    <row customHeight="1" ht="12.75" r="849"/>
+    <row customHeight="1" ht="12.75" r="850"/>
+    <row customHeight="1" ht="12.75" r="851"/>
+    <row customHeight="1" ht="12.75" r="852"/>
+    <row customHeight="1" ht="12.75" r="853"/>
+    <row customHeight="1" ht="12.75" r="854"/>
+    <row customHeight="1" ht="12.75" r="855"/>
+    <row customHeight="1" ht="12.75" r="856"/>
+    <row customHeight="1" ht="12.75" r="857"/>
+    <row customHeight="1" ht="12.75" r="858"/>
+    <row customHeight="1" ht="12.75" r="859"/>
+    <row customHeight="1" ht="12.75" r="860"/>
+    <row customHeight="1" ht="12.75" r="861"/>
+    <row customHeight="1" ht="12.75" r="862"/>
+    <row customHeight="1" ht="12.75" r="863"/>
+    <row customHeight="1" ht="12.75" r="864"/>
+    <row customHeight="1" ht="12.75" r="865"/>
+    <row customHeight="1" ht="12.75" r="866"/>
+    <row customHeight="1" ht="12.75" r="867"/>
+    <row customHeight="1" ht="12.75" r="868"/>
+    <row customHeight="1" ht="12.75" r="869"/>
+    <row customHeight="1" ht="12.75" r="870"/>
+    <row customHeight="1" ht="12.75" r="871"/>
+    <row customHeight="1" ht="12.75" r="872"/>
+    <row customHeight="1" ht="12.75" r="873"/>
+    <row customHeight="1" ht="12.75" r="874"/>
+    <row customHeight="1" ht="12.75" r="875"/>
+    <row customHeight="1" ht="12.75" r="876"/>
+    <row customHeight="1" ht="12.75" r="877"/>
+    <row customHeight="1" ht="12.75" r="878"/>
+    <row customHeight="1" ht="12.75" r="879"/>
+    <row customHeight="1" ht="12.75" r="880"/>
+    <row customHeight="1" ht="12.75" r="881"/>
+    <row customHeight="1" ht="12.75" r="882"/>
+    <row customHeight="1" ht="12.75" r="883"/>
+    <row customHeight="1" ht="12.75" r="884"/>
+    <row customHeight="1" ht="12.75" r="885"/>
+    <row customHeight="1" ht="12.75" r="886"/>
+    <row customHeight="1" ht="12.75" r="887"/>
+    <row customHeight="1" ht="12.75" r="888"/>
+    <row customHeight="1" ht="12.75" r="889"/>
+    <row customHeight="1" ht="12.75" r="890"/>
+    <row customHeight="1" ht="12.75" r="891"/>
+    <row customHeight="1" ht="12.75" r="892"/>
+    <row customHeight="1" ht="12.75" r="893"/>
+    <row customHeight="1" ht="12.75" r="894"/>
+    <row customHeight="1" ht="12.75" r="895"/>
+    <row customHeight="1" ht="12.75" r="896"/>
+    <row customHeight="1" ht="12.75" r="897"/>
+    <row customHeight="1" ht="12.75" r="898"/>
+    <row customHeight="1" ht="12.75" r="899"/>
+    <row customHeight="1" ht="12.75" r="900"/>
+    <row customHeight="1" ht="12.75" r="901"/>
+    <row customHeight="1" ht="12.75" r="902"/>
+    <row customHeight="1" ht="12.75" r="903"/>
+    <row customHeight="1" ht="12.75" r="904"/>
+    <row customHeight="1" ht="12.75" r="905"/>
+    <row customHeight="1" ht="12.75" r="906"/>
+    <row customHeight="1" ht="12.75" r="907"/>
+    <row customHeight="1" ht="12.75" r="908"/>
+    <row customHeight="1" ht="12.75" r="909"/>
+    <row customHeight="1" ht="12.75" r="910"/>
+    <row customHeight="1" ht="12.75" r="911"/>
+    <row customHeight="1" ht="12.75" r="912"/>
+    <row customHeight="1" ht="12.75" r="913"/>
+    <row customHeight="1" ht="12.75" r="914"/>
+    <row customHeight="1" ht="12.75" r="915"/>
+    <row customHeight="1" ht="12.75" r="916"/>
+    <row customHeight="1" ht="12.75" r="917"/>
+    <row customHeight="1" ht="12.75" r="918"/>
+    <row customHeight="1" ht="12.75" r="919"/>
+    <row customHeight="1" ht="12.75" r="920"/>
+    <row customHeight="1" ht="12.75" r="921"/>
+    <row customHeight="1" ht="12.75" r="922"/>
+    <row customHeight="1" ht="12.75" r="923"/>
+    <row customHeight="1" ht="12.75" r="924"/>
+    <row customHeight="1" ht="12.75" r="925"/>
+    <row customHeight="1" ht="12.75" r="926"/>
+    <row customHeight="1" ht="12.75" r="927"/>
+    <row customHeight="1" ht="12.75" r="928"/>
+    <row customHeight="1" ht="12.75" r="929"/>
+    <row customHeight="1" ht="12.75" r="930"/>
+    <row customHeight="1" ht="12.75" r="931"/>
+    <row customHeight="1" ht="12.75" r="932"/>
+    <row customHeight="1" ht="12.75" r="933"/>
+    <row customHeight="1" ht="12.75" r="934"/>
+    <row customHeight="1" ht="12.75" r="935"/>
+    <row customHeight="1" ht="12.75" r="936"/>
+    <row customHeight="1" ht="12.75" r="937"/>
+    <row customHeight="1" ht="12.75" r="938"/>
+    <row customHeight="1" ht="12.75" r="939"/>
+    <row customHeight="1" ht="12.75" r="940"/>
+    <row customHeight="1" ht="12.75" r="941"/>
+    <row customHeight="1" ht="12.75" r="942"/>
+    <row customHeight="1" ht="12.75" r="943"/>
+    <row customHeight="1" ht="12.75" r="944"/>
+    <row customHeight="1" ht="12.75" r="945"/>
+    <row customHeight="1" ht="12.75" r="946"/>
+    <row customHeight="1" ht="12.75" r="947"/>
+    <row customHeight="1" ht="12.75" r="948"/>
+    <row customHeight="1" ht="12.75" r="949"/>
+    <row customHeight="1" ht="12.75" r="950"/>
+    <row customHeight="1" ht="12.75" r="951"/>
+    <row customHeight="1" ht="12.75" r="952"/>
+    <row customHeight="1" ht="12.75" r="953"/>
+    <row customHeight="1" ht="12.75" r="954"/>
+    <row customHeight="1" ht="12.75" r="955"/>
+    <row customHeight="1" ht="12.75" r="956"/>
+    <row customHeight="1" ht="12.75" r="957"/>
+    <row customHeight="1" ht="12.75" r="958"/>
+    <row customHeight="1" ht="12.75" r="959"/>
+    <row customHeight="1" ht="12.75" r="960"/>
+    <row customHeight="1" ht="12.75" r="961"/>
+    <row customHeight="1" ht="12.75" r="962"/>
+    <row customHeight="1" ht="12.75" r="963"/>
+    <row customHeight="1" ht="12.75" r="964"/>
+    <row customHeight="1" ht="12.75" r="965"/>
+    <row customHeight="1" ht="12.75" r="966"/>
+    <row customHeight="1" ht="12.75" r="967"/>
+    <row customHeight="1" ht="12.75" r="968"/>
+    <row customHeight="1" ht="12.75" r="969"/>
+    <row customHeight="1" ht="12.75" r="970"/>
+    <row customHeight="1" ht="12.75" r="971"/>
+    <row customHeight="1" ht="12.75" r="972"/>
+    <row customHeight="1" ht="12.75" r="973"/>
+    <row customHeight="1" ht="12.75" r="974"/>
+    <row customHeight="1" ht="12.75" r="975"/>
+    <row customHeight="1" ht="12.75" r="976"/>
+    <row customHeight="1" ht="12.75" r="977"/>
+    <row customHeight="1" ht="12.75" r="978"/>
+    <row customHeight="1" ht="12.75" r="979"/>
+    <row customHeight="1" ht="12.75" r="980"/>
+    <row customHeight="1" ht="12.75" r="981"/>
+    <row customHeight="1" ht="12.75" r="982"/>
+    <row customHeight="1" ht="12.75" r="983"/>
+    <row customHeight="1" ht="12.75" r="984"/>
+    <row customHeight="1" ht="12.75" r="985"/>
+    <row customHeight="1" ht="12.75" r="986"/>
+    <row customHeight="1" ht="12.75" r="987"/>
+    <row customHeight="1" ht="12.75" r="988"/>
+    <row customHeight="1" ht="12.75" r="989"/>
+    <row customHeight="1" ht="12.75" r="990"/>
+    <row customHeight="1" ht="12.75" r="991"/>
+    <row customHeight="1" ht="12.75" r="992"/>
+    <row customHeight="1" ht="12.75" r="993"/>
+    <row customHeight="1" ht="12.75" r="994"/>
+    <row customHeight="1" ht="12.75" r="995"/>
+    <row customHeight="1" ht="12.75" r="996"/>
+    <row customHeight="1" ht="12.75" r="997"/>
+    <row customHeight="1" ht="12.75" r="998"/>
+    <row customHeight="1" ht="12.75" r="999"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA982"/>
+  <dimension ref="A1:AB982"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="27" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="28.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.44140625" collapsed="false"/>
+    <col min="7" max="27" customWidth="true" width="10.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="2" spans="1:6">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="3" spans="1:6">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -3373,7 +3374,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="4" spans="1:6">
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
@@ -3390,7 +3391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="5" spans="1:6">
       <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="6" spans="1:6">
       <c r="A6" s="25" t="s">
         <v>36</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="7" spans="1:6">
       <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
@@ -3443,7 +3444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="8" spans="1:6">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="9" spans="1:6">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="10" spans="1:6">
       <c r="A10" s="25" t="s">
         <v>47</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="11" spans="1:6">
       <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
@@ -3508,7 +3509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="12" spans="1:6">
       <c r="A12" s="25" t="s">
         <v>52</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="13" spans="1:6">
       <c r="A13" s="26" t="s">
         <v>55</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="14" spans="1:6">
       <c r="A14" s="26" t="s">
         <v>58</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="15" spans="1:6">
       <c r="A15" s="26" t="s">
         <v>60</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="16" spans="1:6">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="25" spans="1:6">
       <c r="A25" s="32" t="s">
         <v>81</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -3796,7 +3797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -3920,7 +3921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>118</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="43" spans="1:6">
       <c r="A43" s="32" t="s">
         <v>120</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>121</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="45" spans="1:6">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="46" spans="1:6">
       <c r="A46" s="3" t="s">
         <v>125</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
@@ -4062,7 +4063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="48" spans="1:6">
       <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
@@ -4080,7 +4081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="49" spans="1:27">
       <c r="A49" s="3" t="s">
         <v>131</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="50" spans="1:27">
       <c r="A50" s="3" t="s">
         <v>133</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="51" spans="1:27">
       <c r="A51" s="37" t="s">
         <v>135</v>
       </c>
@@ -4147,7 +4148,7 @@
       <c r="Z51" s="38"/>
       <c r="AA51" s="38"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="52" spans="1:27">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="53" spans="1:27">
       <c r="A53" s="3" t="s">
         <v>139</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="54" spans="1:27">
       <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="55" spans="1:27">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="56" spans="1:27">
       <c r="A56" s="36" t="s">
         <v>145</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="57" spans="1:27">
       <c r="A57" s="21" t="s">
         <v>148</v>
       </c>
@@ -4245,7 +4246,7 @@
       </c>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="58" spans="1:27">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="59" spans="1:27">
       <c r="A59" s="3" t="s">
         <v>150</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="60" spans="1:27">
       <c r="A60" s="3" t="s">
         <v>152</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="61" spans="1:27">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="62" spans="1:27">
       <c r="A62" s="21" t="s">
         <v>156</v>
       </c>
@@ -4320,7 +4321,7 @@
       </c>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="63" spans="1:27">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="64" spans="1:27">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="65" spans="1:6">
       <c r="A65" s="3" t="s">
         <v>160</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="66" spans="1:6">
       <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="67" spans="1:6">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="68" spans="1:6">
       <c r="A68" s="41" t="s">
         <v>165</v>
       </c>
@@ -4409,7 +4410,7 @@
       </c>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="69" spans="1:6">
       <c r="A69" s="3" t="s">
         <v>167</v>
       </c>
@@ -4427,7 +4428,7 @@
       </c>
       <c r="F69" s="31"/>
     </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="70" spans="1:6">
       <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="71" spans="1:6">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="72" spans="1:6">
       <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="73" spans="1:6">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="74" spans="1:6">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -4515,7 +4516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="75" spans="1:6">
       <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="76" spans="1:6">
       <c r="A76" s="3" t="s">
         <v>154</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="77" spans="1:6">
       <c r="A77" s="3" t="s">
         <v>177</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="78" spans="1:6">
       <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="79" spans="1:6">
       <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
@@ -4600,7 +4601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="80" spans="1:6">
       <c r="A80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" customHeight="1">
+    <row customHeight="1" ht="12.75" r="81" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>143</v>
       </c>
@@ -4634,910 +4635,910 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="83" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="85" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="86" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="88" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="89" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="90" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
+    <row customHeight="1" ht="12.75" r="82" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="83" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="84" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="85" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="86" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="87" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="88" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="89" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="90" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="91" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="92" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="93" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="94" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="95" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="96" spans="1:5"/>
+    <row customHeight="1" ht="12.75" r="97"/>
+    <row customHeight="1" ht="12.75" r="98"/>
+    <row customHeight="1" ht="12.75" r="99"/>
+    <row customHeight="1" ht="12.75" r="100"/>
+    <row customHeight="1" ht="12.75" r="101"/>
+    <row customHeight="1" ht="12.75" r="102"/>
+    <row customHeight="1" ht="12.75" r="103"/>
+    <row customHeight="1" ht="12.75" r="104"/>
+    <row customHeight="1" ht="12.75" r="105"/>
+    <row customHeight="1" ht="12.75" r="106"/>
+    <row customHeight="1" ht="12.75" r="107"/>
+    <row customHeight="1" ht="12.75" r="108"/>
+    <row customHeight="1" ht="12.75" r="109"/>
+    <row customHeight="1" ht="12.75" r="110"/>
+    <row customHeight="1" ht="12.75" r="111"/>
+    <row customHeight="1" ht="12.75" r="112"/>
+    <row customHeight="1" ht="12.75" r="113"/>
+    <row customHeight="1" ht="12.75" r="114"/>
+    <row customHeight="1" ht="12.75" r="115"/>
+    <row customHeight="1" ht="12.75" r="116"/>
+    <row customHeight="1" ht="12.75" r="117"/>
+    <row customHeight="1" ht="12.75" r="118"/>
+    <row customHeight="1" ht="12.75" r="119"/>
+    <row customHeight="1" ht="12.75" r="120"/>
+    <row customHeight="1" ht="12.75" r="121"/>
+    <row customHeight="1" ht="12.75" r="122"/>
+    <row customHeight="1" ht="12.75" r="123"/>
+    <row customHeight="1" ht="12.75" r="124"/>
+    <row customHeight="1" ht="12.75" r="125"/>
+    <row customHeight="1" ht="12.75" r="126"/>
+    <row customHeight="1" ht="12.75" r="127"/>
+    <row customHeight="1" ht="12.75" r="128"/>
+    <row customHeight="1" ht="12.75" r="129"/>
+    <row customHeight="1" ht="12.75" r="130"/>
+    <row customHeight="1" ht="12.75" r="131"/>
+    <row customHeight="1" ht="12.75" r="132"/>
+    <row customHeight="1" ht="12.75" r="133"/>
+    <row customHeight="1" ht="12.75" r="134"/>
+    <row customHeight="1" ht="12.75" r="135"/>
+    <row customHeight="1" ht="12.75" r="136"/>
+    <row customHeight="1" ht="12.75" r="137"/>
+    <row customHeight="1" ht="12.75" r="138"/>
+    <row customHeight="1" ht="12.75" r="139"/>
+    <row customHeight="1" ht="12.75" r="140"/>
+    <row customHeight="1" ht="12.75" r="141"/>
+    <row customHeight="1" ht="12.75" r="142"/>
+    <row customHeight="1" ht="12.75" r="143"/>
+    <row customHeight="1" ht="12.75" r="144"/>
+    <row customHeight="1" ht="12.75" r="145"/>
+    <row customHeight="1" ht="12.75" r="146"/>
+    <row customHeight="1" ht="12.75" r="147"/>
+    <row customHeight="1" ht="12.75" r="148"/>
+    <row customHeight="1" ht="12.75" r="149"/>
+    <row customHeight="1" ht="12.75" r="150"/>
+    <row customHeight="1" ht="12.75" r="151"/>
+    <row customHeight="1" ht="12.75" r="152"/>
+    <row customHeight="1" ht="12.75" r="153"/>
+    <row customHeight="1" ht="12.75" r="154"/>
+    <row customHeight="1" ht="12.75" r="155"/>
+    <row customHeight="1" ht="12.75" r="156"/>
+    <row customHeight="1" ht="12.75" r="157"/>
+    <row customHeight="1" ht="12.75" r="158"/>
+    <row customHeight="1" ht="12.75" r="159"/>
+    <row customHeight="1" ht="12.75" r="160"/>
+    <row customHeight="1" ht="12.75" r="161"/>
+    <row customHeight="1" ht="12.75" r="162"/>
+    <row customHeight="1" ht="12.75" r="163"/>
+    <row customHeight="1" ht="12.75" r="164"/>
+    <row customHeight="1" ht="12.75" r="165"/>
+    <row customHeight="1" ht="12.75" r="166"/>
+    <row customHeight="1" ht="12.75" r="167"/>
+    <row customHeight="1" ht="12.75" r="168"/>
+    <row customHeight="1" ht="12.75" r="169"/>
+    <row customHeight="1" ht="12.75" r="170"/>
+    <row customHeight="1" ht="12.75" r="171"/>
+    <row customHeight="1" ht="12.75" r="172"/>
+    <row customHeight="1" ht="12.75" r="173"/>
+    <row customHeight="1" ht="12.75" r="174"/>
+    <row customHeight="1" ht="12.75" r="175"/>
+    <row customHeight="1" ht="12.75" r="176"/>
+    <row customHeight="1" ht="12.75" r="177"/>
+    <row customHeight="1" ht="12.75" r="178"/>
+    <row customHeight="1" ht="12.75" r="179"/>
+    <row customHeight="1" ht="12.75" r="180"/>
+    <row customHeight="1" ht="12.75" r="181"/>
+    <row customHeight="1" ht="12.75" r="182"/>
+    <row customHeight="1" ht="12.75" r="183"/>
+    <row customHeight="1" ht="12.75" r="184"/>
+    <row customHeight="1" ht="12.75" r="185"/>
+    <row customHeight="1" ht="12.75" r="186"/>
+    <row customHeight="1" ht="12.75" r="187"/>
+    <row customHeight="1" ht="12.75" r="188"/>
+    <row customHeight="1" ht="12.75" r="189"/>
+    <row customHeight="1" ht="12.75" r="190"/>
+    <row customHeight="1" ht="12.75" r="191"/>
+    <row customHeight="1" ht="12.75" r="192"/>
+    <row customHeight="1" ht="12.75" r="193"/>
+    <row customHeight="1" ht="12.75" r="194"/>
+    <row customHeight="1" ht="12.75" r="195"/>
+    <row customHeight="1" ht="12.75" r="196"/>
+    <row customHeight="1" ht="12.75" r="197"/>
+    <row customHeight="1" ht="12.75" r="198"/>
+    <row customHeight="1" ht="12.75" r="199"/>
+    <row customHeight="1" ht="12.75" r="200"/>
+    <row customHeight="1" ht="12.75" r="201"/>
+    <row customHeight="1" ht="12.75" r="202"/>
+    <row customHeight="1" ht="12.75" r="203"/>
+    <row customHeight="1" ht="12.75" r="204"/>
+    <row customHeight="1" ht="12.75" r="205"/>
+    <row customHeight="1" ht="12.75" r="206"/>
+    <row customHeight="1" ht="12.75" r="207"/>
+    <row customHeight="1" ht="12.75" r="208"/>
+    <row customHeight="1" ht="12.75" r="209"/>
+    <row customHeight="1" ht="12.75" r="210"/>
+    <row customHeight="1" ht="12.75" r="211"/>
+    <row customHeight="1" ht="12.75" r="212"/>
+    <row customHeight="1" ht="12.75" r="213"/>
+    <row customHeight="1" ht="12.75" r="214"/>
+    <row customHeight="1" ht="12.75" r="215"/>
+    <row customHeight="1" ht="12.75" r="216"/>
+    <row customHeight="1" ht="12.75" r="217"/>
+    <row customHeight="1" ht="12.75" r="218"/>
+    <row customHeight="1" ht="12.75" r="219"/>
+    <row customHeight="1" ht="12.75" r="220"/>
+    <row customHeight="1" ht="12.75" r="221"/>
+    <row customHeight="1" ht="12.75" r="222"/>
+    <row customHeight="1" ht="12.75" r="223"/>
+    <row customHeight="1" ht="12.75" r="224"/>
+    <row customHeight="1" ht="12.75" r="225"/>
+    <row customHeight="1" ht="12.75" r="226"/>
+    <row customHeight="1" ht="12.75" r="227"/>
+    <row customHeight="1" ht="12.75" r="228"/>
+    <row customHeight="1" ht="12.75" r="229"/>
+    <row customHeight="1" ht="12.75" r="230"/>
+    <row customHeight="1" ht="12.75" r="231"/>
+    <row customHeight="1" ht="12.75" r="232"/>
+    <row customHeight="1" ht="12.75" r="233"/>
+    <row customHeight="1" ht="12.75" r="234"/>
+    <row customHeight="1" ht="12.75" r="235"/>
+    <row customHeight="1" ht="12.75" r="236"/>
+    <row customHeight="1" ht="12.75" r="237"/>
+    <row customHeight="1" ht="12.75" r="238"/>
+    <row customHeight="1" ht="12.75" r="239"/>
+    <row customHeight="1" ht="12.75" r="240"/>
+    <row customHeight="1" ht="12.75" r="241"/>
+    <row customHeight="1" ht="12.75" r="242"/>
+    <row customHeight="1" ht="12.75" r="243"/>
+    <row customHeight="1" ht="12.75" r="244"/>
+    <row customHeight="1" ht="12.75" r="245"/>
+    <row customHeight="1" ht="12.75" r="246"/>
+    <row customHeight="1" ht="12.75" r="247"/>
+    <row customHeight="1" ht="12.75" r="248"/>
+    <row customHeight="1" ht="12.75" r="249"/>
+    <row customHeight="1" ht="12.75" r="250"/>
+    <row customHeight="1" ht="12.75" r="251"/>
+    <row customHeight="1" ht="12.75" r="252"/>
+    <row customHeight="1" ht="12.75" r="253"/>
+    <row customHeight="1" ht="12.75" r="254"/>
+    <row customHeight="1" ht="12.75" r="255"/>
+    <row customHeight="1" ht="12.75" r="256"/>
+    <row customHeight="1" ht="12.75" r="257"/>
+    <row customHeight="1" ht="12.75" r="258"/>
+    <row customHeight="1" ht="12.75" r="259"/>
+    <row customHeight="1" ht="12.75" r="260"/>
+    <row customHeight="1" ht="12.75" r="261"/>
+    <row customHeight="1" ht="12.75" r="262"/>
+    <row customHeight="1" ht="12.75" r="263"/>
+    <row customHeight="1" ht="12.75" r="264"/>
+    <row customHeight="1" ht="12.75" r="265"/>
+    <row customHeight="1" ht="12.75" r="266"/>
+    <row customHeight="1" ht="12.75" r="267"/>
+    <row customHeight="1" ht="12.75" r="268"/>
+    <row customHeight="1" ht="12.75" r="269"/>
+    <row customHeight="1" ht="12.75" r="270"/>
+    <row customHeight="1" ht="12.75" r="271"/>
+    <row customHeight="1" ht="12.75" r="272"/>
+    <row customHeight="1" ht="12.75" r="273"/>
+    <row customHeight="1" ht="12.75" r="274"/>
+    <row customHeight="1" ht="12.75" r="275"/>
+    <row customHeight="1" ht="12.75" r="276"/>
+    <row customHeight="1" ht="12.75" r="277"/>
+    <row customHeight="1" ht="12.75" r="278"/>
+    <row customHeight="1" ht="12.75" r="279"/>
+    <row customHeight="1" ht="12.75" r="280"/>
+    <row customHeight="1" ht="12.75" r="281"/>
+    <row customHeight="1" ht="12.75" r="282"/>
+    <row customHeight="1" ht="12.75" r="283"/>
+    <row customHeight="1" ht="12.75" r="284"/>
+    <row customHeight="1" ht="12.75" r="285"/>
+    <row customHeight="1" ht="12.75" r="286"/>
+    <row customHeight="1" ht="12.75" r="287"/>
+    <row customHeight="1" ht="12.75" r="288"/>
+    <row customHeight="1" ht="12.75" r="289"/>
+    <row customHeight="1" ht="12.75" r="290"/>
+    <row customHeight="1" ht="12.75" r="291"/>
+    <row customHeight="1" ht="12.75" r="292"/>
+    <row customHeight="1" ht="12.75" r="293"/>
+    <row customHeight="1" ht="12.75" r="294"/>
+    <row customHeight="1" ht="12.75" r="295"/>
+    <row customHeight="1" ht="12.75" r="296"/>
+    <row customHeight="1" ht="12.75" r="297"/>
+    <row customHeight="1" ht="12.75" r="298"/>
+    <row customHeight="1" ht="12.75" r="299"/>
+    <row customHeight="1" ht="12.75" r="300"/>
+    <row customHeight="1" ht="12.75" r="301"/>
+    <row customHeight="1" ht="12.75" r="302"/>
+    <row customHeight="1" ht="12.75" r="303"/>
+    <row customHeight="1" ht="12.75" r="304"/>
+    <row customHeight="1" ht="12.75" r="305"/>
+    <row customHeight="1" ht="12.75" r="306"/>
+    <row customHeight="1" ht="12.75" r="307"/>
+    <row customHeight="1" ht="12.75" r="308"/>
+    <row customHeight="1" ht="12.75" r="309"/>
+    <row customHeight="1" ht="12.75" r="310"/>
+    <row customHeight="1" ht="12.75" r="311"/>
+    <row customHeight="1" ht="12.75" r="312"/>
+    <row customHeight="1" ht="12.75" r="313"/>
+    <row customHeight="1" ht="12.75" r="314"/>
+    <row customHeight="1" ht="12.75" r="315"/>
+    <row customHeight="1" ht="12.75" r="316"/>
+    <row customHeight="1" ht="12.75" r="317"/>
+    <row customHeight="1" ht="12.75" r="318"/>
+    <row customHeight="1" ht="12.75" r="319"/>
+    <row customHeight="1" ht="12.75" r="320"/>
+    <row customHeight="1" ht="12.75" r="321"/>
+    <row customHeight="1" ht="12.75" r="322"/>
+    <row customHeight="1" ht="12.75" r="323"/>
+    <row customHeight="1" ht="12.75" r="324"/>
+    <row customHeight="1" ht="12.75" r="325"/>
+    <row customHeight="1" ht="12.75" r="326"/>
+    <row customHeight="1" ht="12.75" r="327"/>
+    <row customHeight="1" ht="12.75" r="328"/>
+    <row customHeight="1" ht="12.75" r="329"/>
+    <row customHeight="1" ht="12.75" r="330"/>
+    <row customHeight="1" ht="12.75" r="331"/>
+    <row customHeight="1" ht="12.75" r="332"/>
+    <row customHeight="1" ht="12.75" r="333"/>
+    <row customHeight="1" ht="12.75" r="334"/>
+    <row customHeight="1" ht="12.75" r="335"/>
+    <row customHeight="1" ht="12.75" r="336"/>
+    <row customHeight="1" ht="12.75" r="337"/>
+    <row customHeight="1" ht="12.75" r="338"/>
+    <row customHeight="1" ht="12.75" r="339"/>
+    <row customHeight="1" ht="12.75" r="340"/>
+    <row customHeight="1" ht="12.75" r="341"/>
+    <row customHeight="1" ht="12.75" r="342"/>
+    <row customHeight="1" ht="12.75" r="343"/>
+    <row customHeight="1" ht="12.75" r="344"/>
+    <row customHeight="1" ht="12.75" r="345"/>
+    <row customHeight="1" ht="12.75" r="346"/>
+    <row customHeight="1" ht="12.75" r="347"/>
+    <row customHeight="1" ht="12.75" r="348"/>
+    <row customHeight="1" ht="12.75" r="349"/>
+    <row customHeight="1" ht="12.75" r="350"/>
+    <row customHeight="1" ht="12.75" r="351"/>
+    <row customHeight="1" ht="12.75" r="352"/>
+    <row customHeight="1" ht="12.75" r="353"/>
+    <row customHeight="1" ht="12.75" r="354"/>
+    <row customHeight="1" ht="12.75" r="355"/>
+    <row customHeight="1" ht="12.75" r="356"/>
+    <row customHeight="1" ht="12.75" r="357"/>
+    <row customHeight="1" ht="12.75" r="358"/>
+    <row customHeight="1" ht="12.75" r="359"/>
+    <row customHeight="1" ht="12.75" r="360"/>
+    <row customHeight="1" ht="12.75" r="361"/>
+    <row customHeight="1" ht="12.75" r="362"/>
+    <row customHeight="1" ht="12.75" r="363"/>
+    <row customHeight="1" ht="12.75" r="364"/>
+    <row customHeight="1" ht="12.75" r="365"/>
+    <row customHeight="1" ht="12.75" r="366"/>
+    <row customHeight="1" ht="12.75" r="367"/>
+    <row customHeight="1" ht="12.75" r="368"/>
+    <row customHeight="1" ht="12.75" r="369"/>
+    <row customHeight="1" ht="12.75" r="370"/>
+    <row customHeight="1" ht="12.75" r="371"/>
+    <row customHeight="1" ht="12.75" r="372"/>
+    <row customHeight="1" ht="12.75" r="373"/>
+    <row customHeight="1" ht="12.75" r="374"/>
+    <row customHeight="1" ht="12.75" r="375"/>
+    <row customHeight="1" ht="12.75" r="376"/>
+    <row customHeight="1" ht="12.75" r="377"/>
+    <row customHeight="1" ht="12.75" r="378"/>
+    <row customHeight="1" ht="12.75" r="379"/>
+    <row customHeight="1" ht="12.75" r="380"/>
+    <row customHeight="1" ht="12.75" r="381"/>
+    <row customHeight="1" ht="12.75" r="382"/>
+    <row customHeight="1" ht="12.75" r="383"/>
+    <row customHeight="1" ht="12.75" r="384"/>
+    <row customHeight="1" ht="12.75" r="385"/>
+    <row customHeight="1" ht="12.75" r="386"/>
+    <row customHeight="1" ht="12.75" r="387"/>
+    <row customHeight="1" ht="12.75" r="388"/>
+    <row customHeight="1" ht="12.75" r="389"/>
+    <row customHeight="1" ht="12.75" r="390"/>
+    <row customHeight="1" ht="12.75" r="391"/>
+    <row customHeight="1" ht="12.75" r="392"/>
+    <row customHeight="1" ht="12.75" r="393"/>
+    <row customHeight="1" ht="12.75" r="394"/>
+    <row customHeight="1" ht="12.75" r="395"/>
+    <row customHeight="1" ht="12.75" r="396"/>
+    <row customHeight="1" ht="12.75" r="397"/>
+    <row customHeight="1" ht="12.75" r="398"/>
+    <row customHeight="1" ht="12.75" r="399"/>
+    <row customHeight="1" ht="12.75" r="400"/>
+    <row customHeight="1" ht="12.75" r="401"/>
+    <row customHeight="1" ht="12.75" r="402"/>
+    <row customHeight="1" ht="12.75" r="403"/>
+    <row customHeight="1" ht="12.75" r="404"/>
+    <row customHeight="1" ht="12.75" r="405"/>
+    <row customHeight="1" ht="12.75" r="406"/>
+    <row customHeight="1" ht="12.75" r="407"/>
+    <row customHeight="1" ht="12.75" r="408"/>
+    <row customHeight="1" ht="12.75" r="409"/>
+    <row customHeight="1" ht="12.75" r="410"/>
+    <row customHeight="1" ht="12.75" r="411"/>
+    <row customHeight="1" ht="12.75" r="412"/>
+    <row customHeight="1" ht="12.75" r="413"/>
+    <row customHeight="1" ht="12.75" r="414"/>
+    <row customHeight="1" ht="12.75" r="415"/>
+    <row customHeight="1" ht="12.75" r="416"/>
+    <row customHeight="1" ht="12.75" r="417"/>
+    <row customHeight="1" ht="12.75" r="418"/>
+    <row customHeight="1" ht="12.75" r="419"/>
+    <row customHeight="1" ht="12.75" r="420"/>
+    <row customHeight="1" ht="12.75" r="421"/>
+    <row customHeight="1" ht="12.75" r="422"/>
+    <row customHeight="1" ht="12.75" r="423"/>
+    <row customHeight="1" ht="12.75" r="424"/>
+    <row customHeight="1" ht="12.75" r="425"/>
+    <row customHeight="1" ht="12.75" r="426"/>
+    <row customHeight="1" ht="12.75" r="427"/>
+    <row customHeight="1" ht="12.75" r="428"/>
+    <row customHeight="1" ht="12.75" r="429"/>
+    <row customHeight="1" ht="12.75" r="430"/>
+    <row customHeight="1" ht="12.75" r="431"/>
+    <row customHeight="1" ht="12.75" r="432"/>
+    <row customHeight="1" ht="12.75" r="433"/>
+    <row customHeight="1" ht="12.75" r="434"/>
+    <row customHeight="1" ht="12.75" r="435"/>
+    <row customHeight="1" ht="12.75" r="436"/>
+    <row customHeight="1" ht="12.75" r="437"/>
+    <row customHeight="1" ht="12.75" r="438"/>
+    <row customHeight="1" ht="12.75" r="439"/>
+    <row customHeight="1" ht="12.75" r="440"/>
+    <row customHeight="1" ht="12.75" r="441"/>
+    <row customHeight="1" ht="12.75" r="442"/>
+    <row customHeight="1" ht="12.75" r="443"/>
+    <row customHeight="1" ht="12.75" r="444"/>
+    <row customHeight="1" ht="12.75" r="445"/>
+    <row customHeight="1" ht="12.75" r="446"/>
+    <row customHeight="1" ht="12.75" r="447"/>
+    <row customHeight="1" ht="12.75" r="448"/>
+    <row customHeight="1" ht="12.75" r="449"/>
+    <row customHeight="1" ht="12.75" r="450"/>
+    <row customHeight="1" ht="12.75" r="451"/>
+    <row customHeight="1" ht="12.75" r="452"/>
+    <row customHeight="1" ht="12.75" r="453"/>
+    <row customHeight="1" ht="12.75" r="454"/>
+    <row customHeight="1" ht="12.75" r="455"/>
+    <row customHeight="1" ht="12.75" r="456"/>
+    <row customHeight="1" ht="12.75" r="457"/>
+    <row customHeight="1" ht="12.75" r="458"/>
+    <row customHeight="1" ht="12.75" r="459"/>
+    <row customHeight="1" ht="12.75" r="460"/>
+    <row customHeight="1" ht="12.75" r="461"/>
+    <row customHeight="1" ht="12.75" r="462"/>
+    <row customHeight="1" ht="12.75" r="463"/>
+    <row customHeight="1" ht="12.75" r="464"/>
+    <row customHeight="1" ht="12.75" r="465"/>
+    <row customHeight="1" ht="12.75" r="466"/>
+    <row customHeight="1" ht="12.75" r="467"/>
+    <row customHeight="1" ht="12.75" r="468"/>
+    <row customHeight="1" ht="12.75" r="469"/>
+    <row customHeight="1" ht="12.75" r="470"/>
+    <row customHeight="1" ht="12.75" r="471"/>
+    <row customHeight="1" ht="12.75" r="472"/>
+    <row customHeight="1" ht="12.75" r="473"/>
+    <row customHeight="1" ht="12.75" r="474"/>
+    <row customHeight="1" ht="12.75" r="475"/>
+    <row customHeight="1" ht="12.75" r="476"/>
+    <row customHeight="1" ht="12.75" r="477"/>
+    <row customHeight="1" ht="12.75" r="478"/>
+    <row customHeight="1" ht="12.75" r="479"/>
+    <row customHeight="1" ht="12.75" r="480"/>
+    <row customHeight="1" ht="12.75" r="481"/>
+    <row customHeight="1" ht="12.75" r="482"/>
+    <row customHeight="1" ht="12.75" r="483"/>
+    <row customHeight="1" ht="12.75" r="484"/>
+    <row customHeight="1" ht="12.75" r="485"/>
+    <row customHeight="1" ht="12.75" r="486"/>
+    <row customHeight="1" ht="12.75" r="487"/>
+    <row customHeight="1" ht="12.75" r="488"/>
+    <row customHeight="1" ht="12.75" r="489"/>
+    <row customHeight="1" ht="12.75" r="490"/>
+    <row customHeight="1" ht="12.75" r="491"/>
+    <row customHeight="1" ht="12.75" r="492"/>
+    <row customHeight="1" ht="12.75" r="493"/>
+    <row customHeight="1" ht="12.75" r="494"/>
+    <row customHeight="1" ht="12.75" r="495"/>
+    <row customHeight="1" ht="12.75" r="496"/>
+    <row customHeight="1" ht="12.75" r="497"/>
+    <row customHeight="1" ht="12.75" r="498"/>
+    <row customHeight="1" ht="12.75" r="499"/>
+    <row customHeight="1" ht="12.75" r="500"/>
+    <row customHeight="1" ht="12.75" r="501"/>
+    <row customHeight="1" ht="12.75" r="502"/>
+    <row customHeight="1" ht="12.75" r="503"/>
+    <row customHeight="1" ht="12.75" r="504"/>
+    <row customHeight="1" ht="12.75" r="505"/>
+    <row customHeight="1" ht="12.75" r="506"/>
+    <row customHeight="1" ht="12.75" r="507"/>
+    <row customHeight="1" ht="12.75" r="508"/>
+    <row customHeight="1" ht="12.75" r="509"/>
+    <row customHeight="1" ht="12.75" r="510"/>
+    <row customHeight="1" ht="12.75" r="511"/>
+    <row customHeight="1" ht="12.75" r="512"/>
+    <row customHeight="1" ht="12.75" r="513"/>
+    <row customHeight="1" ht="12.75" r="514"/>
+    <row customHeight="1" ht="12.75" r="515"/>
+    <row customHeight="1" ht="12.75" r="516"/>
+    <row customHeight="1" ht="12.75" r="517"/>
+    <row customHeight="1" ht="12.75" r="518"/>
+    <row customHeight="1" ht="12.75" r="519"/>
+    <row customHeight="1" ht="12.75" r="520"/>
+    <row customHeight="1" ht="12.75" r="521"/>
+    <row customHeight="1" ht="12.75" r="522"/>
+    <row customHeight="1" ht="12.75" r="523"/>
+    <row customHeight="1" ht="12.75" r="524"/>
+    <row customHeight="1" ht="12.75" r="525"/>
+    <row customHeight="1" ht="12.75" r="526"/>
+    <row customHeight="1" ht="12.75" r="527"/>
+    <row customHeight="1" ht="12.75" r="528"/>
+    <row customHeight="1" ht="12.75" r="529"/>
+    <row customHeight="1" ht="12.75" r="530"/>
+    <row customHeight="1" ht="12.75" r="531"/>
+    <row customHeight="1" ht="12.75" r="532"/>
+    <row customHeight="1" ht="12.75" r="533"/>
+    <row customHeight="1" ht="12.75" r="534"/>
+    <row customHeight="1" ht="12.75" r="535"/>
+    <row customHeight="1" ht="12.75" r="536"/>
+    <row customHeight="1" ht="12.75" r="537"/>
+    <row customHeight="1" ht="12.75" r="538"/>
+    <row customHeight="1" ht="12.75" r="539"/>
+    <row customHeight="1" ht="12.75" r="540"/>
+    <row customHeight="1" ht="12.75" r="541"/>
+    <row customHeight="1" ht="12.75" r="542"/>
+    <row customHeight="1" ht="12.75" r="543"/>
+    <row customHeight="1" ht="12.75" r="544"/>
+    <row customHeight="1" ht="12.75" r="545"/>
+    <row customHeight="1" ht="12.75" r="546"/>
+    <row customHeight="1" ht="12.75" r="547"/>
+    <row customHeight="1" ht="12.75" r="548"/>
+    <row customHeight="1" ht="12.75" r="549"/>
+    <row customHeight="1" ht="12.75" r="550"/>
+    <row customHeight="1" ht="12.75" r="551"/>
+    <row customHeight="1" ht="12.75" r="552"/>
+    <row customHeight="1" ht="12.75" r="553"/>
+    <row customHeight="1" ht="12.75" r="554"/>
+    <row customHeight="1" ht="12.75" r="555"/>
+    <row customHeight="1" ht="12.75" r="556"/>
+    <row customHeight="1" ht="12.75" r="557"/>
+    <row customHeight="1" ht="12.75" r="558"/>
+    <row customHeight="1" ht="12.75" r="559"/>
+    <row customHeight="1" ht="12.75" r="560"/>
+    <row customHeight="1" ht="12.75" r="561"/>
+    <row customHeight="1" ht="12.75" r="562"/>
+    <row customHeight="1" ht="12.75" r="563"/>
+    <row customHeight="1" ht="12.75" r="564"/>
+    <row customHeight="1" ht="12.75" r="565"/>
+    <row customHeight="1" ht="12.75" r="566"/>
+    <row customHeight="1" ht="12.75" r="567"/>
+    <row customHeight="1" ht="12.75" r="568"/>
+    <row customHeight="1" ht="12.75" r="569"/>
+    <row customHeight="1" ht="12.75" r="570"/>
+    <row customHeight="1" ht="12.75" r="571"/>
+    <row customHeight="1" ht="12.75" r="572"/>
+    <row customHeight="1" ht="12.75" r="573"/>
+    <row customHeight="1" ht="12.75" r="574"/>
+    <row customHeight="1" ht="12.75" r="575"/>
+    <row customHeight="1" ht="12.75" r="576"/>
+    <row customHeight="1" ht="12.75" r="577"/>
+    <row customHeight="1" ht="12.75" r="578"/>
+    <row customHeight="1" ht="12.75" r="579"/>
+    <row customHeight="1" ht="12.75" r="580"/>
+    <row customHeight="1" ht="12.75" r="581"/>
+    <row customHeight="1" ht="12.75" r="582"/>
+    <row customHeight="1" ht="12.75" r="583"/>
+    <row customHeight="1" ht="12.75" r="584"/>
+    <row customHeight="1" ht="12.75" r="585"/>
+    <row customHeight="1" ht="12.75" r="586"/>
+    <row customHeight="1" ht="12.75" r="587"/>
+    <row customHeight="1" ht="12.75" r="588"/>
+    <row customHeight="1" ht="12.75" r="589"/>
+    <row customHeight="1" ht="12.75" r="590"/>
+    <row customHeight="1" ht="12.75" r="591"/>
+    <row customHeight="1" ht="12.75" r="592"/>
+    <row customHeight="1" ht="12.75" r="593"/>
+    <row customHeight="1" ht="12.75" r="594"/>
+    <row customHeight="1" ht="12.75" r="595"/>
+    <row customHeight="1" ht="12.75" r="596"/>
+    <row customHeight="1" ht="12.75" r="597"/>
+    <row customHeight="1" ht="12.75" r="598"/>
+    <row customHeight="1" ht="12.75" r="599"/>
+    <row customHeight="1" ht="12.75" r="600"/>
+    <row customHeight="1" ht="12.75" r="601"/>
+    <row customHeight="1" ht="12.75" r="602"/>
+    <row customHeight="1" ht="12.75" r="603"/>
+    <row customHeight="1" ht="12.75" r="604"/>
+    <row customHeight="1" ht="12.75" r="605"/>
+    <row customHeight="1" ht="12.75" r="606"/>
+    <row customHeight="1" ht="12.75" r="607"/>
+    <row customHeight="1" ht="12.75" r="608"/>
+    <row customHeight="1" ht="12.75" r="609"/>
+    <row customHeight="1" ht="12.75" r="610"/>
+    <row customHeight="1" ht="12.75" r="611"/>
+    <row customHeight="1" ht="12.75" r="612"/>
+    <row customHeight="1" ht="12.75" r="613"/>
+    <row customHeight="1" ht="12.75" r="614"/>
+    <row customHeight="1" ht="12.75" r="615"/>
+    <row customHeight="1" ht="12.75" r="616"/>
+    <row customHeight="1" ht="12.75" r="617"/>
+    <row customHeight="1" ht="12.75" r="618"/>
+    <row customHeight="1" ht="12.75" r="619"/>
+    <row customHeight="1" ht="12.75" r="620"/>
+    <row customHeight="1" ht="12.75" r="621"/>
+    <row customHeight="1" ht="12.75" r="622"/>
+    <row customHeight="1" ht="12.75" r="623"/>
+    <row customHeight="1" ht="12.75" r="624"/>
+    <row customHeight="1" ht="12.75" r="625"/>
+    <row customHeight="1" ht="12.75" r="626"/>
+    <row customHeight="1" ht="12.75" r="627"/>
+    <row customHeight="1" ht="12.75" r="628"/>
+    <row customHeight="1" ht="12.75" r="629"/>
+    <row customHeight="1" ht="12.75" r="630"/>
+    <row customHeight="1" ht="12.75" r="631"/>
+    <row customHeight="1" ht="12.75" r="632"/>
+    <row customHeight="1" ht="12.75" r="633"/>
+    <row customHeight="1" ht="12.75" r="634"/>
+    <row customHeight="1" ht="12.75" r="635"/>
+    <row customHeight="1" ht="12.75" r="636"/>
+    <row customHeight="1" ht="12.75" r="637"/>
+    <row customHeight="1" ht="12.75" r="638"/>
+    <row customHeight="1" ht="12.75" r="639"/>
+    <row customHeight="1" ht="12.75" r="640"/>
+    <row customHeight="1" ht="12.75" r="641"/>
+    <row customHeight="1" ht="12.75" r="642"/>
+    <row customHeight="1" ht="12.75" r="643"/>
+    <row customHeight="1" ht="12.75" r="644"/>
+    <row customHeight="1" ht="12.75" r="645"/>
+    <row customHeight="1" ht="12.75" r="646"/>
+    <row customHeight="1" ht="12.75" r="647"/>
+    <row customHeight="1" ht="12.75" r="648"/>
+    <row customHeight="1" ht="12.75" r="649"/>
+    <row customHeight="1" ht="12.75" r="650"/>
+    <row customHeight="1" ht="12.75" r="651"/>
+    <row customHeight="1" ht="12.75" r="652"/>
+    <row customHeight="1" ht="12.75" r="653"/>
+    <row customHeight="1" ht="12.75" r="654"/>
+    <row customHeight="1" ht="12.75" r="655"/>
+    <row customHeight="1" ht="12.75" r="656"/>
+    <row customHeight="1" ht="12.75" r="657"/>
+    <row customHeight="1" ht="12.75" r="658"/>
+    <row customHeight="1" ht="12.75" r="659"/>
+    <row customHeight="1" ht="12.75" r="660"/>
+    <row customHeight="1" ht="12.75" r="661"/>
+    <row customHeight="1" ht="12.75" r="662"/>
+    <row customHeight="1" ht="12.75" r="663"/>
+    <row customHeight="1" ht="12.75" r="664"/>
+    <row customHeight="1" ht="12.75" r="665"/>
+    <row customHeight="1" ht="12.75" r="666"/>
+    <row customHeight="1" ht="12.75" r="667"/>
+    <row customHeight="1" ht="12.75" r="668"/>
+    <row customHeight="1" ht="12.75" r="669"/>
+    <row customHeight="1" ht="12.75" r="670"/>
+    <row customHeight="1" ht="12.75" r="671"/>
+    <row customHeight="1" ht="12.75" r="672"/>
+    <row customHeight="1" ht="12.75" r="673"/>
+    <row customHeight="1" ht="12.75" r="674"/>
+    <row customHeight="1" ht="12.75" r="675"/>
+    <row customHeight="1" ht="12.75" r="676"/>
+    <row customHeight="1" ht="12.75" r="677"/>
+    <row customHeight="1" ht="12.75" r="678"/>
+    <row customHeight="1" ht="12.75" r="679"/>
+    <row customHeight="1" ht="12.75" r="680"/>
+    <row customHeight="1" ht="12.75" r="681"/>
+    <row customHeight="1" ht="12.75" r="682"/>
+    <row customHeight="1" ht="12.75" r="683"/>
+    <row customHeight="1" ht="12.75" r="684"/>
+    <row customHeight="1" ht="12.75" r="685"/>
+    <row customHeight="1" ht="12.75" r="686"/>
+    <row customHeight="1" ht="12.75" r="687"/>
+    <row customHeight="1" ht="12.75" r="688"/>
+    <row customHeight="1" ht="12.75" r="689"/>
+    <row customHeight="1" ht="12.75" r="690"/>
+    <row customHeight="1" ht="12.75" r="691"/>
+    <row customHeight="1" ht="12.75" r="692"/>
+    <row customHeight="1" ht="12.75" r="693"/>
+    <row customHeight="1" ht="12.75" r="694"/>
+    <row customHeight="1" ht="12.75" r="695"/>
+    <row customHeight="1" ht="12.75" r="696"/>
+    <row customHeight="1" ht="12.75" r="697"/>
+    <row customHeight="1" ht="12.75" r="698"/>
+    <row customHeight="1" ht="12.75" r="699"/>
+    <row customHeight="1" ht="12.75" r="700"/>
+    <row customHeight="1" ht="12.75" r="701"/>
+    <row customHeight="1" ht="12.75" r="702"/>
+    <row customHeight="1" ht="12.75" r="703"/>
+    <row customHeight="1" ht="12.75" r="704"/>
+    <row customHeight="1" ht="12.75" r="705"/>
+    <row customHeight="1" ht="12.75" r="706"/>
+    <row customHeight="1" ht="12.75" r="707"/>
+    <row customHeight="1" ht="12.75" r="708"/>
+    <row customHeight="1" ht="12.75" r="709"/>
+    <row customHeight="1" ht="12.75" r="710"/>
+    <row customHeight="1" ht="12.75" r="711"/>
+    <row customHeight="1" ht="12.75" r="712"/>
+    <row customHeight="1" ht="12.75" r="713"/>
+    <row customHeight="1" ht="12.75" r="714"/>
+    <row customHeight="1" ht="12.75" r="715"/>
+    <row customHeight="1" ht="12.75" r="716"/>
+    <row customHeight="1" ht="12.75" r="717"/>
+    <row customHeight="1" ht="12.75" r="718"/>
+    <row customHeight="1" ht="12.75" r="719"/>
+    <row customHeight="1" ht="12.75" r="720"/>
+    <row customHeight="1" ht="12.75" r="721"/>
+    <row customHeight="1" ht="12.75" r="722"/>
+    <row customHeight="1" ht="12.75" r="723"/>
+    <row customHeight="1" ht="12.75" r="724"/>
+    <row customHeight="1" ht="12.75" r="725"/>
+    <row customHeight="1" ht="12.75" r="726"/>
+    <row customHeight="1" ht="12.75" r="727"/>
+    <row customHeight="1" ht="12.75" r="728"/>
+    <row customHeight="1" ht="12.75" r="729"/>
+    <row customHeight="1" ht="12.75" r="730"/>
+    <row customHeight="1" ht="12.75" r="731"/>
+    <row customHeight="1" ht="12.75" r="732"/>
+    <row customHeight="1" ht="12.75" r="733"/>
+    <row customHeight="1" ht="12.75" r="734"/>
+    <row customHeight="1" ht="12.75" r="735"/>
+    <row customHeight="1" ht="12.75" r="736"/>
+    <row customHeight="1" ht="12.75" r="737"/>
+    <row customHeight="1" ht="12.75" r="738"/>
+    <row customHeight="1" ht="12.75" r="739"/>
+    <row customHeight="1" ht="12.75" r="740"/>
+    <row customHeight="1" ht="12.75" r="741"/>
+    <row customHeight="1" ht="12.75" r="742"/>
+    <row customHeight="1" ht="12.75" r="743"/>
+    <row customHeight="1" ht="12.75" r="744"/>
+    <row customHeight="1" ht="12.75" r="745"/>
+    <row customHeight="1" ht="12.75" r="746"/>
+    <row customHeight="1" ht="12.75" r="747"/>
+    <row customHeight="1" ht="12.75" r="748"/>
+    <row customHeight="1" ht="12.75" r="749"/>
+    <row customHeight="1" ht="12.75" r="750"/>
+    <row customHeight="1" ht="12.75" r="751"/>
+    <row customHeight="1" ht="12.75" r="752"/>
+    <row customHeight="1" ht="12.75" r="753"/>
+    <row customHeight="1" ht="12.75" r="754"/>
+    <row customHeight="1" ht="12.75" r="755"/>
+    <row customHeight="1" ht="12.75" r="756"/>
+    <row customHeight="1" ht="12.75" r="757"/>
+    <row customHeight="1" ht="12.75" r="758"/>
+    <row customHeight="1" ht="12.75" r="759"/>
+    <row customHeight="1" ht="12.75" r="760"/>
+    <row customHeight="1" ht="12.75" r="761"/>
+    <row customHeight="1" ht="12.75" r="762"/>
+    <row customHeight="1" ht="12.75" r="763"/>
+    <row customHeight="1" ht="12.75" r="764"/>
+    <row customHeight="1" ht="12.75" r="765"/>
+    <row customHeight="1" ht="12.75" r="766"/>
+    <row customHeight="1" ht="12.75" r="767"/>
+    <row customHeight="1" ht="12.75" r="768"/>
+    <row customHeight="1" ht="12.75" r="769"/>
+    <row customHeight="1" ht="12.75" r="770"/>
+    <row customHeight="1" ht="12.75" r="771"/>
+    <row customHeight="1" ht="12.75" r="772"/>
+    <row customHeight="1" ht="12.75" r="773"/>
+    <row customHeight="1" ht="12.75" r="774"/>
+    <row customHeight="1" ht="12.75" r="775"/>
+    <row customHeight="1" ht="12.75" r="776"/>
+    <row customHeight="1" ht="12.75" r="777"/>
+    <row customHeight="1" ht="12.75" r="778"/>
+    <row customHeight="1" ht="12.75" r="779"/>
+    <row customHeight="1" ht="12.75" r="780"/>
+    <row customHeight="1" ht="12.75" r="781"/>
+    <row customHeight="1" ht="12.75" r="782"/>
+    <row customHeight="1" ht="12.75" r="783"/>
+    <row customHeight="1" ht="12.75" r="784"/>
+    <row customHeight="1" ht="12.75" r="785"/>
+    <row customHeight="1" ht="12.75" r="786"/>
+    <row customHeight="1" ht="12.75" r="787"/>
+    <row customHeight="1" ht="12.75" r="788"/>
+    <row customHeight="1" ht="12.75" r="789"/>
+    <row customHeight="1" ht="12.75" r="790"/>
+    <row customHeight="1" ht="12.75" r="791"/>
+    <row customHeight="1" ht="12.75" r="792"/>
+    <row customHeight="1" ht="12.75" r="793"/>
+    <row customHeight="1" ht="12.75" r="794"/>
+    <row customHeight="1" ht="12.75" r="795"/>
+    <row customHeight="1" ht="12.75" r="796"/>
+    <row customHeight="1" ht="12.75" r="797"/>
+    <row customHeight="1" ht="12.75" r="798"/>
+    <row customHeight="1" ht="12.75" r="799"/>
+    <row customHeight="1" ht="12.75" r="800"/>
+    <row customHeight="1" ht="12.75" r="801"/>
+    <row customHeight="1" ht="12.75" r="802"/>
+    <row customHeight="1" ht="12.75" r="803"/>
+    <row customHeight="1" ht="12.75" r="804"/>
+    <row customHeight="1" ht="12.75" r="805"/>
+    <row customHeight="1" ht="12.75" r="806"/>
+    <row customHeight="1" ht="12.75" r="807"/>
+    <row customHeight="1" ht="12.75" r="808"/>
+    <row customHeight="1" ht="12.75" r="809"/>
+    <row customHeight="1" ht="12.75" r="810"/>
+    <row customHeight="1" ht="12.75" r="811"/>
+    <row customHeight="1" ht="12.75" r="812"/>
+    <row customHeight="1" ht="12.75" r="813"/>
+    <row customHeight="1" ht="12.75" r="814"/>
+    <row customHeight="1" ht="12.75" r="815"/>
+    <row customHeight="1" ht="12.75" r="816"/>
+    <row customHeight="1" ht="12.75" r="817"/>
+    <row customHeight="1" ht="12.75" r="818"/>
+    <row customHeight="1" ht="12.75" r="819"/>
+    <row customHeight="1" ht="12.75" r="820"/>
+    <row customHeight="1" ht="12.75" r="821"/>
+    <row customHeight="1" ht="12.75" r="822"/>
+    <row customHeight="1" ht="12.75" r="823"/>
+    <row customHeight="1" ht="12.75" r="824"/>
+    <row customHeight="1" ht="12.75" r="825"/>
+    <row customHeight="1" ht="12.75" r="826"/>
+    <row customHeight="1" ht="12.75" r="827"/>
+    <row customHeight="1" ht="12.75" r="828"/>
+    <row customHeight="1" ht="12.75" r="829"/>
+    <row customHeight="1" ht="12.75" r="830"/>
+    <row customHeight="1" ht="12.75" r="831"/>
+    <row customHeight="1" ht="12.75" r="832"/>
+    <row customHeight="1" ht="12.75" r="833"/>
+    <row customHeight="1" ht="12.75" r="834"/>
+    <row customHeight="1" ht="12.75" r="835"/>
+    <row customHeight="1" ht="12.75" r="836"/>
+    <row customHeight="1" ht="12.75" r="837"/>
+    <row customHeight="1" ht="12.75" r="838"/>
+    <row customHeight="1" ht="12.75" r="839"/>
+    <row customHeight="1" ht="12.75" r="840"/>
+    <row customHeight="1" ht="12.75" r="841"/>
+    <row customHeight="1" ht="12.75" r="842"/>
+    <row customHeight="1" ht="12.75" r="843"/>
+    <row customHeight="1" ht="12.75" r="844"/>
+    <row customHeight="1" ht="12.75" r="845"/>
+    <row customHeight="1" ht="12.75" r="846"/>
+    <row customHeight="1" ht="12.75" r="847"/>
+    <row customHeight="1" ht="12.75" r="848"/>
+    <row customHeight="1" ht="12.75" r="849"/>
+    <row customHeight="1" ht="12.75" r="850"/>
+    <row customHeight="1" ht="12.75" r="851"/>
+    <row customHeight="1" ht="12.75" r="852"/>
+    <row customHeight="1" ht="12.75" r="853"/>
+    <row customHeight="1" ht="12.75" r="854"/>
+    <row customHeight="1" ht="12.75" r="855"/>
+    <row customHeight="1" ht="12.75" r="856"/>
+    <row customHeight="1" ht="12.75" r="857"/>
+    <row customHeight="1" ht="12.75" r="858"/>
+    <row customHeight="1" ht="12.75" r="859"/>
+    <row customHeight="1" ht="12.75" r="860"/>
+    <row customHeight="1" ht="12.75" r="861"/>
+    <row customHeight="1" ht="12.75" r="862"/>
+    <row customHeight="1" ht="12.75" r="863"/>
+    <row customHeight="1" ht="12.75" r="864"/>
+    <row customHeight="1" ht="12.75" r="865"/>
+    <row customHeight="1" ht="12.75" r="866"/>
+    <row customHeight="1" ht="12.75" r="867"/>
+    <row customHeight="1" ht="12.75" r="868"/>
+    <row customHeight="1" ht="12.75" r="869"/>
+    <row customHeight="1" ht="12.75" r="870"/>
+    <row customHeight="1" ht="12.75" r="871"/>
+    <row customHeight="1" ht="12.75" r="872"/>
+    <row customHeight="1" ht="12.75" r="873"/>
+    <row customHeight="1" ht="12.75" r="874"/>
+    <row customHeight="1" ht="12.75" r="875"/>
+    <row customHeight="1" ht="12.75" r="876"/>
+    <row customHeight="1" ht="12.75" r="877"/>
+    <row customHeight="1" ht="12.75" r="878"/>
+    <row customHeight="1" ht="12.75" r="879"/>
+    <row customHeight="1" ht="12.75" r="880"/>
+    <row customHeight="1" ht="12.75" r="881"/>
+    <row customHeight="1" ht="12.75" r="882"/>
+    <row customHeight="1" ht="12.75" r="883"/>
+    <row customHeight="1" ht="12.75" r="884"/>
+    <row customHeight="1" ht="12.75" r="885"/>
+    <row customHeight="1" ht="12.75" r="886"/>
+    <row customHeight="1" ht="12.75" r="887"/>
+    <row customHeight="1" ht="12.75" r="888"/>
+    <row customHeight="1" ht="12.75" r="889"/>
+    <row customHeight="1" ht="12.75" r="890"/>
+    <row customHeight="1" ht="12.75" r="891"/>
+    <row customHeight="1" ht="12.75" r="892"/>
+    <row customHeight="1" ht="12.75" r="893"/>
+    <row customHeight="1" ht="12.75" r="894"/>
+    <row customHeight="1" ht="12.75" r="895"/>
+    <row customHeight="1" ht="12.75" r="896"/>
+    <row customHeight="1" ht="12.75" r="897"/>
+    <row customHeight="1" ht="12.75" r="898"/>
+    <row customHeight="1" ht="12.75" r="899"/>
+    <row customHeight="1" ht="12.75" r="900"/>
+    <row customHeight="1" ht="12.75" r="901"/>
+    <row customHeight="1" ht="12.75" r="902"/>
+    <row customHeight="1" ht="12.75" r="903"/>
+    <row customHeight="1" ht="12.75" r="904"/>
+    <row customHeight="1" ht="12.75" r="905"/>
+    <row customHeight="1" ht="12.75" r="906"/>
+    <row customHeight="1" ht="12.75" r="907"/>
+    <row customHeight="1" ht="12.75" r="908"/>
+    <row customHeight="1" ht="12.75" r="909"/>
+    <row customHeight="1" ht="12.75" r="910"/>
+    <row customHeight="1" ht="12.75" r="911"/>
+    <row customHeight="1" ht="12.75" r="912"/>
+    <row customHeight="1" ht="12.75" r="913"/>
+    <row customHeight="1" ht="12.75" r="914"/>
+    <row customHeight="1" ht="12.75" r="915"/>
+    <row customHeight="1" ht="12.75" r="916"/>
+    <row customHeight="1" ht="12.75" r="917"/>
+    <row customHeight="1" ht="12.75" r="918"/>
+    <row customHeight="1" ht="12.75" r="919"/>
+    <row customHeight="1" ht="12.75" r="920"/>
+    <row customHeight="1" ht="12.75" r="921"/>
+    <row customHeight="1" ht="12.75" r="922"/>
+    <row customHeight="1" ht="12.75" r="923"/>
+    <row customHeight="1" ht="12.75" r="924"/>
+    <row customHeight="1" ht="12.75" r="925"/>
+    <row customHeight="1" ht="12.75" r="926"/>
+    <row customHeight="1" ht="12.75" r="927"/>
+    <row customHeight="1" ht="12.75" r="928"/>
+    <row customHeight="1" ht="12.75" r="929"/>
+    <row customHeight="1" ht="12.75" r="930"/>
+    <row customHeight="1" ht="12.75" r="931"/>
+    <row customHeight="1" ht="12.75" r="932"/>
+    <row customHeight="1" ht="12.75" r="933"/>
+    <row customHeight="1" ht="12.75" r="934"/>
+    <row customHeight="1" ht="12.75" r="935"/>
+    <row customHeight="1" ht="12.75" r="936"/>
+    <row customHeight="1" ht="12.75" r="937"/>
+    <row customHeight="1" ht="12.75" r="938"/>
+    <row customHeight="1" ht="12.75" r="939"/>
+    <row customHeight="1" ht="12.75" r="940"/>
+    <row customHeight="1" ht="12.75" r="941"/>
+    <row customHeight="1" ht="12.75" r="942"/>
+    <row customHeight="1" ht="12.75" r="943"/>
+    <row customHeight="1" ht="12.75" r="944"/>
+    <row customHeight="1" ht="12.75" r="945"/>
+    <row customHeight="1" ht="12.75" r="946"/>
+    <row customHeight="1" ht="12.75" r="947"/>
+    <row customHeight="1" ht="12.75" r="948"/>
+    <row customHeight="1" ht="12.75" r="949"/>
+    <row customHeight="1" ht="12.75" r="950"/>
+    <row customHeight="1" ht="12.75" r="951"/>
+    <row customHeight="1" ht="12.75" r="952"/>
+    <row customHeight="1" ht="12.75" r="953"/>
+    <row customHeight="1" ht="12.75" r="954"/>
+    <row customHeight="1" ht="12.75" r="955"/>
+    <row customHeight="1" ht="12.75" r="956"/>
+    <row customHeight="1" ht="12.75" r="957"/>
+    <row customHeight="1" ht="12.75" r="958"/>
+    <row customHeight="1" ht="12.75" r="959"/>
+    <row customHeight="1" ht="12.75" r="960"/>
+    <row customHeight="1" ht="12.75" r="961"/>
+    <row customHeight="1" ht="12.75" r="962"/>
+    <row customHeight="1" ht="12.75" r="963"/>
+    <row customHeight="1" ht="12.75" r="964"/>
+    <row customHeight="1" ht="12.75" r="965"/>
+    <row customHeight="1" ht="12.75" r="966"/>
+    <row customHeight="1" ht="12.75" r="967"/>
+    <row customHeight="1" ht="12.75" r="968"/>
+    <row customHeight="1" ht="12.75" r="969"/>
+    <row customHeight="1" ht="12.75" r="970"/>
+    <row customHeight="1" ht="12.75" r="971"/>
+    <row customHeight="1" ht="12.75" r="972"/>
+    <row customHeight="1" ht="12.75" r="973"/>
+    <row customHeight="1" ht="12.75" r="974"/>
+    <row customHeight="1" ht="12.75" r="975"/>
+    <row customHeight="1" ht="12.75" r="976"/>
+    <row customHeight="1" ht="12.75" r="977"/>
+    <row customHeight="1" ht="12.75" r="978"/>
+    <row customHeight="1" ht="12.75" r="979"/>
+    <row customHeight="1" ht="12.75" r="980"/>
+    <row customHeight="1" ht="12.75" r="981"/>
+    <row customHeight="1" ht="12.75" r="982"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -5546,24 +5547,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BG13"/>
+  <dimension ref="A1:BH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1"/>
-    <col min="46" max="46" width="25.21875" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="32.88671875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="29.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="21.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="28.6640625" collapsed="false"/>
+    <col min="46" max="46" customWidth="true" width="25.21875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="14.25" customHeight="1">
+    <row customHeight="1" ht="14.25" r="1" spans="1:59">
       <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="13.2">
+    <row ht="13.2" r="2" spans="1:59">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -5823,7 +5824,7 @@
       <c r="BF2" s="54"/>
       <c r="BG2" s="54"/>
     </row>
-    <row r="3" spans="1:59" ht="13.2">
+    <row ht="13.2" r="3" spans="1:59">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="13.2">
+    <row ht="13.2" r="4" spans="1:59">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
@@ -6041,9 +6042,11 @@
       <c r="BF4" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="BG4" s="95"/>
-    </row>
-    <row r="5" spans="1:59" ht="13.2">
+      <c r="BG4" s="53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row ht="13.2" r="5" spans="1:59">
       <c r="A5" s="60" t="s">
         <v>207</v>
       </c>
@@ -6106,7 +6109,7 @@
       <c r="BF5" s="61"/>
       <c r="BG5" s="61"/>
     </row>
-    <row r="6" spans="1:59" ht="13.2">
+    <row ht="13.2" r="6" spans="1:59">
       <c r="A6" s="62" t="s">
         <v>208</v>
       </c>
@@ -6271,7 +6274,7 @@
       <c r="BF6" s="72"/>
       <c r="BG6" s="72"/>
     </row>
-    <row r="7" spans="1:59" ht="13.2">
+    <row ht="13.2" r="7" spans="1:59">
       <c r="A7" s="62" t="s">
         <v>230</v>
       </c>
@@ -6446,7 +6449,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="13.2">
+    <row ht="13.2" r="8" spans="1:59">
       <c r="A8" s="75" t="s">
         <v>246</v>
       </c>
@@ -6611,7 +6614,7 @@
       <c r="BF8" s="79"/>
       <c r="BG8" s="79"/>
     </row>
-    <row r="9" spans="1:59" ht="13.2">
+    <row ht="13.2" r="9" spans="1:59">
       <c r="A9" s="62" t="s">
         <v>259</v>
       </c>
@@ -6676,7 +6679,7 @@
       <c r="BF9" s="79"/>
       <c r="BG9" s="79"/>
     </row>
-    <row r="10" spans="1:59" ht="13.2">
+    <row ht="13.2" r="10" spans="1:59">
       <c r="A10" s="62" t="s">
         <v>260</v>
       </c>
@@ -6741,7 +6744,7 @@
       <c r="BF10" s="79"/>
       <c r="BG10" s="79"/>
     </row>
-    <row r="11" spans="1:59" ht="13.2">
+    <row ht="13.2" r="11" spans="1:59">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="83"/>
@@ -6802,7 +6805,7 @@
       <c r="BF11" s="85"/>
       <c r="BG11" s="85"/>
     </row>
-    <row r="12" spans="1:59" ht="13.2">
+    <row ht="13.2" r="12" spans="1:59">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -6863,7 +6866,7 @@
       <c r="BF12" s="85"/>
       <c r="BG12" s="85"/>
     </row>
-    <row r="13" spans="1:59" ht="13.2">
+    <row ht="13.2" r="13" spans="1:59">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
@@ -6929,7 +6932,7 @@
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AG4:AH4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6938,17 +6941,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="26.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="22.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7154,7 +7157,7 @@
       <c r="E16" s="82"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7163,17 +7166,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.77734375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7377,7 +7380,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7386,16 +7389,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.21875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="35.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -7866,7 +7869,7 @@
   <mergeCells count="1">
     <mergeCell ref="D5:G5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7875,60 +7878,60 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC6"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" customWidth="1"/>
-    <col min="19" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="6.77734375" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" customWidth="1"/>
-    <col min="23" max="23" width="10.109375" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="6.21875" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" customWidth="1"/>
-    <col min="28" max="28" width="6.88671875" customWidth="1"/>
-    <col min="29" max="30" width="7.6640625" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="7.109375" customWidth="1"/>
-    <col min="34" max="36" width="13.44140625" customWidth="1"/>
-    <col min="37" max="37" width="10.88671875" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" customWidth="1"/>
-    <col min="39" max="39" width="10.88671875" customWidth="1"/>
-    <col min="40" max="40" width="7.6640625" customWidth="1"/>
-    <col min="41" max="41" width="10.109375" customWidth="1"/>
-    <col min="42" max="42" width="6.88671875" customWidth="1"/>
-    <col min="43" max="43" width="9" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" customWidth="1"/>
-    <col min="45" max="45" width="9.21875" customWidth="1"/>
-    <col min="46" max="46" width="25.44140625" customWidth="1"/>
-    <col min="47" max="47" width="10.6640625" customWidth="1"/>
-    <col min="48" max="48" width="10.88671875" customWidth="1"/>
-    <col min="49" max="49" width="7.6640625" customWidth="1"/>
-    <col min="50" max="51" width="13.6640625" customWidth="1"/>
-    <col min="52" max="53" width="13.44140625" customWidth="1"/>
-    <col min="54" max="55" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="48.21875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="30.88671875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="26.109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="28.21875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="6.88671875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="9.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="7.44140625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="7.44140625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="34.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="10.44140625" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="10.109375" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" width="10.21875" collapsed="false"/>
+    <col min="16" max="16" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="7.77734375" collapsed="false"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="19" max="20" customWidth="true" width="7.6640625" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="11.77734375" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="10.109375" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="6.21875" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="21.88671875" collapsed="false"/>
+    <col min="27" max="27" customWidth="true" width="9.88671875" collapsed="false"/>
+    <col min="28" max="28" customWidth="true" width="6.88671875" collapsed="false"/>
+    <col min="29" max="30" customWidth="true" width="7.6640625" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="7.33203125" collapsed="false"/>
+    <col min="32" max="32" customWidth="true" width="7.6640625" collapsed="false"/>
+    <col min="33" max="33" customWidth="true" width="7.109375" collapsed="false"/>
+    <col min="34" max="36" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="37" max="37" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="38" max="38" customWidth="true" width="11.109375" collapsed="false"/>
+    <col min="39" max="39" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="40" max="40" customWidth="true" width="7.6640625" collapsed="false"/>
+    <col min="41" max="41" customWidth="true" width="10.109375" collapsed="false"/>
+    <col min="42" max="42" customWidth="true" width="6.88671875" collapsed="false"/>
+    <col min="43" max="43" customWidth="true" width="9.0" collapsed="false"/>
+    <col min="44" max="44" customWidth="true" width="10.21875" collapsed="false"/>
+    <col min="45" max="45" customWidth="true" width="9.21875" collapsed="false"/>
+    <col min="46" max="46" customWidth="true" width="25.44140625" collapsed="false"/>
+    <col min="47" max="47" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col min="48" max="48" customWidth="true" width="10.88671875" collapsed="false"/>
+    <col min="49" max="49" customWidth="true" width="7.6640625" collapsed="false"/>
+    <col min="50" max="51" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="52" max="53" customWidth="true" width="13.44140625" collapsed="false"/>
+    <col min="54" max="55" customWidth="true" width="25.21875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
@@ -8600,7 +8603,7 @@
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AG4:AH4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8609,14 +8612,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="77.33203125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="27.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="77.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8982,7 +8985,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="34" spans="1:3">
       <c r="A34" s="36" t="s">
         <v>339</v>
       </c>
@@ -8993,7 +8996,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="35" spans="1:3">
       <c r="A35" s="36" t="s">
         <v>339</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="36" spans="1:3">
       <c r="A36" s="36" t="s">
         <v>339</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="37" spans="1:3">
       <c r="A37" s="36" t="s">
         <v>339</v>
       </c>
@@ -9026,7 +9029,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="38" spans="1:3">
       <c r="A38" s="36" t="s">
         <v>339</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="39" spans="1:3">
       <c r="A39" s="36" t="s">
         <v>339</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="40" spans="1:3">
       <c r="A40" s="36" t="s">
         <v>339</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="41" spans="1:3">
       <c r="A41" s="36" t="s">
         <v>339</v>
       </c>
@@ -9070,7 +9073,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="42" spans="1:3">
       <c r="A42" s="36" t="s">
         <v>339</v>
       </c>
@@ -9081,7 +9084,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="43" spans="1:3">
       <c r="A43" s="36" t="s">
         <v>339</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="44" spans="1:3">
       <c r="A44" s="36" t="s">
         <v>339</v>
       </c>
@@ -9103,7 +9106,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="45" spans="1:3">
       <c r="A45" s="36" t="s">
         <v>339</v>
       </c>
@@ -9114,7 +9117,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="46" spans="1:3">
       <c r="A46" s="36" t="s">
         <v>339</v>
       </c>
@@ -9125,7 +9128,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="47" spans="1:3">
       <c r="A47" s="36" t="s">
         <v>339</v>
       </c>
@@ -9137,7 +9140,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -9146,11 +9149,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="125"/>
@@ -9297,6 +9300,6 @@
       <c r="B33" s="82"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="2" windowHeight="6828" windowWidth="21852" xWindow="324" yWindow="516"/>
-  </bookViews>
   <sheets>
-    <sheet name="Version" r:id="rId1" sheetId="1"/>
-    <sheet name="Info" r:id="rId2" sheetId="2"/>
-    <sheet name="001" r:id="rId3" sheetId="3"/>
-    <sheet name="003HAB" r:id="rId4" sheetId="4"/>
-    <sheet name="003MET" r:id="rId5" sheetId="5"/>
-    <sheet name="004EMP" r:id="rId6" sheetId="6"/>
-    <sheet name="005" r:id="rId7" sheetId="7"/>
-    <sheet name="IHMTO" r:id="rId8" sheetId="8"/>
-    <sheet name="MODELE" r:id="rId9" sheetId="9"/>
+    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="003HAB" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="003MET" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="MODELE" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="n2oVke5TL0ndSNnraF4aR8XMXOrt2xnFeYPax/ixAak="/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="432">
   <si>
     <t>Date</t>
   </si>
@@ -100,19 +97,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial, sans-serif"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial, sans-serif"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial, sans-serif"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial, sans-serif"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -1345,123 +1340,104 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="18">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial, sans-serif"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial, sans-serif"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1469,7 +1445,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1599,13 +1575,7 @@
     </fill>
   </fills>
   <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1619,7 +1589,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1628,14 +1597,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1645,305 +1611,451 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="127">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="3" numFmtId="14" xfId="0">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf quotePrefix="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="22" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="15" fontId="3" numFmtId="14" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="15" fontId="4" numFmtId="14" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="14" fontId="3" numFmtId="14" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="19" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="21" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="22" fontId="3" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2054,21 +2166,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2085,7 +2197,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2133,27 +2245,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="41.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.109375" collapsed="false"/>
-    <col min="6" max="26" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col customWidth="1" min="1" max="2" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="41.38"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
+    <col customWidth="1" min="6" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" spans="1:6">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2173,9 +2285,9 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" spans="1:6">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -2186,9 +2298,9 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row customHeight="1" ht="12.75" r="3" spans="1:6">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -2199,9 +2311,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row customHeight="1" ht="12.75" r="4" spans="1:6">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -2212,9 +2324,9 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row customHeight="1" ht="12.75" r="5" spans="1:6">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -2225,7 +2337,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row customHeight="1" ht="12.75" r="6" spans="1:6">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2242,1089 +2354,1093 @@
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="7" spans="1:6">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="8" spans="1:6">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="9" spans="1:6">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="10" spans="1:6">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="11" spans="1:6">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="12" spans="1:6">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="13" spans="1:6">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="14" spans="1:6">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="15" spans="1:6">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="16" spans="1:6">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="17" spans="1:5">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row customHeight="1" ht="12.75" r="18" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="19" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="20" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="21" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="22" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="23" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="24" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="25" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="26" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="27" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="28" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="29" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="30" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="31" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="32" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="33"/>
-    <row customHeight="1" ht="12.75" r="34"/>
-    <row customHeight="1" ht="12.75" r="35"/>
-    <row customHeight="1" ht="12.75" r="36"/>
-    <row customHeight="1" ht="12.75" r="37"/>
-    <row customHeight="1" ht="12.75" r="38"/>
-    <row customHeight="1" ht="12.75" r="39"/>
-    <row customHeight="1" ht="12.75" r="40"/>
-    <row customHeight="1" ht="12.75" r="41"/>
-    <row customHeight="1" ht="12.75" r="42"/>
-    <row customHeight="1" ht="12.75" r="43"/>
-    <row customHeight="1" ht="12.75" r="44"/>
-    <row customHeight="1" ht="12.75" r="45"/>
-    <row customHeight="1" ht="12.75" r="46"/>
-    <row customHeight="1" ht="12.75" r="47"/>
-    <row customHeight="1" ht="12.75" r="48"/>
-    <row customHeight="1" ht="12.75" r="49"/>
-    <row customHeight="1" ht="12.75" r="50"/>
-    <row customHeight="1" ht="12.75" r="51"/>
-    <row customHeight="1" ht="12.75" r="52"/>
-    <row customHeight="1" ht="12.75" r="53"/>
-    <row customHeight="1" ht="12.75" r="54"/>
-    <row customHeight="1" ht="12.75" r="55"/>
-    <row customHeight="1" ht="12.75" r="56"/>
-    <row customHeight="1" ht="12.75" r="57"/>
-    <row customHeight="1" ht="12.75" r="58"/>
-    <row customHeight="1" ht="12.75" r="59"/>
-    <row customHeight="1" ht="12.75" r="60"/>
-    <row customHeight="1" ht="12.75" r="61"/>
-    <row customHeight="1" ht="12.75" r="62"/>
-    <row customHeight="1" ht="12.75" r="63"/>
-    <row customHeight="1" ht="12.75" r="64"/>
-    <row customHeight="1" ht="12.75" r="65"/>
-    <row customHeight="1" ht="12.75" r="66"/>
-    <row customHeight="1" ht="12.75" r="67"/>
-    <row customHeight="1" ht="12.75" r="68"/>
-    <row customHeight="1" ht="12.75" r="69"/>
-    <row customHeight="1" ht="12.75" r="70"/>
-    <row customHeight="1" ht="12.75" r="71"/>
-    <row customHeight="1" ht="12.75" r="72"/>
-    <row customHeight="1" ht="12.75" r="73"/>
-    <row customHeight="1" ht="12.75" r="74"/>
-    <row customHeight="1" ht="12.75" r="75"/>
-    <row customHeight="1" ht="12.75" r="76"/>
-    <row customHeight="1" ht="12.75" r="77"/>
-    <row customHeight="1" ht="12.75" r="78"/>
-    <row customHeight="1" ht="12.75" r="79"/>
-    <row customHeight="1" ht="12.75" r="80"/>
-    <row customHeight="1" ht="12.75" r="81"/>
-    <row customHeight="1" ht="12.75" r="82"/>
-    <row customHeight="1" ht="12.75" r="83"/>
-    <row customHeight="1" ht="12.75" r="84"/>
-    <row customHeight="1" ht="12.75" r="85"/>
-    <row customHeight="1" ht="12.75" r="86"/>
-    <row customHeight="1" ht="12.75" r="87"/>
-    <row customHeight="1" ht="12.75" r="88"/>
-    <row customHeight="1" ht="12.75" r="89"/>
-    <row customHeight="1" ht="12.75" r="90"/>
-    <row customHeight="1" ht="12.75" r="91"/>
-    <row customHeight="1" ht="12.75" r="92"/>
-    <row customHeight="1" ht="12.75" r="93"/>
-    <row customHeight="1" ht="12.75" r="94"/>
-    <row customHeight="1" ht="12.75" r="95"/>
-    <row customHeight="1" ht="12.75" r="96"/>
-    <row customHeight="1" ht="12.75" r="97"/>
-    <row customHeight="1" ht="12.75" r="98"/>
-    <row customHeight="1" ht="12.75" r="99"/>
-    <row customHeight="1" ht="12.75" r="100"/>
-    <row customHeight="1" ht="12.75" r="101"/>
-    <row customHeight="1" ht="12.75" r="102"/>
-    <row customHeight="1" ht="12.75" r="103"/>
-    <row customHeight="1" ht="12.75" r="104"/>
-    <row customHeight="1" ht="12.75" r="105"/>
-    <row customHeight="1" ht="12.75" r="106"/>
-    <row customHeight="1" ht="12.75" r="107"/>
-    <row customHeight="1" ht="12.75" r="108"/>
-    <row customHeight="1" ht="12.75" r="109"/>
-    <row customHeight="1" ht="12.75" r="110"/>
-    <row customHeight="1" ht="12.75" r="111"/>
-    <row customHeight="1" ht="12.75" r="112"/>
-    <row customHeight="1" ht="12.75" r="113"/>
-    <row customHeight="1" ht="12.75" r="114"/>
-    <row customHeight="1" ht="12.75" r="115"/>
-    <row customHeight="1" ht="12.75" r="116"/>
-    <row customHeight="1" ht="12.75" r="117"/>
-    <row customHeight="1" ht="12.75" r="118"/>
-    <row customHeight="1" ht="12.75" r="119"/>
-    <row customHeight="1" ht="12.75" r="120"/>
-    <row customHeight="1" ht="12.75" r="121"/>
-    <row customHeight="1" ht="12.75" r="122"/>
-    <row customHeight="1" ht="12.75" r="123"/>
-    <row customHeight="1" ht="12.75" r="124"/>
-    <row customHeight="1" ht="12.75" r="125"/>
-    <row customHeight="1" ht="12.75" r="126"/>
-    <row customHeight="1" ht="12.75" r="127"/>
-    <row customHeight="1" ht="12.75" r="128"/>
-    <row customHeight="1" ht="12.75" r="129"/>
-    <row customHeight="1" ht="12.75" r="130"/>
-    <row customHeight="1" ht="12.75" r="131"/>
-    <row customHeight="1" ht="12.75" r="132"/>
-    <row customHeight="1" ht="12.75" r="133"/>
-    <row customHeight="1" ht="12.75" r="134"/>
-    <row customHeight="1" ht="12.75" r="135"/>
-    <row customHeight="1" ht="12.75" r="136"/>
-    <row customHeight="1" ht="12.75" r="137"/>
-    <row customHeight="1" ht="12.75" r="138"/>
-    <row customHeight="1" ht="12.75" r="139"/>
-    <row customHeight="1" ht="12.75" r="140"/>
-    <row customHeight="1" ht="12.75" r="141"/>
-    <row customHeight="1" ht="12.75" r="142"/>
-    <row customHeight="1" ht="12.75" r="143"/>
-    <row customHeight="1" ht="12.75" r="144"/>
-    <row customHeight="1" ht="12.75" r="145"/>
-    <row customHeight="1" ht="12.75" r="146"/>
-    <row customHeight="1" ht="12.75" r="147"/>
-    <row customHeight="1" ht="12.75" r="148"/>
-    <row customHeight="1" ht="12.75" r="149"/>
-    <row customHeight="1" ht="12.75" r="150"/>
-    <row customHeight="1" ht="12.75" r="151"/>
-    <row customHeight="1" ht="12.75" r="152"/>
-    <row customHeight="1" ht="12.75" r="153"/>
-    <row customHeight="1" ht="12.75" r="154"/>
-    <row customHeight="1" ht="12.75" r="155"/>
-    <row customHeight="1" ht="12.75" r="156"/>
-    <row customHeight="1" ht="12.75" r="157"/>
-    <row customHeight="1" ht="12.75" r="158"/>
-    <row customHeight="1" ht="12.75" r="159"/>
-    <row customHeight="1" ht="12.75" r="160"/>
-    <row customHeight="1" ht="12.75" r="161"/>
-    <row customHeight="1" ht="12.75" r="162"/>
-    <row customHeight="1" ht="12.75" r="163"/>
-    <row customHeight="1" ht="12.75" r="164"/>
-    <row customHeight="1" ht="12.75" r="165"/>
-    <row customHeight="1" ht="12.75" r="166"/>
-    <row customHeight="1" ht="12.75" r="167"/>
-    <row customHeight="1" ht="12.75" r="168"/>
-    <row customHeight="1" ht="12.75" r="169"/>
-    <row customHeight="1" ht="12.75" r="170"/>
-    <row customHeight="1" ht="12.75" r="171"/>
-    <row customHeight="1" ht="12.75" r="172"/>
-    <row customHeight="1" ht="12.75" r="173"/>
-    <row customHeight="1" ht="12.75" r="174"/>
-    <row customHeight="1" ht="12.75" r="175"/>
-    <row customHeight="1" ht="12.75" r="176"/>
-    <row customHeight="1" ht="12.75" r="177"/>
-    <row customHeight="1" ht="12.75" r="178"/>
-    <row customHeight="1" ht="12.75" r="179"/>
-    <row customHeight="1" ht="12.75" r="180"/>
-    <row customHeight="1" ht="12.75" r="181"/>
-    <row customHeight="1" ht="12.75" r="182"/>
-    <row customHeight="1" ht="12.75" r="183"/>
-    <row customHeight="1" ht="12.75" r="184"/>
-    <row customHeight="1" ht="12.75" r="185"/>
-    <row customHeight="1" ht="12.75" r="186"/>
-    <row customHeight="1" ht="12.75" r="187"/>
-    <row customHeight="1" ht="12.75" r="188"/>
-    <row customHeight="1" ht="12.75" r="189"/>
-    <row customHeight="1" ht="12.75" r="190"/>
-    <row customHeight="1" ht="12.75" r="191"/>
-    <row customHeight="1" ht="12.75" r="192"/>
-    <row customHeight="1" ht="12.75" r="193"/>
-    <row customHeight="1" ht="12.75" r="194"/>
-    <row customHeight="1" ht="12.75" r="195"/>
-    <row customHeight="1" ht="12.75" r="196"/>
-    <row customHeight="1" ht="12.75" r="197"/>
-    <row customHeight="1" ht="12.75" r="198"/>
-    <row customHeight="1" ht="12.75" r="199"/>
-    <row customHeight="1" ht="12.75" r="200"/>
-    <row customHeight="1" ht="12.75" r="201"/>
-    <row customHeight="1" ht="12.75" r="202"/>
-    <row customHeight="1" ht="12.75" r="203"/>
-    <row customHeight="1" ht="12.75" r="204"/>
-    <row customHeight="1" ht="12.75" r="205"/>
-    <row customHeight="1" ht="12.75" r="206"/>
-    <row customHeight="1" ht="12.75" r="207"/>
-    <row customHeight="1" ht="12.75" r="208"/>
-    <row customHeight="1" ht="12.75" r="209"/>
-    <row customHeight="1" ht="12.75" r="210"/>
-    <row customHeight="1" ht="12.75" r="211"/>
-    <row customHeight="1" ht="12.75" r="212"/>
-    <row customHeight="1" ht="12.75" r="213"/>
-    <row customHeight="1" ht="12.75" r="214"/>
-    <row customHeight="1" ht="12.75" r="215"/>
-    <row customHeight="1" ht="12.75" r="216"/>
-    <row customHeight="1" ht="12.75" r="217"/>
-    <row customHeight="1" ht="12.75" r="218"/>
-    <row customHeight="1" ht="12.75" r="219"/>
-    <row customHeight="1" ht="12.75" r="220"/>
-    <row customHeight="1" ht="12.75" r="221"/>
-    <row customHeight="1" ht="12.75" r="222"/>
-    <row customHeight="1" ht="12.75" r="223"/>
-    <row customHeight="1" ht="12.75" r="224"/>
-    <row customHeight="1" ht="12.75" r="225"/>
-    <row customHeight="1" ht="12.75" r="226"/>
-    <row customHeight="1" ht="12.75" r="227"/>
-    <row customHeight="1" ht="12.75" r="228"/>
-    <row customHeight="1" ht="12.75" r="229"/>
-    <row customHeight="1" ht="12.75" r="230"/>
-    <row customHeight="1" ht="12.75" r="231"/>
-    <row customHeight="1" ht="12.75" r="232"/>
-    <row customHeight="1" ht="12.75" r="233"/>
-    <row customHeight="1" ht="12.75" r="234"/>
-    <row customHeight="1" ht="12.75" r="235"/>
-    <row customHeight="1" ht="12.75" r="236"/>
-    <row customHeight="1" ht="12.75" r="237"/>
-    <row customHeight="1" ht="12.75" r="238"/>
-    <row customHeight="1" ht="12.75" r="239"/>
-    <row customHeight="1" ht="12.75" r="240"/>
-    <row customHeight="1" ht="12.75" r="241"/>
-    <row customHeight="1" ht="12.75" r="242"/>
-    <row customHeight="1" ht="12.75" r="243"/>
-    <row customHeight="1" ht="12.75" r="244"/>
-    <row customHeight="1" ht="12.75" r="245"/>
-    <row customHeight="1" ht="12.75" r="246"/>
-    <row customHeight="1" ht="12.75" r="247"/>
-    <row customHeight="1" ht="12.75" r="248"/>
-    <row customHeight="1" ht="12.75" r="249"/>
-    <row customHeight="1" ht="12.75" r="250"/>
-    <row customHeight="1" ht="12.75" r="251"/>
-    <row customHeight="1" ht="12.75" r="252"/>
-    <row customHeight="1" ht="12.75" r="253"/>
-    <row customHeight="1" ht="12.75" r="254"/>
-    <row customHeight="1" ht="12.75" r="255"/>
-    <row customHeight="1" ht="12.75" r="256"/>
-    <row customHeight="1" ht="12.75" r="257"/>
-    <row customHeight="1" ht="12.75" r="258"/>
-    <row customHeight="1" ht="12.75" r="259"/>
-    <row customHeight="1" ht="12.75" r="260"/>
-    <row customHeight="1" ht="12.75" r="261"/>
-    <row customHeight="1" ht="12.75" r="262"/>
-    <row customHeight="1" ht="12.75" r="263"/>
-    <row customHeight="1" ht="12.75" r="264"/>
-    <row customHeight="1" ht="12.75" r="265"/>
-    <row customHeight="1" ht="12.75" r="266"/>
-    <row customHeight="1" ht="12.75" r="267"/>
-    <row customHeight="1" ht="12.75" r="268"/>
-    <row customHeight="1" ht="12.75" r="269"/>
-    <row customHeight="1" ht="12.75" r="270"/>
-    <row customHeight="1" ht="12.75" r="271"/>
-    <row customHeight="1" ht="12.75" r="272"/>
-    <row customHeight="1" ht="12.75" r="273"/>
-    <row customHeight="1" ht="12.75" r="274"/>
-    <row customHeight="1" ht="12.75" r="275"/>
-    <row customHeight="1" ht="12.75" r="276"/>
-    <row customHeight="1" ht="12.75" r="277"/>
-    <row customHeight="1" ht="12.75" r="278"/>
-    <row customHeight="1" ht="12.75" r="279"/>
-    <row customHeight="1" ht="12.75" r="280"/>
-    <row customHeight="1" ht="12.75" r="281"/>
-    <row customHeight="1" ht="12.75" r="282"/>
-    <row customHeight="1" ht="12.75" r="283"/>
-    <row customHeight="1" ht="12.75" r="284"/>
-    <row customHeight="1" ht="12.75" r="285"/>
-    <row customHeight="1" ht="12.75" r="286"/>
-    <row customHeight="1" ht="12.75" r="287"/>
-    <row customHeight="1" ht="12.75" r="288"/>
-    <row customHeight="1" ht="12.75" r="289"/>
-    <row customHeight="1" ht="12.75" r="290"/>
-    <row customHeight="1" ht="12.75" r="291"/>
-    <row customHeight="1" ht="12.75" r="292"/>
-    <row customHeight="1" ht="12.75" r="293"/>
-    <row customHeight="1" ht="12.75" r="294"/>
-    <row customHeight="1" ht="12.75" r="295"/>
-    <row customHeight="1" ht="12.75" r="296"/>
-    <row customHeight="1" ht="12.75" r="297"/>
-    <row customHeight="1" ht="12.75" r="298"/>
-    <row customHeight="1" ht="12.75" r="299"/>
-    <row customHeight="1" ht="12.75" r="300"/>
-    <row customHeight="1" ht="12.75" r="301"/>
-    <row customHeight="1" ht="12.75" r="302"/>
-    <row customHeight="1" ht="12.75" r="303"/>
-    <row customHeight="1" ht="12.75" r="304"/>
-    <row customHeight="1" ht="12.75" r="305"/>
-    <row customHeight="1" ht="12.75" r="306"/>
-    <row customHeight="1" ht="12.75" r="307"/>
-    <row customHeight="1" ht="12.75" r="308"/>
-    <row customHeight="1" ht="12.75" r="309"/>
-    <row customHeight="1" ht="12.75" r="310"/>
-    <row customHeight="1" ht="12.75" r="311"/>
-    <row customHeight="1" ht="12.75" r="312"/>
-    <row customHeight="1" ht="12.75" r="313"/>
-    <row customHeight="1" ht="12.75" r="314"/>
-    <row customHeight="1" ht="12.75" r="315"/>
-    <row customHeight="1" ht="12.75" r="316"/>
-    <row customHeight="1" ht="12.75" r="317"/>
-    <row customHeight="1" ht="12.75" r="318"/>
-    <row customHeight="1" ht="12.75" r="319"/>
-    <row customHeight="1" ht="12.75" r="320"/>
-    <row customHeight="1" ht="12.75" r="321"/>
-    <row customHeight="1" ht="12.75" r="322"/>
-    <row customHeight="1" ht="12.75" r="323"/>
-    <row customHeight="1" ht="12.75" r="324"/>
-    <row customHeight="1" ht="12.75" r="325"/>
-    <row customHeight="1" ht="12.75" r="326"/>
-    <row customHeight="1" ht="12.75" r="327"/>
-    <row customHeight="1" ht="12.75" r="328"/>
-    <row customHeight="1" ht="12.75" r="329"/>
-    <row customHeight="1" ht="12.75" r="330"/>
-    <row customHeight="1" ht="12.75" r="331"/>
-    <row customHeight="1" ht="12.75" r="332"/>
-    <row customHeight="1" ht="12.75" r="333"/>
-    <row customHeight="1" ht="12.75" r="334"/>
-    <row customHeight="1" ht="12.75" r="335"/>
-    <row customHeight="1" ht="12.75" r="336"/>
-    <row customHeight="1" ht="12.75" r="337"/>
-    <row customHeight="1" ht="12.75" r="338"/>
-    <row customHeight="1" ht="12.75" r="339"/>
-    <row customHeight="1" ht="12.75" r="340"/>
-    <row customHeight="1" ht="12.75" r="341"/>
-    <row customHeight="1" ht="12.75" r="342"/>
-    <row customHeight="1" ht="12.75" r="343"/>
-    <row customHeight="1" ht="12.75" r="344"/>
-    <row customHeight="1" ht="12.75" r="345"/>
-    <row customHeight="1" ht="12.75" r="346"/>
-    <row customHeight="1" ht="12.75" r="347"/>
-    <row customHeight="1" ht="12.75" r="348"/>
-    <row customHeight="1" ht="12.75" r="349"/>
-    <row customHeight="1" ht="12.75" r="350"/>
-    <row customHeight="1" ht="12.75" r="351"/>
-    <row customHeight="1" ht="12.75" r="352"/>
-    <row customHeight="1" ht="12.75" r="353"/>
-    <row customHeight="1" ht="12.75" r="354"/>
-    <row customHeight="1" ht="12.75" r="355"/>
-    <row customHeight="1" ht="12.75" r="356"/>
-    <row customHeight="1" ht="12.75" r="357"/>
-    <row customHeight="1" ht="12.75" r="358"/>
-    <row customHeight="1" ht="12.75" r="359"/>
-    <row customHeight="1" ht="12.75" r="360"/>
-    <row customHeight="1" ht="12.75" r="361"/>
-    <row customHeight="1" ht="12.75" r="362"/>
-    <row customHeight="1" ht="12.75" r="363"/>
-    <row customHeight="1" ht="12.75" r="364"/>
-    <row customHeight="1" ht="12.75" r="365"/>
-    <row customHeight="1" ht="12.75" r="366"/>
-    <row customHeight="1" ht="12.75" r="367"/>
-    <row customHeight="1" ht="12.75" r="368"/>
-    <row customHeight="1" ht="12.75" r="369"/>
-    <row customHeight="1" ht="12.75" r="370"/>
-    <row customHeight="1" ht="12.75" r="371"/>
-    <row customHeight="1" ht="12.75" r="372"/>
-    <row customHeight="1" ht="12.75" r="373"/>
-    <row customHeight="1" ht="12.75" r="374"/>
-    <row customHeight="1" ht="12.75" r="375"/>
-    <row customHeight="1" ht="12.75" r="376"/>
-    <row customHeight="1" ht="12.75" r="377"/>
-    <row customHeight="1" ht="12.75" r="378"/>
-    <row customHeight="1" ht="12.75" r="379"/>
-    <row customHeight="1" ht="12.75" r="380"/>
-    <row customHeight="1" ht="12.75" r="381"/>
-    <row customHeight="1" ht="12.75" r="382"/>
-    <row customHeight="1" ht="12.75" r="383"/>
-    <row customHeight="1" ht="12.75" r="384"/>
-    <row customHeight="1" ht="12.75" r="385"/>
-    <row customHeight="1" ht="12.75" r="386"/>
-    <row customHeight="1" ht="12.75" r="387"/>
-    <row customHeight="1" ht="12.75" r="388"/>
-    <row customHeight="1" ht="12.75" r="389"/>
-    <row customHeight="1" ht="12.75" r="390"/>
-    <row customHeight="1" ht="12.75" r="391"/>
-    <row customHeight="1" ht="12.75" r="392"/>
-    <row customHeight="1" ht="12.75" r="393"/>
-    <row customHeight="1" ht="12.75" r="394"/>
-    <row customHeight="1" ht="12.75" r="395"/>
-    <row customHeight="1" ht="12.75" r="396"/>
-    <row customHeight="1" ht="12.75" r="397"/>
-    <row customHeight="1" ht="12.75" r="398"/>
-    <row customHeight="1" ht="12.75" r="399"/>
-    <row customHeight="1" ht="12.75" r="400"/>
-    <row customHeight="1" ht="12.75" r="401"/>
-    <row customHeight="1" ht="12.75" r="402"/>
-    <row customHeight="1" ht="12.75" r="403"/>
-    <row customHeight="1" ht="12.75" r="404"/>
-    <row customHeight="1" ht="12.75" r="405"/>
-    <row customHeight="1" ht="12.75" r="406"/>
-    <row customHeight="1" ht="12.75" r="407"/>
-    <row customHeight="1" ht="12.75" r="408"/>
-    <row customHeight="1" ht="12.75" r="409"/>
-    <row customHeight="1" ht="12.75" r="410"/>
-    <row customHeight="1" ht="12.75" r="411"/>
-    <row customHeight="1" ht="12.75" r="412"/>
-    <row customHeight="1" ht="12.75" r="413"/>
-    <row customHeight="1" ht="12.75" r="414"/>
-    <row customHeight="1" ht="12.75" r="415"/>
-    <row customHeight="1" ht="12.75" r="416"/>
-    <row customHeight="1" ht="12.75" r="417"/>
-    <row customHeight="1" ht="12.75" r="418"/>
-    <row customHeight="1" ht="12.75" r="419"/>
-    <row customHeight="1" ht="12.75" r="420"/>
-    <row customHeight="1" ht="12.75" r="421"/>
-    <row customHeight="1" ht="12.75" r="422"/>
-    <row customHeight="1" ht="12.75" r="423"/>
-    <row customHeight="1" ht="12.75" r="424"/>
-    <row customHeight="1" ht="12.75" r="425"/>
-    <row customHeight="1" ht="12.75" r="426"/>
-    <row customHeight="1" ht="12.75" r="427"/>
-    <row customHeight="1" ht="12.75" r="428"/>
-    <row customHeight="1" ht="12.75" r="429"/>
-    <row customHeight="1" ht="12.75" r="430"/>
-    <row customHeight="1" ht="12.75" r="431"/>
-    <row customHeight="1" ht="12.75" r="432"/>
-    <row customHeight="1" ht="12.75" r="433"/>
-    <row customHeight="1" ht="12.75" r="434"/>
-    <row customHeight="1" ht="12.75" r="435"/>
-    <row customHeight="1" ht="12.75" r="436"/>
-    <row customHeight="1" ht="12.75" r="437"/>
-    <row customHeight="1" ht="12.75" r="438"/>
-    <row customHeight="1" ht="12.75" r="439"/>
-    <row customHeight="1" ht="12.75" r="440"/>
-    <row customHeight="1" ht="12.75" r="441"/>
-    <row customHeight="1" ht="12.75" r="442"/>
-    <row customHeight="1" ht="12.75" r="443"/>
-    <row customHeight="1" ht="12.75" r="444"/>
-    <row customHeight="1" ht="12.75" r="445"/>
-    <row customHeight="1" ht="12.75" r="446"/>
-    <row customHeight="1" ht="12.75" r="447"/>
-    <row customHeight="1" ht="12.75" r="448"/>
-    <row customHeight="1" ht="12.75" r="449"/>
-    <row customHeight="1" ht="12.75" r="450"/>
-    <row customHeight="1" ht="12.75" r="451"/>
-    <row customHeight="1" ht="12.75" r="452"/>
-    <row customHeight="1" ht="12.75" r="453"/>
-    <row customHeight="1" ht="12.75" r="454"/>
-    <row customHeight="1" ht="12.75" r="455"/>
-    <row customHeight="1" ht="12.75" r="456"/>
-    <row customHeight="1" ht="12.75" r="457"/>
-    <row customHeight="1" ht="12.75" r="458"/>
-    <row customHeight="1" ht="12.75" r="459"/>
-    <row customHeight="1" ht="12.75" r="460"/>
-    <row customHeight="1" ht="12.75" r="461"/>
-    <row customHeight="1" ht="12.75" r="462"/>
-    <row customHeight="1" ht="12.75" r="463"/>
-    <row customHeight="1" ht="12.75" r="464"/>
-    <row customHeight="1" ht="12.75" r="465"/>
-    <row customHeight="1" ht="12.75" r="466"/>
-    <row customHeight="1" ht="12.75" r="467"/>
-    <row customHeight="1" ht="12.75" r="468"/>
-    <row customHeight="1" ht="12.75" r="469"/>
-    <row customHeight="1" ht="12.75" r="470"/>
-    <row customHeight="1" ht="12.75" r="471"/>
-    <row customHeight="1" ht="12.75" r="472"/>
-    <row customHeight="1" ht="12.75" r="473"/>
-    <row customHeight="1" ht="12.75" r="474"/>
-    <row customHeight="1" ht="12.75" r="475"/>
-    <row customHeight="1" ht="12.75" r="476"/>
-    <row customHeight="1" ht="12.75" r="477"/>
-    <row customHeight="1" ht="12.75" r="478"/>
-    <row customHeight="1" ht="12.75" r="479"/>
-    <row customHeight="1" ht="12.75" r="480"/>
-    <row customHeight="1" ht="12.75" r="481"/>
-    <row customHeight="1" ht="12.75" r="482"/>
-    <row customHeight="1" ht="12.75" r="483"/>
-    <row customHeight="1" ht="12.75" r="484"/>
-    <row customHeight="1" ht="12.75" r="485"/>
-    <row customHeight="1" ht="12.75" r="486"/>
-    <row customHeight="1" ht="12.75" r="487"/>
-    <row customHeight="1" ht="12.75" r="488"/>
-    <row customHeight="1" ht="12.75" r="489"/>
-    <row customHeight="1" ht="12.75" r="490"/>
-    <row customHeight="1" ht="12.75" r="491"/>
-    <row customHeight="1" ht="12.75" r="492"/>
-    <row customHeight="1" ht="12.75" r="493"/>
-    <row customHeight="1" ht="12.75" r="494"/>
-    <row customHeight="1" ht="12.75" r="495"/>
-    <row customHeight="1" ht="12.75" r="496"/>
-    <row customHeight="1" ht="12.75" r="497"/>
-    <row customHeight="1" ht="12.75" r="498"/>
-    <row customHeight="1" ht="12.75" r="499"/>
-    <row customHeight="1" ht="12.75" r="500"/>
-    <row customHeight="1" ht="12.75" r="501"/>
-    <row customHeight="1" ht="12.75" r="502"/>
-    <row customHeight="1" ht="12.75" r="503"/>
-    <row customHeight="1" ht="12.75" r="504"/>
-    <row customHeight="1" ht="12.75" r="505"/>
-    <row customHeight="1" ht="12.75" r="506"/>
-    <row customHeight="1" ht="12.75" r="507"/>
-    <row customHeight="1" ht="12.75" r="508"/>
-    <row customHeight="1" ht="12.75" r="509"/>
-    <row customHeight="1" ht="12.75" r="510"/>
-    <row customHeight="1" ht="12.75" r="511"/>
-    <row customHeight="1" ht="12.75" r="512"/>
-    <row customHeight="1" ht="12.75" r="513"/>
-    <row customHeight="1" ht="12.75" r="514"/>
-    <row customHeight="1" ht="12.75" r="515"/>
-    <row customHeight="1" ht="12.75" r="516"/>
-    <row customHeight="1" ht="12.75" r="517"/>
-    <row customHeight="1" ht="12.75" r="518"/>
-    <row customHeight="1" ht="12.75" r="519"/>
-    <row customHeight="1" ht="12.75" r="520"/>
-    <row customHeight="1" ht="12.75" r="521"/>
-    <row customHeight="1" ht="12.75" r="522"/>
-    <row customHeight="1" ht="12.75" r="523"/>
-    <row customHeight="1" ht="12.75" r="524"/>
-    <row customHeight="1" ht="12.75" r="525"/>
-    <row customHeight="1" ht="12.75" r="526"/>
-    <row customHeight="1" ht="12.75" r="527"/>
-    <row customHeight="1" ht="12.75" r="528"/>
-    <row customHeight="1" ht="12.75" r="529"/>
-    <row customHeight="1" ht="12.75" r="530"/>
-    <row customHeight="1" ht="12.75" r="531"/>
-    <row customHeight="1" ht="12.75" r="532"/>
-    <row customHeight="1" ht="12.75" r="533"/>
-    <row customHeight="1" ht="12.75" r="534"/>
-    <row customHeight="1" ht="12.75" r="535"/>
-    <row customHeight="1" ht="12.75" r="536"/>
-    <row customHeight="1" ht="12.75" r="537"/>
-    <row customHeight="1" ht="12.75" r="538"/>
-    <row customHeight="1" ht="12.75" r="539"/>
-    <row customHeight="1" ht="12.75" r="540"/>
-    <row customHeight="1" ht="12.75" r="541"/>
-    <row customHeight="1" ht="12.75" r="542"/>
-    <row customHeight="1" ht="12.75" r="543"/>
-    <row customHeight="1" ht="12.75" r="544"/>
-    <row customHeight="1" ht="12.75" r="545"/>
-    <row customHeight="1" ht="12.75" r="546"/>
-    <row customHeight="1" ht="12.75" r="547"/>
-    <row customHeight="1" ht="12.75" r="548"/>
-    <row customHeight="1" ht="12.75" r="549"/>
-    <row customHeight="1" ht="12.75" r="550"/>
-    <row customHeight="1" ht="12.75" r="551"/>
-    <row customHeight="1" ht="12.75" r="552"/>
-    <row customHeight="1" ht="12.75" r="553"/>
-    <row customHeight="1" ht="12.75" r="554"/>
-    <row customHeight="1" ht="12.75" r="555"/>
-    <row customHeight="1" ht="12.75" r="556"/>
-    <row customHeight="1" ht="12.75" r="557"/>
-    <row customHeight="1" ht="12.75" r="558"/>
-    <row customHeight="1" ht="12.75" r="559"/>
-    <row customHeight="1" ht="12.75" r="560"/>
-    <row customHeight="1" ht="12.75" r="561"/>
-    <row customHeight="1" ht="12.75" r="562"/>
-    <row customHeight="1" ht="12.75" r="563"/>
-    <row customHeight="1" ht="12.75" r="564"/>
-    <row customHeight="1" ht="12.75" r="565"/>
-    <row customHeight="1" ht="12.75" r="566"/>
-    <row customHeight="1" ht="12.75" r="567"/>
-    <row customHeight="1" ht="12.75" r="568"/>
-    <row customHeight="1" ht="12.75" r="569"/>
-    <row customHeight="1" ht="12.75" r="570"/>
-    <row customHeight="1" ht="12.75" r="571"/>
-    <row customHeight="1" ht="12.75" r="572"/>
-    <row customHeight="1" ht="12.75" r="573"/>
-    <row customHeight="1" ht="12.75" r="574"/>
-    <row customHeight="1" ht="12.75" r="575"/>
-    <row customHeight="1" ht="12.75" r="576"/>
-    <row customHeight="1" ht="12.75" r="577"/>
-    <row customHeight="1" ht="12.75" r="578"/>
-    <row customHeight="1" ht="12.75" r="579"/>
-    <row customHeight="1" ht="12.75" r="580"/>
-    <row customHeight="1" ht="12.75" r="581"/>
-    <row customHeight="1" ht="12.75" r="582"/>
-    <row customHeight="1" ht="12.75" r="583"/>
-    <row customHeight="1" ht="12.75" r="584"/>
-    <row customHeight="1" ht="12.75" r="585"/>
-    <row customHeight="1" ht="12.75" r="586"/>
-    <row customHeight="1" ht="12.75" r="587"/>
-    <row customHeight="1" ht="12.75" r="588"/>
-    <row customHeight="1" ht="12.75" r="589"/>
-    <row customHeight="1" ht="12.75" r="590"/>
-    <row customHeight="1" ht="12.75" r="591"/>
-    <row customHeight="1" ht="12.75" r="592"/>
-    <row customHeight="1" ht="12.75" r="593"/>
-    <row customHeight="1" ht="12.75" r="594"/>
-    <row customHeight="1" ht="12.75" r="595"/>
-    <row customHeight="1" ht="12.75" r="596"/>
-    <row customHeight="1" ht="12.75" r="597"/>
-    <row customHeight="1" ht="12.75" r="598"/>
-    <row customHeight="1" ht="12.75" r="599"/>
-    <row customHeight="1" ht="12.75" r="600"/>
-    <row customHeight="1" ht="12.75" r="601"/>
-    <row customHeight="1" ht="12.75" r="602"/>
-    <row customHeight="1" ht="12.75" r="603"/>
-    <row customHeight="1" ht="12.75" r="604"/>
-    <row customHeight="1" ht="12.75" r="605"/>
-    <row customHeight="1" ht="12.75" r="606"/>
-    <row customHeight="1" ht="12.75" r="607"/>
-    <row customHeight="1" ht="12.75" r="608"/>
-    <row customHeight="1" ht="12.75" r="609"/>
-    <row customHeight="1" ht="12.75" r="610"/>
-    <row customHeight="1" ht="12.75" r="611"/>
-    <row customHeight="1" ht="12.75" r="612"/>
-    <row customHeight="1" ht="12.75" r="613"/>
-    <row customHeight="1" ht="12.75" r="614"/>
-    <row customHeight="1" ht="12.75" r="615"/>
-    <row customHeight="1" ht="12.75" r="616"/>
-    <row customHeight="1" ht="12.75" r="617"/>
-    <row customHeight="1" ht="12.75" r="618"/>
-    <row customHeight="1" ht="12.75" r="619"/>
-    <row customHeight="1" ht="12.75" r="620"/>
-    <row customHeight="1" ht="12.75" r="621"/>
-    <row customHeight="1" ht="12.75" r="622"/>
-    <row customHeight="1" ht="12.75" r="623"/>
-    <row customHeight="1" ht="12.75" r="624"/>
-    <row customHeight="1" ht="12.75" r="625"/>
-    <row customHeight="1" ht="12.75" r="626"/>
-    <row customHeight="1" ht="12.75" r="627"/>
-    <row customHeight="1" ht="12.75" r="628"/>
-    <row customHeight="1" ht="12.75" r="629"/>
-    <row customHeight="1" ht="12.75" r="630"/>
-    <row customHeight="1" ht="12.75" r="631"/>
-    <row customHeight="1" ht="12.75" r="632"/>
-    <row customHeight="1" ht="12.75" r="633"/>
-    <row customHeight="1" ht="12.75" r="634"/>
-    <row customHeight="1" ht="12.75" r="635"/>
-    <row customHeight="1" ht="12.75" r="636"/>
-    <row customHeight="1" ht="12.75" r="637"/>
-    <row customHeight="1" ht="12.75" r="638"/>
-    <row customHeight="1" ht="12.75" r="639"/>
-    <row customHeight="1" ht="12.75" r="640"/>
-    <row customHeight="1" ht="12.75" r="641"/>
-    <row customHeight="1" ht="12.75" r="642"/>
-    <row customHeight="1" ht="12.75" r="643"/>
-    <row customHeight="1" ht="12.75" r="644"/>
-    <row customHeight="1" ht="12.75" r="645"/>
-    <row customHeight="1" ht="12.75" r="646"/>
-    <row customHeight="1" ht="12.75" r="647"/>
-    <row customHeight="1" ht="12.75" r="648"/>
-    <row customHeight="1" ht="12.75" r="649"/>
-    <row customHeight="1" ht="12.75" r="650"/>
-    <row customHeight="1" ht="12.75" r="651"/>
-    <row customHeight="1" ht="12.75" r="652"/>
-    <row customHeight="1" ht="12.75" r="653"/>
-    <row customHeight="1" ht="12.75" r="654"/>
-    <row customHeight="1" ht="12.75" r="655"/>
-    <row customHeight="1" ht="12.75" r="656"/>
-    <row customHeight="1" ht="12.75" r="657"/>
-    <row customHeight="1" ht="12.75" r="658"/>
-    <row customHeight="1" ht="12.75" r="659"/>
-    <row customHeight="1" ht="12.75" r="660"/>
-    <row customHeight="1" ht="12.75" r="661"/>
-    <row customHeight="1" ht="12.75" r="662"/>
-    <row customHeight="1" ht="12.75" r="663"/>
-    <row customHeight="1" ht="12.75" r="664"/>
-    <row customHeight="1" ht="12.75" r="665"/>
-    <row customHeight="1" ht="12.75" r="666"/>
-    <row customHeight="1" ht="12.75" r="667"/>
-    <row customHeight="1" ht="12.75" r="668"/>
-    <row customHeight="1" ht="12.75" r="669"/>
-    <row customHeight="1" ht="12.75" r="670"/>
-    <row customHeight="1" ht="12.75" r="671"/>
-    <row customHeight="1" ht="12.75" r="672"/>
-    <row customHeight="1" ht="12.75" r="673"/>
-    <row customHeight="1" ht="12.75" r="674"/>
-    <row customHeight="1" ht="12.75" r="675"/>
-    <row customHeight="1" ht="12.75" r="676"/>
-    <row customHeight="1" ht="12.75" r="677"/>
-    <row customHeight="1" ht="12.75" r="678"/>
-    <row customHeight="1" ht="12.75" r="679"/>
-    <row customHeight="1" ht="12.75" r="680"/>
-    <row customHeight="1" ht="12.75" r="681"/>
-    <row customHeight="1" ht="12.75" r="682"/>
-    <row customHeight="1" ht="12.75" r="683"/>
-    <row customHeight="1" ht="12.75" r="684"/>
-    <row customHeight="1" ht="12.75" r="685"/>
-    <row customHeight="1" ht="12.75" r="686"/>
-    <row customHeight="1" ht="12.75" r="687"/>
-    <row customHeight="1" ht="12.75" r="688"/>
-    <row customHeight="1" ht="12.75" r="689"/>
-    <row customHeight="1" ht="12.75" r="690"/>
-    <row customHeight="1" ht="12.75" r="691"/>
-    <row customHeight="1" ht="12.75" r="692"/>
-    <row customHeight="1" ht="12.75" r="693"/>
-    <row customHeight="1" ht="12.75" r="694"/>
-    <row customHeight="1" ht="12.75" r="695"/>
-    <row customHeight="1" ht="12.75" r="696"/>
-    <row customHeight="1" ht="12.75" r="697"/>
-    <row customHeight="1" ht="12.75" r="698"/>
-    <row customHeight="1" ht="12.75" r="699"/>
-    <row customHeight="1" ht="12.75" r="700"/>
-    <row customHeight="1" ht="12.75" r="701"/>
-    <row customHeight="1" ht="12.75" r="702"/>
-    <row customHeight="1" ht="12.75" r="703"/>
-    <row customHeight="1" ht="12.75" r="704"/>
-    <row customHeight="1" ht="12.75" r="705"/>
-    <row customHeight="1" ht="12.75" r="706"/>
-    <row customHeight="1" ht="12.75" r="707"/>
-    <row customHeight="1" ht="12.75" r="708"/>
-    <row customHeight="1" ht="12.75" r="709"/>
-    <row customHeight="1" ht="12.75" r="710"/>
-    <row customHeight="1" ht="12.75" r="711"/>
-    <row customHeight="1" ht="12.75" r="712"/>
-    <row customHeight="1" ht="12.75" r="713"/>
-    <row customHeight="1" ht="12.75" r="714"/>
-    <row customHeight="1" ht="12.75" r="715"/>
-    <row customHeight="1" ht="12.75" r="716"/>
-    <row customHeight="1" ht="12.75" r="717"/>
-    <row customHeight="1" ht="12.75" r="718"/>
-    <row customHeight="1" ht="12.75" r="719"/>
-    <row customHeight="1" ht="12.75" r="720"/>
-    <row customHeight="1" ht="12.75" r="721"/>
-    <row customHeight="1" ht="12.75" r="722"/>
-    <row customHeight="1" ht="12.75" r="723"/>
-    <row customHeight="1" ht="12.75" r="724"/>
-    <row customHeight="1" ht="12.75" r="725"/>
-    <row customHeight="1" ht="12.75" r="726"/>
-    <row customHeight="1" ht="12.75" r="727"/>
-    <row customHeight="1" ht="12.75" r="728"/>
-    <row customHeight="1" ht="12.75" r="729"/>
-    <row customHeight="1" ht="12.75" r="730"/>
-    <row customHeight="1" ht="12.75" r="731"/>
-    <row customHeight="1" ht="12.75" r="732"/>
-    <row customHeight="1" ht="12.75" r="733"/>
-    <row customHeight="1" ht="12.75" r="734"/>
-    <row customHeight="1" ht="12.75" r="735"/>
-    <row customHeight="1" ht="12.75" r="736"/>
-    <row customHeight="1" ht="12.75" r="737"/>
-    <row customHeight="1" ht="12.75" r="738"/>
-    <row customHeight="1" ht="12.75" r="739"/>
-    <row customHeight="1" ht="12.75" r="740"/>
-    <row customHeight="1" ht="12.75" r="741"/>
-    <row customHeight="1" ht="12.75" r="742"/>
-    <row customHeight="1" ht="12.75" r="743"/>
-    <row customHeight="1" ht="12.75" r="744"/>
-    <row customHeight="1" ht="12.75" r="745"/>
-    <row customHeight="1" ht="12.75" r="746"/>
-    <row customHeight="1" ht="12.75" r="747"/>
-    <row customHeight="1" ht="12.75" r="748"/>
-    <row customHeight="1" ht="12.75" r="749"/>
-    <row customHeight="1" ht="12.75" r="750"/>
-    <row customHeight="1" ht="12.75" r="751"/>
-    <row customHeight="1" ht="12.75" r="752"/>
-    <row customHeight="1" ht="12.75" r="753"/>
-    <row customHeight="1" ht="12.75" r="754"/>
-    <row customHeight="1" ht="12.75" r="755"/>
-    <row customHeight="1" ht="12.75" r="756"/>
-    <row customHeight="1" ht="12.75" r="757"/>
-    <row customHeight="1" ht="12.75" r="758"/>
-    <row customHeight="1" ht="12.75" r="759"/>
-    <row customHeight="1" ht="12.75" r="760"/>
-    <row customHeight="1" ht="12.75" r="761"/>
-    <row customHeight="1" ht="12.75" r="762"/>
-    <row customHeight="1" ht="12.75" r="763"/>
-    <row customHeight="1" ht="12.75" r="764"/>
-    <row customHeight="1" ht="12.75" r="765"/>
-    <row customHeight="1" ht="12.75" r="766"/>
-    <row customHeight="1" ht="12.75" r="767"/>
-    <row customHeight="1" ht="12.75" r="768"/>
-    <row customHeight="1" ht="12.75" r="769"/>
-    <row customHeight="1" ht="12.75" r="770"/>
-    <row customHeight="1" ht="12.75" r="771"/>
-    <row customHeight="1" ht="12.75" r="772"/>
-    <row customHeight="1" ht="12.75" r="773"/>
-    <row customHeight="1" ht="12.75" r="774"/>
-    <row customHeight="1" ht="12.75" r="775"/>
-    <row customHeight="1" ht="12.75" r="776"/>
-    <row customHeight="1" ht="12.75" r="777"/>
-    <row customHeight="1" ht="12.75" r="778"/>
-    <row customHeight="1" ht="12.75" r="779"/>
-    <row customHeight="1" ht="12.75" r="780"/>
-    <row customHeight="1" ht="12.75" r="781"/>
-    <row customHeight="1" ht="12.75" r="782"/>
-    <row customHeight="1" ht="12.75" r="783"/>
-    <row customHeight="1" ht="12.75" r="784"/>
-    <row customHeight="1" ht="12.75" r="785"/>
-    <row customHeight="1" ht="12.75" r="786"/>
-    <row customHeight="1" ht="12.75" r="787"/>
-    <row customHeight="1" ht="12.75" r="788"/>
-    <row customHeight="1" ht="12.75" r="789"/>
-    <row customHeight="1" ht="12.75" r="790"/>
-    <row customHeight="1" ht="12.75" r="791"/>
-    <row customHeight="1" ht="12.75" r="792"/>
-    <row customHeight="1" ht="12.75" r="793"/>
-    <row customHeight="1" ht="12.75" r="794"/>
-    <row customHeight="1" ht="12.75" r="795"/>
-    <row customHeight="1" ht="12.75" r="796"/>
-    <row customHeight="1" ht="12.75" r="797"/>
-    <row customHeight="1" ht="12.75" r="798"/>
-    <row customHeight="1" ht="12.75" r="799"/>
-    <row customHeight="1" ht="12.75" r="800"/>
-    <row customHeight="1" ht="12.75" r="801"/>
-    <row customHeight="1" ht="12.75" r="802"/>
-    <row customHeight="1" ht="12.75" r="803"/>
-    <row customHeight="1" ht="12.75" r="804"/>
-    <row customHeight="1" ht="12.75" r="805"/>
-    <row customHeight="1" ht="12.75" r="806"/>
-    <row customHeight="1" ht="12.75" r="807"/>
-    <row customHeight="1" ht="12.75" r="808"/>
-    <row customHeight="1" ht="12.75" r="809"/>
-    <row customHeight="1" ht="12.75" r="810"/>
-    <row customHeight="1" ht="12.75" r="811"/>
-    <row customHeight="1" ht="12.75" r="812"/>
-    <row customHeight="1" ht="12.75" r="813"/>
-    <row customHeight="1" ht="12.75" r="814"/>
-    <row customHeight="1" ht="12.75" r="815"/>
-    <row customHeight="1" ht="12.75" r="816"/>
-    <row customHeight="1" ht="12.75" r="817"/>
-    <row customHeight="1" ht="12.75" r="818"/>
-    <row customHeight="1" ht="12.75" r="819"/>
-    <row customHeight="1" ht="12.75" r="820"/>
-    <row customHeight="1" ht="12.75" r="821"/>
-    <row customHeight="1" ht="12.75" r="822"/>
-    <row customHeight="1" ht="12.75" r="823"/>
-    <row customHeight="1" ht="12.75" r="824"/>
-    <row customHeight="1" ht="12.75" r="825"/>
-    <row customHeight="1" ht="12.75" r="826"/>
-    <row customHeight="1" ht="12.75" r="827"/>
-    <row customHeight="1" ht="12.75" r="828"/>
-    <row customHeight="1" ht="12.75" r="829"/>
-    <row customHeight="1" ht="12.75" r="830"/>
-    <row customHeight="1" ht="12.75" r="831"/>
-    <row customHeight="1" ht="12.75" r="832"/>
-    <row customHeight="1" ht="12.75" r="833"/>
-    <row customHeight="1" ht="12.75" r="834"/>
-    <row customHeight="1" ht="12.75" r="835"/>
-    <row customHeight="1" ht="12.75" r="836"/>
-    <row customHeight="1" ht="12.75" r="837"/>
-    <row customHeight="1" ht="12.75" r="838"/>
-    <row customHeight="1" ht="12.75" r="839"/>
-    <row customHeight="1" ht="12.75" r="840"/>
-    <row customHeight="1" ht="12.75" r="841"/>
-    <row customHeight="1" ht="12.75" r="842"/>
-    <row customHeight="1" ht="12.75" r="843"/>
-    <row customHeight="1" ht="12.75" r="844"/>
-    <row customHeight="1" ht="12.75" r="845"/>
-    <row customHeight="1" ht="12.75" r="846"/>
-    <row customHeight="1" ht="12.75" r="847"/>
-    <row customHeight="1" ht="12.75" r="848"/>
-    <row customHeight="1" ht="12.75" r="849"/>
-    <row customHeight="1" ht="12.75" r="850"/>
-    <row customHeight="1" ht="12.75" r="851"/>
-    <row customHeight="1" ht="12.75" r="852"/>
-    <row customHeight="1" ht="12.75" r="853"/>
-    <row customHeight="1" ht="12.75" r="854"/>
-    <row customHeight="1" ht="12.75" r="855"/>
-    <row customHeight="1" ht="12.75" r="856"/>
-    <row customHeight="1" ht="12.75" r="857"/>
-    <row customHeight="1" ht="12.75" r="858"/>
-    <row customHeight="1" ht="12.75" r="859"/>
-    <row customHeight="1" ht="12.75" r="860"/>
-    <row customHeight="1" ht="12.75" r="861"/>
-    <row customHeight="1" ht="12.75" r="862"/>
-    <row customHeight="1" ht="12.75" r="863"/>
-    <row customHeight="1" ht="12.75" r="864"/>
-    <row customHeight="1" ht="12.75" r="865"/>
-    <row customHeight="1" ht="12.75" r="866"/>
-    <row customHeight="1" ht="12.75" r="867"/>
-    <row customHeight="1" ht="12.75" r="868"/>
-    <row customHeight="1" ht="12.75" r="869"/>
-    <row customHeight="1" ht="12.75" r="870"/>
-    <row customHeight="1" ht="12.75" r="871"/>
-    <row customHeight="1" ht="12.75" r="872"/>
-    <row customHeight="1" ht="12.75" r="873"/>
-    <row customHeight="1" ht="12.75" r="874"/>
-    <row customHeight="1" ht="12.75" r="875"/>
-    <row customHeight="1" ht="12.75" r="876"/>
-    <row customHeight="1" ht="12.75" r="877"/>
-    <row customHeight="1" ht="12.75" r="878"/>
-    <row customHeight="1" ht="12.75" r="879"/>
-    <row customHeight="1" ht="12.75" r="880"/>
-    <row customHeight="1" ht="12.75" r="881"/>
-    <row customHeight="1" ht="12.75" r="882"/>
-    <row customHeight="1" ht="12.75" r="883"/>
-    <row customHeight="1" ht="12.75" r="884"/>
-    <row customHeight="1" ht="12.75" r="885"/>
-    <row customHeight="1" ht="12.75" r="886"/>
-    <row customHeight="1" ht="12.75" r="887"/>
-    <row customHeight="1" ht="12.75" r="888"/>
-    <row customHeight="1" ht="12.75" r="889"/>
-    <row customHeight="1" ht="12.75" r="890"/>
-    <row customHeight="1" ht="12.75" r="891"/>
-    <row customHeight="1" ht="12.75" r="892"/>
-    <row customHeight="1" ht="12.75" r="893"/>
-    <row customHeight="1" ht="12.75" r="894"/>
-    <row customHeight="1" ht="12.75" r="895"/>
-    <row customHeight="1" ht="12.75" r="896"/>
-    <row customHeight="1" ht="12.75" r="897"/>
-    <row customHeight="1" ht="12.75" r="898"/>
-    <row customHeight="1" ht="12.75" r="899"/>
-    <row customHeight="1" ht="12.75" r="900"/>
-    <row customHeight="1" ht="12.75" r="901"/>
-    <row customHeight="1" ht="12.75" r="902"/>
-    <row customHeight="1" ht="12.75" r="903"/>
-    <row customHeight="1" ht="12.75" r="904"/>
-    <row customHeight="1" ht="12.75" r="905"/>
-    <row customHeight="1" ht="12.75" r="906"/>
-    <row customHeight="1" ht="12.75" r="907"/>
-    <row customHeight="1" ht="12.75" r="908"/>
-    <row customHeight="1" ht="12.75" r="909"/>
-    <row customHeight="1" ht="12.75" r="910"/>
-    <row customHeight="1" ht="12.75" r="911"/>
-    <row customHeight="1" ht="12.75" r="912"/>
-    <row customHeight="1" ht="12.75" r="913"/>
-    <row customHeight="1" ht="12.75" r="914"/>
-    <row customHeight="1" ht="12.75" r="915"/>
-    <row customHeight="1" ht="12.75" r="916"/>
-    <row customHeight="1" ht="12.75" r="917"/>
-    <row customHeight="1" ht="12.75" r="918"/>
-    <row customHeight="1" ht="12.75" r="919"/>
-    <row customHeight="1" ht="12.75" r="920"/>
-    <row customHeight="1" ht="12.75" r="921"/>
-    <row customHeight="1" ht="12.75" r="922"/>
-    <row customHeight="1" ht="12.75" r="923"/>
-    <row customHeight="1" ht="12.75" r="924"/>
-    <row customHeight="1" ht="12.75" r="925"/>
-    <row customHeight="1" ht="12.75" r="926"/>
-    <row customHeight="1" ht="12.75" r="927"/>
-    <row customHeight="1" ht="12.75" r="928"/>
-    <row customHeight="1" ht="12.75" r="929"/>
-    <row customHeight="1" ht="12.75" r="930"/>
-    <row customHeight="1" ht="12.75" r="931"/>
-    <row customHeight="1" ht="12.75" r="932"/>
-    <row customHeight="1" ht="12.75" r="933"/>
-    <row customHeight="1" ht="12.75" r="934"/>
-    <row customHeight="1" ht="12.75" r="935"/>
-    <row customHeight="1" ht="12.75" r="936"/>
-    <row customHeight="1" ht="12.75" r="937"/>
-    <row customHeight="1" ht="12.75" r="938"/>
-    <row customHeight="1" ht="12.75" r="939"/>
-    <row customHeight="1" ht="12.75" r="940"/>
-    <row customHeight="1" ht="12.75" r="941"/>
-    <row customHeight="1" ht="12.75" r="942"/>
-    <row customHeight="1" ht="12.75" r="943"/>
-    <row customHeight="1" ht="12.75" r="944"/>
-    <row customHeight="1" ht="12.75" r="945"/>
-    <row customHeight="1" ht="12.75" r="946"/>
-    <row customHeight="1" ht="12.75" r="947"/>
-    <row customHeight="1" ht="12.75" r="948"/>
-    <row customHeight="1" ht="12.75" r="949"/>
-    <row customHeight="1" ht="12.75" r="950"/>
-    <row customHeight="1" ht="12.75" r="951"/>
-    <row customHeight="1" ht="12.75" r="952"/>
-    <row customHeight="1" ht="12.75" r="953"/>
-    <row customHeight="1" ht="12.75" r="954"/>
-    <row customHeight="1" ht="12.75" r="955"/>
-    <row customHeight="1" ht="12.75" r="956"/>
-    <row customHeight="1" ht="12.75" r="957"/>
-    <row customHeight="1" ht="12.75" r="958"/>
-    <row customHeight="1" ht="12.75" r="959"/>
-    <row customHeight="1" ht="12.75" r="960"/>
-    <row customHeight="1" ht="12.75" r="961"/>
-    <row customHeight="1" ht="12.75" r="962"/>
-    <row customHeight="1" ht="12.75" r="963"/>
-    <row customHeight="1" ht="12.75" r="964"/>
-    <row customHeight="1" ht="12.75" r="965"/>
-    <row customHeight="1" ht="12.75" r="966"/>
-    <row customHeight="1" ht="12.75" r="967"/>
-    <row customHeight="1" ht="12.75" r="968"/>
-    <row customHeight="1" ht="12.75" r="969"/>
-    <row customHeight="1" ht="12.75" r="970"/>
-    <row customHeight="1" ht="12.75" r="971"/>
-    <row customHeight="1" ht="12.75" r="972"/>
-    <row customHeight="1" ht="12.75" r="973"/>
-    <row customHeight="1" ht="12.75" r="974"/>
-    <row customHeight="1" ht="12.75" r="975"/>
-    <row customHeight="1" ht="12.75" r="976"/>
-    <row customHeight="1" ht="12.75" r="977"/>
-    <row customHeight="1" ht="12.75" r="978"/>
-    <row customHeight="1" ht="12.75" r="979"/>
-    <row customHeight="1" ht="12.75" r="980"/>
-    <row customHeight="1" ht="12.75" r="981"/>
-    <row customHeight="1" ht="12.75" r="982"/>
-    <row customHeight="1" ht="12.75" r="983"/>
-    <row customHeight="1" ht="12.75" r="984"/>
-    <row customHeight="1" ht="12.75" r="985"/>
-    <row customHeight="1" ht="12.75" r="986"/>
-    <row customHeight="1" ht="12.75" r="987"/>
-    <row customHeight="1" ht="12.75" r="988"/>
-    <row customHeight="1" ht="12.75" r="989"/>
-    <row customHeight="1" ht="12.75" r="990"/>
-    <row customHeight="1" ht="12.75" r="991"/>
-    <row customHeight="1" ht="12.75" r="992"/>
-    <row customHeight="1" ht="12.75" r="993"/>
-    <row customHeight="1" ht="12.75" r="994"/>
-    <row customHeight="1" ht="12.75" r="995"/>
-    <row customHeight="1" ht="12.75" r="996"/>
-    <row customHeight="1" ht="12.75" r="997"/>
-    <row customHeight="1" ht="12.75" r="998"/>
-    <row customHeight="1" ht="12.75" r="999"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB982"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="28.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.44140625" collapsed="false"/>
-    <col min="7" max="27" customWidth="true" width="10.6640625" collapsed="false"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="61.5"/>
+    <col customWidth="1" min="3" max="3" width="12.75"/>
+    <col customWidth="1" min="4" max="4" width="28.0"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="20.5"/>
+    <col customWidth="1" min="7" max="27" width="10.63"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.75" r="1" spans="1:6">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -3344,7 +3460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="2" spans="1:6">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3360,7 +3476,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row customHeight="1" ht="12.75" r="3" spans="1:6">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -3369,12 +3485,12 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="21">
-        <v>1022</v>
+        <v>1022.0</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row customHeight="1" ht="12.75" r="4" spans="1:6">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
@@ -3391,7 +3507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="5" spans="1:6">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
@@ -3408,7 +3524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="6" spans="1:6">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>36</v>
       </c>
@@ -3426,7 +3542,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="7" spans="1:6">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
@@ -3444,7 +3560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="8" spans="1:6">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -3462,7 +3578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="9" spans="1:6">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
@@ -3479,7 +3595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="10" spans="1:6">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>47</v>
       </c>
@@ -3494,7 +3610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="11" spans="1:6">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
@@ -3509,7 +3625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="12" spans="1:6">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>52</v>
       </c>
@@ -3524,7 +3640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="13" spans="1:6">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>55</v>
       </c>
@@ -3539,7 +3655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="14" spans="1:6">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>58</v>
       </c>
@@ -3556,7 +3672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="15" spans="1:6">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>60</v>
       </c>
@@ -3571,7 +3687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="16" spans="1:6">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3586,7 +3702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="17" spans="1:6">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -3600,7 +3716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="18" spans="1:6">
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -3614,7 +3730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="19" spans="1:6">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -3628,7 +3744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="20" spans="1:6">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -3642,7 +3758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="21" spans="1:6">
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -3656,7 +3772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="22" spans="1:6">
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -3670,7 +3786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="23" spans="1:6">
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3684,7 +3800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="24" spans="1:6">
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -3698,7 +3814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="25" spans="1:6">
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>81</v>
       </c>
@@ -3715,7 +3831,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="26" spans="1:6">
+    <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -3735,7 +3851,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="27" spans="1:6">
+    <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -3755,7 +3871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="28" spans="1:6">
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -3769,7 +3885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="29" spans="1:6">
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -3783,7 +3899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="30" spans="1:6">
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -3797,7 +3913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="31" spans="1:6">
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3811,7 +3927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="32" spans="1:6">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -3825,7 +3941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="33" spans="1:6">
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -3839,7 +3955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="34" spans="1:6">
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -3853,7 +3969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="35" spans="1:6">
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
@@ -3867,7 +3983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="36" spans="1:6">
+    <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -3887,7 +4003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="37" spans="1:6">
+    <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
@@ -3904,7 +4020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="38" spans="1:6">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -3921,7 +4037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="39" spans="1:6">
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -3935,7 +4051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="40" spans="1:6">
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -3949,7 +4065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="41" spans="1:6">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -3963,7 +4079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="42" spans="1:6">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>118</v>
       </c>
@@ -3978,7 +4094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="43" spans="1:6">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>120</v>
       </c>
@@ -3995,7 +4111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="44" spans="1:6">
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>121</v>
       </c>
@@ -4012,7 +4128,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="45" spans="1:6">
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -4029,7 +4145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="46" spans="1:6">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>125</v>
       </c>
@@ -4046,7 +4162,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="47" spans="1:6">
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
@@ -4063,7 +4179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="48" spans="1:6">
+    <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
@@ -4081,7 +4197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="49" spans="1:27">
+    <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>131</v>
       </c>
@@ -4095,7 +4211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="50" spans="1:27">
+    <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>133</v>
       </c>
@@ -4109,7 +4225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="51" spans="1:27">
+    <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>135</v>
       </c>
@@ -4148,7 +4264,7 @@
       <c r="Z51" s="38"/>
       <c r="AA51" s="38"/>
     </row>
-    <row customHeight="1" ht="12.75" r="52" spans="1:27">
+    <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -4165,7 +4281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="53" spans="1:27">
+    <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>139</v>
       </c>
@@ -4182,7 +4298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="54" spans="1:27">
+    <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
@@ -4199,7 +4315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="55" spans="1:27">
+    <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -4216,7 +4332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="56" spans="1:27">
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="36" t="s">
         <v>145</v>
       </c>
@@ -4233,7 +4349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="57" spans="1:27">
+    <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="21" t="s">
         <v>148</v>
       </c>
@@ -4242,11 +4358,11 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="21">
-        <v>1083</v>
+        <v>1083.0</v>
       </c>
       <c r="E57" s="21"/>
     </row>
-    <row customHeight="1" ht="12.75" r="58" spans="1:27">
+    <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -4263,7 +4379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="59" spans="1:27">
+    <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>150</v>
       </c>
@@ -4280,7 +4396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="60" spans="1:27">
+    <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>152</v>
       </c>
@@ -4294,7 +4410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="61" spans="1:27">
+    <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -4308,7 +4424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="62" spans="1:27">
+    <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="21" t="s">
         <v>156</v>
       </c>
@@ -4317,11 +4433,11 @@
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="41">
-        <v>1086</v>
+        <v>1086.0</v>
       </c>
       <c r="E62" s="21"/>
     </row>
-    <row customHeight="1" ht="12.75" r="63" spans="1:27">
+    <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -4338,7 +4454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="64" spans="1:27">
+    <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
@@ -4355,7 +4471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="65" spans="1:6">
+    <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>160</v>
       </c>
@@ -4369,7 +4485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="66" spans="1:6">
+    <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
@@ -4383,7 +4499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="67" spans="1:6">
+    <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4397,7 +4513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="68" spans="1:6">
+    <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="41" t="s">
         <v>165</v>
       </c>
@@ -4406,11 +4522,11 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="41">
-        <v>1587</v>
+        <v>1587.0</v>
       </c>
       <c r="E68" s="21"/>
     </row>
-    <row customHeight="1" ht="12.75" r="69" spans="1:6">
+    <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>167</v>
       </c>
@@ -4428,7 +4544,7 @@
       </c>
       <c r="F69" s="31"/>
     </row>
-    <row customHeight="1" ht="12.75" r="70" spans="1:6">
+    <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
@@ -4448,7 +4564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="71" spans="1:6">
+    <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
@@ -4465,7 +4581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="72" spans="1:6">
+    <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
@@ -4482,7 +4598,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="73" spans="1:6">
+    <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -4499,7 +4615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="74" spans="1:6">
+    <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -4516,7 +4632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="75" spans="1:6">
+    <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
@@ -4530,7 +4646,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="76" spans="1:6">
+    <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>154</v>
       </c>
@@ -4544,7 +4660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="77" spans="1:6">
+    <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>177</v>
       </c>
@@ -4561,7 +4677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="78" spans="1:6">
+    <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
@@ -4581,7 +4697,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="79" spans="1:6">
+    <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
@@ -4601,7 +4717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="80" spans="1:6">
+    <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4618,7 +4734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="81" spans="1:5">
+    <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>143</v>
       </c>
@@ -4635,936 +4751,936 @@
         <v>31</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.75" r="82" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="83" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="84" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="85" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="86" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="87" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="88" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="89" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="90" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="91" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="92" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="93" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="94" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="95" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="96" spans="1:5"/>
-    <row customHeight="1" ht="12.75" r="97"/>
-    <row customHeight="1" ht="12.75" r="98"/>
-    <row customHeight="1" ht="12.75" r="99"/>
-    <row customHeight="1" ht="12.75" r="100"/>
-    <row customHeight="1" ht="12.75" r="101"/>
-    <row customHeight="1" ht="12.75" r="102"/>
-    <row customHeight="1" ht="12.75" r="103"/>
-    <row customHeight="1" ht="12.75" r="104"/>
-    <row customHeight="1" ht="12.75" r="105"/>
-    <row customHeight="1" ht="12.75" r="106"/>
-    <row customHeight="1" ht="12.75" r="107"/>
-    <row customHeight="1" ht="12.75" r="108"/>
-    <row customHeight="1" ht="12.75" r="109"/>
-    <row customHeight="1" ht="12.75" r="110"/>
-    <row customHeight="1" ht="12.75" r="111"/>
-    <row customHeight="1" ht="12.75" r="112"/>
-    <row customHeight="1" ht="12.75" r="113"/>
-    <row customHeight="1" ht="12.75" r="114"/>
-    <row customHeight="1" ht="12.75" r="115"/>
-    <row customHeight="1" ht="12.75" r="116"/>
-    <row customHeight="1" ht="12.75" r="117"/>
-    <row customHeight="1" ht="12.75" r="118"/>
-    <row customHeight="1" ht="12.75" r="119"/>
-    <row customHeight="1" ht="12.75" r="120"/>
-    <row customHeight="1" ht="12.75" r="121"/>
-    <row customHeight="1" ht="12.75" r="122"/>
-    <row customHeight="1" ht="12.75" r="123"/>
-    <row customHeight="1" ht="12.75" r="124"/>
-    <row customHeight="1" ht="12.75" r="125"/>
-    <row customHeight="1" ht="12.75" r="126"/>
-    <row customHeight="1" ht="12.75" r="127"/>
-    <row customHeight="1" ht="12.75" r="128"/>
-    <row customHeight="1" ht="12.75" r="129"/>
-    <row customHeight="1" ht="12.75" r="130"/>
-    <row customHeight="1" ht="12.75" r="131"/>
-    <row customHeight="1" ht="12.75" r="132"/>
-    <row customHeight="1" ht="12.75" r="133"/>
-    <row customHeight="1" ht="12.75" r="134"/>
-    <row customHeight="1" ht="12.75" r="135"/>
-    <row customHeight="1" ht="12.75" r="136"/>
-    <row customHeight="1" ht="12.75" r="137"/>
-    <row customHeight="1" ht="12.75" r="138"/>
-    <row customHeight="1" ht="12.75" r="139"/>
-    <row customHeight="1" ht="12.75" r="140"/>
-    <row customHeight="1" ht="12.75" r="141"/>
-    <row customHeight="1" ht="12.75" r="142"/>
-    <row customHeight="1" ht="12.75" r="143"/>
-    <row customHeight="1" ht="12.75" r="144"/>
-    <row customHeight="1" ht="12.75" r="145"/>
-    <row customHeight="1" ht="12.75" r="146"/>
-    <row customHeight="1" ht="12.75" r="147"/>
-    <row customHeight="1" ht="12.75" r="148"/>
-    <row customHeight="1" ht="12.75" r="149"/>
-    <row customHeight="1" ht="12.75" r="150"/>
-    <row customHeight="1" ht="12.75" r="151"/>
-    <row customHeight="1" ht="12.75" r="152"/>
-    <row customHeight="1" ht="12.75" r="153"/>
-    <row customHeight="1" ht="12.75" r="154"/>
-    <row customHeight="1" ht="12.75" r="155"/>
-    <row customHeight="1" ht="12.75" r="156"/>
-    <row customHeight="1" ht="12.75" r="157"/>
-    <row customHeight="1" ht="12.75" r="158"/>
-    <row customHeight="1" ht="12.75" r="159"/>
-    <row customHeight="1" ht="12.75" r="160"/>
-    <row customHeight="1" ht="12.75" r="161"/>
-    <row customHeight="1" ht="12.75" r="162"/>
-    <row customHeight="1" ht="12.75" r="163"/>
-    <row customHeight="1" ht="12.75" r="164"/>
-    <row customHeight="1" ht="12.75" r="165"/>
-    <row customHeight="1" ht="12.75" r="166"/>
-    <row customHeight="1" ht="12.75" r="167"/>
-    <row customHeight="1" ht="12.75" r="168"/>
-    <row customHeight="1" ht="12.75" r="169"/>
-    <row customHeight="1" ht="12.75" r="170"/>
-    <row customHeight="1" ht="12.75" r="171"/>
-    <row customHeight="1" ht="12.75" r="172"/>
-    <row customHeight="1" ht="12.75" r="173"/>
-    <row customHeight="1" ht="12.75" r="174"/>
-    <row customHeight="1" ht="12.75" r="175"/>
-    <row customHeight="1" ht="12.75" r="176"/>
-    <row customHeight="1" ht="12.75" r="177"/>
-    <row customHeight="1" ht="12.75" r="178"/>
-    <row customHeight="1" ht="12.75" r="179"/>
-    <row customHeight="1" ht="12.75" r="180"/>
-    <row customHeight="1" ht="12.75" r="181"/>
-    <row customHeight="1" ht="12.75" r="182"/>
-    <row customHeight="1" ht="12.75" r="183"/>
-    <row customHeight="1" ht="12.75" r="184"/>
-    <row customHeight="1" ht="12.75" r="185"/>
-    <row customHeight="1" ht="12.75" r="186"/>
-    <row customHeight="1" ht="12.75" r="187"/>
-    <row customHeight="1" ht="12.75" r="188"/>
-    <row customHeight="1" ht="12.75" r="189"/>
-    <row customHeight="1" ht="12.75" r="190"/>
-    <row customHeight="1" ht="12.75" r="191"/>
-    <row customHeight="1" ht="12.75" r="192"/>
-    <row customHeight="1" ht="12.75" r="193"/>
-    <row customHeight="1" ht="12.75" r="194"/>
-    <row customHeight="1" ht="12.75" r="195"/>
-    <row customHeight="1" ht="12.75" r="196"/>
-    <row customHeight="1" ht="12.75" r="197"/>
-    <row customHeight="1" ht="12.75" r="198"/>
-    <row customHeight="1" ht="12.75" r="199"/>
-    <row customHeight="1" ht="12.75" r="200"/>
-    <row customHeight="1" ht="12.75" r="201"/>
-    <row customHeight="1" ht="12.75" r="202"/>
-    <row customHeight="1" ht="12.75" r="203"/>
-    <row customHeight="1" ht="12.75" r="204"/>
-    <row customHeight="1" ht="12.75" r="205"/>
-    <row customHeight="1" ht="12.75" r="206"/>
-    <row customHeight="1" ht="12.75" r="207"/>
-    <row customHeight="1" ht="12.75" r="208"/>
-    <row customHeight="1" ht="12.75" r="209"/>
-    <row customHeight="1" ht="12.75" r="210"/>
-    <row customHeight="1" ht="12.75" r="211"/>
-    <row customHeight="1" ht="12.75" r="212"/>
-    <row customHeight="1" ht="12.75" r="213"/>
-    <row customHeight="1" ht="12.75" r="214"/>
-    <row customHeight="1" ht="12.75" r="215"/>
-    <row customHeight="1" ht="12.75" r="216"/>
-    <row customHeight="1" ht="12.75" r="217"/>
-    <row customHeight="1" ht="12.75" r="218"/>
-    <row customHeight="1" ht="12.75" r="219"/>
-    <row customHeight="1" ht="12.75" r="220"/>
-    <row customHeight="1" ht="12.75" r="221"/>
-    <row customHeight="1" ht="12.75" r="222"/>
-    <row customHeight="1" ht="12.75" r="223"/>
-    <row customHeight="1" ht="12.75" r="224"/>
-    <row customHeight="1" ht="12.75" r="225"/>
-    <row customHeight="1" ht="12.75" r="226"/>
-    <row customHeight="1" ht="12.75" r="227"/>
-    <row customHeight="1" ht="12.75" r="228"/>
-    <row customHeight="1" ht="12.75" r="229"/>
-    <row customHeight="1" ht="12.75" r="230"/>
-    <row customHeight="1" ht="12.75" r="231"/>
-    <row customHeight="1" ht="12.75" r="232"/>
-    <row customHeight="1" ht="12.75" r="233"/>
-    <row customHeight="1" ht="12.75" r="234"/>
-    <row customHeight="1" ht="12.75" r="235"/>
-    <row customHeight="1" ht="12.75" r="236"/>
-    <row customHeight="1" ht="12.75" r="237"/>
-    <row customHeight="1" ht="12.75" r="238"/>
-    <row customHeight="1" ht="12.75" r="239"/>
-    <row customHeight="1" ht="12.75" r="240"/>
-    <row customHeight="1" ht="12.75" r="241"/>
-    <row customHeight="1" ht="12.75" r="242"/>
-    <row customHeight="1" ht="12.75" r="243"/>
-    <row customHeight="1" ht="12.75" r="244"/>
-    <row customHeight="1" ht="12.75" r="245"/>
-    <row customHeight="1" ht="12.75" r="246"/>
-    <row customHeight="1" ht="12.75" r="247"/>
-    <row customHeight="1" ht="12.75" r="248"/>
-    <row customHeight="1" ht="12.75" r="249"/>
-    <row customHeight="1" ht="12.75" r="250"/>
-    <row customHeight="1" ht="12.75" r="251"/>
-    <row customHeight="1" ht="12.75" r="252"/>
-    <row customHeight="1" ht="12.75" r="253"/>
-    <row customHeight="1" ht="12.75" r="254"/>
-    <row customHeight="1" ht="12.75" r="255"/>
-    <row customHeight="1" ht="12.75" r="256"/>
-    <row customHeight="1" ht="12.75" r="257"/>
-    <row customHeight="1" ht="12.75" r="258"/>
-    <row customHeight="1" ht="12.75" r="259"/>
-    <row customHeight="1" ht="12.75" r="260"/>
-    <row customHeight="1" ht="12.75" r="261"/>
-    <row customHeight="1" ht="12.75" r="262"/>
-    <row customHeight="1" ht="12.75" r="263"/>
-    <row customHeight="1" ht="12.75" r="264"/>
-    <row customHeight="1" ht="12.75" r="265"/>
-    <row customHeight="1" ht="12.75" r="266"/>
-    <row customHeight="1" ht="12.75" r="267"/>
-    <row customHeight="1" ht="12.75" r="268"/>
-    <row customHeight="1" ht="12.75" r="269"/>
-    <row customHeight="1" ht="12.75" r="270"/>
-    <row customHeight="1" ht="12.75" r="271"/>
-    <row customHeight="1" ht="12.75" r="272"/>
-    <row customHeight="1" ht="12.75" r="273"/>
-    <row customHeight="1" ht="12.75" r="274"/>
-    <row customHeight="1" ht="12.75" r="275"/>
-    <row customHeight="1" ht="12.75" r="276"/>
-    <row customHeight="1" ht="12.75" r="277"/>
-    <row customHeight="1" ht="12.75" r="278"/>
-    <row customHeight="1" ht="12.75" r="279"/>
-    <row customHeight="1" ht="12.75" r="280"/>
-    <row customHeight="1" ht="12.75" r="281"/>
-    <row customHeight="1" ht="12.75" r="282"/>
-    <row customHeight="1" ht="12.75" r="283"/>
-    <row customHeight="1" ht="12.75" r="284"/>
-    <row customHeight="1" ht="12.75" r="285"/>
-    <row customHeight="1" ht="12.75" r="286"/>
-    <row customHeight="1" ht="12.75" r="287"/>
-    <row customHeight="1" ht="12.75" r="288"/>
-    <row customHeight="1" ht="12.75" r="289"/>
-    <row customHeight="1" ht="12.75" r="290"/>
-    <row customHeight="1" ht="12.75" r="291"/>
-    <row customHeight="1" ht="12.75" r="292"/>
-    <row customHeight="1" ht="12.75" r="293"/>
-    <row customHeight="1" ht="12.75" r="294"/>
-    <row customHeight="1" ht="12.75" r="295"/>
-    <row customHeight="1" ht="12.75" r="296"/>
-    <row customHeight="1" ht="12.75" r="297"/>
-    <row customHeight="1" ht="12.75" r="298"/>
-    <row customHeight="1" ht="12.75" r="299"/>
-    <row customHeight="1" ht="12.75" r="300"/>
-    <row customHeight="1" ht="12.75" r="301"/>
-    <row customHeight="1" ht="12.75" r="302"/>
-    <row customHeight="1" ht="12.75" r="303"/>
-    <row customHeight="1" ht="12.75" r="304"/>
-    <row customHeight="1" ht="12.75" r="305"/>
-    <row customHeight="1" ht="12.75" r="306"/>
-    <row customHeight="1" ht="12.75" r="307"/>
-    <row customHeight="1" ht="12.75" r="308"/>
-    <row customHeight="1" ht="12.75" r="309"/>
-    <row customHeight="1" ht="12.75" r="310"/>
-    <row customHeight="1" ht="12.75" r="311"/>
-    <row customHeight="1" ht="12.75" r="312"/>
-    <row customHeight="1" ht="12.75" r="313"/>
-    <row customHeight="1" ht="12.75" r="314"/>
-    <row customHeight="1" ht="12.75" r="315"/>
-    <row customHeight="1" ht="12.75" r="316"/>
-    <row customHeight="1" ht="12.75" r="317"/>
-    <row customHeight="1" ht="12.75" r="318"/>
-    <row customHeight="1" ht="12.75" r="319"/>
-    <row customHeight="1" ht="12.75" r="320"/>
-    <row customHeight="1" ht="12.75" r="321"/>
-    <row customHeight="1" ht="12.75" r="322"/>
-    <row customHeight="1" ht="12.75" r="323"/>
-    <row customHeight="1" ht="12.75" r="324"/>
-    <row customHeight="1" ht="12.75" r="325"/>
-    <row customHeight="1" ht="12.75" r="326"/>
-    <row customHeight="1" ht="12.75" r="327"/>
-    <row customHeight="1" ht="12.75" r="328"/>
-    <row customHeight="1" ht="12.75" r="329"/>
-    <row customHeight="1" ht="12.75" r="330"/>
-    <row customHeight="1" ht="12.75" r="331"/>
-    <row customHeight="1" ht="12.75" r="332"/>
-    <row customHeight="1" ht="12.75" r="333"/>
-    <row customHeight="1" ht="12.75" r="334"/>
-    <row customHeight="1" ht="12.75" r="335"/>
-    <row customHeight="1" ht="12.75" r="336"/>
-    <row customHeight="1" ht="12.75" r="337"/>
-    <row customHeight="1" ht="12.75" r="338"/>
-    <row customHeight="1" ht="12.75" r="339"/>
-    <row customHeight="1" ht="12.75" r="340"/>
-    <row customHeight="1" ht="12.75" r="341"/>
-    <row customHeight="1" ht="12.75" r="342"/>
-    <row customHeight="1" ht="12.75" r="343"/>
-    <row customHeight="1" ht="12.75" r="344"/>
-    <row customHeight="1" ht="12.75" r="345"/>
-    <row customHeight="1" ht="12.75" r="346"/>
-    <row customHeight="1" ht="12.75" r="347"/>
-    <row customHeight="1" ht="12.75" r="348"/>
-    <row customHeight="1" ht="12.75" r="349"/>
-    <row customHeight="1" ht="12.75" r="350"/>
-    <row customHeight="1" ht="12.75" r="351"/>
-    <row customHeight="1" ht="12.75" r="352"/>
-    <row customHeight="1" ht="12.75" r="353"/>
-    <row customHeight="1" ht="12.75" r="354"/>
-    <row customHeight="1" ht="12.75" r="355"/>
-    <row customHeight="1" ht="12.75" r="356"/>
-    <row customHeight="1" ht="12.75" r="357"/>
-    <row customHeight="1" ht="12.75" r="358"/>
-    <row customHeight="1" ht="12.75" r="359"/>
-    <row customHeight="1" ht="12.75" r="360"/>
-    <row customHeight="1" ht="12.75" r="361"/>
-    <row customHeight="1" ht="12.75" r="362"/>
-    <row customHeight="1" ht="12.75" r="363"/>
-    <row customHeight="1" ht="12.75" r="364"/>
-    <row customHeight="1" ht="12.75" r="365"/>
-    <row customHeight="1" ht="12.75" r="366"/>
-    <row customHeight="1" ht="12.75" r="367"/>
-    <row customHeight="1" ht="12.75" r="368"/>
-    <row customHeight="1" ht="12.75" r="369"/>
-    <row customHeight="1" ht="12.75" r="370"/>
-    <row customHeight="1" ht="12.75" r="371"/>
-    <row customHeight="1" ht="12.75" r="372"/>
-    <row customHeight="1" ht="12.75" r="373"/>
-    <row customHeight="1" ht="12.75" r="374"/>
-    <row customHeight="1" ht="12.75" r="375"/>
-    <row customHeight="1" ht="12.75" r="376"/>
-    <row customHeight="1" ht="12.75" r="377"/>
-    <row customHeight="1" ht="12.75" r="378"/>
-    <row customHeight="1" ht="12.75" r="379"/>
-    <row customHeight="1" ht="12.75" r="380"/>
-    <row customHeight="1" ht="12.75" r="381"/>
-    <row customHeight="1" ht="12.75" r="382"/>
-    <row customHeight="1" ht="12.75" r="383"/>
-    <row customHeight="1" ht="12.75" r="384"/>
-    <row customHeight="1" ht="12.75" r="385"/>
-    <row customHeight="1" ht="12.75" r="386"/>
-    <row customHeight="1" ht="12.75" r="387"/>
-    <row customHeight="1" ht="12.75" r="388"/>
-    <row customHeight="1" ht="12.75" r="389"/>
-    <row customHeight="1" ht="12.75" r="390"/>
-    <row customHeight="1" ht="12.75" r="391"/>
-    <row customHeight="1" ht="12.75" r="392"/>
-    <row customHeight="1" ht="12.75" r="393"/>
-    <row customHeight="1" ht="12.75" r="394"/>
-    <row customHeight="1" ht="12.75" r="395"/>
-    <row customHeight="1" ht="12.75" r="396"/>
-    <row customHeight="1" ht="12.75" r="397"/>
-    <row customHeight="1" ht="12.75" r="398"/>
-    <row customHeight="1" ht="12.75" r="399"/>
-    <row customHeight="1" ht="12.75" r="400"/>
-    <row customHeight="1" ht="12.75" r="401"/>
-    <row customHeight="1" ht="12.75" r="402"/>
-    <row customHeight="1" ht="12.75" r="403"/>
-    <row customHeight="1" ht="12.75" r="404"/>
-    <row customHeight="1" ht="12.75" r="405"/>
-    <row customHeight="1" ht="12.75" r="406"/>
-    <row customHeight="1" ht="12.75" r="407"/>
-    <row customHeight="1" ht="12.75" r="408"/>
-    <row customHeight="1" ht="12.75" r="409"/>
-    <row customHeight="1" ht="12.75" r="410"/>
-    <row customHeight="1" ht="12.75" r="411"/>
-    <row customHeight="1" ht="12.75" r="412"/>
-    <row customHeight="1" ht="12.75" r="413"/>
-    <row customHeight="1" ht="12.75" r="414"/>
-    <row customHeight="1" ht="12.75" r="415"/>
-    <row customHeight="1" ht="12.75" r="416"/>
-    <row customHeight="1" ht="12.75" r="417"/>
-    <row customHeight="1" ht="12.75" r="418"/>
-    <row customHeight="1" ht="12.75" r="419"/>
-    <row customHeight="1" ht="12.75" r="420"/>
-    <row customHeight="1" ht="12.75" r="421"/>
-    <row customHeight="1" ht="12.75" r="422"/>
-    <row customHeight="1" ht="12.75" r="423"/>
-    <row customHeight="1" ht="12.75" r="424"/>
-    <row customHeight="1" ht="12.75" r="425"/>
-    <row customHeight="1" ht="12.75" r="426"/>
-    <row customHeight="1" ht="12.75" r="427"/>
-    <row customHeight="1" ht="12.75" r="428"/>
-    <row customHeight="1" ht="12.75" r="429"/>
-    <row customHeight="1" ht="12.75" r="430"/>
-    <row customHeight="1" ht="12.75" r="431"/>
-    <row customHeight="1" ht="12.75" r="432"/>
-    <row customHeight="1" ht="12.75" r="433"/>
-    <row customHeight="1" ht="12.75" r="434"/>
-    <row customHeight="1" ht="12.75" r="435"/>
-    <row customHeight="1" ht="12.75" r="436"/>
-    <row customHeight="1" ht="12.75" r="437"/>
-    <row customHeight="1" ht="12.75" r="438"/>
-    <row customHeight="1" ht="12.75" r="439"/>
-    <row customHeight="1" ht="12.75" r="440"/>
-    <row customHeight="1" ht="12.75" r="441"/>
-    <row customHeight="1" ht="12.75" r="442"/>
-    <row customHeight="1" ht="12.75" r="443"/>
-    <row customHeight="1" ht="12.75" r="444"/>
-    <row customHeight="1" ht="12.75" r="445"/>
-    <row customHeight="1" ht="12.75" r="446"/>
-    <row customHeight="1" ht="12.75" r="447"/>
-    <row customHeight="1" ht="12.75" r="448"/>
-    <row customHeight="1" ht="12.75" r="449"/>
-    <row customHeight="1" ht="12.75" r="450"/>
-    <row customHeight="1" ht="12.75" r="451"/>
-    <row customHeight="1" ht="12.75" r="452"/>
-    <row customHeight="1" ht="12.75" r="453"/>
-    <row customHeight="1" ht="12.75" r="454"/>
-    <row customHeight="1" ht="12.75" r="455"/>
-    <row customHeight="1" ht="12.75" r="456"/>
-    <row customHeight="1" ht="12.75" r="457"/>
-    <row customHeight="1" ht="12.75" r="458"/>
-    <row customHeight="1" ht="12.75" r="459"/>
-    <row customHeight="1" ht="12.75" r="460"/>
-    <row customHeight="1" ht="12.75" r="461"/>
-    <row customHeight="1" ht="12.75" r="462"/>
-    <row customHeight="1" ht="12.75" r="463"/>
-    <row customHeight="1" ht="12.75" r="464"/>
-    <row customHeight="1" ht="12.75" r="465"/>
-    <row customHeight="1" ht="12.75" r="466"/>
-    <row customHeight="1" ht="12.75" r="467"/>
-    <row customHeight="1" ht="12.75" r="468"/>
-    <row customHeight="1" ht="12.75" r="469"/>
-    <row customHeight="1" ht="12.75" r="470"/>
-    <row customHeight="1" ht="12.75" r="471"/>
-    <row customHeight="1" ht="12.75" r="472"/>
-    <row customHeight="1" ht="12.75" r="473"/>
-    <row customHeight="1" ht="12.75" r="474"/>
-    <row customHeight="1" ht="12.75" r="475"/>
-    <row customHeight="1" ht="12.75" r="476"/>
-    <row customHeight="1" ht="12.75" r="477"/>
-    <row customHeight="1" ht="12.75" r="478"/>
-    <row customHeight="1" ht="12.75" r="479"/>
-    <row customHeight="1" ht="12.75" r="480"/>
-    <row customHeight="1" ht="12.75" r="481"/>
-    <row customHeight="1" ht="12.75" r="482"/>
-    <row customHeight="1" ht="12.75" r="483"/>
-    <row customHeight="1" ht="12.75" r="484"/>
-    <row customHeight="1" ht="12.75" r="485"/>
-    <row customHeight="1" ht="12.75" r="486"/>
-    <row customHeight="1" ht="12.75" r="487"/>
-    <row customHeight="1" ht="12.75" r="488"/>
-    <row customHeight="1" ht="12.75" r="489"/>
-    <row customHeight="1" ht="12.75" r="490"/>
-    <row customHeight="1" ht="12.75" r="491"/>
-    <row customHeight="1" ht="12.75" r="492"/>
-    <row customHeight="1" ht="12.75" r="493"/>
-    <row customHeight="1" ht="12.75" r="494"/>
-    <row customHeight="1" ht="12.75" r="495"/>
-    <row customHeight="1" ht="12.75" r="496"/>
-    <row customHeight="1" ht="12.75" r="497"/>
-    <row customHeight="1" ht="12.75" r="498"/>
-    <row customHeight="1" ht="12.75" r="499"/>
-    <row customHeight="1" ht="12.75" r="500"/>
-    <row customHeight="1" ht="12.75" r="501"/>
-    <row customHeight="1" ht="12.75" r="502"/>
-    <row customHeight="1" ht="12.75" r="503"/>
-    <row customHeight="1" ht="12.75" r="504"/>
-    <row customHeight="1" ht="12.75" r="505"/>
-    <row customHeight="1" ht="12.75" r="506"/>
-    <row customHeight="1" ht="12.75" r="507"/>
-    <row customHeight="1" ht="12.75" r="508"/>
-    <row customHeight="1" ht="12.75" r="509"/>
-    <row customHeight="1" ht="12.75" r="510"/>
-    <row customHeight="1" ht="12.75" r="511"/>
-    <row customHeight="1" ht="12.75" r="512"/>
-    <row customHeight="1" ht="12.75" r="513"/>
-    <row customHeight="1" ht="12.75" r="514"/>
-    <row customHeight="1" ht="12.75" r="515"/>
-    <row customHeight="1" ht="12.75" r="516"/>
-    <row customHeight="1" ht="12.75" r="517"/>
-    <row customHeight="1" ht="12.75" r="518"/>
-    <row customHeight="1" ht="12.75" r="519"/>
-    <row customHeight="1" ht="12.75" r="520"/>
-    <row customHeight="1" ht="12.75" r="521"/>
-    <row customHeight="1" ht="12.75" r="522"/>
-    <row customHeight="1" ht="12.75" r="523"/>
-    <row customHeight="1" ht="12.75" r="524"/>
-    <row customHeight="1" ht="12.75" r="525"/>
-    <row customHeight="1" ht="12.75" r="526"/>
-    <row customHeight="1" ht="12.75" r="527"/>
-    <row customHeight="1" ht="12.75" r="528"/>
-    <row customHeight="1" ht="12.75" r="529"/>
-    <row customHeight="1" ht="12.75" r="530"/>
-    <row customHeight="1" ht="12.75" r="531"/>
-    <row customHeight="1" ht="12.75" r="532"/>
-    <row customHeight="1" ht="12.75" r="533"/>
-    <row customHeight="1" ht="12.75" r="534"/>
-    <row customHeight="1" ht="12.75" r="535"/>
-    <row customHeight="1" ht="12.75" r="536"/>
-    <row customHeight="1" ht="12.75" r="537"/>
-    <row customHeight="1" ht="12.75" r="538"/>
-    <row customHeight="1" ht="12.75" r="539"/>
-    <row customHeight="1" ht="12.75" r="540"/>
-    <row customHeight="1" ht="12.75" r="541"/>
-    <row customHeight="1" ht="12.75" r="542"/>
-    <row customHeight="1" ht="12.75" r="543"/>
-    <row customHeight="1" ht="12.75" r="544"/>
-    <row customHeight="1" ht="12.75" r="545"/>
-    <row customHeight="1" ht="12.75" r="546"/>
-    <row customHeight="1" ht="12.75" r="547"/>
-    <row customHeight="1" ht="12.75" r="548"/>
-    <row customHeight="1" ht="12.75" r="549"/>
-    <row customHeight="1" ht="12.75" r="550"/>
-    <row customHeight="1" ht="12.75" r="551"/>
-    <row customHeight="1" ht="12.75" r="552"/>
-    <row customHeight="1" ht="12.75" r="553"/>
-    <row customHeight="1" ht="12.75" r="554"/>
-    <row customHeight="1" ht="12.75" r="555"/>
-    <row customHeight="1" ht="12.75" r="556"/>
-    <row customHeight="1" ht="12.75" r="557"/>
-    <row customHeight="1" ht="12.75" r="558"/>
-    <row customHeight="1" ht="12.75" r="559"/>
-    <row customHeight="1" ht="12.75" r="560"/>
-    <row customHeight="1" ht="12.75" r="561"/>
-    <row customHeight="1" ht="12.75" r="562"/>
-    <row customHeight="1" ht="12.75" r="563"/>
-    <row customHeight="1" ht="12.75" r="564"/>
-    <row customHeight="1" ht="12.75" r="565"/>
-    <row customHeight="1" ht="12.75" r="566"/>
-    <row customHeight="1" ht="12.75" r="567"/>
-    <row customHeight="1" ht="12.75" r="568"/>
-    <row customHeight="1" ht="12.75" r="569"/>
-    <row customHeight="1" ht="12.75" r="570"/>
-    <row customHeight="1" ht="12.75" r="571"/>
-    <row customHeight="1" ht="12.75" r="572"/>
-    <row customHeight="1" ht="12.75" r="573"/>
-    <row customHeight="1" ht="12.75" r="574"/>
-    <row customHeight="1" ht="12.75" r="575"/>
-    <row customHeight="1" ht="12.75" r="576"/>
-    <row customHeight="1" ht="12.75" r="577"/>
-    <row customHeight="1" ht="12.75" r="578"/>
-    <row customHeight="1" ht="12.75" r="579"/>
-    <row customHeight="1" ht="12.75" r="580"/>
-    <row customHeight="1" ht="12.75" r="581"/>
-    <row customHeight="1" ht="12.75" r="582"/>
-    <row customHeight="1" ht="12.75" r="583"/>
-    <row customHeight="1" ht="12.75" r="584"/>
-    <row customHeight="1" ht="12.75" r="585"/>
-    <row customHeight="1" ht="12.75" r="586"/>
-    <row customHeight="1" ht="12.75" r="587"/>
-    <row customHeight="1" ht="12.75" r="588"/>
-    <row customHeight="1" ht="12.75" r="589"/>
-    <row customHeight="1" ht="12.75" r="590"/>
-    <row customHeight="1" ht="12.75" r="591"/>
-    <row customHeight="1" ht="12.75" r="592"/>
-    <row customHeight="1" ht="12.75" r="593"/>
-    <row customHeight="1" ht="12.75" r="594"/>
-    <row customHeight="1" ht="12.75" r="595"/>
-    <row customHeight="1" ht="12.75" r="596"/>
-    <row customHeight="1" ht="12.75" r="597"/>
-    <row customHeight="1" ht="12.75" r="598"/>
-    <row customHeight="1" ht="12.75" r="599"/>
-    <row customHeight="1" ht="12.75" r="600"/>
-    <row customHeight="1" ht="12.75" r="601"/>
-    <row customHeight="1" ht="12.75" r="602"/>
-    <row customHeight="1" ht="12.75" r="603"/>
-    <row customHeight="1" ht="12.75" r="604"/>
-    <row customHeight="1" ht="12.75" r="605"/>
-    <row customHeight="1" ht="12.75" r="606"/>
-    <row customHeight="1" ht="12.75" r="607"/>
-    <row customHeight="1" ht="12.75" r="608"/>
-    <row customHeight="1" ht="12.75" r="609"/>
-    <row customHeight="1" ht="12.75" r="610"/>
-    <row customHeight="1" ht="12.75" r="611"/>
-    <row customHeight="1" ht="12.75" r="612"/>
-    <row customHeight="1" ht="12.75" r="613"/>
-    <row customHeight="1" ht="12.75" r="614"/>
-    <row customHeight="1" ht="12.75" r="615"/>
-    <row customHeight="1" ht="12.75" r="616"/>
-    <row customHeight="1" ht="12.75" r="617"/>
-    <row customHeight="1" ht="12.75" r="618"/>
-    <row customHeight="1" ht="12.75" r="619"/>
-    <row customHeight="1" ht="12.75" r="620"/>
-    <row customHeight="1" ht="12.75" r="621"/>
-    <row customHeight="1" ht="12.75" r="622"/>
-    <row customHeight="1" ht="12.75" r="623"/>
-    <row customHeight="1" ht="12.75" r="624"/>
-    <row customHeight="1" ht="12.75" r="625"/>
-    <row customHeight="1" ht="12.75" r="626"/>
-    <row customHeight="1" ht="12.75" r="627"/>
-    <row customHeight="1" ht="12.75" r="628"/>
-    <row customHeight="1" ht="12.75" r="629"/>
-    <row customHeight="1" ht="12.75" r="630"/>
-    <row customHeight="1" ht="12.75" r="631"/>
-    <row customHeight="1" ht="12.75" r="632"/>
-    <row customHeight="1" ht="12.75" r="633"/>
-    <row customHeight="1" ht="12.75" r="634"/>
-    <row customHeight="1" ht="12.75" r="635"/>
-    <row customHeight="1" ht="12.75" r="636"/>
-    <row customHeight="1" ht="12.75" r="637"/>
-    <row customHeight="1" ht="12.75" r="638"/>
-    <row customHeight="1" ht="12.75" r="639"/>
-    <row customHeight="1" ht="12.75" r="640"/>
-    <row customHeight="1" ht="12.75" r="641"/>
-    <row customHeight="1" ht="12.75" r="642"/>
-    <row customHeight="1" ht="12.75" r="643"/>
-    <row customHeight="1" ht="12.75" r="644"/>
-    <row customHeight="1" ht="12.75" r="645"/>
-    <row customHeight="1" ht="12.75" r="646"/>
-    <row customHeight="1" ht="12.75" r="647"/>
-    <row customHeight="1" ht="12.75" r="648"/>
-    <row customHeight="1" ht="12.75" r="649"/>
-    <row customHeight="1" ht="12.75" r="650"/>
-    <row customHeight="1" ht="12.75" r="651"/>
-    <row customHeight="1" ht="12.75" r="652"/>
-    <row customHeight="1" ht="12.75" r="653"/>
-    <row customHeight="1" ht="12.75" r="654"/>
-    <row customHeight="1" ht="12.75" r="655"/>
-    <row customHeight="1" ht="12.75" r="656"/>
-    <row customHeight="1" ht="12.75" r="657"/>
-    <row customHeight="1" ht="12.75" r="658"/>
-    <row customHeight="1" ht="12.75" r="659"/>
-    <row customHeight="1" ht="12.75" r="660"/>
-    <row customHeight="1" ht="12.75" r="661"/>
-    <row customHeight="1" ht="12.75" r="662"/>
-    <row customHeight="1" ht="12.75" r="663"/>
-    <row customHeight="1" ht="12.75" r="664"/>
-    <row customHeight="1" ht="12.75" r="665"/>
-    <row customHeight="1" ht="12.75" r="666"/>
-    <row customHeight="1" ht="12.75" r="667"/>
-    <row customHeight="1" ht="12.75" r="668"/>
-    <row customHeight="1" ht="12.75" r="669"/>
-    <row customHeight="1" ht="12.75" r="670"/>
-    <row customHeight="1" ht="12.75" r="671"/>
-    <row customHeight="1" ht="12.75" r="672"/>
-    <row customHeight="1" ht="12.75" r="673"/>
-    <row customHeight="1" ht="12.75" r="674"/>
-    <row customHeight="1" ht="12.75" r="675"/>
-    <row customHeight="1" ht="12.75" r="676"/>
-    <row customHeight="1" ht="12.75" r="677"/>
-    <row customHeight="1" ht="12.75" r="678"/>
-    <row customHeight="1" ht="12.75" r="679"/>
-    <row customHeight="1" ht="12.75" r="680"/>
-    <row customHeight="1" ht="12.75" r="681"/>
-    <row customHeight="1" ht="12.75" r="682"/>
-    <row customHeight="1" ht="12.75" r="683"/>
-    <row customHeight="1" ht="12.75" r="684"/>
-    <row customHeight="1" ht="12.75" r="685"/>
-    <row customHeight="1" ht="12.75" r="686"/>
-    <row customHeight="1" ht="12.75" r="687"/>
-    <row customHeight="1" ht="12.75" r="688"/>
-    <row customHeight="1" ht="12.75" r="689"/>
-    <row customHeight="1" ht="12.75" r="690"/>
-    <row customHeight="1" ht="12.75" r="691"/>
-    <row customHeight="1" ht="12.75" r="692"/>
-    <row customHeight="1" ht="12.75" r="693"/>
-    <row customHeight="1" ht="12.75" r="694"/>
-    <row customHeight="1" ht="12.75" r="695"/>
-    <row customHeight="1" ht="12.75" r="696"/>
-    <row customHeight="1" ht="12.75" r="697"/>
-    <row customHeight="1" ht="12.75" r="698"/>
-    <row customHeight="1" ht="12.75" r="699"/>
-    <row customHeight="1" ht="12.75" r="700"/>
-    <row customHeight="1" ht="12.75" r="701"/>
-    <row customHeight="1" ht="12.75" r="702"/>
-    <row customHeight="1" ht="12.75" r="703"/>
-    <row customHeight="1" ht="12.75" r="704"/>
-    <row customHeight="1" ht="12.75" r="705"/>
-    <row customHeight="1" ht="12.75" r="706"/>
-    <row customHeight="1" ht="12.75" r="707"/>
-    <row customHeight="1" ht="12.75" r="708"/>
-    <row customHeight="1" ht="12.75" r="709"/>
-    <row customHeight="1" ht="12.75" r="710"/>
-    <row customHeight="1" ht="12.75" r="711"/>
-    <row customHeight="1" ht="12.75" r="712"/>
-    <row customHeight="1" ht="12.75" r="713"/>
-    <row customHeight="1" ht="12.75" r="714"/>
-    <row customHeight="1" ht="12.75" r="715"/>
-    <row customHeight="1" ht="12.75" r="716"/>
-    <row customHeight="1" ht="12.75" r="717"/>
-    <row customHeight="1" ht="12.75" r="718"/>
-    <row customHeight="1" ht="12.75" r="719"/>
-    <row customHeight="1" ht="12.75" r="720"/>
-    <row customHeight="1" ht="12.75" r="721"/>
-    <row customHeight="1" ht="12.75" r="722"/>
-    <row customHeight="1" ht="12.75" r="723"/>
-    <row customHeight="1" ht="12.75" r="724"/>
-    <row customHeight="1" ht="12.75" r="725"/>
-    <row customHeight="1" ht="12.75" r="726"/>
-    <row customHeight="1" ht="12.75" r="727"/>
-    <row customHeight="1" ht="12.75" r="728"/>
-    <row customHeight="1" ht="12.75" r="729"/>
-    <row customHeight="1" ht="12.75" r="730"/>
-    <row customHeight="1" ht="12.75" r="731"/>
-    <row customHeight="1" ht="12.75" r="732"/>
-    <row customHeight="1" ht="12.75" r="733"/>
-    <row customHeight="1" ht="12.75" r="734"/>
-    <row customHeight="1" ht="12.75" r="735"/>
-    <row customHeight="1" ht="12.75" r="736"/>
-    <row customHeight="1" ht="12.75" r="737"/>
-    <row customHeight="1" ht="12.75" r="738"/>
-    <row customHeight="1" ht="12.75" r="739"/>
-    <row customHeight="1" ht="12.75" r="740"/>
-    <row customHeight="1" ht="12.75" r="741"/>
-    <row customHeight="1" ht="12.75" r="742"/>
-    <row customHeight="1" ht="12.75" r="743"/>
-    <row customHeight="1" ht="12.75" r="744"/>
-    <row customHeight="1" ht="12.75" r="745"/>
-    <row customHeight="1" ht="12.75" r="746"/>
-    <row customHeight="1" ht="12.75" r="747"/>
-    <row customHeight="1" ht="12.75" r="748"/>
-    <row customHeight="1" ht="12.75" r="749"/>
-    <row customHeight="1" ht="12.75" r="750"/>
-    <row customHeight="1" ht="12.75" r="751"/>
-    <row customHeight="1" ht="12.75" r="752"/>
-    <row customHeight="1" ht="12.75" r="753"/>
-    <row customHeight="1" ht="12.75" r="754"/>
-    <row customHeight="1" ht="12.75" r="755"/>
-    <row customHeight="1" ht="12.75" r="756"/>
-    <row customHeight="1" ht="12.75" r="757"/>
-    <row customHeight="1" ht="12.75" r="758"/>
-    <row customHeight="1" ht="12.75" r="759"/>
-    <row customHeight="1" ht="12.75" r="760"/>
-    <row customHeight="1" ht="12.75" r="761"/>
-    <row customHeight="1" ht="12.75" r="762"/>
-    <row customHeight="1" ht="12.75" r="763"/>
-    <row customHeight="1" ht="12.75" r="764"/>
-    <row customHeight="1" ht="12.75" r="765"/>
-    <row customHeight="1" ht="12.75" r="766"/>
-    <row customHeight="1" ht="12.75" r="767"/>
-    <row customHeight="1" ht="12.75" r="768"/>
-    <row customHeight="1" ht="12.75" r="769"/>
-    <row customHeight="1" ht="12.75" r="770"/>
-    <row customHeight="1" ht="12.75" r="771"/>
-    <row customHeight="1" ht="12.75" r="772"/>
-    <row customHeight="1" ht="12.75" r="773"/>
-    <row customHeight="1" ht="12.75" r="774"/>
-    <row customHeight="1" ht="12.75" r="775"/>
-    <row customHeight="1" ht="12.75" r="776"/>
-    <row customHeight="1" ht="12.75" r="777"/>
-    <row customHeight="1" ht="12.75" r="778"/>
-    <row customHeight="1" ht="12.75" r="779"/>
-    <row customHeight="1" ht="12.75" r="780"/>
-    <row customHeight="1" ht="12.75" r="781"/>
-    <row customHeight="1" ht="12.75" r="782"/>
-    <row customHeight="1" ht="12.75" r="783"/>
-    <row customHeight="1" ht="12.75" r="784"/>
-    <row customHeight="1" ht="12.75" r="785"/>
-    <row customHeight="1" ht="12.75" r="786"/>
-    <row customHeight="1" ht="12.75" r="787"/>
-    <row customHeight="1" ht="12.75" r="788"/>
-    <row customHeight="1" ht="12.75" r="789"/>
-    <row customHeight="1" ht="12.75" r="790"/>
-    <row customHeight="1" ht="12.75" r="791"/>
-    <row customHeight="1" ht="12.75" r="792"/>
-    <row customHeight="1" ht="12.75" r="793"/>
-    <row customHeight="1" ht="12.75" r="794"/>
-    <row customHeight="1" ht="12.75" r="795"/>
-    <row customHeight="1" ht="12.75" r="796"/>
-    <row customHeight="1" ht="12.75" r="797"/>
-    <row customHeight="1" ht="12.75" r="798"/>
-    <row customHeight="1" ht="12.75" r="799"/>
-    <row customHeight="1" ht="12.75" r="800"/>
-    <row customHeight="1" ht="12.75" r="801"/>
-    <row customHeight="1" ht="12.75" r="802"/>
-    <row customHeight="1" ht="12.75" r="803"/>
-    <row customHeight="1" ht="12.75" r="804"/>
-    <row customHeight="1" ht="12.75" r="805"/>
-    <row customHeight="1" ht="12.75" r="806"/>
-    <row customHeight="1" ht="12.75" r="807"/>
-    <row customHeight="1" ht="12.75" r="808"/>
-    <row customHeight="1" ht="12.75" r="809"/>
-    <row customHeight="1" ht="12.75" r="810"/>
-    <row customHeight="1" ht="12.75" r="811"/>
-    <row customHeight="1" ht="12.75" r="812"/>
-    <row customHeight="1" ht="12.75" r="813"/>
-    <row customHeight="1" ht="12.75" r="814"/>
-    <row customHeight="1" ht="12.75" r="815"/>
-    <row customHeight="1" ht="12.75" r="816"/>
-    <row customHeight="1" ht="12.75" r="817"/>
-    <row customHeight="1" ht="12.75" r="818"/>
-    <row customHeight="1" ht="12.75" r="819"/>
-    <row customHeight="1" ht="12.75" r="820"/>
-    <row customHeight="1" ht="12.75" r="821"/>
-    <row customHeight="1" ht="12.75" r="822"/>
-    <row customHeight="1" ht="12.75" r="823"/>
-    <row customHeight="1" ht="12.75" r="824"/>
-    <row customHeight="1" ht="12.75" r="825"/>
-    <row customHeight="1" ht="12.75" r="826"/>
-    <row customHeight="1" ht="12.75" r="827"/>
-    <row customHeight="1" ht="12.75" r="828"/>
-    <row customHeight="1" ht="12.75" r="829"/>
-    <row customHeight="1" ht="12.75" r="830"/>
-    <row customHeight="1" ht="12.75" r="831"/>
-    <row customHeight="1" ht="12.75" r="832"/>
-    <row customHeight="1" ht="12.75" r="833"/>
-    <row customHeight="1" ht="12.75" r="834"/>
-    <row customHeight="1" ht="12.75" r="835"/>
-    <row customHeight="1" ht="12.75" r="836"/>
-    <row customHeight="1" ht="12.75" r="837"/>
-    <row customHeight="1" ht="12.75" r="838"/>
-    <row customHeight="1" ht="12.75" r="839"/>
-    <row customHeight="1" ht="12.75" r="840"/>
-    <row customHeight="1" ht="12.75" r="841"/>
-    <row customHeight="1" ht="12.75" r="842"/>
-    <row customHeight="1" ht="12.75" r="843"/>
-    <row customHeight="1" ht="12.75" r="844"/>
-    <row customHeight="1" ht="12.75" r="845"/>
-    <row customHeight="1" ht="12.75" r="846"/>
-    <row customHeight="1" ht="12.75" r="847"/>
-    <row customHeight="1" ht="12.75" r="848"/>
-    <row customHeight="1" ht="12.75" r="849"/>
-    <row customHeight="1" ht="12.75" r="850"/>
-    <row customHeight="1" ht="12.75" r="851"/>
-    <row customHeight="1" ht="12.75" r="852"/>
-    <row customHeight="1" ht="12.75" r="853"/>
-    <row customHeight="1" ht="12.75" r="854"/>
-    <row customHeight="1" ht="12.75" r="855"/>
-    <row customHeight="1" ht="12.75" r="856"/>
-    <row customHeight="1" ht="12.75" r="857"/>
-    <row customHeight="1" ht="12.75" r="858"/>
-    <row customHeight="1" ht="12.75" r="859"/>
-    <row customHeight="1" ht="12.75" r="860"/>
-    <row customHeight="1" ht="12.75" r="861"/>
-    <row customHeight="1" ht="12.75" r="862"/>
-    <row customHeight="1" ht="12.75" r="863"/>
-    <row customHeight="1" ht="12.75" r="864"/>
-    <row customHeight="1" ht="12.75" r="865"/>
-    <row customHeight="1" ht="12.75" r="866"/>
-    <row customHeight="1" ht="12.75" r="867"/>
-    <row customHeight="1" ht="12.75" r="868"/>
-    <row customHeight="1" ht="12.75" r="869"/>
-    <row customHeight="1" ht="12.75" r="870"/>
-    <row customHeight="1" ht="12.75" r="871"/>
-    <row customHeight="1" ht="12.75" r="872"/>
-    <row customHeight="1" ht="12.75" r="873"/>
-    <row customHeight="1" ht="12.75" r="874"/>
-    <row customHeight="1" ht="12.75" r="875"/>
-    <row customHeight="1" ht="12.75" r="876"/>
-    <row customHeight="1" ht="12.75" r="877"/>
-    <row customHeight="1" ht="12.75" r="878"/>
-    <row customHeight="1" ht="12.75" r="879"/>
-    <row customHeight="1" ht="12.75" r="880"/>
-    <row customHeight="1" ht="12.75" r="881"/>
-    <row customHeight="1" ht="12.75" r="882"/>
-    <row customHeight="1" ht="12.75" r="883"/>
-    <row customHeight="1" ht="12.75" r="884"/>
-    <row customHeight="1" ht="12.75" r="885"/>
-    <row customHeight="1" ht="12.75" r="886"/>
-    <row customHeight="1" ht="12.75" r="887"/>
-    <row customHeight="1" ht="12.75" r="888"/>
-    <row customHeight="1" ht="12.75" r="889"/>
-    <row customHeight="1" ht="12.75" r="890"/>
-    <row customHeight="1" ht="12.75" r="891"/>
-    <row customHeight="1" ht="12.75" r="892"/>
-    <row customHeight="1" ht="12.75" r="893"/>
-    <row customHeight="1" ht="12.75" r="894"/>
-    <row customHeight="1" ht="12.75" r="895"/>
-    <row customHeight="1" ht="12.75" r="896"/>
-    <row customHeight="1" ht="12.75" r="897"/>
-    <row customHeight="1" ht="12.75" r="898"/>
-    <row customHeight="1" ht="12.75" r="899"/>
-    <row customHeight="1" ht="12.75" r="900"/>
-    <row customHeight="1" ht="12.75" r="901"/>
-    <row customHeight="1" ht="12.75" r="902"/>
-    <row customHeight="1" ht="12.75" r="903"/>
-    <row customHeight="1" ht="12.75" r="904"/>
-    <row customHeight="1" ht="12.75" r="905"/>
-    <row customHeight="1" ht="12.75" r="906"/>
-    <row customHeight="1" ht="12.75" r="907"/>
-    <row customHeight="1" ht="12.75" r="908"/>
-    <row customHeight="1" ht="12.75" r="909"/>
-    <row customHeight="1" ht="12.75" r="910"/>
-    <row customHeight="1" ht="12.75" r="911"/>
-    <row customHeight="1" ht="12.75" r="912"/>
-    <row customHeight="1" ht="12.75" r="913"/>
-    <row customHeight="1" ht="12.75" r="914"/>
-    <row customHeight="1" ht="12.75" r="915"/>
-    <row customHeight="1" ht="12.75" r="916"/>
-    <row customHeight="1" ht="12.75" r="917"/>
-    <row customHeight="1" ht="12.75" r="918"/>
-    <row customHeight="1" ht="12.75" r="919"/>
-    <row customHeight="1" ht="12.75" r="920"/>
-    <row customHeight="1" ht="12.75" r="921"/>
-    <row customHeight="1" ht="12.75" r="922"/>
-    <row customHeight="1" ht="12.75" r="923"/>
-    <row customHeight="1" ht="12.75" r="924"/>
-    <row customHeight="1" ht="12.75" r="925"/>
-    <row customHeight="1" ht="12.75" r="926"/>
-    <row customHeight="1" ht="12.75" r="927"/>
-    <row customHeight="1" ht="12.75" r="928"/>
-    <row customHeight="1" ht="12.75" r="929"/>
-    <row customHeight="1" ht="12.75" r="930"/>
-    <row customHeight="1" ht="12.75" r="931"/>
-    <row customHeight="1" ht="12.75" r="932"/>
-    <row customHeight="1" ht="12.75" r="933"/>
-    <row customHeight="1" ht="12.75" r="934"/>
-    <row customHeight="1" ht="12.75" r="935"/>
-    <row customHeight="1" ht="12.75" r="936"/>
-    <row customHeight="1" ht="12.75" r="937"/>
-    <row customHeight="1" ht="12.75" r="938"/>
-    <row customHeight="1" ht="12.75" r="939"/>
-    <row customHeight="1" ht="12.75" r="940"/>
-    <row customHeight="1" ht="12.75" r="941"/>
-    <row customHeight="1" ht="12.75" r="942"/>
-    <row customHeight="1" ht="12.75" r="943"/>
-    <row customHeight="1" ht="12.75" r="944"/>
-    <row customHeight="1" ht="12.75" r="945"/>
-    <row customHeight="1" ht="12.75" r="946"/>
-    <row customHeight="1" ht="12.75" r="947"/>
-    <row customHeight="1" ht="12.75" r="948"/>
-    <row customHeight="1" ht="12.75" r="949"/>
-    <row customHeight="1" ht="12.75" r="950"/>
-    <row customHeight="1" ht="12.75" r="951"/>
-    <row customHeight="1" ht="12.75" r="952"/>
-    <row customHeight="1" ht="12.75" r="953"/>
-    <row customHeight="1" ht="12.75" r="954"/>
-    <row customHeight="1" ht="12.75" r="955"/>
-    <row customHeight="1" ht="12.75" r="956"/>
-    <row customHeight="1" ht="12.75" r="957"/>
-    <row customHeight="1" ht="12.75" r="958"/>
-    <row customHeight="1" ht="12.75" r="959"/>
-    <row customHeight="1" ht="12.75" r="960"/>
-    <row customHeight="1" ht="12.75" r="961"/>
-    <row customHeight="1" ht="12.75" r="962"/>
-    <row customHeight="1" ht="12.75" r="963"/>
-    <row customHeight="1" ht="12.75" r="964"/>
-    <row customHeight="1" ht="12.75" r="965"/>
-    <row customHeight="1" ht="12.75" r="966"/>
-    <row customHeight="1" ht="12.75" r="967"/>
-    <row customHeight="1" ht="12.75" r="968"/>
-    <row customHeight="1" ht="12.75" r="969"/>
-    <row customHeight="1" ht="12.75" r="970"/>
-    <row customHeight="1" ht="12.75" r="971"/>
-    <row customHeight="1" ht="12.75" r="972"/>
-    <row customHeight="1" ht="12.75" r="973"/>
-    <row customHeight="1" ht="12.75" r="974"/>
-    <row customHeight="1" ht="12.75" r="975"/>
-    <row customHeight="1" ht="12.75" r="976"/>
-    <row customHeight="1" ht="12.75" r="977"/>
-    <row customHeight="1" ht="12.75" r="978"/>
-    <row customHeight="1" ht="12.75" r="979"/>
-    <row customHeight="1" ht="12.75" r="980"/>
-    <row customHeight="1" ht="12.75" r="981"/>
-    <row customHeight="1" ht="12.75" r="982"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="32.88671875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="29.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.88671875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="21.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="28.6640625" collapsed="false"/>
-    <col min="46" max="46" customWidth="true" width="25.21875" collapsed="false"/>
+    <col customWidth="1" min="1" max="2" width="16.63"/>
+    <col customWidth="1" min="3" max="3" width="32.88"/>
+    <col customWidth="1" min="4" max="4" width="29.38"/>
+    <col customWidth="1" min="5" max="5" width="20.88"/>
+    <col customWidth="1" min="6" max="6" width="21.13"/>
+    <col customWidth="1" min="12" max="12" width="28.63"/>
+    <col customWidth="1" min="46" max="46" width="25.25"/>
+    <col customWidth="1" min="48" max="48" width="26.0"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" spans="1:59">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
@@ -5743,7 +5859,7 @@
         <v>187</v>
       </c>
     </row>
-    <row ht="13.2" r="2" spans="1:59">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -5824,7 +5940,7 @@
       <c r="BF2" s="54"/>
       <c r="BG2" s="54"/>
     </row>
-    <row ht="13.2" r="3" spans="1:59">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -5876,10 +5992,10 @@
       <c r="AS3" s="54"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
-      <c r="AV3" s="127" t="s">
+      <c r="AV3" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="AW3" s="128"/>
+      <c r="AW3" s="53"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
       <c r="AZ3" s="54"/>
@@ -5901,152 +6017,149 @@
         <v>201</v>
       </c>
     </row>
-    <row ht="13.2" r="4" spans="1:59">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="T4" s="95" t="s">
+      <c r="T4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="U4" s="95" t="s">
+      <c r="U4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="57" t="s">
         <v>203</v>
       </c>
       <c r="W4" s="59"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="95" t="s">
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="AA4" s="95"/>
-      <c r="AB4" s="95" t="s">
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AC4" s="95" t="s">
+      <c r="AC4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AD4" s="95" t="s">
+      <c r="AD4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AE4" s="95" t="s">
+      <c r="AE4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AF4" s="95" t="s">
+      <c r="AF4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AG4" s="127" t="s">
+      <c r="AG4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AH4" s="127"/>
-      <c r="AI4" s="95"/>
-      <c r="AJ4" s="95"/>
-      <c r="AK4" s="95" t="s">
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="AL4" s="95" t="s">
+      <c r="AL4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="AM4" s="95" t="s">
+      <c r="AM4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="AN4" s="95"/>
+      <c r="AN4" s="58"/>
       <c r="AO4" s="59"/>
-      <c r="AP4" s="95" t="s">
+      <c r="AP4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AQ4" s="95" t="s">
+      <c r="AQ4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AR4" s="95" t="s">
+      <c r="AR4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AS4" s="95" t="s">
+      <c r="AS4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AT4" s="95" t="s">
+      <c r="AT4" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="AU4" s="95" t="s">
+      <c r="AU4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AV4" s="95" t="s">
+      <c r="AV4" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="AW4" s="95" t="s">
+      <c r="AW4" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95" t="s">
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="BD4" s="95" t="s">
+      <c r="BD4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="BE4" s="95" t="s">
+      <c r="BE4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="BF4" s="95" t="s">
+      <c r="BF4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="BG4" s="53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row ht="13.2" r="5" spans="1:59">
+      <c r="BG4" s="53"/>
+    </row>
+    <row r="5">
       <c r="A5" s="60" t="s">
         <v>207</v>
       </c>
@@ -6109,7 +6222,7 @@
       <c r="BF5" s="61"/>
       <c r="BG5" s="61"/>
     </row>
-    <row ht="13.2" r="6" spans="1:59">
+    <row r="6">
       <c r="A6" s="62" t="s">
         <v>208</v>
       </c>
@@ -6141,7 +6254,7 @@
         <v>216</v>
       </c>
       <c r="K6" s="66">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="L6" s="67" t="s">
         <v>217</v>
@@ -6156,7 +6269,7 @@
         <v>220</v>
       </c>
       <c r="P6" s="66">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="Q6" s="36" t="s">
         <v>220</v>
@@ -6174,7 +6287,7 @@
         <v>221</v>
       </c>
       <c r="V6" s="66">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="W6" s="68"/>
       <c r="X6" s="63" t="s">
@@ -6274,7 +6387,7 @@
       <c r="BF6" s="72"/>
       <c r="BG6" s="72"/>
     </row>
-    <row ht="13.2" r="7" spans="1:59">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>230</v>
       </c>
@@ -6306,7 +6419,7 @@
         <v>237</v>
       </c>
       <c r="K7" s="66">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>238</v>
@@ -6321,7 +6434,7 @@
         <v>220</v>
       </c>
       <c r="P7" s="66">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>220</v>
@@ -6339,7 +6452,7 @@
         <v>221</v>
       </c>
       <c r="V7" s="66">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="W7" s="68"/>
       <c r="X7" s="63" t="s">
@@ -6449,7 +6562,7 @@
         <v>228</v>
       </c>
     </row>
-    <row ht="13.2" r="8" spans="1:59">
+    <row r="8">
       <c r="A8" s="75" t="s">
         <v>246</v>
       </c>
@@ -6481,7 +6594,7 @@
         <v>253</v>
       </c>
       <c r="K8" s="77">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="L8" s="76" t="s">
         <v>254</v>
@@ -6496,7 +6609,7 @@
         <v>220</v>
       </c>
       <c r="P8" s="77">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="75" t="s">
         <v>220</v>
@@ -6514,7 +6627,7 @@
         <v>221</v>
       </c>
       <c r="V8" s="77">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" s="68"/>
       <c r="X8" s="63" t="s">
@@ -6614,7 +6727,7 @@
       <c r="BF8" s="79"/>
       <c r="BG8" s="79"/>
     </row>
-    <row ht="13.2" r="9" spans="1:59">
+    <row r="9">
       <c r="A9" s="62" t="s">
         <v>259</v>
       </c>
@@ -6679,7 +6792,7 @@
       <c r="BF9" s="79"/>
       <c r="BG9" s="79"/>
     </row>
-    <row ht="13.2" r="10" spans="1:59">
+    <row r="10">
       <c r="A10" s="62" t="s">
         <v>260</v>
       </c>
@@ -6744,7 +6857,7 @@
       <c r="BF10" s="79"/>
       <c r="BG10" s="79"/>
     </row>
-    <row ht="13.2" r="11" spans="1:59">
+    <row r="11">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
       <c r="C11" s="83"/>
@@ -6805,7 +6918,7 @@
       <c r="BF11" s="85"/>
       <c r="BG11" s="85"/>
     </row>
-    <row ht="13.2" r="12" spans="1:59">
+    <row r="12">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -6866,7 +6979,7 @@
       <c r="BF12" s="85"/>
       <c r="BG12" s="85"/>
     </row>
-    <row ht="13.2" r="13" spans="1:59">
+    <row r="13">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
@@ -6928,33 +7041,31 @@
       <c r="BG13" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="AV3:AW3"/>
+  <mergeCells count="1">
     <mergeCell ref="AG4:AH4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="25.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="22.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.44140625" collapsed="false"/>
+    <col customWidth="1" min="1" max="1" width="26.13"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+    <col customWidth="1" min="3" max="3" width="25.38"/>
+    <col customWidth="1" min="4" max="4" width="22.5"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="42" t="s">
         <v>149</v>
       </c>
@@ -6971,7 +7082,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -6984,7 +7095,7 @@
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -6993,7 +7104,7 @@
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
@@ -7008,7 +7119,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="60" t="s">
         <v>207</v>
       </c>
@@ -7017,7 +7128,7 @@
       <c r="D5" s="92"/>
       <c r="E5" s="61"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="62" t="s">
         <v>265</v>
       </c>
@@ -7034,7 +7145,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>265</v>
       </c>
@@ -7051,7 +7162,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="75" t="s">
         <v>268</v>
       </c>
@@ -7062,13 +7173,13 @@
         <v>269</v>
       </c>
       <c r="D8" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E8" s="93">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="75" t="s">
         <v>268</v>
       </c>
@@ -7079,13 +7190,13 @@
         <v>270</v>
       </c>
       <c r="D9" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E9" s="93">
-        <v>46023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="62" t="s">
         <v>271</v>
       </c>
@@ -7098,7 +7209,7 @@
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="62" t="s">
         <v>271</v>
       </c>
@@ -7111,7 +7222,7 @@
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="62" t="s">
         <v>274</v>
       </c>
@@ -7122,34 +7233,34 @@
         <v>275</v>
       </c>
       <c r="D12" s="94">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="E12" s="94">
-        <v>46388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>46388.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
@@ -7157,29 +7268,28 @@
       <c r="E16" s="82"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.77734375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.44140625" collapsed="false"/>
+    <col customWidth="1" min="1" max="1" width="23.75"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+    <col customWidth="1" min="3" max="3" width="26.75"/>
+    <col customWidth="1" min="4" max="4" width="20.5"/>
+    <col customWidth="1" min="5" max="5" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" s="42" t="s">
         <v>157</v>
       </c>
@@ -7199,7 +7309,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7213,7 +7323,7 @@
       <c r="E2" s="95"/>
       <c r="F2" s="54"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7223,7 +7333,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
@@ -7241,7 +7351,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5">
       <c r="A5" s="60" t="s">
         <v>207</v>
       </c>
@@ -7251,7 +7361,7 @@
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6">
       <c r="A6" s="62" t="s">
         <v>281</v>
       </c>
@@ -7271,7 +7381,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>281</v>
       </c>
@@ -7291,7 +7401,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8">
       <c r="A8" s="75" t="s">
         <v>286</v>
       </c>
@@ -7305,13 +7415,13 @@
         <v>288</v>
       </c>
       <c r="E8" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="F8" s="93">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="75" t="s">
         <v>286</v>
       </c>
@@ -7325,13 +7435,13 @@
         <v>290</v>
       </c>
       <c r="E9" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="F9" s="93">
-        <v>46023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="62" t="s">
         <v>291</v>
       </c>
@@ -7345,7 +7455,7 @@
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11">
       <c r="A11" s="62" t="s">
         <v>291</v>
       </c>
@@ -7359,7 +7469,7 @@
       <c r="E11" s="79"/>
       <c r="F11" s="72"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12">
       <c r="A12" s="62" t="s">
         <v>294</v>
       </c>
@@ -7373,35 +7483,34 @@
         <v>296</v>
       </c>
       <c r="E12" s="94">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="F12" s="94">
-        <v>46388</v>
+        <v>46388.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.21875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="35.33203125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.44140625" collapsed="false"/>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
+    <col customWidth="1" min="4" max="4" width="35.38"/>
+    <col customWidth="1" min="6" max="6" width="20.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1">
       <c r="A1" s="42" t="s">
         <v>166</v>
       </c>
@@ -7445,7 +7554,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7467,7 +7576,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7487,7 +7596,7 @@
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>299</v>
       </c>
@@ -7507,18 +7616,15 @@
       <c r="M4" s="97"/>
       <c r="N4" s="97"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>202</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
       <c r="H5" s="57" t="s">
         <v>302</v>
       </c>
@@ -7533,7 +7639,7 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6">
       <c r="A6" s="60" t="s">
         <v>207</v>
       </c>
@@ -7551,7 +7657,7 @@
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>305</v>
       </c>
@@ -7559,7 +7665,7 @@
         <v>306</v>
       </c>
       <c r="C7" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>307</v>
@@ -7595,7 +7701,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8">
       <c r="A8" s="62" t="s">
         <v>305</v>
       </c>
@@ -7603,7 +7709,7 @@
         <v>306</v>
       </c>
       <c r="C8" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>309</v>
@@ -7639,15 +7745,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9">
       <c r="A9" s="75" t="s">
         <v>310</v>
       </c>
       <c r="B9" s="98">
-        <v>1001</v>
+        <v>1001.0</v>
       </c>
       <c r="C9" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>311</v>
@@ -7662,10 +7768,10 @@
         <v>222</v>
       </c>
       <c r="H9" s="99">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="I9" s="99">
-        <v>45659</v>
+        <v>45659.0</v>
       </c>
       <c r="J9" s="100" t="s">
         <v>221</v>
@@ -7683,15 +7789,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10">
       <c r="A10" s="75" t="s">
         <v>310</v>
       </c>
       <c r="B10" s="98">
-        <v>1002</v>
+        <v>1002.0</v>
       </c>
       <c r="C10" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>312</v>
@@ -7706,10 +7812,10 @@
         <v>222</v>
       </c>
       <c r="H10" s="99">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="I10" s="99">
-        <v>46025</v>
+        <v>46025.0</v>
       </c>
       <c r="J10" s="100" t="s">
         <v>220</v>
@@ -7727,12 +7833,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11">
       <c r="A11" s="62" t="s">
         <v>313</v>
       </c>
       <c r="B11" s="98">
-        <v>1003</v>
+        <v>1003.0</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>228</v>
@@ -7755,12 +7861,12 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12">
       <c r="A12" s="62" t="s">
         <v>313</v>
       </c>
       <c r="B12" s="98">
-        <v>1004</v>
+        <v>1004.0</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>228</v>
@@ -7783,15 +7889,15 @@
       <c r="M12" s="72"/>
       <c r="N12" s="72"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13">
       <c r="A13" s="62" t="s">
         <v>316</v>
       </c>
       <c r="B13" s="98">
-        <v>1005</v>
+        <v>1005.0</v>
       </c>
       <c r="C13" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>317</v>
@@ -7806,10 +7912,10 @@
         <v>222</v>
       </c>
       <c r="H13" s="94">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="I13" s="94">
-        <v>46390</v>
+        <v>46390.0</v>
       </c>
       <c r="J13" s="63" t="s">
         <v>220</v>
@@ -7827,7 +7933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
@@ -7843,7 +7949,7 @@
       <c r="M14" s="82"/>
       <c r="N14" s="82"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
@@ -7859,7 +7965,7 @@
       <c r="M15" s="82"/>
       <c r="N15" s="82"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16">
       <c r="D16" s="102" t="str">
         <f>LEFT(D15,30)</f>
         <v/>
@@ -7869,72 +7975,71 @@
   <mergeCells count="1">
     <mergeCell ref="D5:G5"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="48.21875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="30.88671875" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="26.109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="28.21875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="6.88671875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="9.33203125" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="7.44140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="9.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="7.44140625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="34.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="10.44140625" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="10.109375" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="16" max="16" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="17" max="17" customWidth="true" width="7.77734375" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="19" max="20" customWidth="true" width="7.6640625" collapsed="false"/>
-    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="false"/>
-    <col min="22" max="22" customWidth="true" width="11.77734375" collapsed="false"/>
-    <col min="23" max="23" customWidth="true" width="10.109375" collapsed="false"/>
-    <col min="24" max="24" customWidth="true" width="10.0" collapsed="false"/>
-    <col min="25" max="25" customWidth="true" width="6.21875" collapsed="false"/>
-    <col min="26" max="26" customWidth="true" width="21.88671875" collapsed="false"/>
-    <col min="27" max="27" customWidth="true" width="9.88671875" collapsed="false"/>
-    <col min="28" max="28" customWidth="true" width="6.88671875" collapsed="false"/>
-    <col min="29" max="30" customWidth="true" width="7.6640625" collapsed="false"/>
-    <col min="31" max="31" customWidth="true" width="7.33203125" collapsed="false"/>
-    <col min="32" max="32" customWidth="true" width="7.6640625" collapsed="false"/>
-    <col min="33" max="33" customWidth="true" width="7.109375" collapsed="false"/>
-    <col min="34" max="36" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="37" max="37" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="38" max="38" customWidth="true" width="11.109375" collapsed="false"/>
-    <col min="39" max="39" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="40" max="40" customWidth="true" width="7.6640625" collapsed="false"/>
-    <col min="41" max="41" customWidth="true" width="10.109375" collapsed="false"/>
-    <col min="42" max="42" customWidth="true" width="6.88671875" collapsed="false"/>
-    <col min="43" max="43" customWidth="true" width="9.0" collapsed="false"/>
-    <col min="44" max="44" customWidth="true" width="10.21875" collapsed="false"/>
-    <col min="45" max="45" customWidth="true" width="9.21875" collapsed="false"/>
-    <col min="46" max="46" customWidth="true" width="25.44140625" collapsed="false"/>
-    <col min="47" max="47" customWidth="true" width="10.6640625" collapsed="false"/>
-    <col min="48" max="48" customWidth="true" width="10.88671875" collapsed="false"/>
-    <col min="49" max="49" customWidth="true" width="7.6640625" collapsed="false"/>
-    <col min="50" max="51" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="52" max="53" customWidth="true" width="13.44140625" collapsed="false"/>
-    <col min="54" max="55" customWidth="true" width="25.21875" collapsed="false"/>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="23.5"/>
+    <col customWidth="1" min="3" max="3" width="48.25"/>
+    <col customWidth="1" min="4" max="4" width="30.88"/>
+    <col customWidth="1" min="5" max="5" width="26.13"/>
+    <col customWidth="1" min="6" max="6" width="28.25"/>
+    <col customWidth="1" min="7" max="7" width="6.88"/>
+    <col customWidth="1" min="8" max="8" width="9.38"/>
+    <col customWidth="1" min="9" max="9" width="7.5"/>
+    <col customWidth="1" min="10" max="10" width="9.0"/>
+    <col customWidth="1" min="11" max="11" width="7.5"/>
+    <col customWidth="1" min="12" max="12" width="34.0"/>
+    <col customWidth="1" min="13" max="13" width="10.5"/>
+    <col customWidth="1" min="14" max="14" width="10.13"/>
+    <col customWidth="1" min="15" max="15" width="10.25"/>
+    <col customWidth="1" min="16" max="16" width="11.0"/>
+    <col customWidth="1" min="17" max="17" width="7.75"/>
+    <col customWidth="1" min="18" max="18" width="6.75"/>
+    <col customWidth="1" min="19" max="20" width="7.63"/>
+    <col customWidth="1" min="21" max="21" width="6.75"/>
+    <col customWidth="1" min="22" max="22" width="11.75"/>
+    <col customWidth="1" min="23" max="23" width="10.13"/>
+    <col customWidth="1" min="24" max="24" width="10.0"/>
+    <col customWidth="1" min="25" max="25" width="6.25"/>
+    <col customWidth="1" min="26" max="26" width="21.88"/>
+    <col customWidth="1" min="27" max="27" width="9.88"/>
+    <col customWidth="1" min="28" max="28" width="6.88"/>
+    <col customWidth="1" min="29" max="30" width="7.63"/>
+    <col customWidth="1" min="31" max="31" width="7.38"/>
+    <col customWidth="1" min="32" max="32" width="7.63"/>
+    <col customWidth="1" min="33" max="33" width="7.13"/>
+    <col customWidth="1" min="34" max="36" width="13.5"/>
+    <col customWidth="1" min="37" max="37" width="10.88"/>
+    <col customWidth="1" min="38" max="38" width="11.13"/>
+    <col customWidth="1" min="39" max="39" width="10.88"/>
+    <col customWidth="1" min="40" max="40" width="7.63"/>
+    <col customWidth="1" min="41" max="41" width="10.13"/>
+    <col customWidth="1" min="42" max="42" width="6.88"/>
+    <col customWidth="1" min="43" max="43" width="9.0"/>
+    <col customWidth="1" min="44" max="44" width="10.25"/>
+    <col customWidth="1" min="45" max="45" width="9.25"/>
+    <col customWidth="1" min="46" max="46" width="25.5"/>
+    <col customWidth="1" min="47" max="47" width="10.63"/>
+    <col customWidth="1" min="48" max="48" width="10.88"/>
+    <col customWidth="1" min="49" max="49" width="7.63"/>
+    <col customWidth="1" min="50" max="51" width="13.63"/>
+    <col customWidth="1" min="52" max="53" width="13.5"/>
+    <col customWidth="1" min="54" max="55" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1">
       <c r="A1" s="103" t="s">
         <v>26</v>
       </c>
@@ -8101,7 +8206,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
@@ -8178,7 +8283,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
@@ -8230,10 +8335,9 @@
       <c r="AS3" s="54"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
-      <c r="AV3" s="127" t="s">
+      <c r="AV3" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="AW3" s="128"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
       <c r="AZ3" s="54"/>
@@ -8241,7 +8345,7 @@
       <c r="BB3" s="110"/>
       <c r="BC3" s="110"/>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4">
       <c r="A4" s="108" t="s">
         <v>202</v>
       </c>
@@ -8324,10 +8428,9 @@
       <c r="AF4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AG4" s="127" t="s">
+      <c r="AG4" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="AH4" s="128"/>
       <c r="AI4" s="58"/>
       <c r="AJ4" s="58"/>
       <c r="AK4" s="57" t="s">
@@ -8372,7 +8475,7 @@
       <c r="BB4" s="110"/>
       <c r="BC4" s="110"/>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5">
       <c r="A5" s="111" t="s">
         <v>207</v>
       </c>
@@ -8431,7 +8534,7 @@
       <c r="BB5" s="112"/>
       <c r="BC5" s="112"/>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6">
       <c r="A6" s="62" t="s">
         <v>320</v>
       </c>
@@ -8478,7 +8581,7 @@
         <v>221</v>
       </c>
       <c r="P6" s="66">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q6" s="36" t="s">
         <v>221</v>
@@ -8496,7 +8599,7 @@
         <v>221</v>
       </c>
       <c r="V6" s="66">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="W6" s="116" t="s">
         <v>213</v>
@@ -8603,26 +8706,25 @@
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AG4:AH4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="27.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="77.33203125" collapsed="false"/>
+    <col customWidth="1" min="2" max="2" width="27.88"/>
+    <col customWidth="1" min="3" max="3" width="77.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="44" t="s">
         <v>336</v>
       </c>
@@ -8633,7 +8735,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="36" t="s">
         <v>339</v>
       </c>
@@ -8644,7 +8746,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" s="36" t="s">
         <v>339</v>
       </c>
@@ -8655,7 +8757,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" s="70" t="s">
         <v>25</v>
       </c>
@@ -8666,7 +8768,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" s="70" t="s">
         <v>25</v>
       </c>
@@ -8677,7 +8779,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" s="119" t="s">
         <v>348</v>
       </c>
@@ -8688,7 +8790,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" s="119" t="s">
         <v>348</v>
       </c>
@@ -8699,7 +8801,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" s="119" t="s">
         <v>348</v>
       </c>
@@ -8710,7 +8812,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" s="119" t="s">
         <v>348</v>
       </c>
@@ -8721,7 +8823,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" s="119" t="s">
         <v>348</v>
       </c>
@@ -8732,7 +8834,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11">
       <c r="A11" s="119" t="s">
         <v>348</v>
       </c>
@@ -8743,7 +8845,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12">
       <c r="A12" s="119" t="s">
         <v>348</v>
       </c>
@@ -8754,7 +8856,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" s="121" t="s">
         <v>363</v>
       </c>
@@ -8765,7 +8867,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" s="121" t="s">
         <v>363</v>
       </c>
@@ -8776,7 +8878,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" s="121" t="s">
         <v>363</v>
       </c>
@@ -8787,7 +8889,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" s="121" t="s">
         <v>363</v>
       </c>
@@ -8798,7 +8900,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17" s="121" t="s">
         <v>363</v>
       </c>
@@ -8809,7 +8911,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18" s="121" t="s">
         <v>363</v>
       </c>
@@ -8820,7 +8922,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19" s="121" t="s">
         <v>363</v>
       </c>
@@ -8831,7 +8933,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20" s="121" t="s">
         <v>363</v>
       </c>
@@ -8842,7 +8944,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21" s="122" t="s">
         <v>377</v>
       </c>
@@ -8853,7 +8955,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22">
       <c r="A22" s="122" t="s">
         <v>377</v>
       </c>
@@ -8864,7 +8966,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23">
       <c r="A23" s="122" t="s">
         <v>377</v>
       </c>
@@ -8875,7 +8977,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24">
       <c r="A24" s="122" t="s">
         <v>377</v>
       </c>
@@ -8886,7 +8988,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25">
       <c r="A25" s="122" t="s">
         <v>377</v>
       </c>
@@ -8897,7 +8999,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26">
       <c r="A26" s="122" t="s">
         <v>377</v>
       </c>
@@ -8908,7 +9010,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27">
       <c r="A27" s="122" t="s">
         <v>377</v>
       </c>
@@ -8919,7 +9021,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28">
       <c r="A28" s="122" t="s">
         <v>377</v>
       </c>
@@ -8930,7 +9032,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29">
       <c r="A29" s="122" t="s">
         <v>377</v>
       </c>
@@ -8941,7 +9043,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30">
       <c r="A30" s="123" t="s">
         <v>394</v>
       </c>
@@ -8952,7 +9054,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31">
       <c r="A31" s="123" t="s">
         <v>394</v>
       </c>
@@ -8963,7 +9065,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32">
       <c r="A32" s="123" t="s">
         <v>394</v>
       </c>
@@ -8974,7 +9076,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33">
       <c r="A33" s="123" t="s">
         <v>394</v>
       </c>
@@ -8985,7 +9087,7 @@
         <v>402</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="34" spans="1:3">
+    <row r="34">
       <c r="A34" s="36" t="s">
         <v>339</v>
       </c>
@@ -8996,7 +9098,7 @@
         <v>404</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="35" spans="1:3">
+    <row r="35">
       <c r="A35" s="36" t="s">
         <v>339</v>
       </c>
@@ -9007,7 +9109,7 @@
         <v>406</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="36" spans="1:3">
+    <row r="36">
       <c r="A36" s="36" t="s">
         <v>339</v>
       </c>
@@ -9018,7 +9120,7 @@
         <v>408</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="37" spans="1:3">
+    <row r="37">
       <c r="A37" s="36" t="s">
         <v>339</v>
       </c>
@@ -9029,7 +9131,7 @@
         <v>410</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="38" spans="1:3">
+    <row r="38">
       <c r="A38" s="36" t="s">
         <v>339</v>
       </c>
@@ -9040,7 +9142,7 @@
         <v>412</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="39" spans="1:3">
+    <row r="39">
       <c r="A39" s="36" t="s">
         <v>339</v>
       </c>
@@ -9051,7 +9153,7 @@
         <v>414</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="40" spans="1:3">
+    <row r="40">
       <c r="A40" s="36" t="s">
         <v>339</v>
       </c>
@@ -9062,7 +9164,7 @@
         <v>416</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="41" spans="1:3">
+    <row r="41">
       <c r="A41" s="36" t="s">
         <v>339</v>
       </c>
@@ -9073,7 +9175,7 @@
         <v>418</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="42" spans="1:3">
+    <row r="42">
       <c r="A42" s="36" t="s">
         <v>339</v>
       </c>
@@ -9084,7 +9186,7 @@
         <v>420</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="43" spans="1:3">
+    <row r="43">
       <c r="A43" s="36" t="s">
         <v>339</v>
       </c>
@@ -9095,7 +9197,7 @@
         <v>422</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="44" spans="1:3">
+    <row r="44">
       <c r="A44" s="36" t="s">
         <v>339</v>
       </c>
@@ -9106,7 +9208,7 @@
         <v>424</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="45" spans="1:3">
+    <row r="45">
       <c r="A45" s="36" t="s">
         <v>339</v>
       </c>
@@ -9117,7 +9219,7 @@
         <v>426</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="46" spans="1:3">
+    <row r="46">
       <c r="A46" s="36" t="s">
         <v>339</v>
       </c>
@@ -9128,7 +9230,7 @@
         <v>428</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="47" spans="1:3">
+    <row r="47">
       <c r="A47" s="36" t="s">
         <v>339</v>
       </c>
@@ -9140,166 +9242,165 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="125"/>
       <c r="B1" s="49" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="126"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="126"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" s="108" t="s">
         <v>299</v>
       </c>
       <c r="B4" s="126"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" s="108" t="s">
         <v>202</v>
       </c>
       <c r="B5" s="126"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" s="111" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="112"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" s="81"/>
       <c r="B7" s="82"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" s="81"/>
       <c r="B17" s="82"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" s="81"/>
       <c r="B18" s="82"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" s="81"/>
       <c r="B19" s="82"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" s="81"/>
       <c r="B20" s="82"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" s="81"/>
       <c r="B21" s="82"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" s="81"/>
       <c r="B22" s="82"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" s="81"/>
       <c r="B23" s="82"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" s="81"/>
       <c r="B25" s="82"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" s="81"/>
       <c r="B26" s="82"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" s="81"/>
       <c r="B27" s="82"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" s="81"/>
       <c r="B28" s="82"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" s="81"/>
       <c r="B31" s="82"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" s="81"/>
       <c r="B32" s="82"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" s="81"/>
       <c r="B33" s="82"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -11,20 +11,21 @@
     <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="MODELE" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="MODELE" sheetId="10" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="n2oVke5TL0ndSNnraF4aR8XMXOrt2xnFeYPax/ixAak="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="/kAd6I4sL5yXiAfjing13yENTHSnvHPipfOA9z4h1zw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="439">
   <si>
     <t>Date</t>
   </si>
@@ -647,6 +648,12 @@
     <t>ST_DES*ZON*ID_NUMZON</t>
   </si>
   <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>INTER.ST_ETA</t>
+  </si>
+  <si>
     <t>LOCATOR</t>
   </si>
   <si>
@@ -1332,6 +1339,34 @@
   </si>
   <si>
     <t>$TABSELECTED$ID_CODMET</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>VALEUR INTERNE</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>INTER.ST</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>_ETA</t>
+    </r>
+  </si>
+  <si>
+    <t>Defaut</t>
   </si>
   <si>
     <t>Champ</t>
@@ -1630,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2003,6 +2038,19 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2019,6 +2067,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3421,6 +3473,165 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="130"/>
+      <c r="B1" s="49" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="131"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="131"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="108" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="131"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="131"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="112"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="81"/>
+      <c r="B21" s="82"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="81"/>
+      <c r="B29" s="82"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="81"/>
+      <c r="B30" s="82"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="81"/>
+      <c r="B31" s="82"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="81"/>
+      <c r="B33" s="82"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -5678,6 +5889,7 @@
     <col customWidth="1" min="12" max="12" width="28.63"/>
     <col customWidth="1" min="46" max="46" width="25.25"/>
     <col customWidth="1" min="48" max="48" width="26.0"/>
+    <col customWidth="1" min="49" max="49" width="15.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -6021,771 +6233,771 @@
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="58"/>
-      <c r="D4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="58"/>
-      <c r="M4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
       <c r="W4" s="59"/>
       <c r="X4" s="58"/>
       <c r="Y4" s="58"/>
-      <c r="Z4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="Z4" s="57"/>
       <c r="AA4" s="58"/>
-      <c r="AB4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG4" s="57" t="s">
-        <v>204</v>
-      </c>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
       <c r="AI4" s="58"/>
       <c r="AJ4" s="58"/>
-      <c r="AK4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
       <c r="AN4" s="58"/>
       <c r="AO4" s="59"/>
-      <c r="AP4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT4" s="57" t="s">
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="58" t="s">
         <v>203</v>
-      </c>
-      <c r="AU4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV4" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW4" s="57" t="s">
-        <v>206</v>
       </c>
       <c r="AX4" s="58"/>
       <c r="AY4" s="58"/>
       <c r="AZ4" s="58"/>
       <c r="BA4" s="58"/>
       <c r="BB4" s="53"/>
-      <c r="BC4" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="BD4" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="BE4" s="53" t="s">
-        <v>203</v>
-      </c>
-      <c r="BF4" s="53" t="s">
-        <v>203</v>
-      </c>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
       <c r="BG4" s="53"/>
     </row>
     <row r="5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="U5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="V5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="W5" s="59"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV5" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="61"/>
-      <c r="AK5" s="61"/>
-      <c r="AL5" s="61"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="61"/>
-      <c r="AO5" s="61"/>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="61"/>
-      <c r="AV5" s="61"/>
-      <c r="AW5" s="61"/>
-      <c r="AX5" s="61"/>
-      <c r="AY5" s="61"/>
-      <c r="AZ5" s="61"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="61"/>
-      <c r="BC5" s="61"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="61"/>
-      <c r="BG5" s="61"/>
+      <c r="AW5" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF5" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG5" s="53"/>
     </row>
     <row r="6">
-      <c r="A6" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="K6" s="66">
-        <v>10.0</v>
-      </c>
-      <c r="L6" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="P6" s="66">
-        <v>10.0</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="V6" s="66">
-        <v>80.0</v>
-      </c>
-      <c r="W6" s="68"/>
-      <c r="X6" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y6" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA6" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH6" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI6" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL6" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM6" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="AN6" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO6" s="68"/>
-      <c r="AP6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AS6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT6" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="AU6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV6" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW6" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX6" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ6" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="BB6" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC6" s="72"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="72"/>
-      <c r="BF6" s="72"/>
-      <c r="BG6" s="72"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="61"/>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="K7" s="66">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P7" s="66">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="T7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="U7" s="36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="V7" s="66">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
       <c r="W7" s="68"/>
       <c r="X7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y7" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA7" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC7" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="Y7" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z7" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA7" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB7" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC7" s="36" t="s">
-        <v>220</v>
-      </c>
       <c r="AD7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AE7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG7" s="36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AH7" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AI7" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AJ7" s="63" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AK7" s="70" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="AL7" s="70" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="AM7" s="70" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="AN7" s="69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AO7" s="68"/>
       <c r="AP7" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AQ7" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AR7" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AS7" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT7" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT7" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV7" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW7" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY7" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ7" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA7" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB7" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="I8" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="AU7" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV7" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW7" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX7" s="63" t="s">
+      <c r="J8" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="66">
+        <v>13.0</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="O8" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AY7" s="63" t="s">
+      <c r="P8" s="66">
+        <v>20.0</v>
+      </c>
+      <c r="Q8" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AZ7" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA7" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB7" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC7" s="73" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD7" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="BE7" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="BF7" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="BG7" s="74" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>250</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="K8" s="77">
-        <v>12.0</v>
-      </c>
-      <c r="L8" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="M8" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="N8" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="O8" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="P8" s="77">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="R8" s="75" t="s">
-        <v>220</v>
+      <c r="R8" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="T8" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="U8" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="V8" s="77">
-        <v>0.0</v>
+        <v>223</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="V8" s="66">
+        <v>90.0</v>
       </c>
       <c r="W8" s="68"/>
       <c r="X8" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y8" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA8" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB8" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC8" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="Y8" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z8" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA8" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB8" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC8" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD8" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE8" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF8" s="75" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG8" s="75" t="s">
-        <v>221</v>
+      <c r="AD8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF8" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG8" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="AH8" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AI8" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AJ8" s="63" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK8" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL8" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="AM8" s="78" t="s">
-        <v>258</v>
+        <v>226</v>
+      </c>
+      <c r="AK8" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL8" s="70" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM8" s="70" t="s">
+        <v>246</v>
       </c>
       <c r="AN8" s="69" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AO8" s="68"/>
       <c r="AP8" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AQ8" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AR8" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AS8" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT8" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT8" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU8" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV8" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW8" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX8" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY8" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ8" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA8" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB8" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC8" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD8" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE8" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="BF8" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG8" s="74" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="AU8" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV8" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW8" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX8" s="63" t="s">
+      <c r="J9" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="77">
+        <v>12.0</v>
+      </c>
+      <c r="L9" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="M9" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="AY8" s="63" t="s">
+      <c r="P9" s="77">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="AZ8" s="63" t="s">
+      <c r="R9" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="T9" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="U9" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="V9" s="77">
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="68"/>
+      <c r="X9" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="BA8" s="63" t="s">
+      <c r="Y9" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z9" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA9" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB9" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC9" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD9" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE9" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF9" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG9" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH9" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="BB8" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC8" s="79"/>
-      <c r="BD8" s="79"/>
-      <c r="BE8" s="79"/>
-      <c r="BF8" s="79"/>
-      <c r="BG8" s="79"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="79"/>
-      <c r="AF9" s="79"/>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="79"/>
-      <c r="AI9" s="79"/>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
-      <c r="AL9" s="79"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="79"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="79"/>
-      <c r="AQ9" s="79"/>
-      <c r="AR9" s="79"/>
-      <c r="AS9" s="79"/>
-      <c r="AT9" s="79"/>
-      <c r="AU9" s="79"/>
-      <c r="AV9" s="79"/>
-      <c r="AW9" s="79"/>
-      <c r="AX9" s="79"/>
-      <c r="AY9" s="79"/>
-      <c r="AZ9" s="79"/>
-      <c r="BA9" s="79"/>
-      <c r="BB9" s="79"/>
+      <c r="AI9" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ9" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK9" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="AL9" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM9" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN9" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO9" s="68"/>
+      <c r="AP9" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ9" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR9" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS9" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT9" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU9" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV9" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW9" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX9" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY9" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ9" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA9" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB9" s="69" t="s">
+        <v>215</v>
+      </c>
       <c r="BC9" s="79"/>
       <c r="BD9" s="79"/>
       <c r="BE9" s="79"/>
@@ -6794,10 +7006,10 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="79"/>
@@ -6858,65 +7070,69 @@
       <c r="BG10" s="79"/>
     </row>
     <row r="11">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="83"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="82"/>
-      <c r="AC11" s="82"/>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="82"/>
-      <c r="AF11" s="82"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="83"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="82"/>
-      <c r="AN11" s="82"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="83"/>
-      <c r="AT11" s="82"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="82"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="83"/>
-      <c r="AZ11" s="83"/>
-      <c r="BA11" s="83"/>
-      <c r="BB11" s="82"/>
-      <c r="BC11" s="85"/>
-      <c r="BD11" s="85"/>
-      <c r="BE11" s="85"/>
-      <c r="BF11" s="85"/>
-      <c r="BG11" s="85"/>
+      <c r="A11" s="62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="79"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="79"/>
+      <c r="AH11" s="79"/>
+      <c r="AI11" s="79"/>
+      <c r="AJ11" s="79"/>
+      <c r="AK11" s="79"/>
+      <c r="AL11" s="79"/>
+      <c r="AM11" s="79"/>
+      <c r="AN11" s="79"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
+      <c r="AR11" s="79"/>
+      <c r="AS11" s="79"/>
+      <c r="AT11" s="79"/>
+      <c r="AU11" s="79"/>
+      <c r="AV11" s="79"/>
+      <c r="AW11" s="79"/>
+      <c r="AX11" s="79"/>
+      <c r="AY11" s="79"/>
+      <c r="AZ11" s="79"/>
+      <c r="BA11" s="79"/>
+      <c r="BB11" s="79"/>
+      <c r="BC11" s="79"/>
+      <c r="BD11" s="79"/>
+      <c r="BE11" s="79"/>
+      <c r="BF11" s="79"/>
+      <c r="BG11" s="79"/>
     </row>
     <row r="12">
       <c r="A12" s="81"/>
@@ -7027,7 +7243,7 @@
       <c r="AS13" s="83"/>
       <c r="AT13" s="82"/>
       <c r="AU13" s="82"/>
-      <c r="AV13" s="82"/>
+      <c r="AV13" s="62"/>
       <c r="AW13" s="82"/>
       <c r="AX13" s="83"/>
       <c r="AY13" s="83"/>
@@ -7040,9 +7256,70 @@
       <c r="BF13" s="85"/>
       <c r="BG13" s="85"/>
     </row>
+    <row r="14">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="82"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="83"/>
+      <c r="AZ14" s="83"/>
+      <c r="BA14" s="83"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="85"/>
+      <c r="BD14" s="85"/>
+      <c r="BE14" s="85"/>
+      <c r="BF14" s="85"/>
+      <c r="BG14" s="85"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7090,7 +7367,7 @@
         <v>189</v>
       </c>
       <c r="C2" s="88" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
@@ -7106,22 +7383,22 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" s="89"/>
       <c r="C4" s="91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" s="92"/>
       <c r="C5" s="92"/>
@@ -7130,47 +7407,47 @@
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D8" s="93">
         <v>44562.0</v>
@@ -7181,13 +7458,13 @@
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D9" s="93">
         <v>44562.0</v>
@@ -7198,39 +7475,39 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D12" s="94">
         <v>44927.0</v>
@@ -7317,7 +7594,7 @@
         <v>189</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D2" s="95"/>
       <c r="E2" s="95"/>
@@ -7335,25 +7612,25 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" s="54"/>
       <c r="C4" s="91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E4" s="91" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F4" s="91" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
@@ -7363,56 +7640,56 @@
     </row>
     <row r="6">
       <c r="A6" s="62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="75" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E8" s="93">
         <v>44562.0</v>
@@ -7423,16 +7700,16 @@
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E9" s="93">
         <v>44562.0</v>
@@ -7443,13 +7720,13 @@
     </row>
     <row r="10">
       <c r="A10" s="62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -7457,13 +7734,13 @@
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
@@ -7471,16 +7748,16 @@
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E12" s="94">
         <v>44927.0</v>
@@ -7561,7 +7838,7 @@
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="D2" s="53" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E2" s="54"/>
       <c r="F2" s="53" t="s">
@@ -7583,7 +7860,7 @@
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="53" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
@@ -7598,10 +7875,10 @@
     </row>
     <row r="4">
       <c r="A4" s="52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B4" s="88" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
@@ -7618,21 +7895,21 @@
     </row>
     <row r="5">
       <c r="A5" s="52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
       <c r="D5" s="53" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
@@ -7641,7 +7918,7 @@
     </row>
     <row r="6">
       <c r="A6" s="60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -7659,95 +7936,95 @@
     </row>
     <row r="7">
       <c r="A7" s="62" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C7" s="98">
         <v>0.0</v>
       </c>
       <c r="D7" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>305</v>
-      </c>
       <c r="G7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J7" s="63" t="s">
-        <v>220</v>
-      </c>
       <c r="K7" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M7" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="62" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C8" s="98">
         <v>0.0</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E8" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M8" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N8" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B9" s="98">
         <v>1001.0</v>
@@ -7756,16 +8033,16 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H9" s="99">
         <v>44562.0</v>
@@ -7774,24 +8051,24 @@
         <v>45659.0</v>
       </c>
       <c r="J9" s="100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M9" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="75" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B10" s="98">
         <v>1002.0</v>
@@ -7800,16 +8077,16 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="E10" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>310</v>
-      </c>
       <c r="G10" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H10" s="99">
         <v>44562.0</v>
@@ -7818,43 +8095,43 @@
         <v>46025.0</v>
       </c>
       <c r="J10" s="100" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K10" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L10" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M10" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N10" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="62" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B11" s="98">
         <v>1003.0</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="36" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G11" s="79"/>
       <c r="H11" s="101"/>
       <c r="I11" s="101"/>
       <c r="J11" s="63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K11" s="79"/>
       <c r="L11" s="79"/>
@@ -7863,26 +8140,26 @@
     </row>
     <row r="12">
       <c r="A12" s="62" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B12" s="98">
         <v>1004.0</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E12" s="72"/>
       <c r="F12" s="36" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
       <c r="J12" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K12" s="72"/>
       <c r="L12" s="72"/>
@@ -7891,7 +8168,7 @@
     </row>
     <row r="13">
       <c r="A13" s="62" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B13" s="98">
         <v>1005.0</v>
@@ -7900,16 +8177,16 @@
         <v>0.0</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H13" s="94">
         <v>44927.0</v>
@@ -7918,19 +8195,19 @@
         <v>46390.0</v>
       </c>
       <c r="J13" s="63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L13" s="63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N13" s="63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
@@ -8033,7 +8310,7 @@
     <col customWidth="1" min="46" max="46" width="25.5"/>
     <col customWidth="1" min="47" max="47" width="10.63"/>
     <col customWidth="1" min="48" max="48" width="10.88"/>
-    <col customWidth="1" min="49" max="49" width="7.63"/>
+    <col customWidth="1" min="49" max="49" width="10.5"/>
     <col customWidth="1" min="50" max="51" width="13.63"/>
     <col customWidth="1" min="52" max="53" width="13.5"/>
     <col customWidth="1" min="54" max="55" width="25.25"/>
@@ -8203,7 +8480,7 @@
         <v>145</v>
       </c>
       <c r="BC1" s="107" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
@@ -8280,7 +8557,7 @@
       <c r="BA2" s="54"/>
       <c r="BB2" s="109"/>
       <c r="BC2" s="109" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
@@ -8349,124 +8626,55 @@
       <c r="A4" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="58"/>
-      <c r="D4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="58"/>
-      <c r="H4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="58"/>
-      <c r="M4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="R4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="S4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="U4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="V4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
       <c r="W4" s="59"/>
       <c r="X4" s="58"/>
       <c r="Y4" s="58"/>
-      <c r="Z4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="Z4" s="57"/>
       <c r="AA4" s="58"/>
-      <c r="AB4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG4" s="57" t="s">
-        <v>204</v>
-      </c>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
       <c r="AI4" s="58"/>
       <c r="AJ4" s="58"/>
-      <c r="AK4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL4" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM4" s="57" t="s">
-        <v>203</v>
-      </c>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
       <c r="AN4" s="58"/>
       <c r="AO4" s="59"/>
-      <c r="AP4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AQ4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AT4" s="57" t="s">
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="58" t="s">
         <v>203</v>
-      </c>
-      <c r="AU4" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV4" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW4" s="57" t="s">
-        <v>206</v>
       </c>
       <c r="AX4" s="58"/>
       <c r="AY4" s="58"/>
@@ -8476,235 +8684,365 @@
       <c r="BC4" s="110"/>
     </row>
     <row r="5">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" s="58"/>
+      <c r="M5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="U5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="V5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="W5" s="59"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT5" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU5" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV5" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="112"/>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="112"/>
-      <c r="AL5" s="112"/>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="112"/>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="112"/>
-      <c r="AX5" s="112"/>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="112"/>
+      <c r="AW5" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58"/>
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="58"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="110"/>
     </row>
     <row r="6">
-      <c r="A6" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="D6" s="64" t="s">
+      <c r="A6" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="112"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="112"/>
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="112"/>
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="112"/>
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="112"/>
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="112"/>
+      <c r="AT6" s="112"/>
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="112"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="112"/>
+      <c r="BB6" s="112"/>
+      <c r="BC6" s="112"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="B7" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="D7" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="114" t="s">
+      <c r="E7" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="F7" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="G7" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="114" t="s">
         <v>327</v>
       </c>
-      <c r="K6" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="L6" s="115" t="s">
+      <c r="I7" s="114" t="s">
         <v>328</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="J7" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="K7" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="L7" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="O6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="P6" s="66">
+      <c r="M7" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="P7" s="66">
         <v>0.0</v>
       </c>
-      <c r="Q6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="S6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="V6" s="66">
+      <c r="Q7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="V7" s="66">
         <v>100.0</v>
       </c>
-      <c r="W6" s="116" t="s">
-        <v>213</v>
-      </c>
-      <c r="X6" s="63" t="s">
+      <c r="W7" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="X7" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y7" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC7" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="Y6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA6" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG6" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH6" s="63" t="s">
+      <c r="AD7" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AI6" s="63" t="s">
+      <c r="AE7" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF7" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG7" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH7" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="AJ6" s="63" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" s="117" t="s">
-        <v>332</v>
-      </c>
-      <c r="AL6" s="117" t="s">
-        <v>333</v>
-      </c>
-      <c r="AM6" s="117" t="s">
+      <c r="AI7" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="AJ7" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK7" s="117" t="s">
         <v>334</v>
       </c>
-      <c r="AN6" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="AO6" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AQ6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AS6" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT6" s="64" t="s">
-        <v>328</v>
-      </c>
-      <c r="AU6" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV6" s="69" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW6" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX6" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="AY6" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ6" s="63" t="s">
+      <c r="AL7" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="AM7" s="117" t="s">
+        <v>336</v>
+      </c>
+      <c r="AN7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO7" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP7" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ7" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR7" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS7" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT7" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="AU7" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV7" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW7" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="AX7" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="BA6" s="63" t="s">
+      <c r="AY7" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="BB6" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC6" s="114" t="s">
-        <v>335</v>
+      <c r="AZ7" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA7" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB7" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC7" s="114" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8726,35 +9064,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="44" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C1" s="118" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
@@ -8762,10 +9100,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -8773,472 +9111,472 @@
         <v>25</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C19" s="120" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="121" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B20" s="120" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C20" s="120" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C26" s="120" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C27" s="120" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C28" s="120" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="123" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="123" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B31" s="69" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="123" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B32" s="69" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="123" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C34" s="124" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C35" s="124" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C36" s="124" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C37" s="124" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C38" s="124" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C39" s="124" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C40" s="124" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C41" s="124" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C42" s="124" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C43" s="124" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C44" s="124" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C45" s="124" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C46" s="124" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -9255,150 +9593,32 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="23.63"/>
+    <col customWidth="1" min="3" max="3" width="20.0"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="125"/>
-      <c r="B1" s="49" t="s">
-        <v>431</v>
+      <c r="A1" s="125" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="126"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="126"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="126"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="126"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="111" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="112"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="81"/>
-      <c r="B8" s="82"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="81"/>
-      <c r="B9" s="82"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="81"/>
-      <c r="B13" s="82"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="81"/>
-      <c r="B15" s="82"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="81"/>
-      <c r="B16" s="82"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="81"/>
-      <c r="B21" s="82"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="81"/>
-      <c r="B22" s="82"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="82"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="81"/>
-      <c r="B26" s="82"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="81"/>
-      <c r="B29" s="82"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="81"/>
-      <c r="B31" s="82"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="81"/>
-      <c r="B33" s="82"/>
+      <c r="A2" s="127" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>437</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -9595,6 +9595,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.63"/>
+    <col customWidth="1" min="2" max="2" width="24.5"/>
     <col customWidth="1" min="3" max="3" width="20.0"/>
   </cols>
   <sheetData>

--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -1344,10 +1344,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <r>
@@ -9595,7 +9595,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="23.63"/>
-    <col customWidth="1" min="2" max="2" width="24.5"/>
+    <col customWidth="1" min="2" max="2" width="7.63"/>
     <col customWidth="1" min="3" max="3" width="20.0"/>
   </cols>
   <sheetData>

--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="708" yWindow="528" windowWidth="19356" windowHeight="11844" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="003HAB" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="003MET" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="INTERNALVALUE" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="MODELE" sheetId="10" r:id="rId13"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="001" sheetId="3" r:id="rId3"/>
+    <sheet name="003HAB" sheetId="4" r:id="rId4"/>
+    <sheet name="003MET" sheetId="5" r:id="rId5"/>
+    <sheet name="004EMP" sheetId="6" r:id="rId6"/>
+    <sheet name="005" sheetId="7" r:id="rId7"/>
+    <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
+    <sheet name="INTERNALVALUE" sheetId="9" r:id="rId9"/>
+    <sheet name="MODELE" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="/kAd6I4sL5yXiAfjing13yENTHSnvHPipfOA9z4h1zw="/>
@@ -98,17 +101,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial, sans-serif"/>
-        <b/>
-        <color rgb="FF000000"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial, sans-serif"/>
-        <b/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -1352,15 +1357,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
       </rPr>
       <t>INTER.ST</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>_ETA</t>
     </r>
@@ -1375,104 +1382,122 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial, sans-serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial, sans-serif"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1480,7 +1505,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1610,7 +1635,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1624,6 +1655,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1632,11 +1664,14 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1646,468 +1681,314 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="134">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="19" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="22" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2297,27 +2178,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="41.38"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2337,9 +2218,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -2350,9 +2231,9 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -2363,9 +2244,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -2376,9 +2257,9 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="4">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -2389,7 +2270,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2406,98 +2287,98 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3466,192 +3347,189 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="130"/>
       <c r="B1" s="49" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="131"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="131"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="108" t="s">
         <v>301</v>
       </c>
       <c r="B4" s="131"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="108" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="131"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="111" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="112"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="81"/>
       <c r="B7" s="82"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="81"/>
       <c r="B17" s="82"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="81"/>
       <c r="B18" s="82"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="81"/>
       <c r="B19" s="82"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="81"/>
       <c r="B20" s="82"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="81"/>
       <c r="B21" s="82"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="81"/>
       <c r="B22" s="82"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="81"/>
       <c r="B23" s="82"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="81"/>
       <c r="B25" s="82"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="81"/>
       <c r="B26" s="82"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="81"/>
       <c r="B27" s="82"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" s="81"/>
       <c r="B28" s="82"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" s="81"/>
       <c r="B31" s="82"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="81"/>
       <c r="B32" s="82"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="81"/>
       <c r="B33" s="82"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA982"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="12.75"/>
-    <col customWidth="1" min="4" max="4" width="28.0"/>
-    <col customWidth="1" min="5" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="6" width="20.5"/>
-    <col customWidth="1" min="7" max="27" width="10.63"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="27" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -3671,7 +3549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3687,7 +3565,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -3696,12 +3574,12 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="21">
-        <v>1022.0</v>
+        <v>1022</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
@@ -3718,7 +3596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
@@ -3735,7 +3613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>36</v>
       </c>
@@ -3753,7 +3631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
@@ -3771,7 +3649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -3789,7 +3667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
@@ -3806,7 +3684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>47</v>
       </c>
@@ -3821,7 +3699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
@@ -3836,7 +3714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>52</v>
       </c>
@@ -3851,7 +3729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>55</v>
       </c>
@@ -3866,7 +3744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>58</v>
       </c>
@@ -3883,7 +3761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>60</v>
       </c>
@@ -3898,7 +3776,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3913,7 +3791,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -3927,7 +3805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -3941,7 +3819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -3955,7 +3833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -3969,7 +3847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -3983,7 +3861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -3997,7 +3875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -4011,7 +3889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -4025,7 +3903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>81</v>
       </c>
@@ -4042,7 +3920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -4062,7 +3940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -4082,7 +3960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -4096,7 +3974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -4110,7 +3988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -4124,7 +4002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -4138,7 +4016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -4152,7 +4030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -4166,7 +4044,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:6" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -4180,7 +4058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
@@ -4194,7 +4072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -4214,7 +4092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
@@ -4231,7 +4109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -4248,7 +4126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -4262,7 +4140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -4276,7 +4154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -4290,7 +4168,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>118</v>
       </c>
@@ -4305,7 +4183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>120</v>
       </c>
@@ -4322,7 +4200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>121</v>
       </c>
@@ -4339,7 +4217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -4356,7 +4234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>125</v>
       </c>
@@ -4373,7 +4251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
@@ -4390,7 +4268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
@@ -4408,7 +4286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:27" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>131</v>
       </c>
@@ -4422,7 +4300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:27" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>133</v>
       </c>
@@ -4436,7 +4314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:27" ht="12.75" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>135</v>
       </c>
@@ -4475,7 +4353,7 @@
       <c r="Z51" s="38"/>
       <c r="AA51" s="38"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:27" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -4492,7 +4370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:27" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>139</v>
       </c>
@@ -4509,7 +4387,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:27" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
@@ -4526,7 +4404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:27" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -4543,7 +4421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:27" ht="12.75" customHeight="1">
       <c r="A56" s="36" t="s">
         <v>145</v>
       </c>
@@ -4560,7 +4438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:27" ht="12.75" customHeight="1">
       <c r="A57" s="21" t="s">
         <v>148</v>
       </c>
@@ -4569,11 +4447,11 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="21">
-        <v>1083.0</v>
+        <v>1083</v>
       </c>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:27" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -4590,7 +4468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:27" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>150</v>
       </c>
@@ -4607,7 +4485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:27" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>152</v>
       </c>
@@ -4621,7 +4499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:27" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -4635,7 +4513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:27" ht="12.75" customHeight="1">
       <c r="A62" s="21" t="s">
         <v>156</v>
       </c>
@@ -4644,11 +4522,11 @@
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="41">
-        <v>1086.0</v>
+        <v>1086</v>
       </c>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:27" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -4665,7 +4543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:27" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
@@ -4682,7 +4560,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>160</v>
       </c>
@@ -4696,7 +4574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
@@ -4710,7 +4588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4724,7 +4602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1">
       <c r="A68" s="41" t="s">
         <v>165</v>
       </c>
@@ -4733,11 +4611,11 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="41">
-        <v>1587.0</v>
+        <v>1587</v>
       </c>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>167</v>
       </c>
@@ -4755,7 +4633,7 @@
       </c>
       <c r="F69" s="31"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
@@ -4775,7 +4653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
@@ -4792,7 +4670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" spans="1:6" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
@@ -4809,7 +4687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -4826,7 +4704,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -4843,7 +4721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
@@ -4857,7 +4735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>154</v>
       </c>
@@ -4871,7 +4749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>177</v>
       </c>
@@ -4888,7 +4766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
@@ -4908,7 +4786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
@@ -4928,7 +4806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4945,7 +4823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:5" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>143</v>
       </c>
@@ -4962,21 +4840,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="82" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="83" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="84" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="85" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="86" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="87" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="88" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="89" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="90" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="92" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="93" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="94" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="96" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -5864,35 +5742,36 @@
     <row r="981" ht="12.75" customHeight="1"/>
     <row r="982" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="16.63"/>
-    <col customWidth="1" min="3" max="3" width="32.88"/>
-    <col customWidth="1" min="4" max="4" width="29.38"/>
-    <col customWidth="1" min="5" max="5" width="20.88"/>
-    <col customWidth="1" min="6" max="6" width="21.13"/>
-    <col customWidth="1" min="12" max="12" width="28.63"/>
-    <col customWidth="1" min="46" max="46" width="25.25"/>
-    <col customWidth="1" min="48" max="48" width="26.0"/>
-    <col customWidth="1" min="49" max="49" width="15.75"/>
+    <col min="1" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" customWidth="1"/>
+    <col min="46" max="46" width="25.21875" customWidth="1"/>
+    <col min="48" max="48" width="26" customWidth="1"/>
+    <col min="49" max="49" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:59" ht="14.25" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
@@ -6071,7 +5950,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:59" ht="13.2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -6152,7 +6031,7 @@
       <c r="BF2" s="54"/>
       <c r="BG2" s="54"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:59" ht="13.2">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -6229,7 +6108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:59" ht="13.2">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
@@ -6294,7 +6173,7 @@
       <c r="BF4" s="53"/>
       <c r="BG4" s="53"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:59" ht="13.2">
       <c r="A5" s="52" t="s">
         <v>204</v>
       </c>
@@ -6356,7 +6235,7 @@
         <v>205</v>
       </c>
       <c r="W5" s="59"/>
-      <c r="X5" s="58"/>
+      <c r="X5" s="95"/>
       <c r="Y5" s="58"/>
       <c r="Z5" s="57" t="s">
         <v>205</v>
@@ -6377,9 +6256,10 @@
       <c r="AF5" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AG5" s="57" t="s">
+      <c r="AG5" s="132" t="s">
         <v>206</v>
       </c>
+      <c r="AH5" s="133"/>
       <c r="AI5" s="58"/>
       <c r="AJ5" s="58"/>
       <c r="AK5" s="57" t="s">
@@ -6436,7 +6316,7 @@
       </c>
       <c r="BG5" s="53"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:59" ht="13.2">
       <c r="A6" s="60" t="s">
         <v>209</v>
       </c>
@@ -6499,7 +6379,7 @@
       <c r="BF6" s="61"/>
       <c r="BG6" s="61"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:59" ht="13.2">
       <c r="A7" s="62" t="s">
         <v>210</v>
       </c>
@@ -6531,7 +6411,7 @@
         <v>218</v>
       </c>
       <c r="K7" s="66">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>219</v>
@@ -6546,7 +6426,7 @@
         <v>222</v>
       </c>
       <c r="P7" s="66">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>222</v>
@@ -6564,7 +6444,7 @@
         <v>223</v>
       </c>
       <c r="V7" s="66">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="W7" s="68"/>
       <c r="X7" s="63" t="s">
@@ -6664,7 +6544,7 @@
       <c r="BF7" s="72"/>
       <c r="BG7" s="72"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:59" ht="13.2">
       <c r="A8" s="62" t="s">
         <v>232</v>
       </c>
@@ -6696,7 +6576,7 @@
         <v>239</v>
       </c>
       <c r="K8" s="66">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="L8" s="67" t="s">
         <v>240</v>
@@ -6711,7 +6591,7 @@
         <v>222</v>
       </c>
       <c r="P8" s="66">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="36" t="s">
         <v>222</v>
@@ -6729,7 +6609,7 @@
         <v>223</v>
       </c>
       <c r="V8" s="66">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="W8" s="68"/>
       <c r="X8" s="63" t="s">
@@ -6839,7 +6719,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:59" ht="13.2">
       <c r="A9" s="75" t="s">
         <v>248</v>
       </c>
@@ -6871,7 +6751,7 @@
         <v>255</v>
       </c>
       <c r="K9" s="77">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L9" s="76" t="s">
         <v>256</v>
@@ -6886,7 +6766,7 @@
         <v>222</v>
       </c>
       <c r="P9" s="77">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="75" t="s">
         <v>222</v>
@@ -6904,7 +6784,7 @@
         <v>223</v>
       </c>
       <c r="V9" s="77">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="68"/>
       <c r="X9" s="63" t="s">
@@ -7004,7 +6884,7 @@
       <c r="BF9" s="79"/>
       <c r="BG9" s="79"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:59" ht="13.2">
       <c r="A10" s="62" t="s">
         <v>261</v>
       </c>
@@ -7069,7 +6949,7 @@
       <c r="BF10" s="79"/>
       <c r="BG10" s="79"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:59" ht="13.2">
       <c r="A11" s="62" t="s">
         <v>262</v>
       </c>
@@ -7134,7 +7014,7 @@
       <c r="BF11" s="79"/>
       <c r="BG11" s="79"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:59" ht="13.2">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -7195,7 +7075,7 @@
       <c r="BF12" s="85"/>
       <c r="BG12" s="85"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:59" ht="13.2">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
@@ -7256,7 +7136,7 @@
       <c r="BF13" s="85"/>
       <c r="BG13" s="85"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:59" ht="13.2">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="83"/>
@@ -7321,28 +7201,29 @@
   <mergeCells count="1">
     <mergeCell ref="AG5:AH5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.13"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="22.5"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="42" t="s">
         <v>149</v>
       </c>
@@ -7359,7 +7240,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7372,7 +7253,7 @@
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7381,7 +7262,7 @@
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" s="52" t="s">
         <v>204</v>
       </c>
@@ -7396,7 +7277,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" s="60" t="s">
         <v>209</v>
       </c>
@@ -7405,7 +7286,7 @@
       <c r="D5" s="92"/>
       <c r="E5" s="61"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="62" t="s">
         <v>267</v>
       </c>
@@ -7422,7 +7303,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" s="62" t="s">
         <v>267</v>
       </c>
@@ -7439,7 +7320,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" s="75" t="s">
         <v>270</v>
       </c>
@@ -7450,13 +7331,13 @@
         <v>271</v>
       </c>
       <c r="D8" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="93">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="75" t="s">
         <v>270</v>
       </c>
@@ -7467,13 +7348,13 @@
         <v>272</v>
       </c>
       <c r="D9" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="E9" s="93">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="62" t="s">
         <v>273</v>
       </c>
@@ -7486,7 +7367,7 @@
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" s="62" t="s">
         <v>273</v>
       </c>
@@ -7499,7 +7380,7 @@
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" s="62" t="s">
         <v>276</v>
       </c>
@@ -7510,34 +7391,34 @@
         <v>277</v>
       </c>
       <c r="D12" s="94">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="E12" s="94">
-        <v>46388.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
@@ -7545,28 +7426,29 @@
       <c r="E16" s="82"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.75"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="26.75"/>
-    <col customWidth="1" min="4" max="4" width="20.5"/>
-    <col customWidth="1" min="5" max="5" width="21.5"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="42" t="s">
         <v>157</v>
       </c>
@@ -7586,7 +7468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7600,7 +7482,7 @@
       <c r="E2" s="95"/>
       <c r="F2" s="54"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7610,7 +7492,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="52" t="s">
         <v>204</v>
       </c>
@@ -7628,7 +7510,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="60" t="s">
         <v>209</v>
       </c>
@@ -7638,7 +7520,7 @@
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="62" t="s">
         <v>283</v>
       </c>
@@ -7658,7 +7540,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="62" t="s">
         <v>283</v>
       </c>
@@ -7678,7 +7560,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="75" t="s">
         <v>288</v>
       </c>
@@ -7692,13 +7574,13 @@
         <v>290</v>
       </c>
       <c r="E8" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="93">
-        <v>45658.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="75" t="s">
         <v>288</v>
       </c>
@@ -7712,13 +7594,13 @@
         <v>292</v>
       </c>
       <c r="E9" s="93">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="F9" s="93">
-        <v>46023.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="62" t="s">
         <v>293</v>
       </c>
@@ -7732,7 +7614,7 @@
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="62" t="s">
         <v>293</v>
       </c>
@@ -7746,7 +7628,7 @@
       <c r="E11" s="79"/>
       <c r="F11" s="72"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="62" t="s">
         <v>296</v>
       </c>
@@ -7760,34 +7642,35 @@
         <v>298</v>
       </c>
       <c r="E12" s="94">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="F12" s="94">
-        <v>46388.0</v>
+        <v>46388</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.25"/>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="35.38"/>
-    <col customWidth="1" min="6" max="6" width="20.5"/>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" s="42" t="s">
         <v>166</v>
       </c>
@@ -7831,7 +7714,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7853,7 +7736,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7873,7 +7756,7 @@
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14">
       <c r="A4" s="52" t="s">
         <v>301</v>
       </c>
@@ -7893,15 +7776,18 @@
       <c r="M4" s="97"/>
       <c r="N4" s="97"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14">
       <c r="A5" s="52" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="132" t="s">
         <v>303</v>
       </c>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
       <c r="H5" s="57" t="s">
         <v>304</v>
       </c>
@@ -7916,7 +7802,7 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14">
       <c r="A6" s="60" t="s">
         <v>209</v>
       </c>
@@ -7934,7 +7820,7 @@
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" s="62" t="s">
         <v>307</v>
       </c>
@@ -7942,7 +7828,7 @@
         <v>308</v>
       </c>
       <c r="C7" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>309</v>
@@ -7978,7 +7864,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14">
       <c r="A8" s="62" t="s">
         <v>307</v>
       </c>
@@ -7986,7 +7872,7 @@
         <v>308</v>
       </c>
       <c r="C8" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>311</v>
@@ -8022,15 +7908,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14">
       <c r="A9" s="75" t="s">
         <v>312</v>
       </c>
       <c r="B9" s="98">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C9" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>313</v>
@@ -8045,10 +7931,10 @@
         <v>224</v>
       </c>
       <c r="H9" s="99">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I9" s="99">
-        <v>45659.0</v>
+        <v>45659</v>
       </c>
       <c r="J9" s="100" t="s">
         <v>223</v>
@@ -8066,15 +7952,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="A10" s="75" t="s">
         <v>312</v>
       </c>
       <c r="B10" s="98">
-        <v>1002.0</v>
+        <v>1002</v>
       </c>
       <c r="C10" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>314</v>
@@ -8089,10 +7975,10 @@
         <v>224</v>
       </c>
       <c r="H10" s="99">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="I10" s="99">
-        <v>46025.0</v>
+        <v>46025</v>
       </c>
       <c r="J10" s="100" t="s">
         <v>222</v>
@@ -8110,12 +7996,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14">
       <c r="A11" s="62" t="s">
         <v>315</v>
       </c>
       <c r="B11" s="98">
-        <v>1003.0</v>
+        <v>1003</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>230</v>
@@ -8138,12 +8024,12 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14">
       <c r="A12" s="62" t="s">
         <v>315</v>
       </c>
       <c r="B12" s="98">
-        <v>1004.0</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>230</v>
@@ -8166,15 +8052,15 @@
       <c r="M12" s="72"/>
       <c r="N12" s="72"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14">
       <c r="A13" s="62" t="s">
         <v>318</v>
       </c>
       <c r="B13" s="98">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="C13" s="98">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>319</v>
@@ -8189,10 +8075,10 @@
         <v>224</v>
       </c>
       <c r="H13" s="94">
-        <v>44927.0</v>
+        <v>44927</v>
       </c>
       <c r="I13" s="94">
-        <v>46390.0</v>
+        <v>46390</v>
       </c>
       <c r="J13" s="63" t="s">
         <v>222</v>
@@ -8210,7 +8096,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
@@ -8226,7 +8112,7 @@
       <c r="M14" s="82"/>
       <c r="N14" s="82"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
@@ -8242,7 +8128,7 @@
       <c r="M15" s="82"/>
       <c r="N15" s="82"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14">
       <c r="D16" s="102" t="str">
         <f>LEFT(D15,30)</f>
         <v/>
@@ -8252,71 +8138,72 @@
   <mergeCells count="1">
     <mergeCell ref="D5:G5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BC7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.63"/>
-    <col customWidth="1" min="2" max="2" width="23.5"/>
-    <col customWidth="1" min="3" max="3" width="48.25"/>
-    <col customWidth="1" min="4" max="4" width="30.88"/>
-    <col customWidth="1" min="5" max="5" width="26.13"/>
-    <col customWidth="1" min="6" max="6" width="28.25"/>
-    <col customWidth="1" min="7" max="7" width="6.88"/>
-    <col customWidth="1" min="8" max="8" width="9.38"/>
-    <col customWidth="1" min="9" max="9" width="7.5"/>
-    <col customWidth="1" min="10" max="10" width="9.0"/>
-    <col customWidth="1" min="11" max="11" width="7.5"/>
-    <col customWidth="1" min="12" max="12" width="34.0"/>
-    <col customWidth="1" min="13" max="13" width="10.5"/>
-    <col customWidth="1" min="14" max="14" width="10.13"/>
-    <col customWidth="1" min="15" max="15" width="10.25"/>
-    <col customWidth="1" min="16" max="16" width="11.0"/>
-    <col customWidth="1" min="17" max="17" width="7.75"/>
-    <col customWidth="1" min="18" max="18" width="6.75"/>
-    <col customWidth="1" min="19" max="20" width="7.63"/>
-    <col customWidth="1" min="21" max="21" width="6.75"/>
-    <col customWidth="1" min="22" max="22" width="11.75"/>
-    <col customWidth="1" min="23" max="23" width="10.13"/>
-    <col customWidth="1" min="24" max="24" width="10.0"/>
-    <col customWidth="1" min="25" max="25" width="6.25"/>
-    <col customWidth="1" min="26" max="26" width="21.88"/>
-    <col customWidth="1" min="27" max="27" width="9.88"/>
-    <col customWidth="1" min="28" max="28" width="6.88"/>
-    <col customWidth="1" min="29" max="30" width="7.63"/>
-    <col customWidth="1" min="31" max="31" width="7.38"/>
-    <col customWidth="1" min="32" max="32" width="7.63"/>
-    <col customWidth="1" min="33" max="33" width="7.13"/>
-    <col customWidth="1" min="34" max="36" width="13.5"/>
-    <col customWidth="1" min="37" max="37" width="10.88"/>
-    <col customWidth="1" min="38" max="38" width="11.13"/>
-    <col customWidth="1" min="39" max="39" width="10.88"/>
-    <col customWidth="1" min="40" max="40" width="7.63"/>
-    <col customWidth="1" min="41" max="41" width="10.13"/>
-    <col customWidth="1" min="42" max="42" width="6.88"/>
-    <col customWidth="1" min="43" max="43" width="9.0"/>
-    <col customWidth="1" min="44" max="44" width="10.25"/>
-    <col customWidth="1" min="45" max="45" width="9.25"/>
-    <col customWidth="1" min="46" max="46" width="25.5"/>
-    <col customWidth="1" min="47" max="47" width="10.63"/>
-    <col customWidth="1" min="48" max="48" width="10.88"/>
-    <col customWidth="1" min="49" max="49" width="10.5"/>
-    <col customWidth="1" min="50" max="51" width="13.63"/>
-    <col customWidth="1" min="52" max="53" width="13.5"/>
-    <col customWidth="1" min="54" max="55" width="25.25"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
+    <col min="18" max="18" width="6.77734375" customWidth="1"/>
+    <col min="19" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="6.77734375" customWidth="1"/>
+    <col min="22" max="22" width="11.77734375" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" customWidth="1"/>
+    <col min="24" max="24" width="10" customWidth="1"/>
+    <col min="25" max="25" width="6.21875" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.88671875" customWidth="1"/>
+    <col min="28" max="28" width="6.88671875" customWidth="1"/>
+    <col min="29" max="30" width="7.6640625" customWidth="1"/>
+    <col min="31" max="31" width="7.33203125" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="7.109375" customWidth="1"/>
+    <col min="34" max="36" width="13.44140625" customWidth="1"/>
+    <col min="37" max="37" width="10.88671875" customWidth="1"/>
+    <col min="38" max="38" width="11.109375" customWidth="1"/>
+    <col min="39" max="39" width="10.88671875" customWidth="1"/>
+    <col min="40" max="40" width="7.6640625" customWidth="1"/>
+    <col min="41" max="41" width="10.109375" customWidth="1"/>
+    <col min="42" max="42" width="6.88671875" customWidth="1"/>
+    <col min="43" max="43" width="9" customWidth="1"/>
+    <col min="44" max="44" width="10.21875" customWidth="1"/>
+    <col min="45" max="45" width="9.21875" customWidth="1"/>
+    <col min="46" max="46" width="25.44140625" customWidth="1"/>
+    <col min="47" max="47" width="10.6640625" customWidth="1"/>
+    <col min="48" max="48" width="10.88671875" customWidth="1"/>
+    <col min="49" max="49" width="10.44140625" customWidth="1"/>
+    <col min="50" max="51" width="13.6640625" customWidth="1"/>
+    <col min="52" max="53" width="13.44140625" customWidth="1"/>
+    <col min="54" max="55" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:55">
       <c r="A1" s="103" t="s">
         <v>26</v>
       </c>
@@ -8483,7 +8370,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:55">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
@@ -8560,7 +8447,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:55">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
@@ -8612,9 +8499,10 @@
       <c r="AS3" s="54"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
-      <c r="AV3" s="53" t="s">
+      <c r="AV3" s="132" t="s">
         <v>197</v>
       </c>
+      <c r="AW3" s="133"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
       <c r="AZ3" s="54"/>
@@ -8622,7 +8510,7 @@
       <c r="BB3" s="110"/>
       <c r="BC3" s="110"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:55">
       <c r="A4" s="108" t="s">
         <v>202</v>
       </c>
@@ -8683,7 +8571,7 @@
       <c r="BB4" s="110"/>
       <c r="BC4" s="110"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:55">
       <c r="A5" s="108" t="s">
         <v>204</v>
       </c>
@@ -8766,9 +8654,10 @@
       <c r="AF5" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AG5" s="57" t="s">
+      <c r="AG5" s="132" t="s">
         <v>206</v>
       </c>
+      <c r="AH5" s="133"/>
       <c r="AI5" s="58"/>
       <c r="AJ5" s="58"/>
       <c r="AK5" s="57" t="s">
@@ -8813,7 +8702,7 @@
       <c r="BB5" s="110"/>
       <c r="BC5" s="110"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:55">
       <c r="A6" s="111" t="s">
         <v>209</v>
       </c>
@@ -8872,7 +8761,7 @@
       <c r="BB6" s="112"/>
       <c r="BC6" s="112"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:55">
       <c r="A7" s="62" t="s">
         <v>322</v>
       </c>
@@ -8919,7 +8808,7 @@
         <v>223</v>
       </c>
       <c r="P7" s="66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>223</v>
@@ -8937,7 +8826,7 @@
         <v>223</v>
       </c>
       <c r="V7" s="66">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="W7" s="116" t="s">
         <v>215</v>
@@ -9044,25 +8933,26 @@
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AG5:AH5"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.88"/>
-    <col customWidth="1" min="3" max="3" width="77.38"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="77.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="44" t="s">
         <v>338</v>
       </c>
@@ -9073,7 +8963,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="36" t="s">
         <v>341</v>
       </c>
@@ -9084,7 +8974,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="36" t="s">
         <v>341</v>
       </c>
@@ -9095,7 +8985,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="70" t="s">
         <v>25</v>
       </c>
@@ -9106,7 +8996,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="70" t="s">
         <v>25</v>
       </c>
@@ -9117,7 +9007,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="119" t="s">
         <v>350</v>
       </c>
@@ -9128,7 +9018,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="119" t="s">
         <v>350</v>
       </c>
@@ -9139,7 +9029,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="119" t="s">
         <v>350</v>
       </c>
@@ -9150,7 +9040,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="119" t="s">
         <v>350</v>
       </c>
@@ -9161,7 +9051,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="119" t="s">
         <v>350</v>
       </c>
@@ -9172,7 +9062,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="119" t="s">
         <v>350</v>
       </c>
@@ -9183,7 +9073,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="119" t="s">
         <v>350</v>
       </c>
@@ -9194,7 +9084,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="121" t="s">
         <v>365</v>
       </c>
@@ -9205,7 +9095,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="121" t="s">
         <v>365</v>
       </c>
@@ -9216,7 +9106,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="121" t="s">
         <v>365</v>
       </c>
@@ -9227,7 +9117,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="121" t="s">
         <v>365</v>
       </c>
@@ -9238,7 +9128,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="121" t="s">
         <v>365</v>
       </c>
@@ -9249,7 +9139,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="121" t="s">
         <v>365</v>
       </c>
@@ -9260,7 +9150,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="121" t="s">
         <v>365</v>
       </c>
@@ -9271,7 +9161,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="121" t="s">
         <v>365</v>
       </c>
@@ -9282,7 +9172,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="122" t="s">
         <v>379</v>
       </c>
@@ -9293,7 +9183,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3">
       <c r="A22" s="122" t="s">
         <v>379</v>
       </c>
@@ -9304,7 +9194,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3">
       <c r="A23" s="122" t="s">
         <v>379</v>
       </c>
@@ -9315,7 +9205,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3">
       <c r="A24" s="122" t="s">
         <v>379</v>
       </c>
@@ -9326,7 +9216,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3">
       <c r="A25" s="122" t="s">
         <v>379</v>
       </c>
@@ -9337,7 +9227,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3">
       <c r="A26" s="122" t="s">
         <v>379</v>
       </c>
@@ -9348,7 +9238,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3">
       <c r="A27" s="122" t="s">
         <v>379</v>
       </c>
@@ -9359,7 +9249,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3">
       <c r="A28" s="122" t="s">
         <v>379</v>
       </c>
@@ -9370,7 +9260,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3">
       <c r="A29" s="122" t="s">
         <v>379</v>
       </c>
@@ -9381,7 +9271,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3">
       <c r="A30" s="123" t="s">
         <v>396</v>
       </c>
@@ -9392,7 +9282,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3">
       <c r="A31" s="123" t="s">
         <v>396</v>
       </c>
@@ -9403,7 +9293,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3">
       <c r="A32" s="123" t="s">
         <v>396</v>
       </c>
@@ -9414,7 +9304,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3">
       <c r="A33" s="123" t="s">
         <v>396</v>
       </c>
@@ -9425,7 +9315,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="15" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>341</v>
       </c>
@@ -9436,7 +9326,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="15" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>341</v>
       </c>
@@ -9447,7 +9337,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="15" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>341</v>
       </c>
@@ -9458,7 +9348,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>341</v>
       </c>
@@ -9469,7 +9359,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>341</v>
       </c>
@@ -9480,7 +9370,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>341</v>
       </c>
@@ -9491,7 +9381,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="A40" s="36" t="s">
         <v>341</v>
       </c>
@@ -9502,7 +9392,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="15" customHeight="1">
       <c r="A41" s="36" t="s">
         <v>341</v>
       </c>
@@ -9513,7 +9403,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>341</v>
       </c>
@@ -9524,7 +9414,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="15" customHeight="1">
       <c r="A43" s="36" t="s">
         <v>341</v>
       </c>
@@ -9535,7 +9425,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="15" customHeight="1">
       <c r="A44" s="36" t="s">
         <v>341</v>
       </c>
@@ -9546,7 +9436,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="15" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>341</v>
       </c>
@@ -9557,7 +9447,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="15" customHeight="1">
       <c r="A46" s="36" t="s">
         <v>341</v>
       </c>
@@ -9568,7 +9458,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="15" customHeight="1">
       <c r="A47" s="36" t="s">
         <v>341</v>
       </c>
@@ -9580,26 +9470,27 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.63"/>
-    <col customWidth="1" min="2" max="2" width="7.63"/>
-    <col customWidth="1" min="3" max="3" width="20.0"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="125" t="s">
         <v>433</v>
       </c>
@@ -9610,7 +9501,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="127" t="s">
         <v>436</v>
       </c>
@@ -9622,6 +9513,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="708" yWindow="528" windowWidth="19356" windowHeight="11844" activeTab="2"/>
-  </bookViews>
   <sheets>
-    <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="001" sheetId="3" r:id="rId3"/>
-    <sheet name="003HAB" sheetId="4" r:id="rId4"/>
-    <sheet name="003MET" sheetId="5" r:id="rId5"/>
-    <sheet name="004EMP" sheetId="6" r:id="rId6"/>
-    <sheet name="005" sheetId="7" r:id="rId7"/>
-    <sheet name="IHMTO" sheetId="8" r:id="rId8"/>
-    <sheet name="INTERNALVALUE" sheetId="9" r:id="rId9"/>
-    <sheet name="MODELE" sheetId="10" r:id="rId10"/>
+    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="003HAB" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="003MET" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="004EMP" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="005" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="IHMTO" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="MODELE" sheetId="10" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataChecksum="/kAd6I4sL5yXiAfjing13yENTHSnvHPipfOA9z4h1zw="/>
@@ -101,19 +98,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Arial, sans-serif"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial, sans-serif"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial, sans-serif"/>
         <b/>
-        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial, sans-serif"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -1357,17 +1352,15 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>INTER.ST</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>_ETA</t>
     </r>
@@ -1382,122 +1375,104 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="18">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial, sans-serif"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial, sans-serif"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1505,7 +1480,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1635,13 +1610,7 @@
     </fill>
   </fills>
   <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1655,7 +1624,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1664,14 +1632,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1681,314 +1646,468 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="134">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="132">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf quotePrefix="1" borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="17" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="18" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="19" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="20" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="21" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="22" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2178,27 +2297,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="41.38"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
+    <col customWidth="1" min="6" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,9 +2337,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -2231,9 +2350,9 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -2244,9 +2363,9 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
@@ -2257,9 +2376,9 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="4">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>6</v>
@@ -2270,7 +2389,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -2287,98 +2406,98 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3347,189 +3466,192 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="130"/>
       <c r="B1" s="49" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="131"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="131"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" s="108" t="s">
         <v>301</v>
       </c>
       <c r="B4" s="131"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" s="108" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="131"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" s="111" t="s">
         <v>209</v>
       </c>
       <c r="B6" s="112"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" s="81"/>
       <c r="B7" s="82"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" s="81"/>
       <c r="B8" s="82"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" s="81"/>
       <c r="B9" s="82"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" s="81"/>
       <c r="B10" s="82"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" s="81"/>
       <c r="B11" s="82"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" s="81"/>
       <c r="B17" s="82"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" s="81"/>
       <c r="B18" s="82"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" s="81"/>
       <c r="B19" s="82"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" s="81"/>
       <c r="B20" s="82"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" s="81"/>
       <c r="B21" s="82"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" s="81"/>
       <c r="B22" s="82"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" s="81"/>
       <c r="B23" s="82"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" s="81"/>
       <c r="B24" s="82"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" s="81"/>
       <c r="B25" s="82"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" s="81"/>
       <c r="B26" s="82"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" s="81"/>
       <c r="B27" s="82"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" s="81"/>
       <c r="B28" s="82"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" s="81"/>
       <c r="B29" s="82"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" s="81"/>
       <c r="B30" s="82"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" s="81"/>
       <c r="B31" s="82"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" s="81"/>
       <c r="B32" s="82"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" s="81"/>
       <c r="B33" s="82"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA982"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="27" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="61.5"/>
+    <col customWidth="1" min="3" max="3" width="12.75"/>
+    <col customWidth="1" min="4" max="4" width="28.0"/>
+    <col customWidth="1" min="5" max="5" width="10.63"/>
+    <col customWidth="1" min="6" max="6" width="20.5"/>
+    <col customWidth="1" min="7" max="27" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
@@ -3549,7 +3671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3565,7 +3687,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>25</v>
       </c>
@@ -3574,12 +3696,12 @@
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="21">
-        <v>1022</v>
+        <v>1022.0</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>27</v>
       </c>
@@ -3596,7 +3718,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>32</v>
       </c>
@@ -3613,7 +3735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>36</v>
       </c>
@@ -3631,7 +3753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>40</v>
       </c>
@@ -3649,7 +3771,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>42</v>
       </c>
@@ -3667,7 +3789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>44</v>
       </c>
@@ -3684,7 +3806,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>47</v>
       </c>
@@ -3699,7 +3821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
@@ -3714,7 +3836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>52</v>
       </c>
@@ -3729,7 +3851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>55</v>
       </c>
@@ -3744,7 +3866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>58</v>
       </c>
@@ -3761,7 +3883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="26" t="s">
         <v>60</v>
       </c>
@@ -3776,7 +3898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="26" t="s">
         <v>62</v>
       </c>
@@ -3791,7 +3913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -3805,7 +3927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -3819,7 +3941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
@@ -3833,7 +3955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>71</v>
       </c>
@@ -3847,7 +3969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1">
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>73</v>
       </c>
@@ -3861,7 +3983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1">
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>75</v>
       </c>
@@ -3875,7 +3997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1">
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -3889,7 +4011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1">
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -3903,7 +4025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="12.75" customHeight="1">
+    <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>81</v>
       </c>
@@ -3920,7 +4042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" customHeight="1">
+    <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>83</v>
       </c>
@@ -3940,7 +4062,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" customHeight="1">
+    <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
@@ -3960,7 +4082,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" customHeight="1">
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>88</v>
       </c>
@@ -3974,7 +4096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" customHeight="1">
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -3988,7 +4110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" customHeight="1">
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -4002,7 +4124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1">
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -4016,7 +4138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -4030,7 +4152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="12.75" customHeight="1">
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>98</v>
       </c>
@@ -4044,7 +4166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="12.75" customHeight="1">
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
@@ -4058,7 +4180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="12.75" customHeight="1">
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
@@ -4072,7 +4194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="12.75" customHeight="1">
+    <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -4092,7 +4214,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="12.75" customHeight="1">
+    <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
@@ -4109,7 +4231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="12.75" customHeight="1">
+    <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -4126,7 +4248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="12.75" customHeight="1">
+    <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -4140,7 +4262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="12.75" customHeight="1">
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -4154,7 +4276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="12.75" customHeight="1">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>116</v>
       </c>
@@ -4168,7 +4290,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="12.75" customHeight="1">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>118</v>
       </c>
@@ -4183,7 +4305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="12.75" customHeight="1">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="32" t="s">
         <v>120</v>
       </c>
@@ -4200,7 +4322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>121</v>
       </c>
@@ -4217,7 +4339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="12.75" customHeight="1">
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
@@ -4234,7 +4356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="12.75" customHeight="1">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>125</v>
       </c>
@@ -4251,7 +4373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="12.75" customHeight="1">
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>127</v>
       </c>
@@ -4268,7 +4390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="12.75" customHeight="1">
+    <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
@@ -4286,7 +4408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="12.75" customHeight="1">
+    <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>131</v>
       </c>
@@ -4300,7 +4422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="12.75" customHeight="1">
+    <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>133</v>
       </c>
@@ -4314,7 +4436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="12.75" customHeight="1">
+    <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>135</v>
       </c>
@@ -4353,7 +4475,7 @@
       <c r="Z51" s="38"/>
       <c r="AA51" s="38"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75" customHeight="1">
+    <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>137</v>
       </c>
@@ -4370,7 +4492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="12.75" customHeight="1">
+    <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>139</v>
       </c>
@@ -4387,7 +4509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="12.75" customHeight="1">
+    <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
@@ -4404,7 +4526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="12.75" customHeight="1">
+    <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -4421,7 +4543,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="12.75" customHeight="1">
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="36" t="s">
         <v>145</v>
       </c>
@@ -4438,7 +4560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="12.75" customHeight="1">
+    <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="21" t="s">
         <v>148</v>
       </c>
@@ -4447,11 +4569,11 @@
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="21">
-        <v>1083</v>
+        <v>1083.0</v>
       </c>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="1:27" ht="12.75" customHeight="1">
+    <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
@@ -4468,7 +4590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="12.75" customHeight="1">
+    <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>150</v>
       </c>
@@ -4485,7 +4607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="12.75" customHeight="1">
+    <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>152</v>
       </c>
@@ -4499,7 +4621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="12.75" customHeight="1">
+    <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
@@ -4513,7 +4635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="12.75" customHeight="1">
+    <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="21" t="s">
         <v>156</v>
       </c>
@@ -4522,11 +4644,11 @@
       </c>
       <c r="C62" s="40"/>
       <c r="D62" s="41">
-        <v>1086</v>
+        <v>1086.0</v>
       </c>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="1:27" ht="12.75" customHeight="1">
+    <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>27</v>
       </c>
@@ -4543,7 +4665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="12.75" customHeight="1">
+    <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>158</v>
       </c>
@@ -4560,7 +4682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75" customHeight="1">
+    <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>160</v>
       </c>
@@ -4574,7 +4696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75" customHeight="1">
+    <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>152</v>
       </c>
@@ -4588,7 +4710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75" customHeight="1">
+    <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
@@ -4602,7 +4724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.75" customHeight="1">
+    <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="41" t="s">
         <v>165</v>
       </c>
@@ -4611,11 +4733,11 @@
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="41">
-        <v>1587</v>
+        <v>1587.0</v>
       </c>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="1:6" ht="12.75" customHeight="1">
+    <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>167</v>
       </c>
@@ -4633,7 +4755,7 @@
       </c>
       <c r="F69" s="31"/>
     </row>
-    <row r="70" spans="1:6" ht="12.75" customHeight="1">
+    <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>133</v>
       </c>
@@ -4653,7 +4775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="12.75" customHeight="1">
+    <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>170</v>
       </c>
@@ -4670,7 +4792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="12.75" customHeight="1">
+    <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>172</v>
       </c>
@@ -4687,7 +4809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75" customHeight="1">
+    <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>27</v>
       </c>
@@ -4704,7 +4826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75" customHeight="1">
+    <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -4721,7 +4843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75" customHeight="1">
+    <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
@@ -4735,7 +4857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" customHeight="1">
+    <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>154</v>
       </c>
@@ -4749,7 +4871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1">
+    <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>177</v>
       </c>
@@ -4766,7 +4888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="12.75" customHeight="1">
+    <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>137</v>
       </c>
@@ -4786,7 +4908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="12.75" customHeight="1">
+    <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
@@ -4806,7 +4928,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="12.75" customHeight="1">
+    <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>141</v>
       </c>
@@ -4823,7 +4945,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="12.75" customHeight="1">
+    <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>143</v>
       </c>
@@ -4840,21 +4962,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="83" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="84" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="85" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="86" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="87" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="88" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="89" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="90" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="91" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="92" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="93" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="94" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="95" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="96" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
     <row r="98" ht="12.75" customHeight="1"/>
     <row r="99" ht="12.75" customHeight="1"/>
@@ -5742,36 +5864,35 @@
     <row r="981" ht="12.75" customHeight="1"/>
     <row r="982" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
-    <col min="12" max="12" width="28.6640625" customWidth="1"/>
-    <col min="46" max="46" width="25.21875" customWidth="1"/>
-    <col min="48" max="48" width="26" customWidth="1"/>
-    <col min="49" max="49" width="15.77734375" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="16.63"/>
+    <col customWidth="1" min="3" max="3" width="32.88"/>
+    <col customWidth="1" min="4" max="4" width="29.38"/>
+    <col customWidth="1" min="5" max="5" width="20.88"/>
+    <col customWidth="1" min="6" max="6" width="21.13"/>
+    <col customWidth="1" min="12" max="12" width="28.63"/>
+    <col customWidth="1" min="46" max="46" width="25.25"/>
+    <col customWidth="1" min="48" max="48" width="26.0"/>
+    <col customWidth="1" min="49" max="49" width="15.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
@@ -5950,7 +6071,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="13.2">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -6031,7 +6152,7 @@
       <c r="BF2" s="54"/>
       <c r="BG2" s="54"/>
     </row>
-    <row r="3" spans="1:59" ht="13.2">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -6108,7 +6229,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="13.2">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>202</v>
       </c>
@@ -6173,7 +6294,7 @@
       <c r="BF4" s="53"/>
       <c r="BG4" s="53"/>
     </row>
-    <row r="5" spans="1:59" ht="13.2">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>204</v>
       </c>
@@ -6235,7 +6356,7 @@
         <v>205</v>
       </c>
       <c r="W5" s="59"/>
-      <c r="X5" s="95"/>
+      <c r="X5" s="58"/>
       <c r="Y5" s="58"/>
       <c r="Z5" s="57" t="s">
         <v>205</v>
@@ -6256,10 +6377,9 @@
       <c r="AF5" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AG5" s="132" t="s">
+      <c r="AG5" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AH5" s="133"/>
       <c r="AI5" s="58"/>
       <c r="AJ5" s="58"/>
       <c r="AK5" s="57" t="s">
@@ -6316,7 +6436,7 @@
       </c>
       <c r="BG5" s="53"/>
     </row>
-    <row r="6" spans="1:59" ht="13.2">
+    <row r="6">
       <c r="A6" s="60" t="s">
         <v>209</v>
       </c>
@@ -6379,7 +6499,7 @@
       <c r="BF6" s="61"/>
       <c r="BG6" s="61"/>
     </row>
-    <row r="7" spans="1:59" ht="13.2">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>210</v>
       </c>
@@ -6411,7 +6531,7 @@
         <v>218</v>
       </c>
       <c r="K7" s="66">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="L7" s="67" t="s">
         <v>219</v>
@@ -6426,7 +6546,7 @@
         <v>222</v>
       </c>
       <c r="P7" s="66">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>222</v>
@@ -6444,7 +6564,7 @@
         <v>223</v>
       </c>
       <c r="V7" s="66">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="W7" s="68"/>
       <c r="X7" s="63" t="s">
@@ -6544,7 +6664,7 @@
       <c r="BF7" s="72"/>
       <c r="BG7" s="72"/>
     </row>
-    <row r="8" spans="1:59" ht="13.2">
+    <row r="8">
       <c r="A8" s="62" t="s">
         <v>232</v>
       </c>
@@ -6576,7 +6696,7 @@
         <v>239</v>
       </c>
       <c r="K8" s="66">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="L8" s="67" t="s">
         <v>240</v>
@@ -6591,7 +6711,7 @@
         <v>222</v>
       </c>
       <c r="P8" s="66">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="Q8" s="36" t="s">
         <v>222</v>
@@ -6609,7 +6729,7 @@
         <v>223</v>
       </c>
       <c r="V8" s="66">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="W8" s="68"/>
       <c r="X8" s="63" t="s">
@@ -6719,7 +6839,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="13.2">
+    <row r="9">
       <c r="A9" s="75" t="s">
         <v>248</v>
       </c>
@@ -6751,7 +6871,7 @@
         <v>255</v>
       </c>
       <c r="K9" s="77">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="L9" s="76" t="s">
         <v>256</v>
@@ -6766,7 +6886,7 @@
         <v>222</v>
       </c>
       <c r="P9" s="77">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q9" s="75" t="s">
         <v>222</v>
@@ -6784,7 +6904,7 @@
         <v>223</v>
       </c>
       <c r="V9" s="77">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W9" s="68"/>
       <c r="X9" s="63" t="s">
@@ -6884,7 +7004,7 @@
       <c r="BF9" s="79"/>
       <c r="BG9" s="79"/>
     </row>
-    <row r="10" spans="1:59" ht="13.2">
+    <row r="10">
       <c r="A10" s="62" t="s">
         <v>261</v>
       </c>
@@ -6949,7 +7069,7 @@
       <c r="BF10" s="79"/>
       <c r="BG10" s="79"/>
     </row>
-    <row r="11" spans="1:59" ht="13.2">
+    <row r="11">
       <c r="A11" s="62" t="s">
         <v>262</v>
       </c>
@@ -7014,7 +7134,7 @@
       <c r="BF11" s="79"/>
       <c r="BG11" s="79"/>
     </row>
-    <row r="12" spans="1:59" ht="13.2">
+    <row r="12">
       <c r="A12" s="81"/>
       <c r="B12" s="82"/>
       <c r="C12" s="83"/>
@@ -7075,7 +7195,7 @@
       <c r="BF12" s="85"/>
       <c r="BG12" s="85"/>
     </row>
-    <row r="13" spans="1:59" ht="13.2">
+    <row r="13">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="83"/>
@@ -7136,7 +7256,7 @@
       <c r="BF13" s="85"/>
       <c r="BG13" s="85"/>
     </row>
-    <row r="14" spans="1:59" ht="13.2">
+    <row r="14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="83"/>
@@ -7201,29 +7321,28 @@
   <mergeCells count="1">
     <mergeCell ref="AG5:AH5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="26.13"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+    <col customWidth="1" min="3" max="3" width="25.38"/>
+    <col customWidth="1" min="4" max="4" width="22.5"/>
+    <col customWidth="1" min="5" max="5" width="20.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="42" t="s">
         <v>149</v>
       </c>
@@ -7240,7 +7359,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7253,7 +7372,7 @@
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7262,7 +7381,7 @@
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>204</v>
       </c>
@@ -7277,7 +7396,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="60" t="s">
         <v>209</v>
       </c>
@@ -7286,7 +7405,7 @@
       <c r="D5" s="92"/>
       <c r="E5" s="61"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="62" t="s">
         <v>267</v>
       </c>
@@ -7303,7 +7422,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>267</v>
       </c>
@@ -7320,7 +7439,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" s="75" t="s">
         <v>270</v>
       </c>
@@ -7331,13 +7450,13 @@
         <v>271</v>
       </c>
       <c r="D8" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E8" s="93">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="75" t="s">
         <v>270</v>
       </c>
@@ -7348,13 +7467,13 @@
         <v>272</v>
       </c>
       <c r="D9" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="E9" s="93">
-        <v>46023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="62" t="s">
         <v>273</v>
       </c>
@@ -7367,7 +7486,7 @@
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="62" t="s">
         <v>273</v>
       </c>
@@ -7380,7 +7499,7 @@
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="62" t="s">
         <v>276</v>
       </c>
@@ -7391,34 +7510,34 @@
         <v>277</v>
       </c>
       <c r="D12" s="94">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="E12" s="94">
-        <v>46388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>46388.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
       <c r="E13" s="82"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="82"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" s="81"/>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
@@ -7426,29 +7545,28 @@
       <c r="E16" s="82"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="23.75"/>
+    <col customWidth="1" min="2" max="2" width="20.5"/>
+    <col customWidth="1" min="3" max="3" width="26.75"/>
+    <col customWidth="1" min="4" max="4" width="20.5"/>
+    <col customWidth="1" min="5" max="5" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1">
       <c r="A1" s="42" t="s">
         <v>157</v>
       </c>
@@ -7468,7 +7586,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7482,7 +7600,7 @@
       <c r="E2" s="95"/>
       <c r="F2" s="54"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7492,7 +7610,7 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>204</v>
       </c>
@@ -7510,7 +7628,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5">
       <c r="A5" s="60" t="s">
         <v>209</v>
       </c>
@@ -7520,7 +7638,7 @@
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6">
       <c r="A6" s="62" t="s">
         <v>283</v>
       </c>
@@ -7540,7 +7658,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>283</v>
       </c>
@@ -7560,7 +7678,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8">
       <c r="A8" s="75" t="s">
         <v>288</v>
       </c>
@@ -7574,13 +7692,13 @@
         <v>290</v>
       </c>
       <c r="E8" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="F8" s="93">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45658.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="75" t="s">
         <v>288</v>
       </c>
@@ -7594,13 +7712,13 @@
         <v>292</v>
       </c>
       <c r="E9" s="93">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="F9" s="93">
-        <v>46023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>46023.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="62" t="s">
         <v>293</v>
       </c>
@@ -7614,7 +7732,7 @@
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11">
       <c r="A11" s="62" t="s">
         <v>293</v>
       </c>
@@ -7628,7 +7746,7 @@
       <c r="E11" s="79"/>
       <c r="F11" s="72"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12">
       <c r="A12" s="62" t="s">
         <v>296</v>
       </c>
@@ -7642,35 +7760,34 @@
         <v>298</v>
       </c>
       <c r="E12" s="94">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="F12" s="94">
-        <v>46388</v>
+        <v>46388.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="22.25"/>
+    <col customWidth="1" min="2" max="2" width="15.5"/>
+    <col customWidth="1" min="4" max="4" width="35.38"/>
+    <col customWidth="1" min="6" max="6" width="20.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1">
       <c r="A1" s="42" t="s">
         <v>166</v>
       </c>
@@ -7714,7 +7831,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2">
       <c r="A2" s="52" t="s">
         <v>188</v>
       </c>
@@ -7736,7 +7853,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3">
       <c r="A3" s="52" t="s">
         <v>195</v>
       </c>
@@ -7756,7 +7873,7 @@
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4">
       <c r="A4" s="52" t="s">
         <v>301</v>
       </c>
@@ -7776,18 +7893,15 @@
       <c r="M4" s="97"/>
       <c r="N4" s="97"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>204</v>
       </c>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
       <c r="H5" s="57" t="s">
         <v>304</v>
       </c>
@@ -7802,7 +7916,7 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6">
       <c r="A6" s="60" t="s">
         <v>209</v>
       </c>
@@ -7820,7 +7934,7 @@
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>307</v>
       </c>
@@ -7828,7 +7942,7 @@
         <v>308</v>
       </c>
       <c r="C7" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>309</v>
@@ -7864,7 +7978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8">
       <c r="A8" s="62" t="s">
         <v>307</v>
       </c>
@@ -7872,7 +7986,7 @@
         <v>308</v>
       </c>
       <c r="C8" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="64" t="s">
         <v>311</v>
@@ -7908,15 +8022,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9">
       <c r="A9" s="75" t="s">
         <v>312</v>
       </c>
       <c r="B9" s="98">
-        <v>1001</v>
+        <v>1001.0</v>
       </c>
       <c r="C9" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" s="71" t="s">
         <v>313</v>
@@ -7931,10 +8045,10 @@
         <v>224</v>
       </c>
       <c r="H9" s="99">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="I9" s="99">
-        <v>45659</v>
+        <v>45659.0</v>
       </c>
       <c r="J9" s="100" t="s">
         <v>223</v>
@@ -7952,15 +8066,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10">
       <c r="A10" s="75" t="s">
         <v>312</v>
       </c>
       <c r="B10" s="98">
-        <v>1002</v>
+        <v>1002.0</v>
       </c>
       <c r="C10" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D10" s="64" t="s">
         <v>314</v>
@@ -7975,10 +8089,10 @@
         <v>224</v>
       </c>
       <c r="H10" s="99">
-        <v>44562</v>
+        <v>44562.0</v>
       </c>
       <c r="I10" s="99">
-        <v>46025</v>
+        <v>46025.0</v>
       </c>
       <c r="J10" s="100" t="s">
         <v>222</v>
@@ -7996,12 +8110,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11">
       <c r="A11" s="62" t="s">
         <v>315</v>
       </c>
       <c r="B11" s="98">
-        <v>1003</v>
+        <v>1003.0</v>
       </c>
       <c r="C11" s="62" t="s">
         <v>230</v>
@@ -8024,12 +8138,12 @@
       <c r="M11" s="79"/>
       <c r="N11" s="79"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12">
       <c r="A12" s="62" t="s">
         <v>315</v>
       </c>
       <c r="B12" s="98">
-        <v>1004</v>
+        <v>1004.0</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>230</v>
@@ -8052,15 +8166,15 @@
       <c r="M12" s="72"/>
       <c r="N12" s="72"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13">
       <c r="A13" s="62" t="s">
         <v>318</v>
       </c>
       <c r="B13" s="98">
-        <v>1005</v>
+        <v>1005.0</v>
       </c>
       <c r="C13" s="98">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>319</v>
@@ -8075,10 +8189,10 @@
         <v>224</v>
       </c>
       <c r="H13" s="94">
-        <v>44927</v>
+        <v>44927.0</v>
       </c>
       <c r="I13" s="94">
-        <v>46390</v>
+        <v>46390.0</v>
       </c>
       <c r="J13" s="63" t="s">
         <v>222</v>
@@ -8096,7 +8210,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14">
       <c r="A14" s="81"/>
       <c r="B14" s="82"/>
       <c r="C14" s="82"/>
@@ -8112,7 +8226,7 @@
       <c r="M14" s="82"/>
       <c r="N14" s="82"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15">
       <c r="A15" s="81"/>
       <c r="B15" s="82"/>
       <c r="C15" s="82"/>
@@ -8128,7 +8242,7 @@
       <c r="M15" s="82"/>
       <c r="N15" s="82"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16">
       <c r="D16" s="102" t="str">
         <f>LEFT(D15,30)</f>
         <v/>
@@ -8138,72 +8252,71 @@
   <mergeCells count="1">
     <mergeCell ref="D5:G5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BC7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="48.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
-    <col min="12" max="12" width="34" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" customWidth="1"/>
-    <col min="18" max="18" width="6.77734375" customWidth="1"/>
-    <col min="19" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="6.77734375" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" customWidth="1"/>
-    <col min="23" max="23" width="10.109375" customWidth="1"/>
-    <col min="24" max="24" width="10" customWidth="1"/>
-    <col min="25" max="25" width="6.21875" customWidth="1"/>
-    <col min="26" max="26" width="21.88671875" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" customWidth="1"/>
-    <col min="28" max="28" width="6.88671875" customWidth="1"/>
-    <col min="29" max="30" width="7.6640625" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="7.109375" customWidth="1"/>
-    <col min="34" max="36" width="13.44140625" customWidth="1"/>
-    <col min="37" max="37" width="10.88671875" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" customWidth="1"/>
-    <col min="39" max="39" width="10.88671875" customWidth="1"/>
-    <col min="40" max="40" width="7.6640625" customWidth="1"/>
-    <col min="41" max="41" width="10.109375" customWidth="1"/>
-    <col min="42" max="42" width="6.88671875" customWidth="1"/>
-    <col min="43" max="43" width="9" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" customWidth="1"/>
-    <col min="45" max="45" width="9.21875" customWidth="1"/>
-    <col min="46" max="46" width="25.44140625" customWidth="1"/>
-    <col min="47" max="47" width="10.6640625" customWidth="1"/>
-    <col min="48" max="48" width="10.88671875" customWidth="1"/>
-    <col min="49" max="49" width="10.44140625" customWidth="1"/>
-    <col min="50" max="51" width="13.6640625" customWidth="1"/>
-    <col min="52" max="53" width="13.44140625" customWidth="1"/>
-    <col min="54" max="55" width="25.21875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col customWidth="1" min="2" max="2" width="23.5"/>
+    <col customWidth="1" min="3" max="3" width="48.25"/>
+    <col customWidth="1" min="4" max="4" width="30.88"/>
+    <col customWidth="1" min="5" max="5" width="26.13"/>
+    <col customWidth="1" min="6" max="6" width="28.25"/>
+    <col customWidth="1" min="7" max="7" width="6.88"/>
+    <col customWidth="1" min="8" max="8" width="9.38"/>
+    <col customWidth="1" min="9" max="9" width="7.5"/>
+    <col customWidth="1" min="10" max="10" width="9.0"/>
+    <col customWidth="1" min="11" max="11" width="7.5"/>
+    <col customWidth="1" min="12" max="12" width="34.0"/>
+    <col customWidth="1" min="13" max="13" width="10.5"/>
+    <col customWidth="1" min="14" max="14" width="10.13"/>
+    <col customWidth="1" min="15" max="15" width="10.25"/>
+    <col customWidth="1" min="16" max="16" width="11.0"/>
+    <col customWidth="1" min="17" max="17" width="7.75"/>
+    <col customWidth="1" min="18" max="18" width="6.75"/>
+    <col customWidth="1" min="19" max="20" width="7.63"/>
+    <col customWidth="1" min="21" max="21" width="6.75"/>
+    <col customWidth="1" min="22" max="22" width="11.75"/>
+    <col customWidth="1" min="23" max="23" width="10.13"/>
+    <col customWidth="1" min="24" max="24" width="10.0"/>
+    <col customWidth="1" min="25" max="25" width="6.25"/>
+    <col customWidth="1" min="26" max="26" width="21.88"/>
+    <col customWidth="1" min="27" max="27" width="9.88"/>
+    <col customWidth="1" min="28" max="28" width="6.88"/>
+    <col customWidth="1" min="29" max="30" width="7.63"/>
+    <col customWidth="1" min="31" max="31" width="7.38"/>
+    <col customWidth="1" min="32" max="32" width="7.63"/>
+    <col customWidth="1" min="33" max="33" width="7.13"/>
+    <col customWidth="1" min="34" max="36" width="13.5"/>
+    <col customWidth="1" min="37" max="37" width="10.88"/>
+    <col customWidth="1" min="38" max="38" width="11.13"/>
+    <col customWidth="1" min="39" max="39" width="10.88"/>
+    <col customWidth="1" min="40" max="40" width="7.63"/>
+    <col customWidth="1" min="41" max="41" width="10.13"/>
+    <col customWidth="1" min="42" max="42" width="6.88"/>
+    <col customWidth="1" min="43" max="43" width="9.0"/>
+    <col customWidth="1" min="44" max="44" width="10.25"/>
+    <col customWidth="1" min="45" max="45" width="9.25"/>
+    <col customWidth="1" min="46" max="46" width="25.5"/>
+    <col customWidth="1" min="47" max="47" width="10.63"/>
+    <col customWidth="1" min="48" max="48" width="10.88"/>
+    <col customWidth="1" min="49" max="49" width="10.5"/>
+    <col customWidth="1" min="50" max="51" width="13.63"/>
+    <col customWidth="1" min="52" max="53" width="13.5"/>
+    <col customWidth="1" min="54" max="55" width="25.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1">
       <c r="A1" s="103" t="s">
         <v>26</v>
       </c>
@@ -8370,7 +8483,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2">
       <c r="A2" s="108" t="s">
         <v>188</v>
       </c>
@@ -8447,7 +8560,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3">
       <c r="A3" s="108" t="s">
         <v>195</v>
       </c>
@@ -8499,10 +8612,9 @@
       <c r="AS3" s="54"/>
       <c r="AT3" s="54"/>
       <c r="AU3" s="54"/>
-      <c r="AV3" s="132" t="s">
+      <c r="AV3" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="AW3" s="133"/>
       <c r="AX3" s="54"/>
       <c r="AY3" s="54"/>
       <c r="AZ3" s="54"/>
@@ -8510,7 +8622,7 @@
       <c r="BB3" s="110"/>
       <c r="BC3" s="110"/>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4">
       <c r="A4" s="108" t="s">
         <v>202</v>
       </c>
@@ -8571,7 +8683,7 @@
       <c r="BB4" s="110"/>
       <c r="BC4" s="110"/>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5">
       <c r="A5" s="108" t="s">
         <v>204</v>
       </c>
@@ -8654,10 +8766,9 @@
       <c r="AF5" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AG5" s="132" t="s">
+      <c r="AG5" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="AH5" s="133"/>
       <c r="AI5" s="58"/>
       <c r="AJ5" s="58"/>
       <c r="AK5" s="57" t="s">
@@ -8702,7 +8813,7 @@
       <c r="BB5" s="110"/>
       <c r="BC5" s="110"/>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6">
       <c r="A6" s="111" t="s">
         <v>209</v>
       </c>
@@ -8761,7 +8872,7 @@
       <c r="BB6" s="112"/>
       <c r="BC6" s="112"/>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7">
       <c r="A7" s="62" t="s">
         <v>322</v>
       </c>
@@ -8808,7 +8919,7 @@
         <v>223</v>
       </c>
       <c r="P7" s="66">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>223</v>
@@ -8826,7 +8937,7 @@
         <v>223</v>
       </c>
       <c r="V7" s="66">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="W7" s="116" t="s">
         <v>215</v>
@@ -8933,26 +9044,25 @@
     <mergeCell ref="AV3:AW3"/>
     <mergeCell ref="AG5:AH5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="77.33203125" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="27.88"/>
+    <col customWidth="1" min="3" max="3" width="77.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="44" t="s">
         <v>338</v>
       </c>
@@ -8963,7 +9073,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="36" t="s">
         <v>341</v>
       </c>
@@ -8974,7 +9084,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3">
       <c r="A3" s="36" t="s">
         <v>341</v>
       </c>
@@ -8985,7 +9095,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4">
       <c r="A4" s="70" t="s">
         <v>25</v>
       </c>
@@ -8996,7 +9106,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5">
       <c r="A5" s="70" t="s">
         <v>25</v>
       </c>
@@ -9007,7 +9117,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6">
       <c r="A6" s="119" t="s">
         <v>350</v>
       </c>
@@ -9018,7 +9128,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7">
       <c r="A7" s="119" t="s">
         <v>350</v>
       </c>
@@ -9029,7 +9139,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8">
       <c r="A8" s="119" t="s">
         <v>350</v>
       </c>
@@ -9040,7 +9150,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9">
       <c r="A9" s="119" t="s">
         <v>350</v>
       </c>
@@ -9051,7 +9161,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10">
       <c r="A10" s="119" t="s">
         <v>350</v>
       </c>
@@ -9062,7 +9172,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11">
       <c r="A11" s="119" t="s">
         <v>350</v>
       </c>
@@ -9073,7 +9183,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12">
       <c r="A12" s="119" t="s">
         <v>350</v>
       </c>
@@ -9084,7 +9194,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13">
       <c r="A13" s="121" t="s">
         <v>365</v>
       </c>
@@ -9095,7 +9205,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14">
       <c r="A14" s="121" t="s">
         <v>365</v>
       </c>
@@ -9106,7 +9216,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15">
       <c r="A15" s="121" t="s">
         <v>365</v>
       </c>
@@ -9117,7 +9227,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16">
       <c r="A16" s="121" t="s">
         <v>365</v>
       </c>
@@ -9128,7 +9238,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17">
       <c r="A17" s="121" t="s">
         <v>365</v>
       </c>
@@ -9139,7 +9249,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18">
       <c r="A18" s="121" t="s">
         <v>365</v>
       </c>
@@ -9150,7 +9260,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19">
       <c r="A19" s="121" t="s">
         <v>365</v>
       </c>
@@ -9161,7 +9271,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20">
       <c r="A20" s="121" t="s">
         <v>365</v>
       </c>
@@ -9172,7 +9282,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21">
       <c r="A21" s="122" t="s">
         <v>379</v>
       </c>
@@ -9183,7 +9293,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22">
       <c r="A22" s="122" t="s">
         <v>379</v>
       </c>
@@ -9194,7 +9304,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23">
       <c r="A23" s="122" t="s">
         <v>379</v>
       </c>
@@ -9205,7 +9315,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24">
       <c r="A24" s="122" t="s">
         <v>379</v>
       </c>
@@ -9216,7 +9326,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25">
       <c r="A25" s="122" t="s">
         <v>379</v>
       </c>
@@ -9227,7 +9337,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26">
       <c r="A26" s="122" t="s">
         <v>379</v>
       </c>
@@ -9238,7 +9348,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27">
       <c r="A27" s="122" t="s">
         <v>379</v>
       </c>
@@ -9249,7 +9359,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28">
       <c r="A28" s="122" t="s">
         <v>379</v>
       </c>
@@ -9260,7 +9370,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29">
       <c r="A29" s="122" t="s">
         <v>379</v>
       </c>
@@ -9271,7 +9381,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30">
       <c r="A30" s="123" t="s">
         <v>396</v>
       </c>
@@ -9282,7 +9392,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31">
       <c r="A31" s="123" t="s">
         <v>396</v>
       </c>
@@ -9293,7 +9403,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32">
       <c r="A32" s="123" t="s">
         <v>396</v>
       </c>
@@ -9304,7 +9414,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33">
       <c r="A33" s="123" t="s">
         <v>396</v>
       </c>
@@ -9315,7 +9425,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
+    <row r="34">
       <c r="A34" s="36" t="s">
         <v>341</v>
       </c>
@@ -9326,7 +9436,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
+    <row r="35">
       <c r="A35" s="36" t="s">
         <v>341</v>
       </c>
@@ -9337,7 +9447,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+    <row r="36">
       <c r="A36" s="36" t="s">
         <v>341</v>
       </c>
@@ -9348,7 +9458,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
+    <row r="37">
       <c r="A37" s="36" t="s">
         <v>341</v>
       </c>
@@ -9359,7 +9469,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+    <row r="38">
       <c r="A38" s="36" t="s">
         <v>341</v>
       </c>
@@ -9370,7 +9480,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
+    <row r="39">
       <c r="A39" s="36" t="s">
         <v>341</v>
       </c>
@@ -9381,7 +9491,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
+    <row r="40">
       <c r="A40" s="36" t="s">
         <v>341</v>
       </c>
@@ -9392,7 +9502,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
+    <row r="41">
       <c r="A41" s="36" t="s">
         <v>341</v>
       </c>
@@ -9403,7 +9513,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
+    <row r="42">
       <c r="A42" s="36" t="s">
         <v>341</v>
       </c>
@@ -9414,7 +9524,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
+    <row r="43">
       <c r="A43" s="36" t="s">
         <v>341</v>
       </c>
@@ -9425,7 +9535,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
+    <row r="44">
       <c r="A44" s="36" t="s">
         <v>341</v>
       </c>
@@ -9436,7 +9546,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
+    <row r="45">
       <c r="A45" s="36" t="s">
         <v>341</v>
       </c>
@@ -9447,7 +9557,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
+    <row r="46">
       <c r="A46" s="36" t="s">
         <v>341</v>
       </c>
@@ -9458,7 +9568,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
+    <row r="47">
       <c r="A47" s="36" t="s">
         <v>341</v>
       </c>
@@ -9470,27 +9580,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="23.63"/>
+    <col customWidth="1" min="2" max="2" width="7.63"/>
+    <col customWidth="1" min="3" max="3" width="20.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1">
       <c r="A1" s="125" t="s">
         <v>433</v>
       </c>
@@ -9501,7 +9610,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2">
       <c r="A2" s="127" t="s">
         <v>436</v>
       </c>
@@ -9513,6 +9622,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.RO.ACT.xlsx
+++ b/TNR_JDD/JDD.RO.ACT.xlsx
@@ -5877,7 +5877,12 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -7783,7 +7788,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="22.25"/>
     <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="4" max="4" width="35.38"/>
+    <col customWidth="1" min="4" max="4" width="61.75"/>
     <col customWidth="1" min="6" max="6" width="20.5"/>
   </cols>
   <sheetData>
@@ -7902,6 +7907,9 @@
       <c r="D5" s="53" t="s">
         <v>303</v>
       </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="57" t="s">
         <v>304</v>
       </c>
@@ -8249,9 +8257,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D5:G5"/>
-  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -9024,13 +9029,13 @@
         <v>224</v>
       </c>
       <c r="AY7" s="63" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AZ7" s="63" t="s">
         <v>226</v>
       </c>
       <c r="BA7" s="63" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="BB7" s="36" t="s">
         <v>215</v>
